--- a/AAII_Financials/Yearly/DEO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DEO_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16634600</v>
+        <v>15847000</v>
       </c>
       <c r="E8" s="3">
-        <v>15724400</v>
+        <v>14980000</v>
       </c>
       <c r="F8" s="3">
-        <v>15578400</v>
+        <v>14840800</v>
       </c>
       <c r="G8" s="3">
-        <v>13555100</v>
+        <v>12913300</v>
       </c>
       <c r="H8" s="3">
-        <v>13979200</v>
+        <v>13317300</v>
       </c>
       <c r="I8" s="3">
-        <v>13261600</v>
+        <v>12633800</v>
       </c>
       <c r="J8" s="3">
-        <v>14612600</v>
+        <v>13920800</v>
       </c>
       <c r="K8" s="3">
         <v>13876600</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6290800</v>
+        <v>5993000</v>
       </c>
       <c r="E9" s="3">
-        <v>5990900</v>
+        <v>5707200</v>
       </c>
       <c r="F9" s="3">
-        <v>6050400</v>
+        <v>5763900</v>
       </c>
       <c r="G9" s="3">
-        <v>5495700</v>
+        <v>5235500</v>
       </c>
       <c r="H9" s="3">
-        <v>5927500</v>
+        <v>5646900</v>
       </c>
       <c r="I9" s="3">
-        <v>5179000</v>
+        <v>4933800</v>
       </c>
       <c r="J9" s="3">
-        <v>5709000</v>
+        <v>5438700</v>
       </c>
       <c r="K9" s="3">
         <v>5488500</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10343800</v>
+        <v>9854000</v>
       </c>
       <c r="E10" s="3">
-        <v>9733600</v>
+        <v>9272700</v>
       </c>
       <c r="F10" s="3">
-        <v>9528000</v>
+        <v>9076900</v>
       </c>
       <c r="G10" s="3">
-        <v>8059400</v>
+        <v>7677800</v>
       </c>
       <c r="H10" s="3">
-        <v>8051600</v>
+        <v>7670400</v>
       </c>
       <c r="I10" s="3">
-        <v>8082600</v>
+        <v>7700000</v>
       </c>
       <c r="J10" s="3">
-        <v>8903600</v>
+        <v>8482000</v>
       </c>
       <c r="K10" s="3">
         <v>8388000</v>
@@ -878,25 +878,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-90500</v>
+        <v>-86200</v>
       </c>
       <c r="E14" s="3">
-        <v>165500</v>
+        <v>157600</v>
       </c>
       <c r="F14" s="3">
-        <v>28400</v>
+        <v>27100</v>
       </c>
       <c r="G14" s="3">
-        <v>56900</v>
+        <v>54200</v>
       </c>
       <c r="H14" s="3">
-        <v>-134500</v>
+        <v>-128100</v>
       </c>
       <c r="I14" s="3">
-        <v>371000</v>
+        <v>353500</v>
       </c>
       <c r="J14" s="3">
-        <v>107300</v>
+        <v>102200</v>
       </c>
       <c r="K14" s="3">
         <v>-191700</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11234500</v>
+        <v>10702600</v>
       </c>
       <c r="E17" s="3">
-        <v>10952700</v>
+        <v>10434100</v>
       </c>
       <c r="F17" s="3">
-        <v>10951400</v>
+        <v>10432900</v>
       </c>
       <c r="G17" s="3">
-        <v>9723200</v>
+        <v>9262900</v>
       </c>
       <c r="H17" s="3">
-        <v>9880900</v>
+        <v>9413100</v>
       </c>
       <c r="I17" s="3">
-        <v>9581000</v>
+        <v>9127400</v>
       </c>
       <c r="J17" s="3">
-        <v>10350200</v>
+        <v>9860200</v>
       </c>
       <c r="K17" s="3">
         <v>9631000</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5400100</v>
+        <v>5144400</v>
       </c>
       <c r="E18" s="3">
-        <v>4771800</v>
+        <v>4545800</v>
       </c>
       <c r="F18" s="3">
-        <v>4627000</v>
+        <v>4407900</v>
       </c>
       <c r="G18" s="3">
-        <v>3831900</v>
+        <v>3650500</v>
       </c>
       <c r="H18" s="3">
-        <v>4098200</v>
+        <v>3904200</v>
       </c>
       <c r="I18" s="3">
-        <v>3680600</v>
+        <v>3506400</v>
       </c>
       <c r="J18" s="3">
-        <v>4262400</v>
+        <v>4060600</v>
       </c>
       <c r="K18" s="3">
         <v>4245500</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>692900</v>
+        <v>660100</v>
       </c>
       <c r="E20" s="3">
-        <v>574000</v>
+        <v>546800</v>
       </c>
       <c r="F20" s="3">
-        <v>557200</v>
+        <v>530800</v>
       </c>
       <c r="G20" s="3">
-        <v>456400</v>
+        <v>434800</v>
       </c>
       <c r="H20" s="3">
-        <v>376200</v>
+        <v>358400</v>
       </c>
       <c r="I20" s="3">
-        <v>412400</v>
+        <v>392900</v>
       </c>
       <c r="J20" s="3">
-        <v>338700</v>
+        <v>322700</v>
       </c>
       <c r="K20" s="3">
         <v>366500</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6579200</v>
+        <v>6262700</v>
       </c>
       <c r="E21" s="3">
-        <v>5986700</v>
+        <v>5696600</v>
       </c>
       <c r="F21" s="3">
-        <v>5653500</v>
+        <v>5380900</v>
       </c>
       <c r="G21" s="3">
-        <v>4903200</v>
+        <v>4664600</v>
       </c>
       <c r="H21" s="3">
-        <v>5046400</v>
+        <v>4801600</v>
       </c>
       <c r="I21" s="3">
-        <v>4910700</v>
+        <v>4669800</v>
       </c>
       <c r="J21" s="3">
-        <v>5118500</v>
+        <v>4870800</v>
       </c>
       <c r="K21" s="3">
         <v>5148800</v>
@@ -1083,25 +1083,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>618000</v>
+        <v>588700</v>
       </c>
       <c r="E22" s="3">
-        <v>510700</v>
+        <v>486500</v>
       </c>
       <c r="F22" s="3">
-        <v>583100</v>
+        <v>555500</v>
       </c>
       <c r="G22" s="3">
-        <v>593400</v>
+        <v>565300</v>
       </c>
       <c r="H22" s="3">
-        <v>682600</v>
+        <v>650300</v>
       </c>
       <c r="I22" s="3">
-        <v>588200</v>
+        <v>560400</v>
       </c>
       <c r="J22" s="3">
-        <v>649000</v>
+        <v>618300</v>
       </c>
       <c r="K22" s="3">
         <v>643000</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5475100</v>
+        <v>5215800</v>
       </c>
       <c r="E23" s="3">
-        <v>4835100</v>
+        <v>4606200</v>
       </c>
       <c r="F23" s="3">
-        <v>4601100</v>
+        <v>4383300</v>
       </c>
       <c r="G23" s="3">
-        <v>3694900</v>
+        <v>3519900</v>
       </c>
       <c r="H23" s="3">
-        <v>3791800</v>
+        <v>3612300</v>
       </c>
       <c r="I23" s="3">
-        <v>3504800</v>
+        <v>3338900</v>
       </c>
       <c r="J23" s="3">
-        <v>3952100</v>
+        <v>3765000</v>
       </c>
       <c r="K23" s="3">
         <v>3969000</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1160900</v>
+        <v>1106000</v>
       </c>
       <c r="E24" s="3">
-        <v>1228200</v>
+        <v>1170000</v>
       </c>
       <c r="F24" s="3">
-        <v>946300</v>
+        <v>901500</v>
       </c>
       <c r="G24" s="3">
-        <v>641200</v>
+        <v>610900</v>
       </c>
       <c r="H24" s="3">
-        <v>602400</v>
+        <v>573900</v>
       </c>
       <c r="I24" s="3">
-        <v>577900</v>
+        <v>550500</v>
       </c>
       <c r="J24" s="3">
-        <v>655500</v>
+        <v>624400</v>
       </c>
       <c r="K24" s="3">
         <v>1318700</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4314100</v>
+        <v>4109800</v>
       </c>
       <c r="E26" s="3">
-        <v>3606900</v>
+        <v>3436200</v>
       </c>
       <c r="F26" s="3">
-        <v>3654800</v>
+        <v>3481700</v>
       </c>
       <c r="G26" s="3">
-        <v>3053600</v>
+        <v>2909000</v>
       </c>
       <c r="H26" s="3">
-        <v>3189400</v>
+        <v>3038400</v>
       </c>
       <c r="I26" s="3">
-        <v>2926900</v>
+        <v>2788300</v>
       </c>
       <c r="J26" s="3">
-        <v>3296700</v>
+        <v>3140600</v>
       </c>
       <c r="K26" s="3">
         <v>2650400</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4085300</v>
+        <v>3891900</v>
       </c>
       <c r="E27" s="3">
-        <v>3449200</v>
+        <v>3285900</v>
       </c>
       <c r="F27" s="3">
-        <v>3512600</v>
+        <v>3346300</v>
       </c>
       <c r="G27" s="3">
-        <v>2901100</v>
+        <v>2763700</v>
       </c>
       <c r="H27" s="3">
-        <v>3078200</v>
+        <v>2932400</v>
       </c>
       <c r="I27" s="3">
-        <v>3013500</v>
+        <v>2870900</v>
       </c>
       <c r="J27" s="3">
-        <v>3170000</v>
+        <v>3019900</v>
       </c>
       <c r="K27" s="3">
         <v>2493800</v>
@@ -1296,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>457700</v>
+        <v>436000</v>
       </c>
       <c r="F29" s="3">
-        <v>-71100</v>
+        <v>-67700</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-107300</v>
+        <v>-102200</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-692900</v>
+        <v>-660100</v>
       </c>
       <c r="E32" s="3">
-        <v>-574000</v>
+        <v>-546800</v>
       </c>
       <c r="F32" s="3">
-        <v>-557200</v>
+        <v>-530800</v>
       </c>
       <c r="G32" s="3">
-        <v>-456400</v>
+        <v>-434800</v>
       </c>
       <c r="H32" s="3">
-        <v>-376200</v>
+        <v>-358400</v>
       </c>
       <c r="I32" s="3">
-        <v>-412400</v>
+        <v>-392900</v>
       </c>
       <c r="J32" s="3">
-        <v>-338700</v>
+        <v>-322700</v>
       </c>
       <c r="K32" s="3">
         <v>-366500</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4085300</v>
+        <v>3891900</v>
       </c>
       <c r="E33" s="3">
-        <v>3906900</v>
+        <v>3721900</v>
       </c>
       <c r="F33" s="3">
-        <v>3441500</v>
+        <v>3278500</v>
       </c>
       <c r="G33" s="3">
-        <v>2901100</v>
+        <v>2763700</v>
       </c>
       <c r="H33" s="3">
-        <v>3078200</v>
+        <v>2932400</v>
       </c>
       <c r="I33" s="3">
-        <v>2906200</v>
+        <v>2768600</v>
       </c>
       <c r="J33" s="3">
-        <v>3170000</v>
+        <v>3019900</v>
       </c>
       <c r="K33" s="3">
         <v>2479500</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4085300</v>
+        <v>3891900</v>
       </c>
       <c r="E35" s="3">
-        <v>3906900</v>
+        <v>3721900</v>
       </c>
       <c r="F35" s="3">
-        <v>3441500</v>
+        <v>3278500</v>
       </c>
       <c r="G35" s="3">
-        <v>2901100</v>
+        <v>2763700</v>
       </c>
       <c r="H35" s="3">
-        <v>3078200</v>
+        <v>2932400</v>
       </c>
       <c r="I35" s="3">
-        <v>2906200</v>
+        <v>2768600</v>
       </c>
       <c r="J35" s="3">
-        <v>3170000</v>
+        <v>3019900</v>
       </c>
       <c r="K35" s="3">
         <v>2479500</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1204900</v>
+        <v>1150500</v>
       </c>
       <c r="E41" s="3">
-        <v>1129900</v>
+        <v>1078900</v>
       </c>
       <c r="F41" s="3">
-        <v>1539700</v>
+        <v>1470200</v>
       </c>
       <c r="G41" s="3">
-        <v>1407900</v>
+        <v>1344300</v>
       </c>
       <c r="H41" s="3">
-        <v>610200</v>
+        <v>582600</v>
       </c>
       <c r="I41" s="3">
-        <v>804100</v>
+        <v>767800</v>
       </c>
       <c r="J41" s="3">
-        <v>3261800</v>
+        <v>3114400</v>
       </c>
       <c r="K41" s="3">
         <v>1403400</v>
@@ -1596,25 +1596,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>160300</v>
+        <v>153100</v>
       </c>
       <c r="E42" s="3">
-        <v>32300</v>
+        <v>30900</v>
       </c>
       <c r="F42" s="3">
-        <v>31000</v>
+        <v>29600</v>
       </c>
       <c r="G42" s="3">
-        <v>192600</v>
+        <v>183900</v>
       </c>
       <c r="H42" s="3">
-        <v>59500</v>
+        <v>56800</v>
       </c>
       <c r="I42" s="3">
-        <v>152600</v>
+        <v>145700</v>
       </c>
       <c r="J42" s="3">
-        <v>168100</v>
+        <v>160500</v>
       </c>
       <c r="K42" s="3">
         <v>54800</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3329000</v>
+        <v>3178600</v>
       </c>
       <c r="E43" s="3">
-        <v>3343200</v>
+        <v>3192200</v>
       </c>
       <c r="F43" s="3">
-        <v>3145400</v>
+        <v>3003300</v>
       </c>
       <c r="G43" s="3">
-        <v>3228100</v>
+        <v>3082300</v>
       </c>
       <c r="H43" s="3">
-        <v>2959200</v>
+        <v>2825500</v>
       </c>
       <c r="I43" s="3">
-        <v>3047200</v>
+        <v>2909500</v>
       </c>
       <c r="J43" s="3">
-        <v>2990300</v>
+        <v>2855200</v>
       </c>
       <c r="K43" s="3">
         <v>2557800</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7074300</v>
+        <v>6754600</v>
       </c>
       <c r="E44" s="3">
-        <v>6483400</v>
+        <v>6190500</v>
       </c>
       <c r="F44" s="3">
-        <v>6190000</v>
+        <v>5910300</v>
       </c>
       <c r="G44" s="3">
-        <v>5919800</v>
+        <v>5652300</v>
       </c>
       <c r="H44" s="3">
-        <v>5913300</v>
+        <v>5646100</v>
       </c>
       <c r="I44" s="3">
-        <v>5458200</v>
+        <v>5211600</v>
       </c>
       <c r="J44" s="3">
-        <v>5438900</v>
+        <v>5193100</v>
       </c>
       <c r="K44" s="3">
         <v>5158500</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>349100</v>
+        <v>333300</v>
       </c>
       <c r="E45" s="3">
-        <v>246900</v>
+        <v>235800</v>
       </c>
       <c r="F45" s="3">
-        <v>279200</v>
+        <v>266600</v>
       </c>
       <c r="G45" s="3">
-        <v>695500</v>
+        <v>664100</v>
       </c>
       <c r="H45" s="3">
-        <v>373600</v>
+        <v>356700</v>
       </c>
       <c r="I45" s="3">
-        <v>193900</v>
+        <v>185200</v>
       </c>
       <c r="J45" s="3">
-        <v>226200</v>
+        <v>216000</v>
       </c>
       <c r="K45" s="3">
         <v>285600</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12117500</v>
+        <v>11570000</v>
       </c>
       <c r="E46" s="3">
-        <v>11235800</v>
+        <v>10728200</v>
       </c>
       <c r="F46" s="3">
-        <v>11185400</v>
+        <v>10680000</v>
       </c>
       <c r="G46" s="3">
-        <v>11444000</v>
+        <v>10926900</v>
       </c>
       <c r="H46" s="3">
-        <v>9915900</v>
+        <v>9467800</v>
       </c>
       <c r="I46" s="3">
-        <v>9656000</v>
+        <v>9219700</v>
       </c>
       <c r="J46" s="3">
-        <v>11001800</v>
+        <v>10504700</v>
       </c>
       <c r="K46" s="3">
         <v>9460200</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4206800</v>
+        <v>4016700</v>
       </c>
       <c r="E47" s="3">
-        <v>4003800</v>
+        <v>3822900</v>
       </c>
       <c r="F47" s="3">
-        <v>3789200</v>
+        <v>3618000</v>
       </c>
       <c r="G47" s="3">
-        <v>3391000</v>
+        <v>3237800</v>
       </c>
       <c r="H47" s="3">
-        <v>3110500</v>
+        <v>2970000</v>
       </c>
       <c r="I47" s="3">
-        <v>4599800</v>
+        <v>4392000</v>
       </c>
       <c r="J47" s="3">
-        <v>3931400</v>
+        <v>3753800</v>
       </c>
       <c r="K47" s="3">
         <v>3807300</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5803400</v>
+        <v>5541200</v>
       </c>
       <c r="E48" s="3">
-        <v>5316000</v>
+        <v>5075900</v>
       </c>
       <c r="F48" s="3">
-        <v>5216500</v>
+        <v>4980800</v>
       </c>
       <c r="G48" s="3">
-        <v>5030300</v>
+        <v>4803100</v>
       </c>
       <c r="H48" s="3">
-        <v>4854500</v>
+        <v>4635200</v>
       </c>
       <c r="I48" s="3">
-        <v>4506700</v>
+        <v>4303100</v>
       </c>
       <c r="J48" s="3">
-        <v>1554000</v>
+        <v>1483700</v>
       </c>
       <c r="K48" s="3">
         <v>3920800</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16233800</v>
+        <v>15500400</v>
       </c>
       <c r="E49" s="3">
-        <v>16253200</v>
+        <v>15518900</v>
       </c>
       <c r="F49" s="3">
-        <v>16245500</v>
+        <v>15511500</v>
       </c>
       <c r="G49" s="3">
-        <v>15992100</v>
+        <v>15269500</v>
       </c>
       <c r="H49" s="3">
-        <v>14519500</v>
+        <v>13863500</v>
       </c>
       <c r="I49" s="3">
-        <v>10201600</v>
+        <v>9740700</v>
       </c>
       <c r="J49" s="3">
-        <v>12796200</v>
+        <v>12218100</v>
       </c>
       <c r="K49" s="3">
         <v>11505300</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2098200</v>
+        <v>2003400</v>
       </c>
       <c r="E52" s="3">
-        <v>1607000</v>
+        <v>1534400</v>
       </c>
       <c r="F52" s="3">
-        <v>858400</v>
+        <v>819600</v>
       </c>
       <c r="G52" s="3">
-        <v>976100</v>
+        <v>932000</v>
       </c>
       <c r="H52" s="3">
-        <v>959300</v>
+        <v>915900</v>
       </c>
       <c r="I52" s="3">
-        <v>724000</v>
+        <v>691300</v>
       </c>
       <c r="J52" s="3">
-        <v>1248900</v>
+        <v>1192400</v>
       </c>
       <c r="K52" s="3">
         <v>457800</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>40459800</v>
+        <v>38631800</v>
       </c>
       <c r="E54" s="3">
-        <v>38415800</v>
+        <v>36680200</v>
       </c>
       <c r="F54" s="3">
-        <v>37295000</v>
+        <v>35610000</v>
       </c>
       <c r="G54" s="3">
-        <v>36833400</v>
+        <v>35169300</v>
       </c>
       <c r="H54" s="3">
-        <v>33359700</v>
+        <v>31852500</v>
       </c>
       <c r="I54" s="3">
-        <v>29688100</v>
+        <v>28346800</v>
       </c>
       <c r="J54" s="3">
-        <v>32308600</v>
+        <v>30848900</v>
       </c>
       <c r="K54" s="3">
         <v>29151300</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2190000</v>
+        <v>2091100</v>
       </c>
       <c r="E57" s="3">
-        <v>1957300</v>
+        <v>1868900</v>
       </c>
       <c r="F57" s="3">
-        <v>1764700</v>
+        <v>1685000</v>
       </c>
       <c r="G57" s="3">
-        <v>1406600</v>
+        <v>1343000</v>
       </c>
       <c r="H57" s="3">
-        <v>1141600</v>
+        <v>1090000</v>
       </c>
       <c r="I57" s="3">
-        <v>1167400</v>
+        <v>1114700</v>
       </c>
       <c r="J57" s="3">
-        <v>1405300</v>
+        <v>1341800</v>
       </c>
       <c r="K57" s="3">
         <v>1406000</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2588200</v>
+        <v>2471300</v>
       </c>
       <c r="E58" s="3">
-        <v>2403300</v>
+        <v>2294700</v>
       </c>
       <c r="F58" s="3">
-        <v>3212600</v>
+        <v>3067500</v>
       </c>
       <c r="G58" s="3">
-        <v>2698100</v>
+        <v>2576200</v>
       </c>
       <c r="H58" s="3">
-        <v>2685200</v>
+        <v>2563800</v>
       </c>
       <c r="I58" s="3">
-        <v>2226200</v>
+        <v>2125600</v>
       </c>
       <c r="J58" s="3">
-        <v>2552000</v>
+        <v>2436700</v>
       </c>
       <c r="K58" s="3">
         <v>1751700</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4275300</v>
+        <v>4082200</v>
       </c>
       <c r="E59" s="3">
-        <v>3861600</v>
+        <v>3687200</v>
       </c>
       <c r="F59" s="3">
-        <v>3632800</v>
+        <v>3468700</v>
       </c>
       <c r="G59" s="3">
-        <v>3893900</v>
+        <v>3718000</v>
       </c>
       <c r="H59" s="3">
-        <v>3012200</v>
+        <v>2876200</v>
       </c>
       <c r="I59" s="3">
-        <v>2877800</v>
+        <v>2747800</v>
       </c>
       <c r="J59" s="3">
-        <v>3177700</v>
+        <v>3034200</v>
       </c>
       <c r="K59" s="3">
         <v>3082100</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9053500</v>
+        <v>8644500</v>
       </c>
       <c r="E60" s="3">
-        <v>8222300</v>
+        <v>7850800</v>
       </c>
       <c r="F60" s="3">
-        <v>8610100</v>
+        <v>8221100</v>
       </c>
       <c r="G60" s="3">
-        <v>7998600</v>
+        <v>7637200</v>
       </c>
       <c r="H60" s="3">
-        <v>6839000</v>
+        <v>6530000</v>
       </c>
       <c r="I60" s="3">
-        <v>6271400</v>
+        <v>5988100</v>
       </c>
       <c r="J60" s="3">
-        <v>7135000</v>
+        <v>6812700</v>
       </c>
       <c r="K60" s="3">
         <v>6239800</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13808500</v>
+        <v>13184600</v>
       </c>
       <c r="E61" s="3">
-        <v>10598500</v>
+        <v>10119600</v>
       </c>
       <c r="F61" s="3">
-        <v>8713500</v>
+        <v>8319900</v>
       </c>
       <c r="G61" s="3">
-        <v>10709600</v>
+        <v>10225800</v>
       </c>
       <c r="H61" s="3">
-        <v>10807900</v>
+        <v>10319600</v>
       </c>
       <c r="I61" s="3">
-        <v>9874500</v>
+        <v>9428300</v>
       </c>
       <c r="J61" s="3">
-        <v>10623000</v>
+        <v>10143100</v>
       </c>
       <c r="K61" s="3">
         <v>9920600</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4468000</v>
+        <v>4266100</v>
       </c>
       <c r="E62" s="3">
-        <v>4452400</v>
+        <v>4251300</v>
       </c>
       <c r="F62" s="3">
-        <v>4421400</v>
+        <v>4221600</v>
       </c>
       <c r="G62" s="3">
-        <v>5291500</v>
+        <v>5052400</v>
       </c>
       <c r="H62" s="3">
-        <v>3746600</v>
+        <v>3577300</v>
       </c>
       <c r="I62" s="3">
-        <v>3729800</v>
+        <v>3561200</v>
       </c>
       <c r="J62" s="3">
-        <v>4235200</v>
+        <v>4043900</v>
       </c>
       <c r="K62" s="3">
         <v>4107300</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>29650600</v>
+        <v>28311000</v>
       </c>
       <c r="E66" s="3">
-        <v>25555000</v>
+        <v>24400400</v>
       </c>
       <c r="F66" s="3">
-        <v>23962200</v>
+        <v>22879600</v>
       </c>
       <c r="G66" s="3">
-        <v>25805800</v>
+        <v>24639900</v>
       </c>
       <c r="H66" s="3">
-        <v>23313200</v>
+        <v>22259900</v>
       </c>
       <c r="I66" s="3">
-        <v>20867200</v>
+        <v>19924500</v>
       </c>
       <c r="J66" s="3">
-        <v>23212400</v>
+        <v>22163700</v>
       </c>
       <c r="K66" s="3">
         <v>21862800</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11767200</v>
+        <v>11235500</v>
       </c>
       <c r="E72" s="3">
-        <v>14211900</v>
+        <v>13569800</v>
       </c>
       <c r="F72" s="3">
-        <v>13958500</v>
+        <v>13327800</v>
       </c>
       <c r="G72" s="3">
-        <v>11759400</v>
+        <v>11228100</v>
       </c>
       <c r="H72" s="3">
-        <v>11645600</v>
+        <v>11119500</v>
       </c>
       <c r="I72" s="3">
-        <v>10166700</v>
+        <v>9707300</v>
       </c>
       <c r="J72" s="3">
-        <v>9203500</v>
+        <v>8787700</v>
       </c>
       <c r="K72" s="3">
         <v>3249000</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10809200</v>
+        <v>10320800</v>
       </c>
       <c r="E76" s="3">
-        <v>12860900</v>
+        <v>12279800</v>
       </c>
       <c r="F76" s="3">
-        <v>13332700</v>
+        <v>12730400</v>
       </c>
       <c r="G76" s="3">
-        <v>11027700</v>
+        <v>10529400</v>
       </c>
       <c r="H76" s="3">
-        <v>10046400</v>
+        <v>9592500</v>
       </c>
       <c r="I76" s="3">
-        <v>8820800</v>
+        <v>8422300</v>
       </c>
       <c r="J76" s="3">
-        <v>9096200</v>
+        <v>8685200</v>
       </c>
       <c r="K76" s="3">
         <v>7288500</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4085300</v>
+        <v>3891900</v>
       </c>
       <c r="E81" s="3">
-        <v>3906900</v>
+        <v>3721900</v>
       </c>
       <c r="F81" s="3">
-        <v>3441500</v>
+        <v>3278500</v>
       </c>
       <c r="G81" s="3">
-        <v>2901100</v>
+        <v>2763700</v>
       </c>
       <c r="H81" s="3">
-        <v>3078200</v>
+        <v>2932400</v>
       </c>
       <c r="I81" s="3">
-        <v>2906200</v>
+        <v>2768600</v>
       </c>
       <c r="J81" s="3">
-        <v>3170000</v>
+        <v>3019900</v>
       </c>
       <c r="K81" s="3">
         <v>2479500</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>483500</v>
+        <v>460600</v>
       </c>
       <c r="E83" s="3">
-        <v>637400</v>
+        <v>607200</v>
       </c>
       <c r="F83" s="3">
-        <v>466700</v>
+        <v>444600</v>
       </c>
       <c r="G83" s="3">
-        <v>611500</v>
+        <v>582500</v>
       </c>
       <c r="H83" s="3">
-        <v>568800</v>
+        <v>541900</v>
       </c>
       <c r="I83" s="3">
-        <v>813200</v>
+        <v>774700</v>
       </c>
       <c r="J83" s="3">
-        <v>514500</v>
+        <v>490200</v>
       </c>
       <c r="K83" s="3">
         <v>530900</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4199000</v>
+        <v>4000200</v>
       </c>
       <c r="E89" s="3">
-        <v>3987000</v>
+        <v>3798300</v>
       </c>
       <c r="F89" s="3">
-        <v>4049100</v>
+        <v>3857400</v>
       </c>
       <c r="G89" s="3">
-        <v>3294100</v>
+        <v>3138100</v>
       </c>
       <c r="H89" s="3">
-        <v>3298000</v>
+        <v>3141800</v>
       </c>
       <c r="I89" s="3">
-        <v>2314100</v>
+        <v>2204600</v>
       </c>
       <c r="J89" s="3">
-        <v>2628300</v>
+        <v>2503800</v>
       </c>
       <c r="K89" s="3">
         <v>2733800</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-867500</v>
+        <v>-826400</v>
       </c>
       <c r="E91" s="3">
-        <v>-755000</v>
+        <v>-719300</v>
       </c>
       <c r="F91" s="3">
-        <v>-669700</v>
+        <v>-638000</v>
       </c>
       <c r="G91" s="3">
-        <v>-654200</v>
+        <v>-623200</v>
       </c>
       <c r="H91" s="3">
-        <v>-824800</v>
+        <v>-785800</v>
       </c>
       <c r="I91" s="3">
-        <v>-830000</v>
+        <v>-790700</v>
       </c>
       <c r="J91" s="3">
-        <v>-822200</v>
+        <v>-783300</v>
       </c>
       <c r="K91" s="3">
         <v>-622200</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-349100</v>
+        <v>-332500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1488000</v>
+        <v>-1417600</v>
       </c>
       <c r="F94" s="3">
-        <v>-713600</v>
+        <v>-679800</v>
       </c>
       <c r="G94" s="3">
-        <v>770500</v>
+        <v>734000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1155800</v>
+        <v>-1101100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1407900</v>
+        <v>-1341200</v>
       </c>
       <c r="J94" s="3">
-        <v>-1604400</v>
+        <v>-1528400</v>
       </c>
       <c r="K94" s="3">
         <v>-2358200</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2098200</v>
+        <v>-1998900</v>
       </c>
       <c r="E96" s="3">
-        <v>-2043900</v>
+        <v>-1947200</v>
       </c>
       <c r="F96" s="3">
-        <v>-1958600</v>
+        <v>-1865900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1865500</v>
+        <v>-1777200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1733700</v>
+        <v>-1651600</v>
       </c>
       <c r="I96" s="3">
-        <v>-1587600</v>
+        <v>-1512400</v>
       </c>
       <c r="J96" s="3">
-        <v>-1454400</v>
+        <v>-1385600</v>
       </c>
       <c r="K96" s="3">
         <v>-1351300</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3780200</v>
+        <v>-3601200</v>
       </c>
       <c r="E100" s="3">
-        <v>-2738200</v>
+        <v>-2608500</v>
       </c>
       <c r="F100" s="3">
-        <v>-3177700</v>
+        <v>-3027300</v>
       </c>
       <c r="G100" s="3">
-        <v>-3621200</v>
+        <v>-3449700</v>
       </c>
       <c r="H100" s="3">
-        <v>-2241700</v>
+        <v>-2135600</v>
       </c>
       <c r="I100" s="3">
-        <v>-2096900</v>
+        <v>-1997700</v>
       </c>
       <c r="J100" s="3">
-        <v>-256000</v>
+        <v>-243900</v>
       </c>
       <c r="K100" s="3">
         <v>-1027800</v>
@@ -3215,25 +3215,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-33600</v>
+        <v>-32000</v>
       </c>
       <c r="E101" s="3">
-        <v>-50400</v>
+        <v>-48000</v>
       </c>
       <c r="F101" s="3">
-        <v>-18100</v>
+        <v>-17200</v>
       </c>
       <c r="G101" s="3">
-        <v>108600</v>
+        <v>103500</v>
       </c>
       <c r="H101" s="3">
-        <v>-94400</v>
+        <v>-89900</v>
       </c>
       <c r="I101" s="3">
-        <v>-248200</v>
+        <v>-236500</v>
       </c>
       <c r="J101" s="3">
-        <v>46500</v>
+        <v>44300</v>
       </c>
       <c r="K101" s="3">
         <v>-35200</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>36200</v>
+        <v>34500</v>
       </c>
       <c r="E102" s="3">
-        <v>-289600</v>
+        <v>-275900</v>
       </c>
       <c r="F102" s="3">
-        <v>139600</v>
+        <v>133000</v>
       </c>
       <c r="G102" s="3">
-        <v>552000</v>
+        <v>525900</v>
       </c>
       <c r="H102" s="3">
-        <v>-193900</v>
+        <v>-184700</v>
       </c>
       <c r="I102" s="3">
-        <v>-1438900</v>
+        <v>-1370800</v>
       </c>
       <c r="J102" s="3">
-        <v>814500</v>
+        <v>775900</v>
       </c>
       <c r="K102" s="3">
         <v>-687400</v>

--- a/AAII_Financials/Yearly/DEO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DEO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>DEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42916</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42551</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42185</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41820</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41455</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41090</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15847000</v>
+        <v>15521900</v>
       </c>
       <c r="E8" s="3">
-        <v>14980000</v>
+        <v>16994600</v>
       </c>
       <c r="F8" s="3">
-        <v>14840800</v>
+        <v>16064800</v>
       </c>
       <c r="G8" s="3">
-        <v>12913300</v>
+        <v>15915500</v>
       </c>
       <c r="H8" s="3">
-        <v>13317300</v>
+        <v>13848500</v>
       </c>
       <c r="I8" s="3">
-        <v>12633800</v>
+        <v>14281700</v>
       </c>
       <c r="J8" s="3">
+        <v>13548700</v>
+      </c>
+      <c r="K8" s="3">
         <v>13920800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13876600</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5993000</v>
+        <v>6147000</v>
       </c>
       <c r="E9" s="3">
-        <v>5707200</v>
+        <v>6427000</v>
       </c>
       <c r="F9" s="3">
-        <v>5763900</v>
+        <v>6120500</v>
       </c>
       <c r="G9" s="3">
-        <v>5235500</v>
+        <v>6181300</v>
       </c>
       <c r="H9" s="3">
-        <v>5646900</v>
+        <v>5614700</v>
       </c>
       <c r="I9" s="3">
-        <v>4933800</v>
+        <v>6055800</v>
       </c>
       <c r="J9" s="3">
+        <v>5291100</v>
+      </c>
+      <c r="K9" s="3">
         <v>5438700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5488500</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9854000</v>
+        <v>9375000</v>
       </c>
       <c r="E10" s="3">
-        <v>9272700</v>
+        <v>10567600</v>
       </c>
       <c r="F10" s="3">
-        <v>9076900</v>
+        <v>9944200</v>
       </c>
       <c r="G10" s="3">
-        <v>7677800</v>
+        <v>9734200</v>
       </c>
       <c r="H10" s="3">
-        <v>7670400</v>
+        <v>8233800</v>
       </c>
       <c r="I10" s="3">
-        <v>7700000</v>
+        <v>8225900</v>
       </c>
       <c r="J10" s="3">
+        <v>8257600</v>
+      </c>
+      <c r="K10" s="3">
         <v>8482000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8388000</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,39 +887,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-86200</v>
+        <v>1932300</v>
       </c>
       <c r="E14" s="3">
-        <v>157600</v>
+        <v>-92500</v>
       </c>
       <c r="F14" s="3">
-        <v>27100</v>
+        <v>169100</v>
       </c>
       <c r="G14" s="3">
-        <v>54200</v>
+        <v>29100</v>
       </c>
       <c r="H14" s="3">
-        <v>-128100</v>
+        <v>58100</v>
       </c>
       <c r="I14" s="3">
-        <v>353500</v>
+        <v>-137400</v>
       </c>
       <c r="J14" s="3">
+        <v>379100</v>
+      </c>
+      <c r="K14" s="3">
         <v>102200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-191700</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10702600</v>
+        <v>12729800</v>
       </c>
       <c r="E17" s="3">
-        <v>10434100</v>
+        <v>11477700</v>
       </c>
       <c r="F17" s="3">
-        <v>10432900</v>
+        <v>11189700</v>
       </c>
       <c r="G17" s="3">
-        <v>9262900</v>
+        <v>11188400</v>
       </c>
       <c r="H17" s="3">
-        <v>9413100</v>
+        <v>9933700</v>
       </c>
       <c r="I17" s="3">
-        <v>9127400</v>
+        <v>10094800</v>
       </c>
       <c r="J17" s="3">
+        <v>9788400</v>
+      </c>
+      <c r="K17" s="3">
         <v>9860200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9631000</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5144400</v>
+        <v>2792200</v>
       </c>
       <c r="E18" s="3">
-        <v>4545800</v>
+        <v>5516900</v>
       </c>
       <c r="F18" s="3">
-        <v>4407900</v>
+        <v>4875000</v>
       </c>
       <c r="G18" s="3">
-        <v>3650500</v>
+        <v>4727100</v>
       </c>
       <c r="H18" s="3">
-        <v>3904200</v>
+        <v>3914800</v>
       </c>
       <c r="I18" s="3">
-        <v>3506400</v>
+        <v>4186900</v>
       </c>
       <c r="J18" s="3">
+        <v>3760300</v>
+      </c>
+      <c r="K18" s="3">
         <v>4060600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4245500</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>660100</v>
+        <v>599600</v>
       </c>
       <c r="E20" s="3">
-        <v>546800</v>
+        <v>707900</v>
       </c>
       <c r="F20" s="3">
-        <v>530800</v>
+        <v>586400</v>
       </c>
       <c r="G20" s="3">
-        <v>434800</v>
+        <v>569300</v>
       </c>
       <c r="H20" s="3">
-        <v>358400</v>
+        <v>466200</v>
       </c>
       <c r="I20" s="3">
-        <v>392900</v>
+        <v>384300</v>
       </c>
       <c r="J20" s="3">
+        <v>421300</v>
+      </c>
+      <c r="K20" s="3">
         <v>322700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>366500</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6262700</v>
+        <v>5810100</v>
       </c>
       <c r="E21" s="3">
-        <v>5696600</v>
+        <v>6716700</v>
       </c>
       <c r="F21" s="3">
-        <v>5380900</v>
+        <v>6109800</v>
       </c>
       <c r="G21" s="3">
-        <v>4664600</v>
+        <v>5771100</v>
       </c>
       <c r="H21" s="3">
-        <v>4801600</v>
+        <v>5003100</v>
       </c>
       <c r="I21" s="3">
-        <v>4669800</v>
+        <v>5149800</v>
       </c>
       <c r="J21" s="3">
+        <v>5008700</v>
+      </c>
+      <c r="K21" s="3">
         <v>4870800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5148800</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>588700</v>
+        <v>693400</v>
       </c>
       <c r="E22" s="3">
-        <v>486500</v>
+        <v>631300</v>
       </c>
       <c r="F22" s="3">
-        <v>555500</v>
+        <v>521700</v>
       </c>
       <c r="G22" s="3">
-        <v>565300</v>
+        <v>595700</v>
       </c>
       <c r="H22" s="3">
-        <v>650300</v>
+        <v>606200</v>
       </c>
       <c r="I22" s="3">
-        <v>560400</v>
+        <v>697400</v>
       </c>
       <c r="J22" s="3">
+        <v>601000</v>
+      </c>
+      <c r="K22" s="3">
         <v>618300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>643000</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5215800</v>
+        <v>2698400</v>
       </c>
       <c r="E23" s="3">
-        <v>4606200</v>
+        <v>5593500</v>
       </c>
       <c r="F23" s="3">
-        <v>4383300</v>
+        <v>4939800</v>
       </c>
       <c r="G23" s="3">
-        <v>3519900</v>
+        <v>4700700</v>
       </c>
       <c r="H23" s="3">
-        <v>3612300</v>
+        <v>3774800</v>
       </c>
       <c r="I23" s="3">
-        <v>3338900</v>
+        <v>3873900</v>
       </c>
       <c r="J23" s="3">
+        <v>3580700</v>
+      </c>
+      <c r="K23" s="3">
         <v>3765000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3969000</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1106000</v>
+        <v>777900</v>
       </c>
       <c r="E24" s="3">
-        <v>1170000</v>
+        <v>1186100</v>
       </c>
       <c r="F24" s="3">
-        <v>901500</v>
+        <v>1254800</v>
       </c>
       <c r="G24" s="3">
-        <v>610900</v>
+        <v>966800</v>
       </c>
       <c r="H24" s="3">
-        <v>573900</v>
+        <v>655100</v>
       </c>
       <c r="I24" s="3">
-        <v>550500</v>
+        <v>615500</v>
       </c>
       <c r="J24" s="3">
+        <v>590400</v>
+      </c>
+      <c r="K24" s="3">
         <v>624400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1318700</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4109800</v>
+        <v>1920400</v>
       </c>
       <c r="E26" s="3">
-        <v>3436200</v>
+        <v>4407500</v>
       </c>
       <c r="F26" s="3">
-        <v>3481700</v>
+        <v>3685000</v>
       </c>
       <c r="G26" s="3">
-        <v>2909000</v>
+        <v>3733900</v>
       </c>
       <c r="H26" s="3">
-        <v>3038400</v>
+        <v>3119700</v>
       </c>
       <c r="I26" s="3">
-        <v>2788300</v>
+        <v>3258400</v>
       </c>
       <c r="J26" s="3">
+        <v>2990300</v>
+      </c>
+      <c r="K26" s="3">
         <v>3140600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2650400</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3891900</v>
+        <v>1861000</v>
       </c>
       <c r="E27" s="3">
-        <v>3285900</v>
+        <v>4173700</v>
       </c>
       <c r="F27" s="3">
-        <v>3346300</v>
+        <v>3523900</v>
       </c>
       <c r="G27" s="3">
-        <v>2763700</v>
+        <v>3588600</v>
       </c>
       <c r="H27" s="3">
-        <v>2932400</v>
+        <v>2963900</v>
       </c>
       <c r="I27" s="3">
-        <v>2870900</v>
+        <v>3144800</v>
       </c>
       <c r="J27" s="3">
+        <v>3078800</v>
+      </c>
+      <c r="K27" s="3">
         <v>3019900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2493800</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,39 +1343,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>436000</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-67700</v>
+        <v>467600</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>-72600</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-102200</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
+        <v>-109600</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-14300</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-660100</v>
+        <v>-599600</v>
       </c>
       <c r="E32" s="3">
-        <v>-546800</v>
+        <v>-707900</v>
       </c>
       <c r="F32" s="3">
-        <v>-530800</v>
+        <v>-586400</v>
       </c>
       <c r="G32" s="3">
-        <v>-434800</v>
+        <v>-569300</v>
       </c>
       <c r="H32" s="3">
-        <v>-358400</v>
+        <v>-466200</v>
       </c>
       <c r="I32" s="3">
-        <v>-392900</v>
+        <v>-384300</v>
       </c>
       <c r="J32" s="3">
+        <v>-421300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-322700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-366500</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3891900</v>
+        <v>1861000</v>
       </c>
       <c r="E33" s="3">
-        <v>3721900</v>
+        <v>4173700</v>
       </c>
       <c r="F33" s="3">
-        <v>3278500</v>
+        <v>3991400</v>
       </c>
       <c r="G33" s="3">
-        <v>2763700</v>
+        <v>3515900</v>
       </c>
       <c r="H33" s="3">
-        <v>2932400</v>
+        <v>2963900</v>
       </c>
       <c r="I33" s="3">
-        <v>2768600</v>
+        <v>3144800</v>
       </c>
       <c r="J33" s="3">
+        <v>2969100</v>
+      </c>
+      <c r="K33" s="3">
         <v>3019900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2479500</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3891900</v>
+        <v>1861000</v>
       </c>
       <c r="E35" s="3">
-        <v>3721900</v>
+        <v>4173700</v>
       </c>
       <c r="F35" s="3">
-        <v>3278500</v>
+        <v>3991400</v>
       </c>
       <c r="G35" s="3">
-        <v>2763700</v>
+        <v>3515900</v>
       </c>
       <c r="H35" s="3">
-        <v>2932400</v>
+        <v>2963900</v>
       </c>
       <c r="I35" s="3">
-        <v>2768600</v>
+        <v>3144800</v>
       </c>
       <c r="J35" s="3">
+        <v>2969100</v>
+      </c>
+      <c r="K35" s="3">
         <v>3019900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2479500</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42916</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42551</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42185</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41820</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41455</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41090</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1150500</v>
+        <v>4389000</v>
       </c>
       <c r="E41" s="3">
-        <v>1078900</v>
+        <v>1231000</v>
       </c>
       <c r="F41" s="3">
-        <v>1470200</v>
+        <v>1154400</v>
       </c>
       <c r="G41" s="3">
-        <v>1344300</v>
+        <v>1573100</v>
       </c>
       <c r="H41" s="3">
-        <v>582600</v>
+        <v>1438300</v>
       </c>
       <c r="I41" s="3">
-        <v>767800</v>
+        <v>623400</v>
       </c>
       <c r="J41" s="3">
+        <v>821500</v>
+      </c>
+      <c r="K41" s="3">
         <v>3114400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1403400</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>153100</v>
+        <v>96400</v>
       </c>
       <c r="E42" s="3">
-        <v>30900</v>
+        <v>163800</v>
       </c>
       <c r="F42" s="3">
-        <v>29600</v>
+        <v>33000</v>
       </c>
       <c r="G42" s="3">
-        <v>183900</v>
+        <v>31700</v>
       </c>
       <c r="H42" s="3">
-        <v>56800</v>
+        <v>196800</v>
       </c>
       <c r="I42" s="3">
-        <v>145700</v>
+        <v>60800</v>
       </c>
       <c r="J42" s="3">
+        <v>155900</v>
+      </c>
+      <c r="K42" s="3">
         <v>160500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>54800</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3178600</v>
+        <v>2831800</v>
       </c>
       <c r="E43" s="3">
-        <v>3192200</v>
+        <v>3401000</v>
       </c>
       <c r="F43" s="3">
-        <v>3003300</v>
+        <v>3415600</v>
       </c>
       <c r="G43" s="3">
-        <v>3082300</v>
+        <v>3213500</v>
       </c>
       <c r="H43" s="3">
-        <v>2825500</v>
+        <v>3298000</v>
       </c>
       <c r="I43" s="3">
-        <v>2909500</v>
+        <v>3023300</v>
       </c>
       <c r="J43" s="3">
+        <v>3113100</v>
+      </c>
+      <c r="K43" s="3">
         <v>2855200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2557800</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6754600</v>
+        <v>7623600</v>
       </c>
       <c r="E44" s="3">
-        <v>6190500</v>
+        <v>7227400</v>
       </c>
       <c r="F44" s="3">
-        <v>5910300</v>
+        <v>6623800</v>
       </c>
       <c r="G44" s="3">
-        <v>5652300</v>
+        <v>6323900</v>
       </c>
       <c r="H44" s="3">
-        <v>5646100</v>
+        <v>6047900</v>
       </c>
       <c r="I44" s="3">
-        <v>5211600</v>
+        <v>6041300</v>
       </c>
       <c r="J44" s="3">
+        <v>5576400</v>
+      </c>
+      <c r="K44" s="3">
         <v>5193100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5158500</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>333300</v>
+        <v>210000</v>
       </c>
       <c r="E45" s="3">
-        <v>235800</v>
+        <v>356600</v>
       </c>
       <c r="F45" s="3">
-        <v>266600</v>
+        <v>252300</v>
       </c>
       <c r="G45" s="3">
-        <v>664100</v>
+        <v>285300</v>
       </c>
       <c r="H45" s="3">
-        <v>356700</v>
+        <v>710600</v>
       </c>
       <c r="I45" s="3">
-        <v>185200</v>
+        <v>381700</v>
       </c>
       <c r="J45" s="3">
+        <v>198100</v>
+      </c>
+      <c r="K45" s="3">
         <v>216000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>285600</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11570000</v>
+        <v>15150800</v>
       </c>
       <c r="E46" s="3">
-        <v>10728200</v>
+        <v>12379800</v>
       </c>
       <c r="F46" s="3">
-        <v>10680000</v>
+        <v>11479000</v>
       </c>
       <c r="G46" s="3">
-        <v>10926900</v>
+        <v>11427500</v>
       </c>
       <c r="H46" s="3">
-        <v>9467800</v>
+        <v>11691600</v>
       </c>
       <c r="I46" s="3">
-        <v>9219700</v>
+        <v>10130500</v>
       </c>
       <c r="J46" s="3">
+        <v>9865000</v>
+      </c>
+      <c r="K46" s="3">
         <v>10504700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9460200</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4016700</v>
+        <v>4789200</v>
       </c>
       <c r="E47" s="3">
-        <v>3822900</v>
+        <v>4297900</v>
       </c>
       <c r="F47" s="3">
-        <v>3618000</v>
+        <v>4090500</v>
       </c>
       <c r="G47" s="3">
-        <v>3237800</v>
+        <v>3871200</v>
       </c>
       <c r="H47" s="3">
-        <v>2970000</v>
+        <v>3464400</v>
       </c>
       <c r="I47" s="3">
-        <v>4392000</v>
+        <v>3321800</v>
       </c>
       <c r="J47" s="3">
+        <v>4782600</v>
+      </c>
+      <c r="K47" s="3">
         <v>3753800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3807300</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5541200</v>
+        <v>6573600</v>
       </c>
       <c r="E48" s="3">
-        <v>5075900</v>
+        <v>5929000</v>
       </c>
       <c r="F48" s="3">
-        <v>4980800</v>
+        <v>5431100</v>
       </c>
       <c r="G48" s="3">
-        <v>4803100</v>
+        <v>5329400</v>
       </c>
       <c r="H48" s="3">
-        <v>4635200</v>
+        <v>5139200</v>
       </c>
       <c r="I48" s="3">
-        <v>4303100</v>
+        <v>4959600</v>
       </c>
       <c r="J48" s="3">
+        <v>4604300</v>
+      </c>
+      <c r="K48" s="3">
         <v>1483700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3920800</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15500400</v>
+        <v>14924900</v>
       </c>
       <c r="E49" s="3">
-        <v>15518900</v>
+        <v>16585200</v>
       </c>
       <c r="F49" s="3">
-        <v>15511500</v>
+        <v>16605000</v>
       </c>
       <c r="G49" s="3">
-        <v>15269500</v>
+        <v>16597000</v>
       </c>
       <c r="H49" s="3">
-        <v>13863500</v>
+        <v>16338200</v>
       </c>
       <c r="I49" s="3">
-        <v>9740700</v>
+        <v>14833800</v>
       </c>
       <c r="J49" s="3">
+        <v>10422400</v>
+      </c>
+      <c r="K49" s="3">
         <v>12218100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11505300</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2003400</v>
+        <v>2554400</v>
       </c>
       <c r="E52" s="3">
-        <v>1534400</v>
+        <v>2143600</v>
       </c>
       <c r="F52" s="3">
-        <v>819600</v>
+        <v>1641700</v>
       </c>
       <c r="G52" s="3">
-        <v>932000</v>
+        <v>877000</v>
       </c>
       <c r="H52" s="3">
-        <v>915900</v>
+        <v>997200</v>
       </c>
       <c r="I52" s="3">
-        <v>691300</v>
+        <v>836100</v>
       </c>
       <c r="J52" s="3">
+        <v>656400</v>
+      </c>
+      <c r="K52" s="3">
         <v>1192400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>457800</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>38631800</v>
+        <v>43992900</v>
       </c>
       <c r="E54" s="3">
-        <v>36680200</v>
+        <v>41335400</v>
       </c>
       <c r="F54" s="3">
-        <v>35610000</v>
+        <v>39247300</v>
       </c>
       <c r="G54" s="3">
-        <v>35169300</v>
+        <v>38102100</v>
       </c>
       <c r="H54" s="3">
-        <v>31852500</v>
+        <v>37630600</v>
       </c>
       <c r="I54" s="3">
-        <v>28346800</v>
+        <v>34081700</v>
       </c>
       <c r="J54" s="3">
+        <v>30330600</v>
+      </c>
+      <c r="K54" s="3">
         <v>30848900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>29151300</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2091100</v>
+        <v>1760600</v>
       </c>
       <c r="E57" s="3">
-        <v>1868900</v>
+        <v>2237400</v>
       </c>
       <c r="F57" s="3">
-        <v>1685000</v>
+        <v>1999700</v>
       </c>
       <c r="G57" s="3">
-        <v>1343000</v>
+        <v>1802900</v>
       </c>
       <c r="H57" s="3">
-        <v>1090000</v>
+        <v>1437000</v>
       </c>
       <c r="I57" s="3">
-        <v>1114700</v>
+        <v>1166300</v>
       </c>
       <c r="J57" s="3">
+        <v>1192700</v>
+      </c>
+      <c r="K57" s="3">
         <v>1341800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1406000</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2471300</v>
+        <v>2775000</v>
       </c>
       <c r="E58" s="3">
-        <v>2294700</v>
+        <v>2644200</v>
       </c>
       <c r="F58" s="3">
-        <v>3067500</v>
+        <v>2455300</v>
       </c>
       <c r="G58" s="3">
-        <v>2576200</v>
+        <v>3282200</v>
       </c>
       <c r="H58" s="3">
-        <v>2563800</v>
+        <v>2756500</v>
       </c>
       <c r="I58" s="3">
-        <v>2125600</v>
+        <v>2743300</v>
       </c>
       <c r="J58" s="3">
+        <v>2274400</v>
+      </c>
+      <c r="K58" s="3">
         <v>2436700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1751700</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4082200</v>
+        <v>4044300</v>
       </c>
       <c r="E59" s="3">
-        <v>3687200</v>
+        <v>4367900</v>
       </c>
       <c r="F59" s="3">
-        <v>3468700</v>
+        <v>3945200</v>
       </c>
       <c r="G59" s="3">
-        <v>3718000</v>
+        <v>3711400</v>
       </c>
       <c r="H59" s="3">
-        <v>2876200</v>
+        <v>3978200</v>
       </c>
       <c r="I59" s="3">
-        <v>2747800</v>
+        <v>3077400</v>
       </c>
       <c r="J59" s="3">
+        <v>2940100</v>
+      </c>
+      <c r="K59" s="3">
         <v>3034200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3082100</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8644500</v>
+        <v>8579900</v>
       </c>
       <c r="E60" s="3">
-        <v>7850800</v>
+        <v>9249500</v>
       </c>
       <c r="F60" s="3">
-        <v>8221100</v>
+        <v>8400200</v>
       </c>
       <c r="G60" s="3">
-        <v>7637200</v>
+        <v>8796500</v>
       </c>
       <c r="H60" s="3">
-        <v>6530000</v>
+        <v>8171700</v>
       </c>
       <c r="I60" s="3">
-        <v>5988100</v>
+        <v>6987000</v>
       </c>
       <c r="J60" s="3">
+        <v>6407200</v>
+      </c>
+      <c r="K60" s="3">
         <v>6812700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6239800</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13184600</v>
+        <v>20015300</v>
       </c>
       <c r="E61" s="3">
-        <v>10119600</v>
+        <v>14107400</v>
       </c>
       <c r="F61" s="3">
-        <v>8319900</v>
+        <v>10827800</v>
       </c>
       <c r="G61" s="3">
-        <v>10225800</v>
+        <v>8902100</v>
       </c>
       <c r="H61" s="3">
-        <v>10319600</v>
+        <v>10941400</v>
       </c>
       <c r="I61" s="3">
-        <v>9428300</v>
+        <v>11041800</v>
       </c>
       <c r="J61" s="3">
+        <v>10088200</v>
+      </c>
+      <c r="K61" s="3">
         <v>10143100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9920600</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4266100</v>
+        <v>4250300</v>
       </c>
       <c r="E62" s="3">
-        <v>4251300</v>
+        <v>4564700</v>
       </c>
       <c r="F62" s="3">
-        <v>4221600</v>
+        <v>4548800</v>
       </c>
       <c r="G62" s="3">
-        <v>5052400</v>
+        <v>4517100</v>
       </c>
       <c r="H62" s="3">
-        <v>3577300</v>
+        <v>5406000</v>
       </c>
       <c r="I62" s="3">
-        <v>3561200</v>
+        <v>3827600</v>
       </c>
       <c r="J62" s="3">
+        <v>3810500</v>
+      </c>
+      <c r="K62" s="3">
         <v>4043900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4107300</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>28311000</v>
+        <v>35048500</v>
       </c>
       <c r="E66" s="3">
-        <v>24400400</v>
+        <v>30292300</v>
       </c>
       <c r="F66" s="3">
-        <v>22879600</v>
+        <v>26108100</v>
       </c>
       <c r="G66" s="3">
-        <v>24639900</v>
+        <v>24480800</v>
       </c>
       <c r="H66" s="3">
-        <v>22259900</v>
+        <v>26364300</v>
       </c>
       <c r="I66" s="3">
-        <v>19924500</v>
+        <v>23817800</v>
       </c>
       <c r="J66" s="3">
+        <v>21318900</v>
+      </c>
+      <c r="K66" s="3">
         <v>22163700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>21862800</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11235500</v>
+        <v>9964000</v>
       </c>
       <c r="E72" s="3">
-        <v>13569800</v>
+        <v>12021800</v>
       </c>
       <c r="F72" s="3">
-        <v>13327800</v>
+        <v>14519400</v>
       </c>
       <c r="G72" s="3">
-        <v>11228100</v>
+        <v>14260600</v>
       </c>
       <c r="H72" s="3">
-        <v>11119500</v>
+        <v>12013900</v>
       </c>
       <c r="I72" s="3">
-        <v>9707300</v>
+        <v>11897700</v>
       </c>
       <c r="J72" s="3">
+        <v>10386700</v>
+      </c>
+      <c r="K72" s="3">
         <v>8787700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3249000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10320800</v>
+        <v>8944400</v>
       </c>
       <c r="E76" s="3">
-        <v>12279800</v>
+        <v>11043100</v>
       </c>
       <c r="F76" s="3">
-        <v>12730400</v>
+        <v>13139200</v>
       </c>
       <c r="G76" s="3">
-        <v>10529400</v>
+        <v>13621300</v>
       </c>
       <c r="H76" s="3">
-        <v>9592500</v>
+        <v>11266300</v>
       </c>
       <c r="I76" s="3">
-        <v>8422300</v>
+        <v>10263900</v>
       </c>
       <c r="J76" s="3">
+        <v>9011800</v>
+      </c>
+      <c r="K76" s="3">
         <v>8685200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7288500</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42916</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42551</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42185</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41820</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41455</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41090</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3891900</v>
+        <v>1861000</v>
       </c>
       <c r="E81" s="3">
-        <v>3721900</v>
+        <v>4173700</v>
       </c>
       <c r="F81" s="3">
-        <v>3278500</v>
+        <v>3991400</v>
       </c>
       <c r="G81" s="3">
-        <v>2763700</v>
+        <v>3515900</v>
       </c>
       <c r="H81" s="3">
-        <v>2932400</v>
+        <v>2963900</v>
       </c>
       <c r="I81" s="3">
-        <v>2768600</v>
+        <v>3144800</v>
       </c>
       <c r="J81" s="3">
+        <v>2969100</v>
+      </c>
+      <c r="K81" s="3">
         <v>3019900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2479500</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>460600</v>
+        <v>2428900</v>
       </c>
       <c r="E83" s="3">
-        <v>607200</v>
+        <v>494000</v>
       </c>
       <c r="F83" s="3">
-        <v>444600</v>
+        <v>651100</v>
       </c>
       <c r="G83" s="3">
-        <v>582500</v>
+        <v>476800</v>
       </c>
       <c r="H83" s="3">
-        <v>541900</v>
+        <v>624700</v>
       </c>
       <c r="I83" s="3">
-        <v>774700</v>
+        <v>581100</v>
       </c>
       <c r="J83" s="3">
+        <v>830800</v>
+      </c>
+      <c r="K83" s="3">
         <v>490200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>530900</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4000200</v>
+        <v>3064200</v>
       </c>
       <c r="E89" s="3">
-        <v>3798300</v>
+        <v>4289900</v>
       </c>
       <c r="F89" s="3">
-        <v>3857400</v>
+        <v>4073300</v>
       </c>
       <c r="G89" s="3">
-        <v>3138100</v>
+        <v>4136700</v>
       </c>
       <c r="H89" s="3">
-        <v>3141800</v>
+        <v>3365400</v>
       </c>
       <c r="I89" s="3">
-        <v>2204600</v>
+        <v>3369300</v>
       </c>
       <c r="J89" s="3">
+        <v>2364200</v>
+      </c>
+      <c r="K89" s="3">
         <v>2503800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2733800</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-826400</v>
+        <v>-924600</v>
       </c>
       <c r="E91" s="3">
-        <v>-719300</v>
+        <v>-886300</v>
       </c>
       <c r="F91" s="3">
-        <v>-638000</v>
+        <v>-771300</v>
       </c>
       <c r="G91" s="3">
-        <v>-623200</v>
+        <v>-684200</v>
       </c>
       <c r="H91" s="3">
-        <v>-785800</v>
+        <v>-668300</v>
       </c>
       <c r="I91" s="3">
-        <v>-790700</v>
+        <v>-842700</v>
       </c>
       <c r="J91" s="3">
+        <v>-847900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-783300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-622200</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-332500</v>
+        <v>-1063200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1417600</v>
+        <v>-356600</v>
       </c>
       <c r="F94" s="3">
-        <v>-679800</v>
+        <v>-1520200</v>
       </c>
       <c r="G94" s="3">
-        <v>734000</v>
+        <v>-729100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1101100</v>
+        <v>787200</v>
       </c>
       <c r="I94" s="3">
-        <v>-1341200</v>
+        <v>-1180800</v>
       </c>
       <c r="J94" s="3">
+        <v>-1438300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1528400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2358200</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1998900</v>
+        <v>-2174000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1947200</v>
+        <v>-2143600</v>
       </c>
       <c r="F96" s="3">
-        <v>-1865900</v>
+        <v>-2088200</v>
       </c>
       <c r="G96" s="3">
-        <v>-1777200</v>
+        <v>-2001000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1651600</v>
+        <v>-1905900</v>
       </c>
       <c r="I96" s="3">
-        <v>-1512400</v>
+        <v>-1771200</v>
       </c>
       <c r="J96" s="3">
+        <v>-1621900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1385600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1351300</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3601200</v>
+        <v>1369700</v>
       </c>
       <c r="E100" s="3">
-        <v>-2608500</v>
+        <v>-3862000</v>
       </c>
       <c r="F100" s="3">
-        <v>-3027300</v>
+        <v>-2797400</v>
       </c>
       <c r="G100" s="3">
-        <v>-3449700</v>
+        <v>-3246500</v>
       </c>
       <c r="H100" s="3">
-        <v>-2135600</v>
+        <v>-3699500</v>
       </c>
       <c r="I100" s="3">
-        <v>-1997700</v>
+        <v>-2290200</v>
       </c>
       <c r="J100" s="3">
+        <v>-2142300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-243900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1027800</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-32000</v>
+        <v>-158500</v>
       </c>
       <c r="E101" s="3">
-        <v>-48000</v>
+        <v>-34300</v>
       </c>
       <c r="F101" s="3">
-        <v>-17200</v>
+        <v>-51500</v>
       </c>
       <c r="G101" s="3">
-        <v>103500</v>
+        <v>-18500</v>
       </c>
       <c r="H101" s="3">
-        <v>-89900</v>
+        <v>110900</v>
       </c>
       <c r="I101" s="3">
-        <v>-236500</v>
+        <v>-96400</v>
       </c>
       <c r="J101" s="3">
+        <v>-253600</v>
+      </c>
+      <c r="K101" s="3">
         <v>44300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-35200</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>34500</v>
+        <v>3212200</v>
       </c>
       <c r="E102" s="3">
-        <v>-275900</v>
+        <v>37000</v>
       </c>
       <c r="F102" s="3">
-        <v>133000</v>
+        <v>-295900</v>
       </c>
       <c r="G102" s="3">
-        <v>525900</v>
+        <v>142600</v>
       </c>
       <c r="H102" s="3">
-        <v>-184700</v>
+        <v>564000</v>
       </c>
       <c r="I102" s="3">
-        <v>-1370800</v>
+        <v>-198100</v>
       </c>
       <c r="J102" s="3">
+        <v>-1470000</v>
+      </c>
+      <c r="K102" s="3">
         <v>775900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-687400</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DEO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DEO_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15521900</v>
+        <v>15646600</v>
       </c>
       <c r="E8" s="3">
-        <v>16994600</v>
+        <v>17131100</v>
       </c>
       <c r="F8" s="3">
-        <v>16064800</v>
+        <v>16193800</v>
       </c>
       <c r="G8" s="3">
-        <v>15915500</v>
+        <v>16043400</v>
       </c>
       <c r="H8" s="3">
-        <v>13848500</v>
+        <v>13959700</v>
       </c>
       <c r="I8" s="3">
-        <v>14281700</v>
+        <v>14396400</v>
       </c>
       <c r="J8" s="3">
-        <v>13548700</v>
+        <v>13657500</v>
       </c>
       <c r="K8" s="3">
         <v>13920800</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6147000</v>
+        <v>6196300</v>
       </c>
       <c r="E9" s="3">
-        <v>6427000</v>
+        <v>6478600</v>
       </c>
       <c r="F9" s="3">
-        <v>6120500</v>
+        <v>6169700</v>
       </c>
       <c r="G9" s="3">
-        <v>6181300</v>
+        <v>6231000</v>
       </c>
       <c r="H9" s="3">
-        <v>5614700</v>
+        <v>5659800</v>
       </c>
       <c r="I9" s="3">
-        <v>6055800</v>
+        <v>6104500</v>
       </c>
       <c r="J9" s="3">
-        <v>5291100</v>
+        <v>5333600</v>
       </c>
       <c r="K9" s="3">
         <v>5438700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9375000</v>
+        <v>9450300</v>
       </c>
       <c r="E10" s="3">
-        <v>10567600</v>
+        <v>10652500</v>
       </c>
       <c r="F10" s="3">
-        <v>9944200</v>
+        <v>10024100</v>
       </c>
       <c r="G10" s="3">
-        <v>9734200</v>
+        <v>9812400</v>
       </c>
       <c r="H10" s="3">
-        <v>8233800</v>
+        <v>8299900</v>
       </c>
       <c r="I10" s="3">
-        <v>8225900</v>
+        <v>8292000</v>
       </c>
       <c r="J10" s="3">
-        <v>8257600</v>
+        <v>8323900</v>
       </c>
       <c r="K10" s="3">
         <v>8482000</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1932300</v>
+        <v>1947800</v>
       </c>
       <c r="E14" s="3">
-        <v>-92500</v>
+        <v>-93200</v>
       </c>
       <c r="F14" s="3">
-        <v>169100</v>
+        <v>170400</v>
       </c>
       <c r="G14" s="3">
-        <v>29100</v>
+        <v>29300</v>
       </c>
       <c r="H14" s="3">
-        <v>58100</v>
+        <v>58600</v>
       </c>
       <c r="I14" s="3">
-        <v>-137400</v>
+        <v>-138500</v>
       </c>
       <c r="J14" s="3">
-        <v>379100</v>
+        <v>382100</v>
       </c>
       <c r="K14" s="3">
         <v>102200</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12729800</v>
+        <v>12832000</v>
       </c>
       <c r="E17" s="3">
-        <v>11477700</v>
+        <v>11569900</v>
       </c>
       <c r="F17" s="3">
-        <v>11189700</v>
+        <v>11279600</v>
       </c>
       <c r="G17" s="3">
-        <v>11188400</v>
+        <v>11278300</v>
       </c>
       <c r="H17" s="3">
-        <v>9933700</v>
+        <v>10013500</v>
       </c>
       <c r="I17" s="3">
-        <v>10094800</v>
+        <v>10175900</v>
       </c>
       <c r="J17" s="3">
-        <v>9788400</v>
+        <v>9867000</v>
       </c>
       <c r="K17" s="3">
         <v>9860200</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2792200</v>
+        <v>2814600</v>
       </c>
       <c r="E18" s="3">
-        <v>5516900</v>
+        <v>5561300</v>
       </c>
       <c r="F18" s="3">
-        <v>4875000</v>
+        <v>4914200</v>
       </c>
       <c r="G18" s="3">
-        <v>4727100</v>
+        <v>4765100</v>
       </c>
       <c r="H18" s="3">
-        <v>3914800</v>
+        <v>3946300</v>
       </c>
       <c r="I18" s="3">
-        <v>4186900</v>
+        <v>4220500</v>
       </c>
       <c r="J18" s="3">
-        <v>3760300</v>
+        <v>3790500</v>
       </c>
       <c r="K18" s="3">
         <v>4060600</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>599600</v>
+        <v>604500</v>
       </c>
       <c r="E20" s="3">
-        <v>707900</v>
+        <v>713600</v>
       </c>
       <c r="F20" s="3">
-        <v>586400</v>
+        <v>591100</v>
       </c>
       <c r="G20" s="3">
-        <v>569300</v>
+        <v>573800</v>
       </c>
       <c r="H20" s="3">
-        <v>466200</v>
+        <v>470000</v>
       </c>
       <c r="I20" s="3">
-        <v>384300</v>
+        <v>387400</v>
       </c>
       <c r="J20" s="3">
-        <v>421300</v>
+        <v>424700</v>
       </c>
       <c r="K20" s="3">
         <v>322700</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5810100</v>
+        <v>5875000</v>
       </c>
       <c r="E21" s="3">
-        <v>6716700</v>
+        <v>6774400</v>
       </c>
       <c r="F21" s="3">
-        <v>6109800</v>
+        <v>6163700</v>
       </c>
       <c r="G21" s="3">
-        <v>5771100</v>
+        <v>5821000</v>
       </c>
       <c r="H21" s="3">
-        <v>5003100</v>
+        <v>5048000</v>
       </c>
       <c r="I21" s="3">
-        <v>5149800</v>
+        <v>5195600</v>
       </c>
       <c r="J21" s="3">
-        <v>5008700</v>
+        <v>5055200</v>
       </c>
       <c r="K21" s="3">
         <v>4870800</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>693400</v>
+        <v>699000</v>
       </c>
       <c r="E22" s="3">
-        <v>631300</v>
+        <v>636400</v>
       </c>
       <c r="F22" s="3">
-        <v>521700</v>
+        <v>525900</v>
       </c>
       <c r="G22" s="3">
-        <v>595700</v>
+        <v>600500</v>
       </c>
       <c r="H22" s="3">
-        <v>606200</v>
+        <v>611100</v>
       </c>
       <c r="I22" s="3">
-        <v>697400</v>
+        <v>703000</v>
       </c>
       <c r="J22" s="3">
-        <v>601000</v>
+        <v>605800</v>
       </c>
       <c r="K22" s="3">
         <v>618300</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2698400</v>
+        <v>2720100</v>
       </c>
       <c r="E23" s="3">
-        <v>5593500</v>
+        <v>5638500</v>
       </c>
       <c r="F23" s="3">
-        <v>4939800</v>
+        <v>4979400</v>
       </c>
       <c r="G23" s="3">
-        <v>4700700</v>
+        <v>4738500</v>
       </c>
       <c r="H23" s="3">
-        <v>3774800</v>
+        <v>3805100</v>
       </c>
       <c r="I23" s="3">
-        <v>3873900</v>
+        <v>3905000</v>
       </c>
       <c r="J23" s="3">
-        <v>3580700</v>
+        <v>3609400</v>
       </c>
       <c r="K23" s="3">
         <v>3765000</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>777900</v>
+        <v>784200</v>
       </c>
       <c r="E24" s="3">
-        <v>1186100</v>
+        <v>1195600</v>
       </c>
       <c r="F24" s="3">
-        <v>1254800</v>
+        <v>1264800</v>
       </c>
       <c r="G24" s="3">
-        <v>966800</v>
+        <v>974600</v>
       </c>
       <c r="H24" s="3">
-        <v>655100</v>
+        <v>660400</v>
       </c>
       <c r="I24" s="3">
-        <v>615500</v>
+        <v>620400</v>
       </c>
       <c r="J24" s="3">
-        <v>590400</v>
+        <v>595100</v>
       </c>
       <c r="K24" s="3">
         <v>624400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1920400</v>
+        <v>1935900</v>
       </c>
       <c r="E26" s="3">
-        <v>4407500</v>
+        <v>4442900</v>
       </c>
       <c r="F26" s="3">
-        <v>3685000</v>
+        <v>3714600</v>
       </c>
       <c r="G26" s="3">
-        <v>3733900</v>
+        <v>3763900</v>
       </c>
       <c r="H26" s="3">
-        <v>3119700</v>
+        <v>3144800</v>
       </c>
       <c r="I26" s="3">
-        <v>3258400</v>
+        <v>3284600</v>
       </c>
       <c r="J26" s="3">
-        <v>2990300</v>
+        <v>3014300</v>
       </c>
       <c r="K26" s="3">
         <v>3140600</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1861000</v>
+        <v>1875900</v>
       </c>
       <c r="E27" s="3">
-        <v>4173700</v>
+        <v>4207200</v>
       </c>
       <c r="F27" s="3">
-        <v>3523900</v>
+        <v>3552200</v>
       </c>
       <c r="G27" s="3">
-        <v>3588600</v>
+        <v>3617400</v>
       </c>
       <c r="H27" s="3">
-        <v>2963900</v>
+        <v>2987700</v>
       </c>
       <c r="I27" s="3">
-        <v>3144800</v>
+        <v>3170100</v>
       </c>
       <c r="J27" s="3">
-        <v>3078800</v>
+        <v>3103500</v>
       </c>
       <c r="K27" s="3">
         <v>3019900</v>
@@ -1359,10 +1359,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>467600</v>
+        <v>471300</v>
       </c>
       <c r="G29" s="3">
-        <v>-72600</v>
+        <v>-73200</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>-109600</v>
+        <v>-110500</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-599600</v>
+        <v>-604500</v>
       </c>
       <c r="E32" s="3">
-        <v>-707900</v>
+        <v>-713600</v>
       </c>
       <c r="F32" s="3">
-        <v>-586400</v>
+        <v>-591100</v>
       </c>
       <c r="G32" s="3">
-        <v>-569300</v>
+        <v>-573800</v>
       </c>
       <c r="H32" s="3">
-        <v>-466200</v>
+        <v>-470000</v>
       </c>
       <c r="I32" s="3">
-        <v>-384300</v>
+        <v>-387400</v>
       </c>
       <c r="J32" s="3">
-        <v>-421300</v>
+        <v>-424700</v>
       </c>
       <c r="K32" s="3">
         <v>-322700</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1861000</v>
+        <v>1875900</v>
       </c>
       <c r="E33" s="3">
-        <v>4173700</v>
+        <v>4207200</v>
       </c>
       <c r="F33" s="3">
-        <v>3991400</v>
+        <v>4023500</v>
       </c>
       <c r="G33" s="3">
-        <v>3515900</v>
+        <v>3544200</v>
       </c>
       <c r="H33" s="3">
-        <v>2963900</v>
+        <v>2987700</v>
       </c>
       <c r="I33" s="3">
-        <v>3144800</v>
+        <v>3170100</v>
       </c>
       <c r="J33" s="3">
-        <v>2969100</v>
+        <v>2993000</v>
       </c>
       <c r="K33" s="3">
         <v>3019900</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1861000</v>
+        <v>1875900</v>
       </c>
       <c r="E35" s="3">
-        <v>4173700</v>
+        <v>4207200</v>
       </c>
       <c r="F35" s="3">
-        <v>3991400</v>
+        <v>4023500</v>
       </c>
       <c r="G35" s="3">
-        <v>3515900</v>
+        <v>3544200</v>
       </c>
       <c r="H35" s="3">
-        <v>2963900</v>
+        <v>2987700</v>
       </c>
       <c r="I35" s="3">
-        <v>3144800</v>
+        <v>3170100</v>
       </c>
       <c r="J35" s="3">
-        <v>2969100</v>
+        <v>2993000</v>
       </c>
       <c r="K35" s="3">
         <v>3019900</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4389000</v>
+        <v>4424200</v>
       </c>
       <c r="E41" s="3">
-        <v>1231000</v>
+        <v>1240900</v>
       </c>
       <c r="F41" s="3">
-        <v>1154400</v>
+        <v>1163600</v>
       </c>
       <c r="G41" s="3">
-        <v>1573100</v>
+        <v>1585700</v>
       </c>
       <c r="H41" s="3">
-        <v>1438300</v>
+        <v>1449900</v>
       </c>
       <c r="I41" s="3">
-        <v>623400</v>
+        <v>628400</v>
       </c>
       <c r="J41" s="3">
-        <v>821500</v>
+        <v>828100</v>
       </c>
       <c r="K41" s="3">
         <v>3114400</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>96400</v>
+        <v>97200</v>
       </c>
       <c r="E42" s="3">
-        <v>163800</v>
+        <v>165100</v>
       </c>
       <c r="F42" s="3">
-        <v>33000</v>
+        <v>33300</v>
       </c>
       <c r="G42" s="3">
-        <v>31700</v>
+        <v>32000</v>
       </c>
       <c r="H42" s="3">
-        <v>196800</v>
+        <v>198400</v>
       </c>
       <c r="I42" s="3">
-        <v>60800</v>
+        <v>61200</v>
       </c>
       <c r="J42" s="3">
-        <v>155900</v>
+        <v>157100</v>
       </c>
       <c r="K42" s="3">
         <v>160500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2831800</v>
+        <v>2854500</v>
       </c>
       <c r="E43" s="3">
-        <v>3401000</v>
+        <v>3428400</v>
       </c>
       <c r="F43" s="3">
-        <v>3415600</v>
+        <v>3443000</v>
       </c>
       <c r="G43" s="3">
-        <v>3213500</v>
+        <v>3239300</v>
       </c>
       <c r="H43" s="3">
-        <v>3298000</v>
+        <v>3324500</v>
       </c>
       <c r="I43" s="3">
-        <v>3023300</v>
+        <v>3047600</v>
       </c>
       <c r="J43" s="3">
-        <v>3113100</v>
+        <v>3138100</v>
       </c>
       <c r="K43" s="3">
         <v>2855200</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7623600</v>
+        <v>7684800</v>
       </c>
       <c r="E44" s="3">
-        <v>7227400</v>
+        <v>7285400</v>
       </c>
       <c r="F44" s="3">
-        <v>6623800</v>
+        <v>6677000</v>
       </c>
       <c r="G44" s="3">
-        <v>6323900</v>
+        <v>6374700</v>
       </c>
       <c r="H44" s="3">
-        <v>6047900</v>
+        <v>6096500</v>
       </c>
       <c r="I44" s="3">
-        <v>6041300</v>
+        <v>6089800</v>
       </c>
       <c r="J44" s="3">
-        <v>5576400</v>
+        <v>5621200</v>
       </c>
       <c r="K44" s="3">
         <v>5193100</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>210000</v>
+        <v>211700</v>
       </c>
       <c r="E45" s="3">
-        <v>356600</v>
+        <v>359500</v>
       </c>
       <c r="F45" s="3">
-        <v>252300</v>
+        <v>254300</v>
       </c>
       <c r="G45" s="3">
-        <v>285300</v>
+        <v>287600</v>
       </c>
       <c r="H45" s="3">
-        <v>710600</v>
+        <v>716300</v>
       </c>
       <c r="I45" s="3">
-        <v>381700</v>
+        <v>384800</v>
       </c>
       <c r="J45" s="3">
-        <v>198100</v>
+        <v>199700</v>
       </c>
       <c r="K45" s="3">
         <v>216000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15150800</v>
+        <v>15272500</v>
       </c>
       <c r="E46" s="3">
-        <v>12379800</v>
+        <v>12479200</v>
       </c>
       <c r="F46" s="3">
-        <v>11479000</v>
+        <v>11571200</v>
       </c>
       <c r="G46" s="3">
-        <v>11427500</v>
+        <v>11519300</v>
       </c>
       <c r="H46" s="3">
-        <v>11691600</v>
+        <v>11785600</v>
       </c>
       <c r="I46" s="3">
-        <v>10130500</v>
+        <v>10211800</v>
       </c>
       <c r="J46" s="3">
-        <v>9865000</v>
+        <v>9944200</v>
       </c>
       <c r="K46" s="3">
         <v>10504700</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4789200</v>
+        <v>4827700</v>
       </c>
       <c r="E47" s="3">
-        <v>4297900</v>
+        <v>4332400</v>
       </c>
       <c r="F47" s="3">
-        <v>4090500</v>
+        <v>4123300</v>
       </c>
       <c r="G47" s="3">
-        <v>3871200</v>
+        <v>3902300</v>
       </c>
       <c r="H47" s="3">
-        <v>3464400</v>
+        <v>3492300</v>
       </c>
       <c r="I47" s="3">
-        <v>3321800</v>
+        <v>3348500</v>
       </c>
       <c r="J47" s="3">
-        <v>4782600</v>
+        <v>4821000</v>
       </c>
       <c r="K47" s="3">
         <v>3753800</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6573600</v>
+        <v>6626400</v>
       </c>
       <c r="E48" s="3">
-        <v>5929000</v>
+        <v>5976700</v>
       </c>
       <c r="F48" s="3">
-        <v>5431100</v>
+        <v>5474700</v>
       </c>
       <c r="G48" s="3">
-        <v>5329400</v>
+        <v>5372200</v>
       </c>
       <c r="H48" s="3">
-        <v>5139200</v>
+        <v>5180500</v>
       </c>
       <c r="I48" s="3">
-        <v>4959600</v>
+        <v>4999400</v>
       </c>
       <c r="J48" s="3">
-        <v>4604300</v>
+        <v>4641300</v>
       </c>
       <c r="K48" s="3">
         <v>1483700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14924900</v>
+        <v>15044800</v>
       </c>
       <c r="E49" s="3">
-        <v>16585200</v>
+        <v>16718400</v>
       </c>
       <c r="F49" s="3">
-        <v>16605000</v>
+        <v>16738400</v>
       </c>
       <c r="G49" s="3">
-        <v>16597000</v>
+        <v>16730400</v>
       </c>
       <c r="H49" s="3">
-        <v>16338200</v>
+        <v>16469400</v>
       </c>
       <c r="I49" s="3">
-        <v>14833800</v>
+        <v>14953000</v>
       </c>
       <c r="J49" s="3">
-        <v>10422400</v>
+        <v>10506100</v>
       </c>
       <c r="K49" s="3">
         <v>12218100</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2554400</v>
+        <v>2574900</v>
       </c>
       <c r="E52" s="3">
-        <v>2143600</v>
+        <v>2160900</v>
       </c>
       <c r="F52" s="3">
-        <v>1641700</v>
+        <v>1654900</v>
       </c>
       <c r="G52" s="3">
-        <v>877000</v>
+        <v>884000</v>
       </c>
       <c r="H52" s="3">
-        <v>997200</v>
+        <v>1005200</v>
       </c>
       <c r="I52" s="3">
-        <v>836100</v>
+        <v>842800</v>
       </c>
       <c r="J52" s="3">
-        <v>656400</v>
+        <v>661700</v>
       </c>
       <c r="K52" s="3">
         <v>1192400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>43992900</v>
+        <v>44346300</v>
       </c>
       <c r="E54" s="3">
-        <v>41335400</v>
+        <v>41667500</v>
       </c>
       <c r="F54" s="3">
-        <v>39247300</v>
+        <v>39562600</v>
       </c>
       <c r="G54" s="3">
-        <v>38102100</v>
+        <v>38408200</v>
       </c>
       <c r="H54" s="3">
-        <v>37630600</v>
+        <v>37932900</v>
       </c>
       <c r="I54" s="3">
-        <v>34081700</v>
+        <v>34355400</v>
       </c>
       <c r="J54" s="3">
-        <v>30330600</v>
+        <v>30574300</v>
       </c>
       <c r="K54" s="3">
         <v>30848900</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1760600</v>
+        <v>1774800</v>
       </c>
       <c r="E57" s="3">
-        <v>2237400</v>
+        <v>2255400</v>
       </c>
       <c r="F57" s="3">
-        <v>1999700</v>
+        <v>2015700</v>
       </c>
       <c r="G57" s="3">
-        <v>1802900</v>
+        <v>1817400</v>
       </c>
       <c r="H57" s="3">
-        <v>1437000</v>
+        <v>1448600</v>
       </c>
       <c r="I57" s="3">
-        <v>1166300</v>
+        <v>1175600</v>
       </c>
       <c r="J57" s="3">
-        <v>1192700</v>
+        <v>1202300</v>
       </c>
       <c r="K57" s="3">
         <v>1341800</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2775000</v>
+        <v>2797300</v>
       </c>
       <c r="E58" s="3">
-        <v>2644200</v>
+        <v>2665500</v>
       </c>
       <c r="F58" s="3">
-        <v>2455300</v>
+        <v>2475100</v>
       </c>
       <c r="G58" s="3">
-        <v>3282200</v>
+        <v>3308500</v>
       </c>
       <c r="H58" s="3">
-        <v>2756500</v>
+        <v>2778600</v>
       </c>
       <c r="I58" s="3">
-        <v>2743300</v>
+        <v>2765300</v>
       </c>
       <c r="J58" s="3">
-        <v>2274400</v>
+        <v>2292700</v>
       </c>
       <c r="K58" s="3">
         <v>2436700</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4044300</v>
+        <v>4076700</v>
       </c>
       <c r="E59" s="3">
-        <v>4367900</v>
+        <v>4402900</v>
       </c>
       <c r="F59" s="3">
-        <v>3945200</v>
+        <v>3976900</v>
       </c>
       <c r="G59" s="3">
-        <v>3711400</v>
+        <v>3741200</v>
       </c>
       <c r="H59" s="3">
-        <v>3978200</v>
+        <v>4010200</v>
       </c>
       <c r="I59" s="3">
-        <v>3077400</v>
+        <v>3102200</v>
       </c>
       <c r="J59" s="3">
-        <v>2940100</v>
+        <v>2963700</v>
       </c>
       <c r="K59" s="3">
         <v>3034200</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8579900</v>
+        <v>8648800</v>
       </c>
       <c r="E60" s="3">
-        <v>9249500</v>
+        <v>9323800</v>
       </c>
       <c r="F60" s="3">
-        <v>8400200</v>
+        <v>8467700</v>
       </c>
       <c r="G60" s="3">
-        <v>8796500</v>
+        <v>8867100</v>
       </c>
       <c r="H60" s="3">
-        <v>8171700</v>
+        <v>8237400</v>
       </c>
       <c r="I60" s="3">
-        <v>6987000</v>
+        <v>7043100</v>
       </c>
       <c r="J60" s="3">
-        <v>6407200</v>
+        <v>6458600</v>
       </c>
       <c r="K60" s="3">
         <v>6812700</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20015300</v>
+        <v>20176000</v>
       </c>
       <c r="E61" s="3">
-        <v>14107400</v>
+        <v>14220700</v>
       </c>
       <c r="F61" s="3">
-        <v>10827800</v>
+        <v>10914800</v>
       </c>
       <c r="G61" s="3">
-        <v>8902100</v>
+        <v>8973600</v>
       </c>
       <c r="H61" s="3">
-        <v>10941400</v>
+        <v>11029300</v>
       </c>
       <c r="I61" s="3">
-        <v>11041800</v>
+        <v>11130500</v>
       </c>
       <c r="J61" s="3">
-        <v>10088200</v>
+        <v>10169200</v>
       </c>
       <c r="K61" s="3">
         <v>10143100</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4250300</v>
+        <v>4284400</v>
       </c>
       <c r="E62" s="3">
-        <v>4564700</v>
+        <v>4601300</v>
       </c>
       <c r="F62" s="3">
-        <v>4548800</v>
+        <v>4585300</v>
       </c>
       <c r="G62" s="3">
-        <v>4517100</v>
+        <v>4553400</v>
       </c>
       <c r="H62" s="3">
-        <v>5406000</v>
+        <v>5449400</v>
       </c>
       <c r="I62" s="3">
-        <v>3827600</v>
+        <v>3858400</v>
       </c>
       <c r="J62" s="3">
-        <v>3810500</v>
+        <v>3841100</v>
       </c>
       <c r="K62" s="3">
         <v>4043900</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35048500</v>
+        <v>35330000</v>
       </c>
       <c r="E66" s="3">
-        <v>30292300</v>
+        <v>30535700</v>
       </c>
       <c r="F66" s="3">
-        <v>26108100</v>
+        <v>26317800</v>
       </c>
       <c r="G66" s="3">
-        <v>24480800</v>
+        <v>24677500</v>
       </c>
       <c r="H66" s="3">
-        <v>26364300</v>
+        <v>26576100</v>
       </c>
       <c r="I66" s="3">
-        <v>23817800</v>
+        <v>24009100</v>
       </c>
       <c r="J66" s="3">
-        <v>21318900</v>
+        <v>21490100</v>
       </c>
       <c r="K66" s="3">
         <v>22163700</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9964000</v>
+        <v>10044100</v>
       </c>
       <c r="E72" s="3">
-        <v>12021800</v>
+        <v>12118400</v>
       </c>
       <c r="F72" s="3">
-        <v>14519400</v>
+        <v>14636100</v>
       </c>
       <c r="G72" s="3">
-        <v>14260600</v>
+        <v>14375100</v>
       </c>
       <c r="H72" s="3">
-        <v>12013900</v>
+        <v>12110400</v>
       </c>
       <c r="I72" s="3">
-        <v>11897700</v>
+        <v>11993300</v>
       </c>
       <c r="J72" s="3">
-        <v>10386700</v>
+        <v>10470100</v>
       </c>
       <c r="K72" s="3">
         <v>8787700</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8944400</v>
+        <v>9016200</v>
       </c>
       <c r="E76" s="3">
-        <v>11043100</v>
+        <v>11131800</v>
       </c>
       <c r="F76" s="3">
-        <v>13139200</v>
+        <v>13244800</v>
       </c>
       <c r="G76" s="3">
-        <v>13621300</v>
+        <v>13730700</v>
       </c>
       <c r="H76" s="3">
-        <v>11266300</v>
+        <v>11356800</v>
       </c>
       <c r="I76" s="3">
-        <v>10263900</v>
+        <v>10346300</v>
       </c>
       <c r="J76" s="3">
-        <v>9011800</v>
+        <v>9084100</v>
       </c>
       <c r="K76" s="3">
         <v>8685200</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1861000</v>
+        <v>1875900</v>
       </c>
       <c r="E81" s="3">
-        <v>4173700</v>
+        <v>4207200</v>
       </c>
       <c r="F81" s="3">
-        <v>3991400</v>
+        <v>4023500</v>
       </c>
       <c r="G81" s="3">
-        <v>3515900</v>
+        <v>3544200</v>
       </c>
       <c r="H81" s="3">
-        <v>2963900</v>
+        <v>2987700</v>
       </c>
       <c r="I81" s="3">
-        <v>3144800</v>
+        <v>3170100</v>
       </c>
       <c r="J81" s="3">
-        <v>2969100</v>
+        <v>2993000</v>
       </c>
       <c r="K81" s="3">
         <v>3019900</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2428900</v>
+        <v>2448400</v>
       </c>
       <c r="E83" s="3">
-        <v>494000</v>
+        <v>497900</v>
       </c>
       <c r="F83" s="3">
-        <v>651100</v>
+        <v>656400</v>
       </c>
       <c r="G83" s="3">
-        <v>476800</v>
+        <v>480600</v>
       </c>
       <c r="H83" s="3">
-        <v>624700</v>
+        <v>629800</v>
       </c>
       <c r="I83" s="3">
-        <v>581100</v>
+        <v>585800</v>
       </c>
       <c r="J83" s="3">
-        <v>830800</v>
+        <v>837500</v>
       </c>
       <c r="K83" s="3">
         <v>490200</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3064200</v>
+        <v>3088800</v>
       </c>
       <c r="E89" s="3">
-        <v>4289900</v>
+        <v>4324400</v>
       </c>
       <c r="F89" s="3">
-        <v>4073300</v>
+        <v>4106000</v>
       </c>
       <c r="G89" s="3">
-        <v>4136700</v>
+        <v>4169900</v>
       </c>
       <c r="H89" s="3">
-        <v>3365400</v>
+        <v>3392400</v>
       </c>
       <c r="I89" s="3">
-        <v>3369300</v>
+        <v>3396400</v>
       </c>
       <c r="J89" s="3">
-        <v>2364200</v>
+        <v>2383200</v>
       </c>
       <c r="K89" s="3">
         <v>2503800</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-924600</v>
+        <v>-932000</v>
       </c>
       <c r="E91" s="3">
-        <v>-886300</v>
+        <v>-893400</v>
       </c>
       <c r="F91" s="3">
-        <v>-771300</v>
+        <v>-777500</v>
       </c>
       <c r="G91" s="3">
-        <v>-684200</v>
+        <v>-689700</v>
       </c>
       <c r="H91" s="3">
-        <v>-668300</v>
+        <v>-673700</v>
       </c>
       <c r="I91" s="3">
-        <v>-842700</v>
+        <v>-849400</v>
       </c>
       <c r="J91" s="3">
-        <v>-847900</v>
+        <v>-854800</v>
       </c>
       <c r="K91" s="3">
         <v>-783300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1063200</v>
+        <v>-1071800</v>
       </c>
       <c r="E94" s="3">
-        <v>-356600</v>
+        <v>-359500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1520200</v>
+        <v>-1532400</v>
       </c>
       <c r="G94" s="3">
-        <v>-729100</v>
+        <v>-734900</v>
       </c>
       <c r="H94" s="3">
-        <v>787200</v>
+        <v>793500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1180800</v>
+        <v>-1190300</v>
       </c>
       <c r="J94" s="3">
-        <v>-1438300</v>
+        <v>-1449900</v>
       </c>
       <c r="K94" s="3">
         <v>-1528400</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2174000</v>
+        <v>-2191500</v>
       </c>
       <c r="E96" s="3">
-        <v>-2143600</v>
+        <v>-2160900</v>
       </c>
       <c r="F96" s="3">
-        <v>-2088200</v>
+        <v>-2104900</v>
       </c>
       <c r="G96" s="3">
-        <v>-2001000</v>
+        <v>-2017100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1905900</v>
+        <v>-1921200</v>
       </c>
       <c r="I96" s="3">
-        <v>-1771200</v>
+        <v>-1785400</v>
       </c>
       <c r="J96" s="3">
-        <v>-1621900</v>
+        <v>-1635000</v>
       </c>
       <c r="K96" s="3">
         <v>-1385600</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1369700</v>
+        <v>1380700</v>
       </c>
       <c r="E100" s="3">
-        <v>-3862000</v>
+        <v>-3893000</v>
       </c>
       <c r="F100" s="3">
-        <v>-2797400</v>
+        <v>-2819900</v>
       </c>
       <c r="G100" s="3">
-        <v>-3246500</v>
+        <v>-3272600</v>
       </c>
       <c r="H100" s="3">
-        <v>-3699500</v>
+        <v>-3729300</v>
       </c>
       <c r="I100" s="3">
-        <v>-2290200</v>
+        <v>-2308600</v>
       </c>
       <c r="J100" s="3">
-        <v>-2142300</v>
+        <v>-2159500</v>
       </c>
       <c r="K100" s="3">
         <v>-243900</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-158500</v>
+        <v>-159800</v>
       </c>
       <c r="E101" s="3">
-        <v>-34300</v>
+        <v>-34600</v>
       </c>
       <c r="F101" s="3">
-        <v>-51500</v>
+        <v>-51900</v>
       </c>
       <c r="G101" s="3">
-        <v>-18500</v>
+        <v>-18600</v>
       </c>
       <c r="H101" s="3">
-        <v>110900</v>
+        <v>111800</v>
       </c>
       <c r="I101" s="3">
-        <v>-96400</v>
+        <v>-97200</v>
       </c>
       <c r="J101" s="3">
-        <v>-253600</v>
+        <v>-255600</v>
       </c>
       <c r="K101" s="3">
         <v>44300</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3212200</v>
+        <v>3238000</v>
       </c>
       <c r="E102" s="3">
-        <v>37000</v>
+        <v>37300</v>
       </c>
       <c r="F102" s="3">
-        <v>-295900</v>
+        <v>-298200</v>
       </c>
       <c r="G102" s="3">
-        <v>142600</v>
+        <v>143800</v>
       </c>
       <c r="H102" s="3">
-        <v>564000</v>
+        <v>568500</v>
       </c>
       <c r="I102" s="3">
-        <v>-198100</v>
+        <v>-199700</v>
       </c>
       <c r="J102" s="3">
-        <v>-1470000</v>
+        <v>-1481800</v>
       </c>
       <c r="K102" s="3">
         <v>775900</v>

--- a/AAII_Financials/Yearly/DEO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DEO_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15646600</v>
+        <v>16137700</v>
       </c>
       <c r="E8" s="3">
-        <v>17131100</v>
+        <v>17668800</v>
       </c>
       <c r="F8" s="3">
-        <v>16193800</v>
+        <v>16702100</v>
       </c>
       <c r="G8" s="3">
-        <v>16043400</v>
+        <v>16546900</v>
       </c>
       <c r="H8" s="3">
-        <v>13959700</v>
+        <v>14397900</v>
       </c>
       <c r="I8" s="3">
-        <v>14396400</v>
+        <v>14848300</v>
       </c>
       <c r="J8" s="3">
-        <v>13657500</v>
+        <v>14086200</v>
       </c>
       <c r="K8" s="3">
         <v>13920800</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6196300</v>
+        <v>6390800</v>
       </c>
       <c r="E9" s="3">
-        <v>6478600</v>
+        <v>6681900</v>
       </c>
       <c r="F9" s="3">
-        <v>6169700</v>
+        <v>6363400</v>
       </c>
       <c r="G9" s="3">
-        <v>6231000</v>
+        <v>6426500</v>
       </c>
       <c r="H9" s="3">
-        <v>5659800</v>
+        <v>5837400</v>
       </c>
       <c r="I9" s="3">
-        <v>6104500</v>
+        <v>6296100</v>
       </c>
       <c r="J9" s="3">
-        <v>5333600</v>
+        <v>5501000</v>
       </c>
       <c r="K9" s="3">
         <v>5438700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9450300</v>
+        <v>9746900</v>
       </c>
       <c r="E10" s="3">
-        <v>10652500</v>
+        <v>10986900</v>
       </c>
       <c r="F10" s="3">
-        <v>10024100</v>
+        <v>10338700</v>
       </c>
       <c r="G10" s="3">
-        <v>9812400</v>
+        <v>10120400</v>
       </c>
       <c r="H10" s="3">
-        <v>8299900</v>
+        <v>8560500</v>
       </c>
       <c r="I10" s="3">
-        <v>8292000</v>
+        <v>8552200</v>
       </c>
       <c r="J10" s="3">
-        <v>8323900</v>
+        <v>8585200</v>
       </c>
       <c r="K10" s="3">
         <v>8482000</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1947800</v>
+        <v>2009000</v>
       </c>
       <c r="E14" s="3">
-        <v>-93200</v>
+        <v>-96100</v>
       </c>
       <c r="F14" s="3">
-        <v>170400</v>
+        <v>175800</v>
       </c>
       <c r="G14" s="3">
-        <v>29300</v>
+        <v>30200</v>
       </c>
       <c r="H14" s="3">
-        <v>58600</v>
+        <v>60400</v>
       </c>
       <c r="I14" s="3">
-        <v>-138500</v>
+        <v>-142800</v>
       </c>
       <c r="J14" s="3">
-        <v>382100</v>
+        <v>394100</v>
       </c>
       <c r="K14" s="3">
         <v>102200</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12832000</v>
+        <v>13234800</v>
       </c>
       <c r="E17" s="3">
-        <v>11569900</v>
+        <v>11933000</v>
       </c>
       <c r="F17" s="3">
-        <v>11279600</v>
+        <v>11633700</v>
       </c>
       <c r="G17" s="3">
-        <v>11278300</v>
+        <v>11632300</v>
       </c>
       <c r="H17" s="3">
-        <v>10013500</v>
+        <v>10327800</v>
       </c>
       <c r="I17" s="3">
-        <v>10175900</v>
+        <v>10495300</v>
       </c>
       <c r="J17" s="3">
-        <v>9867000</v>
+        <v>10176700</v>
       </c>
       <c r="K17" s="3">
         <v>9860200</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2814600</v>
+        <v>2902900</v>
       </c>
       <c r="E18" s="3">
-        <v>5561300</v>
+        <v>5735800</v>
       </c>
       <c r="F18" s="3">
-        <v>4914200</v>
+        <v>5068400</v>
       </c>
       <c r="G18" s="3">
-        <v>4765100</v>
+        <v>4914600</v>
       </c>
       <c r="H18" s="3">
-        <v>3946300</v>
+        <v>4070100</v>
       </c>
       <c r="I18" s="3">
-        <v>4220500</v>
+        <v>4353000</v>
       </c>
       <c r="J18" s="3">
-        <v>3790500</v>
+        <v>3909500</v>
       </c>
       <c r="K18" s="3">
         <v>4060600</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>604500</v>
+        <v>623400</v>
       </c>
       <c r="E20" s="3">
-        <v>713600</v>
+        <v>736000</v>
       </c>
       <c r="F20" s="3">
-        <v>591100</v>
+        <v>609700</v>
       </c>
       <c r="G20" s="3">
-        <v>573800</v>
+        <v>591800</v>
       </c>
       <c r="H20" s="3">
-        <v>470000</v>
+        <v>484700</v>
       </c>
       <c r="I20" s="3">
-        <v>387400</v>
+        <v>399600</v>
       </c>
       <c r="J20" s="3">
-        <v>424700</v>
+        <v>438000</v>
       </c>
       <c r="K20" s="3">
         <v>322700</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5875000</v>
+        <v>6042700</v>
       </c>
       <c r="E21" s="3">
-        <v>6774400</v>
+        <v>6983600</v>
       </c>
       <c r="F21" s="3">
-        <v>6163700</v>
+        <v>6352700</v>
       </c>
       <c r="G21" s="3">
-        <v>5821000</v>
+        <v>6000500</v>
       </c>
       <c r="H21" s="3">
-        <v>5048000</v>
+        <v>5202100</v>
       </c>
       <c r="I21" s="3">
-        <v>5195600</v>
+        <v>5354700</v>
       </c>
       <c r="J21" s="3">
-        <v>5055200</v>
+        <v>5208200</v>
       </c>
       <c r="K21" s="3">
         <v>4870800</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>699000</v>
+        <v>720900</v>
       </c>
       <c r="E22" s="3">
-        <v>636400</v>
+        <v>656400</v>
       </c>
       <c r="F22" s="3">
-        <v>525900</v>
+        <v>542400</v>
       </c>
       <c r="G22" s="3">
-        <v>600500</v>
+        <v>619300</v>
       </c>
       <c r="H22" s="3">
-        <v>611100</v>
+        <v>630300</v>
       </c>
       <c r="I22" s="3">
-        <v>703000</v>
+        <v>725000</v>
       </c>
       <c r="J22" s="3">
-        <v>605800</v>
+        <v>624800</v>
       </c>
       <c r="K22" s="3">
         <v>618300</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2720100</v>
+        <v>2805400</v>
       </c>
       <c r="E23" s="3">
-        <v>5638500</v>
+        <v>5815500</v>
       </c>
       <c r="F23" s="3">
-        <v>4979400</v>
+        <v>5135700</v>
       </c>
       <c r="G23" s="3">
-        <v>4738500</v>
+        <v>4887200</v>
       </c>
       <c r="H23" s="3">
-        <v>3805100</v>
+        <v>3924600</v>
       </c>
       <c r="I23" s="3">
-        <v>3905000</v>
+        <v>4027600</v>
       </c>
       <c r="J23" s="3">
-        <v>3609400</v>
+        <v>3722700</v>
       </c>
       <c r="K23" s="3">
         <v>3765000</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>784200</v>
+        <v>808800</v>
       </c>
       <c r="E24" s="3">
-        <v>1195600</v>
+        <v>1233100</v>
       </c>
       <c r="F24" s="3">
-        <v>1264800</v>
+        <v>1304500</v>
       </c>
       <c r="G24" s="3">
-        <v>974600</v>
+        <v>1005200</v>
       </c>
       <c r="H24" s="3">
-        <v>660400</v>
+        <v>681100</v>
       </c>
       <c r="I24" s="3">
-        <v>620400</v>
+        <v>639900</v>
       </c>
       <c r="J24" s="3">
-        <v>595100</v>
+        <v>613800</v>
       </c>
       <c r="K24" s="3">
         <v>624400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1935900</v>
+        <v>1996600</v>
       </c>
       <c r="E26" s="3">
-        <v>4442900</v>
+        <v>4582300</v>
       </c>
       <c r="F26" s="3">
-        <v>3714600</v>
+        <v>3831200</v>
       </c>
       <c r="G26" s="3">
-        <v>3763900</v>
+        <v>3882000</v>
       </c>
       <c r="H26" s="3">
-        <v>3144800</v>
+        <v>3243500</v>
       </c>
       <c r="I26" s="3">
-        <v>3284600</v>
+        <v>3387700</v>
       </c>
       <c r="J26" s="3">
-        <v>3014300</v>
+        <v>3108900</v>
       </c>
       <c r="K26" s="3">
         <v>3140600</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1875900</v>
+        <v>1934800</v>
       </c>
       <c r="E27" s="3">
-        <v>4207200</v>
+        <v>4339300</v>
       </c>
       <c r="F27" s="3">
-        <v>3552200</v>
+        <v>3663700</v>
       </c>
       <c r="G27" s="3">
-        <v>3617400</v>
+        <v>3731000</v>
       </c>
       <c r="H27" s="3">
-        <v>2987700</v>
+        <v>3081400</v>
       </c>
       <c r="I27" s="3">
-        <v>3170100</v>
+        <v>3269600</v>
       </c>
       <c r="J27" s="3">
-        <v>3103500</v>
+        <v>3200900</v>
       </c>
       <c r="K27" s="3">
         <v>3019900</v>
@@ -1359,10 +1359,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>471300</v>
+        <v>486100</v>
       </c>
       <c r="G29" s="3">
-        <v>-73200</v>
+        <v>-75500</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>-110500</v>
+        <v>-114000</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-604500</v>
+        <v>-623400</v>
       </c>
       <c r="E32" s="3">
-        <v>-713600</v>
+        <v>-736000</v>
       </c>
       <c r="F32" s="3">
-        <v>-591100</v>
+        <v>-609700</v>
       </c>
       <c r="G32" s="3">
-        <v>-573800</v>
+        <v>-591800</v>
       </c>
       <c r="H32" s="3">
-        <v>-470000</v>
+        <v>-484700</v>
       </c>
       <c r="I32" s="3">
-        <v>-387400</v>
+        <v>-399600</v>
       </c>
       <c r="J32" s="3">
-        <v>-424700</v>
+        <v>-438000</v>
       </c>
       <c r="K32" s="3">
         <v>-322700</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1875900</v>
+        <v>1934800</v>
       </c>
       <c r="E33" s="3">
-        <v>4207200</v>
+        <v>4339300</v>
       </c>
       <c r="F33" s="3">
-        <v>4023500</v>
+        <v>4149800</v>
       </c>
       <c r="G33" s="3">
-        <v>3544200</v>
+        <v>3655400</v>
       </c>
       <c r="H33" s="3">
-        <v>2987700</v>
+        <v>3081400</v>
       </c>
       <c r="I33" s="3">
-        <v>3170100</v>
+        <v>3269600</v>
       </c>
       <c r="J33" s="3">
-        <v>2993000</v>
+        <v>3086900</v>
       </c>
       <c r="K33" s="3">
         <v>3019900</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1875900</v>
+        <v>1934800</v>
       </c>
       <c r="E35" s="3">
-        <v>4207200</v>
+        <v>4339300</v>
       </c>
       <c r="F35" s="3">
-        <v>4023500</v>
+        <v>4149800</v>
       </c>
       <c r="G35" s="3">
-        <v>3544200</v>
+        <v>3655400</v>
       </c>
       <c r="H35" s="3">
-        <v>2987700</v>
+        <v>3081400</v>
       </c>
       <c r="I35" s="3">
-        <v>3170100</v>
+        <v>3269600</v>
       </c>
       <c r="J35" s="3">
-        <v>2993000</v>
+        <v>3086900</v>
       </c>
       <c r="K35" s="3">
         <v>3019900</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4424200</v>
+        <v>4563100</v>
       </c>
       <c r="E41" s="3">
-        <v>1240900</v>
+        <v>1279800</v>
       </c>
       <c r="F41" s="3">
-        <v>1163600</v>
+        <v>1200200</v>
       </c>
       <c r="G41" s="3">
-        <v>1585700</v>
+        <v>1635500</v>
       </c>
       <c r="H41" s="3">
-        <v>1449900</v>
+        <v>1495400</v>
       </c>
       <c r="I41" s="3">
-        <v>628400</v>
+        <v>648100</v>
       </c>
       <c r="J41" s="3">
-        <v>828100</v>
+        <v>854100</v>
       </c>
       <c r="K41" s="3">
         <v>3114400</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>97200</v>
+        <v>100200</v>
       </c>
       <c r="E42" s="3">
-        <v>165100</v>
+        <v>170300</v>
       </c>
       <c r="F42" s="3">
-        <v>33300</v>
+        <v>34300</v>
       </c>
       <c r="G42" s="3">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="H42" s="3">
-        <v>198400</v>
+        <v>204600</v>
       </c>
       <c r="I42" s="3">
-        <v>61200</v>
+        <v>63200</v>
       </c>
       <c r="J42" s="3">
-        <v>157100</v>
+        <v>162000</v>
       </c>
       <c r="K42" s="3">
         <v>160500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2854500</v>
+        <v>2944100</v>
       </c>
       <c r="E43" s="3">
-        <v>3428400</v>
+        <v>3536000</v>
       </c>
       <c r="F43" s="3">
-        <v>3443000</v>
+        <v>3551100</v>
       </c>
       <c r="G43" s="3">
-        <v>3239300</v>
+        <v>3341000</v>
       </c>
       <c r="H43" s="3">
-        <v>3324500</v>
+        <v>3428900</v>
       </c>
       <c r="I43" s="3">
-        <v>3047600</v>
+        <v>3143200</v>
       </c>
       <c r="J43" s="3">
-        <v>3138100</v>
+        <v>3236600</v>
       </c>
       <c r="K43" s="3">
         <v>2855200</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7684800</v>
+        <v>7926100</v>
       </c>
       <c r="E44" s="3">
-        <v>7285400</v>
+        <v>7514100</v>
       </c>
       <c r="F44" s="3">
-        <v>6677000</v>
+        <v>6886500</v>
       </c>
       <c r="G44" s="3">
-        <v>6374700</v>
+        <v>6574800</v>
       </c>
       <c r="H44" s="3">
-        <v>6096500</v>
+        <v>6287800</v>
       </c>
       <c r="I44" s="3">
-        <v>6089800</v>
+        <v>6281000</v>
       </c>
       <c r="J44" s="3">
-        <v>5621200</v>
+        <v>5797600</v>
       </c>
       <c r="K44" s="3">
         <v>5193100</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>211700</v>
+        <v>218300</v>
       </c>
       <c r="E45" s="3">
-        <v>359500</v>
+        <v>370800</v>
       </c>
       <c r="F45" s="3">
-        <v>254300</v>
+        <v>262300</v>
       </c>
       <c r="G45" s="3">
-        <v>287600</v>
+        <v>296600</v>
       </c>
       <c r="H45" s="3">
-        <v>716300</v>
+        <v>738800</v>
       </c>
       <c r="I45" s="3">
-        <v>384800</v>
+        <v>396900</v>
       </c>
       <c r="J45" s="3">
-        <v>199700</v>
+        <v>206000</v>
       </c>
       <c r="K45" s="3">
         <v>216000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15272500</v>
+        <v>15751900</v>
       </c>
       <c r="E46" s="3">
-        <v>12479200</v>
+        <v>12870900</v>
       </c>
       <c r="F46" s="3">
-        <v>11571200</v>
+        <v>11934400</v>
       </c>
       <c r="G46" s="3">
-        <v>11519300</v>
+        <v>11880800</v>
       </c>
       <c r="H46" s="3">
-        <v>11785600</v>
+        <v>12155500</v>
       </c>
       <c r="I46" s="3">
-        <v>10211800</v>
+        <v>10532400</v>
       </c>
       <c r="J46" s="3">
-        <v>9944200</v>
+        <v>10256400</v>
       </c>
       <c r="K46" s="3">
         <v>10504700</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4827700</v>
+        <v>4979200</v>
       </c>
       <c r="E47" s="3">
-        <v>4332400</v>
+        <v>4468400</v>
       </c>
       <c r="F47" s="3">
-        <v>4123300</v>
+        <v>4252800</v>
       </c>
       <c r="G47" s="3">
-        <v>3902300</v>
+        <v>4024800</v>
       </c>
       <c r="H47" s="3">
-        <v>3492300</v>
+        <v>3601900</v>
       </c>
       <c r="I47" s="3">
-        <v>3348500</v>
+        <v>3453600</v>
       </c>
       <c r="J47" s="3">
-        <v>4821000</v>
+        <v>4972300</v>
       </c>
       <c r="K47" s="3">
         <v>3753800</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6626400</v>
+        <v>6834400</v>
       </c>
       <c r="E48" s="3">
-        <v>5976700</v>
+        <v>6164200</v>
       </c>
       <c r="F48" s="3">
-        <v>5474700</v>
+        <v>5646600</v>
       </c>
       <c r="G48" s="3">
-        <v>5372200</v>
+        <v>5540800</v>
       </c>
       <c r="H48" s="3">
-        <v>5180500</v>
+        <v>5343100</v>
       </c>
       <c r="I48" s="3">
-        <v>4999400</v>
+        <v>5156300</v>
       </c>
       <c r="J48" s="3">
-        <v>4641300</v>
+        <v>4786900</v>
       </c>
       <c r="K48" s="3">
         <v>1483700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15044800</v>
+        <v>15517000</v>
       </c>
       <c r="E49" s="3">
-        <v>16718400</v>
+        <v>17243100</v>
       </c>
       <c r="F49" s="3">
-        <v>16738400</v>
+        <v>17263700</v>
       </c>
       <c r="G49" s="3">
-        <v>16730400</v>
+        <v>17255500</v>
       </c>
       <c r="H49" s="3">
-        <v>16469400</v>
+        <v>16986400</v>
       </c>
       <c r="I49" s="3">
-        <v>14953000</v>
+        <v>15422300</v>
       </c>
       <c r="J49" s="3">
-        <v>10506100</v>
+        <v>10835800</v>
       </c>
       <c r="K49" s="3">
         <v>12218100</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2574900</v>
+        <v>2655700</v>
       </c>
       <c r="E52" s="3">
-        <v>2160900</v>
+        <v>2228700</v>
       </c>
       <c r="F52" s="3">
-        <v>1654900</v>
+        <v>1706900</v>
       </c>
       <c r="G52" s="3">
-        <v>884000</v>
+        <v>911800</v>
       </c>
       <c r="H52" s="3">
-        <v>1005200</v>
+        <v>1036800</v>
       </c>
       <c r="I52" s="3">
-        <v>842800</v>
+        <v>869200</v>
       </c>
       <c r="J52" s="3">
-        <v>661700</v>
+        <v>682500</v>
       </c>
       <c r="K52" s="3">
         <v>1192400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>44346300</v>
+        <v>45738200</v>
       </c>
       <c r="E54" s="3">
-        <v>41667500</v>
+        <v>42975400</v>
       </c>
       <c r="F54" s="3">
-        <v>39562600</v>
+        <v>40804300</v>
       </c>
       <c r="G54" s="3">
-        <v>38408200</v>
+        <v>39613800</v>
       </c>
       <c r="H54" s="3">
-        <v>37932900</v>
+        <v>39123600</v>
       </c>
       <c r="I54" s="3">
-        <v>34355400</v>
+        <v>35433800</v>
       </c>
       <c r="J54" s="3">
-        <v>30574300</v>
+        <v>31533900</v>
       </c>
       <c r="K54" s="3">
         <v>30848900</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1774800</v>
+        <v>1830500</v>
       </c>
       <c r="E57" s="3">
-        <v>2255400</v>
+        <v>2326200</v>
       </c>
       <c r="F57" s="3">
-        <v>2015700</v>
+        <v>2079000</v>
       </c>
       <c r="G57" s="3">
-        <v>1817400</v>
+        <v>1874400</v>
       </c>
       <c r="H57" s="3">
-        <v>1448600</v>
+        <v>1494000</v>
       </c>
       <c r="I57" s="3">
-        <v>1175600</v>
+        <v>1212500</v>
       </c>
       <c r="J57" s="3">
-        <v>1202300</v>
+        <v>1240000</v>
       </c>
       <c r="K57" s="3">
         <v>1341800</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2797300</v>
+        <v>2885100</v>
       </c>
       <c r="E58" s="3">
-        <v>2665500</v>
+        <v>2749100</v>
       </c>
       <c r="F58" s="3">
-        <v>2475100</v>
+        <v>2552800</v>
       </c>
       <c r="G58" s="3">
-        <v>3308500</v>
+        <v>3412400</v>
       </c>
       <c r="H58" s="3">
-        <v>2778600</v>
+        <v>2865800</v>
       </c>
       <c r="I58" s="3">
-        <v>2765300</v>
+        <v>2852100</v>
       </c>
       <c r="J58" s="3">
-        <v>2292700</v>
+        <v>2364600</v>
       </c>
       <c r="K58" s="3">
         <v>2436700</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4076700</v>
+        <v>4204700</v>
       </c>
       <c r="E59" s="3">
-        <v>4402900</v>
+        <v>4541100</v>
       </c>
       <c r="F59" s="3">
-        <v>3976900</v>
+        <v>4101700</v>
       </c>
       <c r="G59" s="3">
-        <v>3741200</v>
+        <v>3858700</v>
       </c>
       <c r="H59" s="3">
-        <v>4010200</v>
+        <v>4136000</v>
       </c>
       <c r="I59" s="3">
-        <v>3102200</v>
+        <v>3199500</v>
       </c>
       <c r="J59" s="3">
-        <v>2963700</v>
+        <v>3056700</v>
       </c>
       <c r="K59" s="3">
         <v>3034200</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8648800</v>
+        <v>8920200</v>
       </c>
       <c r="E60" s="3">
-        <v>9323800</v>
+        <v>9616400</v>
       </c>
       <c r="F60" s="3">
-        <v>8467700</v>
+        <v>8733500</v>
       </c>
       <c r="G60" s="3">
-        <v>8867100</v>
+        <v>9145400</v>
       </c>
       <c r="H60" s="3">
-        <v>8237400</v>
+        <v>8495900</v>
       </c>
       <c r="I60" s="3">
-        <v>7043100</v>
+        <v>7264200</v>
       </c>
       <c r="J60" s="3">
-        <v>6458600</v>
+        <v>6661300</v>
       </c>
       <c r="K60" s="3">
         <v>6812700</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20176000</v>
+        <v>20809300</v>
       </c>
       <c r="E61" s="3">
-        <v>14220700</v>
+        <v>14667000</v>
       </c>
       <c r="F61" s="3">
-        <v>10914800</v>
+        <v>11257400</v>
       </c>
       <c r="G61" s="3">
-        <v>8973600</v>
+        <v>9255300</v>
       </c>
       <c r="H61" s="3">
-        <v>11029300</v>
+        <v>11375500</v>
       </c>
       <c r="I61" s="3">
-        <v>11130500</v>
+        <v>11479900</v>
       </c>
       <c r="J61" s="3">
-        <v>10169200</v>
+        <v>10488400</v>
       </c>
       <c r="K61" s="3">
         <v>10143100</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4284400</v>
+        <v>4418900</v>
       </c>
       <c r="E62" s="3">
-        <v>4601300</v>
+        <v>4745700</v>
       </c>
       <c r="F62" s="3">
-        <v>4585300</v>
+        <v>4729300</v>
       </c>
       <c r="G62" s="3">
-        <v>4553400</v>
+        <v>4696300</v>
       </c>
       <c r="H62" s="3">
-        <v>5449400</v>
+        <v>5620500</v>
       </c>
       <c r="I62" s="3">
-        <v>3858400</v>
+        <v>3979500</v>
       </c>
       <c r="J62" s="3">
-        <v>3841100</v>
+        <v>3961700</v>
       </c>
       <c r="K62" s="3">
         <v>4043900</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35330000</v>
+        <v>36439000</v>
       </c>
       <c r="E66" s="3">
-        <v>30535700</v>
+        <v>31494100</v>
       </c>
       <c r="F66" s="3">
-        <v>26317800</v>
+        <v>27143800</v>
       </c>
       <c r="G66" s="3">
-        <v>24677500</v>
+        <v>25452100</v>
       </c>
       <c r="H66" s="3">
-        <v>26576100</v>
+        <v>27410200</v>
       </c>
       <c r="I66" s="3">
-        <v>24009100</v>
+        <v>24762700</v>
       </c>
       <c r="J66" s="3">
-        <v>21490100</v>
+        <v>22164700</v>
       </c>
       <c r="K66" s="3">
         <v>22163700</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10044100</v>
+        <v>10359300</v>
       </c>
       <c r="E72" s="3">
-        <v>12118400</v>
+        <v>12498800</v>
       </c>
       <c r="F72" s="3">
-        <v>14636100</v>
+        <v>15095500</v>
       </c>
       <c r="G72" s="3">
-        <v>14375100</v>
+        <v>14826300</v>
       </c>
       <c r="H72" s="3">
-        <v>12110400</v>
+        <v>12490500</v>
       </c>
       <c r="I72" s="3">
-        <v>11993300</v>
+        <v>12369700</v>
       </c>
       <c r="J72" s="3">
-        <v>10470100</v>
+        <v>10798800</v>
       </c>
       <c r="K72" s="3">
         <v>8787700</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9016200</v>
+        <v>9299200</v>
       </c>
       <c r="E76" s="3">
-        <v>11131800</v>
+        <v>11481200</v>
       </c>
       <c r="F76" s="3">
-        <v>13244800</v>
+        <v>13660500</v>
       </c>
       <c r="G76" s="3">
-        <v>13730700</v>
+        <v>14161700</v>
       </c>
       <c r="H76" s="3">
-        <v>11356800</v>
+        <v>11713300</v>
       </c>
       <c r="I76" s="3">
-        <v>10346300</v>
+        <v>10671100</v>
       </c>
       <c r="J76" s="3">
-        <v>9084100</v>
+        <v>9369300</v>
       </c>
       <c r="K76" s="3">
         <v>8685200</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1875900</v>
+        <v>1934800</v>
       </c>
       <c r="E81" s="3">
-        <v>4207200</v>
+        <v>4339300</v>
       </c>
       <c r="F81" s="3">
-        <v>4023500</v>
+        <v>4149800</v>
       </c>
       <c r="G81" s="3">
-        <v>3544200</v>
+        <v>3655400</v>
       </c>
       <c r="H81" s="3">
-        <v>2987700</v>
+        <v>3081400</v>
       </c>
       <c r="I81" s="3">
-        <v>3170100</v>
+        <v>3269600</v>
       </c>
       <c r="J81" s="3">
-        <v>2993000</v>
+        <v>3086900</v>
       </c>
       <c r="K81" s="3">
         <v>3019900</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2448400</v>
+        <v>2525300</v>
       </c>
       <c r="E83" s="3">
-        <v>497900</v>
+        <v>513600</v>
       </c>
       <c r="F83" s="3">
-        <v>656400</v>
+        <v>677000</v>
       </c>
       <c r="G83" s="3">
-        <v>480600</v>
+        <v>495700</v>
       </c>
       <c r="H83" s="3">
-        <v>629800</v>
+        <v>649500</v>
       </c>
       <c r="I83" s="3">
-        <v>585800</v>
+        <v>604200</v>
       </c>
       <c r="J83" s="3">
-        <v>837500</v>
+        <v>863700</v>
       </c>
       <c r="K83" s="3">
         <v>490200</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3088800</v>
+        <v>3185800</v>
       </c>
       <c r="E89" s="3">
-        <v>4324400</v>
+        <v>4460100</v>
       </c>
       <c r="F89" s="3">
-        <v>4106000</v>
+        <v>4234900</v>
       </c>
       <c r="G89" s="3">
-        <v>4169900</v>
+        <v>4300800</v>
       </c>
       <c r="H89" s="3">
-        <v>3392400</v>
+        <v>3498900</v>
       </c>
       <c r="I89" s="3">
-        <v>3396400</v>
+        <v>3503000</v>
       </c>
       <c r="J89" s="3">
-        <v>2383200</v>
+        <v>2458000</v>
       </c>
       <c r="K89" s="3">
         <v>2503800</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-932000</v>
+        <v>-961200</v>
       </c>
       <c r="E91" s="3">
-        <v>-893400</v>
+        <v>-921400</v>
       </c>
       <c r="F91" s="3">
-        <v>-777500</v>
+        <v>-801900</v>
       </c>
       <c r="G91" s="3">
-        <v>-689700</v>
+        <v>-711300</v>
       </c>
       <c r="H91" s="3">
-        <v>-673700</v>
+        <v>-694800</v>
       </c>
       <c r="I91" s="3">
-        <v>-849400</v>
+        <v>-876100</v>
       </c>
       <c r="J91" s="3">
-        <v>-854800</v>
+        <v>-881600</v>
       </c>
       <c r="K91" s="3">
         <v>-783300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1071800</v>
+        <v>-1105400</v>
       </c>
       <c r="E94" s="3">
-        <v>-359500</v>
+        <v>-370800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1532400</v>
+        <v>-1580500</v>
       </c>
       <c r="G94" s="3">
-        <v>-734900</v>
+        <v>-758000</v>
       </c>
       <c r="H94" s="3">
-        <v>793500</v>
+        <v>818400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1190300</v>
+        <v>-1227600</v>
       </c>
       <c r="J94" s="3">
-        <v>-1449900</v>
+        <v>-1495400</v>
       </c>
       <c r="K94" s="3">
         <v>-1528400</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2191500</v>
+        <v>-2260300</v>
       </c>
       <c r="E96" s="3">
-        <v>-2160900</v>
+        <v>-2228700</v>
       </c>
       <c r="F96" s="3">
-        <v>-2104900</v>
+        <v>-2171000</v>
       </c>
       <c r="G96" s="3">
-        <v>-2017100</v>
+        <v>-2080400</v>
       </c>
       <c r="H96" s="3">
-        <v>-1921200</v>
+        <v>-1981500</v>
       </c>
       <c r="I96" s="3">
-        <v>-1785400</v>
+        <v>-1841400</v>
       </c>
       <c r="J96" s="3">
-        <v>-1635000</v>
+        <v>-1686300</v>
       </c>
       <c r="K96" s="3">
         <v>-1385600</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1380700</v>
+        <v>1424000</v>
       </c>
       <c r="E100" s="3">
-        <v>-3893000</v>
+        <v>-4015200</v>
       </c>
       <c r="F100" s="3">
-        <v>-2819900</v>
+        <v>-2908400</v>
       </c>
       <c r="G100" s="3">
-        <v>-3272600</v>
+        <v>-3375300</v>
       </c>
       <c r="H100" s="3">
-        <v>-3729300</v>
+        <v>-3846300</v>
       </c>
       <c r="I100" s="3">
-        <v>-2308600</v>
+        <v>-2381100</v>
       </c>
       <c r="J100" s="3">
-        <v>-2159500</v>
+        <v>-2227300</v>
       </c>
       <c r="K100" s="3">
         <v>-243900</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-159800</v>
+        <v>-164800</v>
       </c>
       <c r="E101" s="3">
-        <v>-34600</v>
+        <v>-35700</v>
       </c>
       <c r="F101" s="3">
-        <v>-51900</v>
+        <v>-53600</v>
       </c>
       <c r="G101" s="3">
-        <v>-18600</v>
+        <v>-19200</v>
       </c>
       <c r="H101" s="3">
-        <v>111800</v>
+        <v>115300</v>
       </c>
       <c r="I101" s="3">
-        <v>-97200</v>
+        <v>-100200</v>
       </c>
       <c r="J101" s="3">
-        <v>-255600</v>
+        <v>-263700</v>
       </c>
       <c r="K101" s="3">
         <v>44300</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3238000</v>
+        <v>3339600</v>
       </c>
       <c r="E102" s="3">
-        <v>37300</v>
+        <v>38400</v>
       </c>
       <c r="F102" s="3">
-        <v>-298200</v>
+        <v>-307600</v>
       </c>
       <c r="G102" s="3">
-        <v>143800</v>
+        <v>148300</v>
       </c>
       <c r="H102" s="3">
-        <v>568500</v>
+        <v>586400</v>
       </c>
       <c r="I102" s="3">
-        <v>-199700</v>
+        <v>-206000</v>
       </c>
       <c r="J102" s="3">
-        <v>-1481800</v>
+        <v>-1528400</v>
       </c>
       <c r="K102" s="3">
         <v>775900</v>

--- a/AAII_Financials/Yearly/DEO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DEO_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16137700</v>
+        <v>16630400</v>
       </c>
       <c r="E8" s="3">
-        <v>17668800</v>
+        <v>18208200</v>
       </c>
       <c r="F8" s="3">
-        <v>16702100</v>
+        <v>17212000</v>
       </c>
       <c r="G8" s="3">
-        <v>16546900</v>
+        <v>17052100</v>
       </c>
       <c r="H8" s="3">
-        <v>14397900</v>
+        <v>14837400</v>
       </c>
       <c r="I8" s="3">
-        <v>14848300</v>
+        <v>15301600</v>
       </c>
       <c r="J8" s="3">
-        <v>14086200</v>
+        <v>14516200</v>
       </c>
       <c r="K8" s="3">
         <v>13920800</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6390800</v>
+        <v>6585900</v>
       </c>
       <c r="E9" s="3">
-        <v>6681900</v>
+        <v>6885900</v>
       </c>
       <c r="F9" s="3">
-        <v>6363400</v>
+        <v>6557600</v>
       </c>
       <c r="G9" s="3">
-        <v>6426500</v>
+        <v>6622700</v>
       </c>
       <c r="H9" s="3">
-        <v>5837400</v>
+        <v>6015600</v>
       </c>
       <c r="I9" s="3">
-        <v>6296100</v>
+        <v>6488300</v>
       </c>
       <c r="J9" s="3">
-        <v>5501000</v>
+        <v>5668900</v>
       </c>
       <c r="K9" s="3">
         <v>5438700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9746900</v>
+        <v>10044500</v>
       </c>
       <c r="E10" s="3">
-        <v>10986900</v>
+        <v>11322300</v>
       </c>
       <c r="F10" s="3">
-        <v>10338700</v>
+        <v>10654400</v>
       </c>
       <c r="G10" s="3">
-        <v>10120400</v>
+        <v>10429400</v>
       </c>
       <c r="H10" s="3">
-        <v>8560500</v>
+        <v>8821800</v>
       </c>
       <c r="I10" s="3">
-        <v>8552200</v>
+        <v>8813300</v>
       </c>
       <c r="J10" s="3">
-        <v>8585200</v>
+        <v>8847300</v>
       </c>
       <c r="K10" s="3">
         <v>8482000</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2009000</v>
+        <v>2070300</v>
       </c>
       <c r="E14" s="3">
-        <v>-96100</v>
+        <v>-99100</v>
       </c>
       <c r="F14" s="3">
-        <v>175800</v>
+        <v>181100</v>
       </c>
       <c r="G14" s="3">
-        <v>30200</v>
+        <v>31100</v>
       </c>
       <c r="H14" s="3">
-        <v>60400</v>
+        <v>62300</v>
       </c>
       <c r="I14" s="3">
-        <v>-142800</v>
+        <v>-147200</v>
       </c>
       <c r="J14" s="3">
-        <v>394100</v>
+        <v>406100</v>
       </c>
       <c r="K14" s="3">
         <v>102200</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13234800</v>
+        <v>13638800</v>
       </c>
       <c r="E17" s="3">
-        <v>11933000</v>
+        <v>12297300</v>
       </c>
       <c r="F17" s="3">
-        <v>11633700</v>
+        <v>11988800</v>
       </c>
       <c r="G17" s="3">
-        <v>11632300</v>
+        <v>11987400</v>
       </c>
       <c r="H17" s="3">
-        <v>10327800</v>
+        <v>10643000</v>
       </c>
       <c r="I17" s="3">
-        <v>10495300</v>
+        <v>10815700</v>
       </c>
       <c r="J17" s="3">
-        <v>10176700</v>
+        <v>10487400</v>
       </c>
       <c r="K17" s="3">
         <v>9860200</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2902900</v>
+        <v>2991500</v>
       </c>
       <c r="E18" s="3">
-        <v>5735800</v>
+        <v>5910900</v>
       </c>
       <c r="F18" s="3">
-        <v>5068400</v>
+        <v>5223200</v>
       </c>
       <c r="G18" s="3">
-        <v>4914600</v>
+        <v>5064700</v>
       </c>
       <c r="H18" s="3">
-        <v>4070100</v>
+        <v>4194400</v>
       </c>
       <c r="I18" s="3">
-        <v>4353000</v>
+        <v>4485900</v>
       </c>
       <c r="J18" s="3">
-        <v>3909500</v>
+        <v>4028800</v>
       </c>
       <c r="K18" s="3">
         <v>4060600</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>623400</v>
+        <v>642500</v>
       </c>
       <c r="E20" s="3">
-        <v>736000</v>
+        <v>758500</v>
       </c>
       <c r="F20" s="3">
-        <v>609700</v>
+        <v>628300</v>
       </c>
       <c r="G20" s="3">
-        <v>591800</v>
+        <v>609900</v>
       </c>
       <c r="H20" s="3">
-        <v>484700</v>
+        <v>499500</v>
       </c>
       <c r="I20" s="3">
-        <v>399600</v>
+        <v>411800</v>
       </c>
       <c r="J20" s="3">
-        <v>438000</v>
+        <v>451400</v>
       </c>
       <c r="K20" s="3">
         <v>322700</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6042700</v>
+        <v>6237100</v>
       </c>
       <c r="E21" s="3">
-        <v>6983600</v>
+        <v>7198800</v>
       </c>
       <c r="F21" s="3">
-        <v>6352700</v>
+        <v>6549300</v>
       </c>
       <c r="G21" s="3">
-        <v>6000500</v>
+        <v>6185600</v>
       </c>
       <c r="H21" s="3">
-        <v>5202100</v>
+        <v>5363500</v>
       </c>
       <c r="I21" s="3">
-        <v>5354700</v>
+        <v>5520500</v>
       </c>
       <c r="J21" s="3">
-        <v>5208200</v>
+        <v>5370600</v>
       </c>
       <c r="K21" s="3">
         <v>4870800</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>720900</v>
+        <v>742900</v>
       </c>
       <c r="E22" s="3">
-        <v>656400</v>
+        <v>676400</v>
       </c>
       <c r="F22" s="3">
-        <v>542400</v>
+        <v>559000</v>
       </c>
       <c r="G22" s="3">
-        <v>619300</v>
+        <v>638200</v>
       </c>
       <c r="H22" s="3">
-        <v>630300</v>
+        <v>649500</v>
       </c>
       <c r="I22" s="3">
-        <v>725000</v>
+        <v>747200</v>
       </c>
       <c r="J22" s="3">
-        <v>624800</v>
+        <v>643900</v>
       </c>
       <c r="K22" s="3">
         <v>618300</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2805400</v>
+        <v>2891100</v>
       </c>
       <c r="E23" s="3">
-        <v>5815500</v>
+        <v>5993000</v>
       </c>
       <c r="F23" s="3">
-        <v>5135700</v>
+        <v>5292500</v>
       </c>
       <c r="G23" s="3">
-        <v>4887200</v>
+        <v>5036400</v>
       </c>
       <c r="H23" s="3">
-        <v>3924600</v>
+        <v>4044400</v>
       </c>
       <c r="I23" s="3">
-        <v>4027600</v>
+        <v>4150500</v>
       </c>
       <c r="J23" s="3">
-        <v>3722700</v>
+        <v>3836400</v>
       </c>
       <c r="K23" s="3">
         <v>3765000</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>808800</v>
+        <v>833500</v>
       </c>
       <c r="E24" s="3">
-        <v>1233100</v>
+        <v>1270800</v>
       </c>
       <c r="F24" s="3">
-        <v>1304500</v>
+        <v>1344400</v>
       </c>
       <c r="G24" s="3">
-        <v>1005200</v>
+        <v>1035900</v>
       </c>
       <c r="H24" s="3">
-        <v>681100</v>
+        <v>701900</v>
       </c>
       <c r="I24" s="3">
-        <v>639900</v>
+        <v>659400</v>
       </c>
       <c r="J24" s="3">
-        <v>613800</v>
+        <v>632600</v>
       </c>
       <c r="K24" s="3">
         <v>624400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1996600</v>
+        <v>2057600</v>
       </c>
       <c r="E26" s="3">
-        <v>4582300</v>
+        <v>4722200</v>
       </c>
       <c r="F26" s="3">
-        <v>3831200</v>
+        <v>3948200</v>
       </c>
       <c r="G26" s="3">
-        <v>3882000</v>
+        <v>4000500</v>
       </c>
       <c r="H26" s="3">
-        <v>3243500</v>
+        <v>3342500</v>
       </c>
       <c r="I26" s="3">
-        <v>3387700</v>
+        <v>3491100</v>
       </c>
       <c r="J26" s="3">
-        <v>3108900</v>
+        <v>3203800</v>
       </c>
       <c r="K26" s="3">
         <v>3140600</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1934800</v>
+        <v>1993900</v>
       </c>
       <c r="E27" s="3">
-        <v>4339300</v>
+        <v>4471700</v>
       </c>
       <c r="F27" s="3">
-        <v>3663700</v>
+        <v>3775500</v>
       </c>
       <c r="G27" s="3">
-        <v>3731000</v>
+        <v>3844900</v>
       </c>
       <c r="H27" s="3">
-        <v>3081400</v>
+        <v>3175500</v>
       </c>
       <c r="I27" s="3">
-        <v>3269600</v>
+        <v>3369400</v>
       </c>
       <c r="J27" s="3">
-        <v>3200900</v>
+        <v>3298600</v>
       </c>
       <c r="K27" s="3">
         <v>3019900</v>
@@ -1359,10 +1359,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>486100</v>
+        <v>500900</v>
       </c>
       <c r="G29" s="3">
-        <v>-75500</v>
+        <v>-77800</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>-114000</v>
+        <v>-117500</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-623400</v>
+        <v>-642500</v>
       </c>
       <c r="E32" s="3">
-        <v>-736000</v>
+        <v>-758500</v>
       </c>
       <c r="F32" s="3">
-        <v>-609700</v>
+        <v>-628300</v>
       </c>
       <c r="G32" s="3">
-        <v>-591800</v>
+        <v>-609900</v>
       </c>
       <c r="H32" s="3">
-        <v>-484700</v>
+        <v>-499500</v>
       </c>
       <c r="I32" s="3">
-        <v>-399600</v>
+        <v>-411800</v>
       </c>
       <c r="J32" s="3">
-        <v>-438000</v>
+        <v>-451400</v>
       </c>
       <c r="K32" s="3">
         <v>-322700</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1934800</v>
+        <v>1993900</v>
       </c>
       <c r="E33" s="3">
-        <v>4339300</v>
+        <v>4471700</v>
       </c>
       <c r="F33" s="3">
-        <v>4149800</v>
+        <v>4276500</v>
       </c>
       <c r="G33" s="3">
-        <v>3655400</v>
+        <v>3767000</v>
       </c>
       <c r="H33" s="3">
-        <v>3081400</v>
+        <v>3175500</v>
       </c>
       <c r="I33" s="3">
-        <v>3269600</v>
+        <v>3369400</v>
       </c>
       <c r="J33" s="3">
-        <v>3086900</v>
+        <v>3181200</v>
       </c>
       <c r="K33" s="3">
         <v>3019900</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1934800</v>
+        <v>1993900</v>
       </c>
       <c r="E35" s="3">
-        <v>4339300</v>
+        <v>4471700</v>
       </c>
       <c r="F35" s="3">
-        <v>4149800</v>
+        <v>4276500</v>
       </c>
       <c r="G35" s="3">
-        <v>3655400</v>
+        <v>3767000</v>
       </c>
       <c r="H35" s="3">
-        <v>3081400</v>
+        <v>3175500</v>
       </c>
       <c r="I35" s="3">
-        <v>3269600</v>
+        <v>3369400</v>
       </c>
       <c r="J35" s="3">
-        <v>3086900</v>
+        <v>3181200</v>
       </c>
       <c r="K35" s="3">
         <v>3019900</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4563100</v>
+        <v>4702400</v>
       </c>
       <c r="E41" s="3">
-        <v>1279800</v>
+        <v>1318900</v>
       </c>
       <c r="F41" s="3">
-        <v>1200200</v>
+        <v>1236800</v>
       </c>
       <c r="G41" s="3">
-        <v>1635500</v>
+        <v>1685400</v>
       </c>
       <c r="H41" s="3">
-        <v>1495400</v>
+        <v>1541100</v>
       </c>
       <c r="I41" s="3">
-        <v>648100</v>
+        <v>667900</v>
       </c>
       <c r="J41" s="3">
-        <v>854100</v>
+        <v>880200</v>
       </c>
       <c r="K41" s="3">
         <v>3114400</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>100200</v>
+        <v>103300</v>
       </c>
       <c r="E42" s="3">
-        <v>170300</v>
+        <v>175500</v>
       </c>
       <c r="F42" s="3">
-        <v>34300</v>
+        <v>35400</v>
       </c>
       <c r="G42" s="3">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="H42" s="3">
-        <v>204600</v>
+        <v>210900</v>
       </c>
       <c r="I42" s="3">
-        <v>63200</v>
+        <v>65100</v>
       </c>
       <c r="J42" s="3">
-        <v>162000</v>
+        <v>167000</v>
       </c>
       <c r="K42" s="3">
         <v>160500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2944100</v>
+        <v>3034000</v>
       </c>
       <c r="E43" s="3">
-        <v>3536000</v>
+        <v>3643900</v>
       </c>
       <c r="F43" s="3">
-        <v>3551100</v>
+        <v>3659500</v>
       </c>
       <c r="G43" s="3">
-        <v>3341000</v>
+        <v>3443000</v>
       </c>
       <c r="H43" s="3">
-        <v>3428900</v>
+        <v>3533500</v>
       </c>
       <c r="I43" s="3">
-        <v>3143200</v>
+        <v>3239200</v>
       </c>
       <c r="J43" s="3">
-        <v>3236600</v>
+        <v>3335400</v>
       </c>
       <c r="K43" s="3">
         <v>2855200</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7926100</v>
+        <v>8168000</v>
       </c>
       <c r="E44" s="3">
-        <v>7514100</v>
+        <v>7743500</v>
       </c>
       <c r="F44" s="3">
-        <v>6886500</v>
+        <v>7096800</v>
       </c>
       <c r="G44" s="3">
-        <v>6574800</v>
+        <v>6775500</v>
       </c>
       <c r="H44" s="3">
-        <v>6287800</v>
+        <v>6479800</v>
       </c>
       <c r="I44" s="3">
-        <v>6281000</v>
+        <v>6472700</v>
       </c>
       <c r="J44" s="3">
-        <v>5797600</v>
+        <v>5974600</v>
       </c>
       <c r="K44" s="3">
         <v>5193100</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>218300</v>
+        <v>225000</v>
       </c>
       <c r="E45" s="3">
-        <v>370800</v>
+        <v>382100</v>
       </c>
       <c r="F45" s="3">
-        <v>262300</v>
+        <v>270300</v>
       </c>
       <c r="G45" s="3">
-        <v>296600</v>
+        <v>305700</v>
       </c>
       <c r="H45" s="3">
-        <v>738800</v>
+        <v>761300</v>
       </c>
       <c r="I45" s="3">
-        <v>396900</v>
+        <v>409000</v>
       </c>
       <c r="J45" s="3">
-        <v>206000</v>
+        <v>212300</v>
       </c>
       <c r="K45" s="3">
         <v>216000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15751900</v>
+        <v>16232700</v>
       </c>
       <c r="E46" s="3">
-        <v>12870900</v>
+        <v>13263800</v>
       </c>
       <c r="F46" s="3">
-        <v>11934400</v>
+        <v>12298700</v>
       </c>
       <c r="G46" s="3">
-        <v>11880800</v>
+        <v>12243500</v>
       </c>
       <c r="H46" s="3">
-        <v>12155500</v>
+        <v>12526600</v>
       </c>
       <c r="I46" s="3">
-        <v>10532400</v>
+        <v>10853900</v>
       </c>
       <c r="J46" s="3">
-        <v>10256400</v>
+        <v>10569500</v>
       </c>
       <c r="K46" s="3">
         <v>10504700</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4979200</v>
+        <v>5131200</v>
       </c>
       <c r="E47" s="3">
-        <v>4468400</v>
+        <v>4604800</v>
       </c>
       <c r="F47" s="3">
-        <v>4252800</v>
+        <v>4382600</v>
       </c>
       <c r="G47" s="3">
-        <v>4024800</v>
+        <v>4147700</v>
       </c>
       <c r="H47" s="3">
-        <v>3601900</v>
+        <v>3711800</v>
       </c>
       <c r="I47" s="3">
-        <v>3453600</v>
+        <v>3559000</v>
       </c>
       <c r="J47" s="3">
-        <v>4972300</v>
+        <v>5124100</v>
       </c>
       <c r="K47" s="3">
         <v>3753800</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6834400</v>
+        <v>7043000</v>
       </c>
       <c r="E48" s="3">
-        <v>6164200</v>
+        <v>6352400</v>
       </c>
       <c r="F48" s="3">
-        <v>5646600</v>
+        <v>5818900</v>
       </c>
       <c r="G48" s="3">
-        <v>5540800</v>
+        <v>5710000</v>
       </c>
       <c r="H48" s="3">
-        <v>5343100</v>
+        <v>5506200</v>
       </c>
       <c r="I48" s="3">
-        <v>5156300</v>
+        <v>5313700</v>
       </c>
       <c r="J48" s="3">
-        <v>4786900</v>
+        <v>4933100</v>
       </c>
       <c r="K48" s="3">
         <v>1483700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15517000</v>
+        <v>15990700</v>
       </c>
       <c r="E49" s="3">
-        <v>17243100</v>
+        <v>17769500</v>
       </c>
       <c r="F49" s="3">
-        <v>17263700</v>
+        <v>17790800</v>
       </c>
       <c r="G49" s="3">
-        <v>17255500</v>
+        <v>17782300</v>
       </c>
       <c r="H49" s="3">
-        <v>16986400</v>
+        <v>17504900</v>
       </c>
       <c r="I49" s="3">
-        <v>15422300</v>
+        <v>15893100</v>
       </c>
       <c r="J49" s="3">
-        <v>10835800</v>
+        <v>11166600</v>
       </c>
       <c r="K49" s="3">
         <v>12218100</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2655700</v>
+        <v>2736800</v>
       </c>
       <c r="E52" s="3">
-        <v>2228700</v>
+        <v>2296700</v>
       </c>
       <c r="F52" s="3">
-        <v>1706900</v>
+        <v>1759000</v>
       </c>
       <c r="G52" s="3">
-        <v>911800</v>
+        <v>939600</v>
       </c>
       <c r="H52" s="3">
-        <v>1036800</v>
+        <v>1068400</v>
       </c>
       <c r="I52" s="3">
-        <v>869200</v>
+        <v>895800</v>
       </c>
       <c r="J52" s="3">
-        <v>682500</v>
+        <v>703300</v>
       </c>
       <c r="K52" s="3">
         <v>1192400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>45738200</v>
+        <v>47134500</v>
       </c>
       <c r="E54" s="3">
-        <v>42975400</v>
+        <v>44287300</v>
       </c>
       <c r="F54" s="3">
-        <v>40804300</v>
+        <v>42050000</v>
       </c>
       <c r="G54" s="3">
-        <v>39613800</v>
+        <v>40823100</v>
       </c>
       <c r="H54" s="3">
-        <v>39123600</v>
+        <v>40317900</v>
       </c>
       <c r="I54" s="3">
-        <v>35433800</v>
+        <v>36515500</v>
       </c>
       <c r="J54" s="3">
-        <v>31533900</v>
+        <v>32496600</v>
       </c>
       <c r="K54" s="3">
         <v>30848900</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1830500</v>
+        <v>1886300</v>
       </c>
       <c r="E57" s="3">
-        <v>2326200</v>
+        <v>2397200</v>
       </c>
       <c r="F57" s="3">
-        <v>2079000</v>
+        <v>2142500</v>
       </c>
       <c r="G57" s="3">
-        <v>1874400</v>
+        <v>1931600</v>
       </c>
       <c r="H57" s="3">
-        <v>1494000</v>
+        <v>1539600</v>
       </c>
       <c r="I57" s="3">
-        <v>1212500</v>
+        <v>1249500</v>
       </c>
       <c r="J57" s="3">
-        <v>1240000</v>
+        <v>1277800</v>
       </c>
       <c r="K57" s="3">
         <v>1341800</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2885100</v>
+        <v>2973100</v>
       </c>
       <c r="E58" s="3">
-        <v>2749100</v>
+        <v>2833100</v>
       </c>
       <c r="F58" s="3">
-        <v>2552800</v>
+        <v>2630700</v>
       </c>
       <c r="G58" s="3">
-        <v>3412400</v>
+        <v>3516500</v>
       </c>
       <c r="H58" s="3">
-        <v>2865800</v>
+        <v>2953300</v>
       </c>
       <c r="I58" s="3">
-        <v>2852100</v>
+        <v>2939200</v>
       </c>
       <c r="J58" s="3">
-        <v>2364600</v>
+        <v>2436800</v>
       </c>
       <c r="K58" s="3">
         <v>2436700</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4204700</v>
+        <v>4333100</v>
       </c>
       <c r="E59" s="3">
-        <v>4541100</v>
+        <v>4679800</v>
       </c>
       <c r="F59" s="3">
-        <v>4101700</v>
+        <v>4226900</v>
       </c>
       <c r="G59" s="3">
-        <v>3858700</v>
+        <v>3976500</v>
       </c>
       <c r="H59" s="3">
-        <v>4136000</v>
+        <v>4262300</v>
       </c>
       <c r="I59" s="3">
-        <v>3199500</v>
+        <v>3297200</v>
       </c>
       <c r="J59" s="3">
-        <v>3056700</v>
+        <v>3150000</v>
       </c>
       <c r="K59" s="3">
         <v>3034200</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8920200</v>
+        <v>9192600</v>
       </c>
       <c r="E60" s="3">
-        <v>9616400</v>
+        <v>9910000</v>
       </c>
       <c r="F60" s="3">
-        <v>8733500</v>
+        <v>9000100</v>
       </c>
       <c r="G60" s="3">
-        <v>9145400</v>
+        <v>9424600</v>
       </c>
       <c r="H60" s="3">
-        <v>8495900</v>
+        <v>8755300</v>
       </c>
       <c r="I60" s="3">
-        <v>7264200</v>
+        <v>7485900</v>
       </c>
       <c r="J60" s="3">
-        <v>6661300</v>
+        <v>6864700</v>
       </c>
       <c r="K60" s="3">
         <v>6812700</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20809300</v>
+        <v>21444600</v>
       </c>
       <c r="E61" s="3">
-        <v>14667000</v>
+        <v>15114800</v>
       </c>
       <c r="F61" s="3">
-        <v>11257400</v>
+        <v>11601100</v>
       </c>
       <c r="G61" s="3">
-        <v>9255300</v>
+        <v>9537800</v>
       </c>
       <c r="H61" s="3">
-        <v>11375500</v>
+        <v>11722800</v>
       </c>
       <c r="I61" s="3">
-        <v>11479900</v>
+        <v>11830300</v>
       </c>
       <c r="J61" s="3">
-        <v>10488400</v>
+        <v>10808600</v>
       </c>
       <c r="K61" s="3">
         <v>10143100</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4418900</v>
+        <v>4553800</v>
       </c>
       <c r="E62" s="3">
-        <v>4745700</v>
+        <v>4890600</v>
       </c>
       <c r="F62" s="3">
-        <v>4729300</v>
+        <v>4873600</v>
       </c>
       <c r="G62" s="3">
-        <v>4696300</v>
+        <v>4839700</v>
       </c>
       <c r="H62" s="3">
-        <v>5620500</v>
+        <v>5792000</v>
       </c>
       <c r="I62" s="3">
-        <v>3979500</v>
+        <v>4101000</v>
       </c>
       <c r="J62" s="3">
-        <v>3961700</v>
+        <v>4082600</v>
       </c>
       <c r="K62" s="3">
         <v>4043900</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>36439000</v>
+        <v>37551400</v>
       </c>
       <c r="E66" s="3">
-        <v>31494100</v>
+        <v>32455500</v>
       </c>
       <c r="F66" s="3">
-        <v>27143800</v>
+        <v>27972500</v>
       </c>
       <c r="G66" s="3">
-        <v>25452100</v>
+        <v>26229100</v>
       </c>
       <c r="H66" s="3">
-        <v>27410200</v>
+        <v>28247000</v>
       </c>
       <c r="I66" s="3">
-        <v>24762700</v>
+        <v>25518700</v>
       </c>
       <c r="J66" s="3">
-        <v>22164700</v>
+        <v>22841300</v>
       </c>
       <c r="K66" s="3">
         <v>22163700</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10359300</v>
+        <v>10675600</v>
       </c>
       <c r="E72" s="3">
-        <v>12498800</v>
+        <v>12880300</v>
       </c>
       <c r="F72" s="3">
-        <v>15095500</v>
+        <v>15556300</v>
       </c>
       <c r="G72" s="3">
-        <v>14826300</v>
+        <v>15278900</v>
       </c>
       <c r="H72" s="3">
-        <v>12490500</v>
+        <v>12871800</v>
       </c>
       <c r="I72" s="3">
-        <v>12369700</v>
+        <v>12747300</v>
       </c>
       <c r="J72" s="3">
-        <v>10798800</v>
+        <v>11128400</v>
       </c>
       <c r="K72" s="3">
         <v>8787700</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9299200</v>
+        <v>9583100</v>
       </c>
       <c r="E76" s="3">
-        <v>11481200</v>
+        <v>11831700</v>
       </c>
       <c r="F76" s="3">
-        <v>13660500</v>
+        <v>14077500</v>
       </c>
       <c r="G76" s="3">
-        <v>14161700</v>
+        <v>14594000</v>
       </c>
       <c r="H76" s="3">
-        <v>11713300</v>
+        <v>12070900</v>
       </c>
       <c r="I76" s="3">
-        <v>10671100</v>
+        <v>10996800</v>
       </c>
       <c r="J76" s="3">
-        <v>9369300</v>
+        <v>9655300</v>
       </c>
       <c r="K76" s="3">
         <v>8685200</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1934800</v>
+        <v>1993900</v>
       </c>
       <c r="E81" s="3">
-        <v>4339300</v>
+        <v>4471700</v>
       </c>
       <c r="F81" s="3">
-        <v>4149800</v>
+        <v>4276500</v>
       </c>
       <c r="G81" s="3">
-        <v>3655400</v>
+        <v>3767000</v>
       </c>
       <c r="H81" s="3">
-        <v>3081400</v>
+        <v>3175500</v>
       </c>
       <c r="I81" s="3">
-        <v>3269600</v>
+        <v>3369400</v>
       </c>
       <c r="J81" s="3">
-        <v>3086900</v>
+        <v>3181200</v>
       </c>
       <c r="K81" s="3">
         <v>3019900</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2525300</v>
+        <v>2602400</v>
       </c>
       <c r="E83" s="3">
-        <v>513600</v>
+        <v>529300</v>
       </c>
       <c r="F83" s="3">
-        <v>677000</v>
+        <v>697600</v>
       </c>
       <c r="G83" s="3">
-        <v>495700</v>
+        <v>510900</v>
       </c>
       <c r="H83" s="3">
-        <v>649500</v>
+        <v>669300</v>
       </c>
       <c r="I83" s="3">
-        <v>604200</v>
+        <v>622600</v>
       </c>
       <c r="J83" s="3">
-        <v>863700</v>
+        <v>890100</v>
       </c>
       <c r="K83" s="3">
         <v>490200</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3185800</v>
+        <v>3283100</v>
       </c>
       <c r="E89" s="3">
-        <v>4460100</v>
+        <v>4596300</v>
       </c>
       <c r="F89" s="3">
-        <v>4234900</v>
+        <v>4364200</v>
       </c>
       <c r="G89" s="3">
-        <v>4300800</v>
+        <v>4432100</v>
       </c>
       <c r="H89" s="3">
-        <v>3498900</v>
+        <v>3605700</v>
       </c>
       <c r="I89" s="3">
-        <v>3503000</v>
+        <v>3609900</v>
       </c>
       <c r="J89" s="3">
-        <v>2458000</v>
+        <v>2533000</v>
       </c>
       <c r="K89" s="3">
         <v>2503800</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-961200</v>
+        <v>-990600</v>
       </c>
       <c r="E91" s="3">
-        <v>-921400</v>
+        <v>-949500</v>
       </c>
       <c r="F91" s="3">
-        <v>-801900</v>
+        <v>-826400</v>
       </c>
       <c r="G91" s="3">
-        <v>-711300</v>
+        <v>-733000</v>
       </c>
       <c r="H91" s="3">
-        <v>-694800</v>
+        <v>-716000</v>
       </c>
       <c r="I91" s="3">
-        <v>-876100</v>
+        <v>-902800</v>
       </c>
       <c r="J91" s="3">
-        <v>-881600</v>
+        <v>-908500</v>
       </c>
       <c r="K91" s="3">
         <v>-783300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1105400</v>
+        <v>-1139200</v>
       </c>
       <c r="E94" s="3">
-        <v>-370800</v>
+        <v>-382100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1580500</v>
+        <v>-1628800</v>
       </c>
       <c r="G94" s="3">
-        <v>-758000</v>
+        <v>-781100</v>
       </c>
       <c r="H94" s="3">
-        <v>818400</v>
+        <v>843400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1227600</v>
+        <v>-1265100</v>
       </c>
       <c r="J94" s="3">
-        <v>-1495400</v>
+        <v>-1541100</v>
       </c>
       <c r="K94" s="3">
         <v>-1528400</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2260300</v>
+        <v>-2329300</v>
       </c>
       <c r="E96" s="3">
-        <v>-2228700</v>
+        <v>-2296700</v>
       </c>
       <c r="F96" s="3">
-        <v>-2171000</v>
+        <v>-2237300</v>
       </c>
       <c r="G96" s="3">
-        <v>-2080400</v>
+        <v>-2143900</v>
       </c>
       <c r="H96" s="3">
-        <v>-1981500</v>
+        <v>-2042000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1841400</v>
+        <v>-1897700</v>
       </c>
       <c r="J96" s="3">
-        <v>-1686300</v>
+        <v>-1737800</v>
       </c>
       <c r="K96" s="3">
         <v>-1385600</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1424000</v>
+        <v>1467500</v>
       </c>
       <c r="E100" s="3">
-        <v>-4015200</v>
+        <v>-4137800</v>
       </c>
       <c r="F100" s="3">
-        <v>-2908400</v>
+        <v>-2997200</v>
       </c>
       <c r="G100" s="3">
-        <v>-3375300</v>
+        <v>-3478300</v>
       </c>
       <c r="H100" s="3">
-        <v>-3846300</v>
+        <v>-3963700</v>
       </c>
       <c r="I100" s="3">
-        <v>-2381100</v>
+        <v>-2453800</v>
       </c>
       <c r="J100" s="3">
-        <v>-2227300</v>
+        <v>-2295300</v>
       </c>
       <c r="K100" s="3">
         <v>-243900</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-164800</v>
+        <v>-169800</v>
       </c>
       <c r="E101" s="3">
-        <v>-35700</v>
+        <v>-36800</v>
       </c>
       <c r="F101" s="3">
-        <v>-53600</v>
+        <v>-55200</v>
       </c>
       <c r="G101" s="3">
-        <v>-19200</v>
+        <v>-19800</v>
       </c>
       <c r="H101" s="3">
-        <v>115300</v>
+        <v>118900</v>
       </c>
       <c r="I101" s="3">
-        <v>-100200</v>
+        <v>-103300</v>
       </c>
       <c r="J101" s="3">
-        <v>-263700</v>
+        <v>-271700</v>
       </c>
       <c r="K101" s="3">
         <v>44300</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3339600</v>
+        <v>3441500</v>
       </c>
       <c r="E102" s="3">
-        <v>38400</v>
+        <v>39600</v>
       </c>
       <c r="F102" s="3">
-        <v>-307600</v>
+        <v>-317000</v>
       </c>
       <c r="G102" s="3">
-        <v>148300</v>
+        <v>152800</v>
       </c>
       <c r="H102" s="3">
-        <v>586400</v>
+        <v>604300</v>
       </c>
       <c r="I102" s="3">
-        <v>-206000</v>
+        <v>-212300</v>
       </c>
       <c r="J102" s="3">
-        <v>-1528400</v>
+        <v>-1575000</v>
       </c>
       <c r="K102" s="3">
         <v>775900</v>

--- a/AAII_Financials/Yearly/DEO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DEO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>DEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42916</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42551</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42185</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41820</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41455</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41090</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16630400</v>
+        <v>17365100</v>
       </c>
       <c r="E8" s="3">
-        <v>18208200</v>
+        <v>16027300</v>
       </c>
       <c r="F8" s="3">
-        <v>17212000</v>
+        <v>17547900</v>
       </c>
       <c r="G8" s="3">
-        <v>17052100</v>
+        <v>16587800</v>
       </c>
       <c r="H8" s="3">
-        <v>14837400</v>
+        <v>16433700</v>
       </c>
       <c r="I8" s="3">
-        <v>15301600</v>
+        <v>14299300</v>
       </c>
       <c r="J8" s="3">
+        <v>14746700</v>
+      </c>
+      <c r="K8" s="3">
         <v>14516200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13920800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13876600</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6585900</v>
+        <v>6870800</v>
       </c>
       <c r="E9" s="3">
-        <v>6885900</v>
+        <v>6347100</v>
       </c>
       <c r="F9" s="3">
-        <v>6557600</v>
+        <v>6636200</v>
       </c>
       <c r="G9" s="3">
-        <v>6622700</v>
+        <v>6319800</v>
       </c>
       <c r="H9" s="3">
-        <v>6015600</v>
+        <v>6382500</v>
       </c>
       <c r="I9" s="3">
-        <v>6488300</v>
+        <v>5797500</v>
       </c>
       <c r="J9" s="3">
+        <v>6253000</v>
+      </c>
+      <c r="K9" s="3">
         <v>5668900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5438700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5488500</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10044500</v>
+        <v>10494400</v>
       </c>
       <c r="E10" s="3">
-        <v>11322300</v>
+        <v>9680200</v>
       </c>
       <c r="F10" s="3">
-        <v>10654400</v>
+        <v>10911700</v>
       </c>
       <c r="G10" s="3">
-        <v>10429400</v>
+        <v>10268000</v>
       </c>
       <c r="H10" s="3">
-        <v>8821800</v>
+        <v>10051100</v>
       </c>
       <c r="I10" s="3">
-        <v>8813300</v>
+        <v>8501900</v>
       </c>
       <c r="J10" s="3">
+        <v>8493700</v>
+      </c>
+      <c r="K10" s="3">
         <v>8847300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8482000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8388000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,42 +906,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2070300</v>
+        <v>-1400</v>
       </c>
       <c r="E14" s="3">
-        <v>-99100</v>
+        <v>1995200</v>
       </c>
       <c r="F14" s="3">
-        <v>181100</v>
+        <v>-95500</v>
       </c>
       <c r="G14" s="3">
-        <v>31100</v>
+        <v>174600</v>
       </c>
       <c r="H14" s="3">
-        <v>62300</v>
+        <v>30000</v>
       </c>
       <c r="I14" s="3">
-        <v>-147200</v>
+        <v>60000</v>
       </c>
       <c r="J14" s="3">
+        <v>-141800</v>
+      </c>
+      <c r="K14" s="3">
         <v>406100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>102200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-191700</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -956,9 +978,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13638800</v>
+        <v>12257700</v>
       </c>
       <c r="E17" s="3">
-        <v>12297300</v>
+        <v>13144200</v>
       </c>
       <c r="F17" s="3">
-        <v>11988800</v>
+        <v>11851300</v>
       </c>
       <c r="G17" s="3">
-        <v>11987400</v>
+        <v>11554000</v>
       </c>
       <c r="H17" s="3">
-        <v>10643000</v>
+        <v>11552700</v>
       </c>
       <c r="I17" s="3">
-        <v>10815700</v>
+        <v>10257100</v>
       </c>
       <c r="J17" s="3">
+        <v>10423400</v>
+      </c>
+      <c r="K17" s="3">
         <v>10487400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9860200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9631000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2991500</v>
+        <v>5107400</v>
       </c>
       <c r="E18" s="3">
-        <v>5910900</v>
+        <v>2883100</v>
       </c>
       <c r="F18" s="3">
-        <v>5223200</v>
+        <v>5696600</v>
       </c>
       <c r="G18" s="3">
-        <v>5064700</v>
+        <v>5033700</v>
       </c>
       <c r="H18" s="3">
-        <v>4194400</v>
+        <v>4881000</v>
       </c>
       <c r="I18" s="3">
-        <v>4485900</v>
+        <v>4042300</v>
       </c>
       <c r="J18" s="3">
+        <v>4323200</v>
+      </c>
+      <c r="K18" s="3">
         <v>4028800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4060600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4245500</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>642500</v>
+        <v>581000</v>
       </c>
       <c r="E20" s="3">
-        <v>758500</v>
+        <v>619200</v>
       </c>
       <c r="F20" s="3">
-        <v>628300</v>
+        <v>731000</v>
       </c>
       <c r="G20" s="3">
-        <v>609900</v>
+        <v>605500</v>
       </c>
       <c r="H20" s="3">
-        <v>499500</v>
+        <v>587800</v>
       </c>
       <c r="I20" s="3">
-        <v>411800</v>
+        <v>481400</v>
       </c>
       <c r="J20" s="3">
+        <v>396900</v>
+      </c>
+      <c r="K20" s="3">
         <v>451400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>322700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>366500</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6237100</v>
+        <v>6303200</v>
       </c>
       <c r="E21" s="3">
-        <v>7198800</v>
+        <v>6031800</v>
       </c>
       <c r="F21" s="3">
-        <v>6549300</v>
+        <v>6942000</v>
       </c>
       <c r="G21" s="3">
-        <v>6185600</v>
+        <v>6317400</v>
       </c>
       <c r="H21" s="3">
-        <v>5363500</v>
+        <v>5965400</v>
       </c>
       <c r="I21" s="3">
-        <v>5520500</v>
+        <v>5174300</v>
       </c>
       <c r="J21" s="3">
+        <v>5325300</v>
+      </c>
+      <c r="K21" s="3">
         <v>5370600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4870800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5148800</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>742900</v>
+        <v>634200</v>
       </c>
       <c r="E22" s="3">
-        <v>676400</v>
+        <v>716000</v>
       </c>
       <c r="F22" s="3">
-        <v>559000</v>
+        <v>651900</v>
       </c>
       <c r="G22" s="3">
-        <v>638200</v>
+        <v>538700</v>
       </c>
       <c r="H22" s="3">
-        <v>649500</v>
+        <v>615100</v>
       </c>
       <c r="I22" s="3">
-        <v>747200</v>
+        <v>626000</v>
       </c>
       <c r="J22" s="3">
+        <v>720100</v>
+      </c>
+      <c r="K22" s="3">
         <v>643900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>618300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>643000</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2891100</v>
+        <v>5054200</v>
       </c>
       <c r="E23" s="3">
-        <v>5993000</v>
+        <v>2786200</v>
       </c>
       <c r="F23" s="3">
-        <v>5292500</v>
+        <v>5775700</v>
       </c>
       <c r="G23" s="3">
-        <v>5036400</v>
+        <v>5100600</v>
       </c>
       <c r="H23" s="3">
-        <v>4044400</v>
+        <v>4853700</v>
       </c>
       <c r="I23" s="3">
-        <v>4150500</v>
+        <v>3897700</v>
       </c>
       <c r="J23" s="3">
+        <v>4000000</v>
+      </c>
+      <c r="K23" s="3">
         <v>3836400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3765000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3969000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>833500</v>
+        <v>1237000</v>
       </c>
       <c r="E24" s="3">
-        <v>1270800</v>
+        <v>803300</v>
       </c>
       <c r="F24" s="3">
-        <v>1344400</v>
+        <v>1224700</v>
       </c>
       <c r="G24" s="3">
-        <v>1035900</v>
+        <v>1295600</v>
       </c>
       <c r="H24" s="3">
-        <v>701900</v>
+        <v>998300</v>
       </c>
       <c r="I24" s="3">
-        <v>659400</v>
+        <v>676400</v>
       </c>
       <c r="J24" s="3">
+        <v>635500</v>
+      </c>
+      <c r="K24" s="3">
         <v>632600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>624400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1318700</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2057600</v>
+        <v>3817200</v>
       </c>
       <c r="E26" s="3">
-        <v>4722200</v>
+        <v>1983000</v>
       </c>
       <c r="F26" s="3">
-        <v>3948200</v>
+        <v>4551000</v>
       </c>
       <c r="G26" s="3">
-        <v>4000500</v>
+        <v>3805000</v>
       </c>
       <c r="H26" s="3">
-        <v>3342500</v>
+        <v>3855400</v>
       </c>
       <c r="I26" s="3">
-        <v>3491100</v>
+        <v>3221300</v>
       </c>
       <c r="J26" s="3">
+        <v>3364500</v>
+      </c>
+      <c r="K26" s="3">
         <v>3203800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3140600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2650400</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1993900</v>
+        <v>3627700</v>
       </c>
       <c r="E27" s="3">
-        <v>4471700</v>
+        <v>1921600</v>
       </c>
       <c r="F27" s="3">
-        <v>3775500</v>
+        <v>4309600</v>
       </c>
       <c r="G27" s="3">
-        <v>3844900</v>
+        <v>3638600</v>
       </c>
       <c r="H27" s="3">
-        <v>3175500</v>
+        <v>3705400</v>
       </c>
       <c r="I27" s="3">
-        <v>3369400</v>
+        <v>3060300</v>
       </c>
       <c r="J27" s="3">
+        <v>3247200</v>
+      </c>
+      <c r="K27" s="3">
         <v>3298600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3019900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2493800</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,42 +1403,48 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>500900</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-77800</v>
+        <v>482800</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>-75000</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-117500</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-14300</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-642500</v>
+        <v>-581000</v>
       </c>
       <c r="E32" s="3">
-        <v>-758500</v>
+        <v>-619200</v>
       </c>
       <c r="F32" s="3">
-        <v>-628300</v>
+        <v>-731000</v>
       </c>
       <c r="G32" s="3">
-        <v>-609900</v>
+        <v>-605500</v>
       </c>
       <c r="H32" s="3">
-        <v>-499500</v>
+        <v>-587800</v>
       </c>
       <c r="I32" s="3">
-        <v>-411800</v>
+        <v>-481400</v>
       </c>
       <c r="J32" s="3">
+        <v>-396900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-451400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-322700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-366500</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1993900</v>
+        <v>3627700</v>
       </c>
       <c r="E33" s="3">
-        <v>4471700</v>
+        <v>1921600</v>
       </c>
       <c r="F33" s="3">
-        <v>4276500</v>
+        <v>4309600</v>
       </c>
       <c r="G33" s="3">
-        <v>3767000</v>
+        <v>4121400</v>
       </c>
       <c r="H33" s="3">
-        <v>3175500</v>
+        <v>3630400</v>
       </c>
       <c r="I33" s="3">
-        <v>3369400</v>
+        <v>3060300</v>
       </c>
       <c r="J33" s="3">
+        <v>3247200</v>
+      </c>
+      <c r="K33" s="3">
         <v>3181200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3019900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2479500</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1993900</v>
+        <v>3627700</v>
       </c>
       <c r="E35" s="3">
-        <v>4471700</v>
+        <v>1921600</v>
       </c>
       <c r="F35" s="3">
-        <v>4276500</v>
+        <v>4309600</v>
       </c>
       <c r="G35" s="3">
-        <v>3767000</v>
+        <v>4121400</v>
       </c>
       <c r="H35" s="3">
-        <v>3175500</v>
+        <v>3630400</v>
       </c>
       <c r="I35" s="3">
-        <v>3369400</v>
+        <v>3060300</v>
       </c>
       <c r="J35" s="3">
+        <v>3247200</v>
+      </c>
+      <c r="K35" s="3">
         <v>3181200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3019900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2479500</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42916</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42551</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42185</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41820</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41455</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41090</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4702400</v>
+        <v>3749100</v>
       </c>
       <c r="E41" s="3">
-        <v>1318900</v>
+        <v>4531900</v>
       </c>
       <c r="F41" s="3">
-        <v>1236800</v>
+        <v>1271100</v>
       </c>
       <c r="G41" s="3">
-        <v>1685400</v>
+        <v>1192000</v>
       </c>
       <c r="H41" s="3">
-        <v>1541100</v>
+        <v>1624300</v>
       </c>
       <c r="I41" s="3">
-        <v>667900</v>
+        <v>1485200</v>
       </c>
       <c r="J41" s="3">
+        <v>643700</v>
+      </c>
+      <c r="K41" s="3">
         <v>880200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3114400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1403400</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>103300</v>
+        <v>62700</v>
       </c>
       <c r="E42" s="3">
-        <v>175500</v>
+        <v>99600</v>
       </c>
       <c r="F42" s="3">
-        <v>35400</v>
+        <v>169100</v>
       </c>
       <c r="G42" s="3">
-        <v>34000</v>
+        <v>34100</v>
       </c>
       <c r="H42" s="3">
-        <v>210900</v>
+        <v>32700</v>
       </c>
       <c r="I42" s="3">
-        <v>65100</v>
+        <v>203200</v>
       </c>
       <c r="J42" s="3">
+        <v>62700</v>
+      </c>
+      <c r="K42" s="3">
         <v>167000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>160500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>54800</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3034000</v>
+        <v>3245800</v>
       </c>
       <c r="E43" s="3">
-        <v>3643900</v>
+        <v>2924000</v>
       </c>
       <c r="F43" s="3">
-        <v>3659500</v>
+        <v>3511800</v>
       </c>
       <c r="G43" s="3">
-        <v>3443000</v>
+        <v>3526800</v>
       </c>
       <c r="H43" s="3">
-        <v>3533500</v>
+        <v>3318100</v>
       </c>
       <c r="I43" s="3">
-        <v>3239200</v>
+        <v>3405400</v>
       </c>
       <c r="J43" s="3">
+        <v>3121700</v>
+      </c>
+      <c r="K43" s="3">
         <v>3335400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2855200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2557800</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8168000</v>
+        <v>8244100</v>
       </c>
       <c r="E44" s="3">
-        <v>7743500</v>
+        <v>7871800</v>
       </c>
       <c r="F44" s="3">
-        <v>7096800</v>
+        <v>7462700</v>
       </c>
       <c r="G44" s="3">
-        <v>6775500</v>
+        <v>6839400</v>
       </c>
       <c r="H44" s="3">
-        <v>6479800</v>
+        <v>6529800</v>
       </c>
       <c r="I44" s="3">
-        <v>6472700</v>
+        <v>6244800</v>
       </c>
       <c r="J44" s="3">
+        <v>6238000</v>
+      </c>
+      <c r="K44" s="3">
         <v>5974600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5193100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5158500</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>225000</v>
+        <v>306900</v>
       </c>
       <c r="E45" s="3">
-        <v>382100</v>
+        <v>216800</v>
       </c>
       <c r="F45" s="3">
-        <v>270300</v>
+        <v>368200</v>
       </c>
       <c r="G45" s="3">
-        <v>305700</v>
+        <v>260500</v>
       </c>
       <c r="H45" s="3">
-        <v>761300</v>
+        <v>294600</v>
       </c>
       <c r="I45" s="3">
-        <v>409000</v>
+        <v>733700</v>
       </c>
       <c r="J45" s="3">
+        <v>394100</v>
+      </c>
+      <c r="K45" s="3">
         <v>212300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>216000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>285600</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16232700</v>
+        <v>15608600</v>
       </c>
       <c r="E46" s="3">
-        <v>13263800</v>
+        <v>15644000</v>
       </c>
       <c r="F46" s="3">
-        <v>12298700</v>
+        <v>12782800</v>
       </c>
       <c r="G46" s="3">
-        <v>12243500</v>
+        <v>11852700</v>
       </c>
       <c r="H46" s="3">
-        <v>12526600</v>
+        <v>11799500</v>
       </c>
       <c r="I46" s="3">
-        <v>10853900</v>
+        <v>12072300</v>
       </c>
       <c r="J46" s="3">
+        <v>10460300</v>
+      </c>
+      <c r="K46" s="3">
         <v>10569500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10504700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9460200</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5131200</v>
+        <v>4586400</v>
       </c>
       <c r="E47" s="3">
-        <v>4604800</v>
+        <v>4945100</v>
       </c>
       <c r="F47" s="3">
-        <v>4382600</v>
+        <v>4437800</v>
       </c>
       <c r="G47" s="3">
-        <v>4147700</v>
+        <v>4223700</v>
       </c>
       <c r="H47" s="3">
-        <v>3711800</v>
+        <v>3997300</v>
       </c>
       <c r="I47" s="3">
-        <v>3559000</v>
+        <v>3577200</v>
       </c>
       <c r="J47" s="3">
+        <v>3429900</v>
+      </c>
+      <c r="K47" s="3">
         <v>5124100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3753800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3807300</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7043000</v>
+        <v>6703000</v>
       </c>
       <c r="E48" s="3">
-        <v>6352400</v>
+        <v>6787600</v>
       </c>
       <c r="F48" s="3">
-        <v>5818900</v>
+        <v>6122100</v>
       </c>
       <c r="G48" s="3">
-        <v>5710000</v>
+        <v>5607900</v>
       </c>
       <c r="H48" s="3">
-        <v>5506200</v>
+        <v>5502900</v>
       </c>
       <c r="I48" s="3">
-        <v>5313700</v>
+        <v>5306500</v>
       </c>
       <c r="J48" s="3">
+        <v>5121000</v>
+      </c>
+      <c r="K48" s="3">
         <v>4933100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1483700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3920800</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15990700</v>
+        <v>14679800</v>
       </c>
       <c r="E49" s="3">
-        <v>17769500</v>
+        <v>15410800</v>
       </c>
       <c r="F49" s="3">
-        <v>17790800</v>
+        <v>17125100</v>
       </c>
       <c r="G49" s="3">
-        <v>17782300</v>
+        <v>17145600</v>
       </c>
       <c r="H49" s="3">
-        <v>17504900</v>
+        <v>17137400</v>
       </c>
       <c r="I49" s="3">
-        <v>15893100</v>
+        <v>16870100</v>
       </c>
       <c r="J49" s="3">
+        <v>15316700</v>
+      </c>
+      <c r="K49" s="3">
         <v>11166600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12218100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11505300</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2736800</v>
+        <v>1999300</v>
       </c>
       <c r="E52" s="3">
-        <v>2296700</v>
+        <v>2637600</v>
       </c>
       <c r="F52" s="3">
-        <v>1759000</v>
+        <v>2213400</v>
       </c>
       <c r="G52" s="3">
-        <v>939600</v>
+        <v>1695200</v>
       </c>
       <c r="H52" s="3">
-        <v>1068400</v>
+        <v>905600</v>
       </c>
       <c r="I52" s="3">
-        <v>895800</v>
+        <v>1029700</v>
       </c>
       <c r="J52" s="3">
+        <v>863300</v>
+      </c>
+      <c r="K52" s="3">
         <v>703300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1192400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>457800</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>47134500</v>
+        <v>43577200</v>
       </c>
       <c r="E54" s="3">
-        <v>44287300</v>
+        <v>45425100</v>
       </c>
       <c r="F54" s="3">
-        <v>42050000</v>
+        <v>42681200</v>
       </c>
       <c r="G54" s="3">
-        <v>40823100</v>
+        <v>40525000</v>
       </c>
       <c r="H54" s="3">
-        <v>40317900</v>
+        <v>39342600</v>
       </c>
       <c r="I54" s="3">
-        <v>36515500</v>
+        <v>38855700</v>
       </c>
       <c r="J54" s="3">
+        <v>35191200</v>
+      </c>
+      <c r="K54" s="3">
         <v>32496600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>30848900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>29151300</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1886300</v>
+        <v>2746700</v>
       </c>
       <c r="E57" s="3">
-        <v>2397200</v>
+        <v>1817900</v>
       </c>
       <c r="F57" s="3">
-        <v>2142500</v>
+        <v>2310300</v>
       </c>
       <c r="G57" s="3">
-        <v>1931600</v>
+        <v>2064800</v>
       </c>
       <c r="H57" s="3">
-        <v>1539600</v>
+        <v>1861600</v>
       </c>
       <c r="I57" s="3">
-        <v>1249500</v>
+        <v>1483800</v>
       </c>
       <c r="J57" s="3">
+        <v>1204200</v>
+      </c>
+      <c r="K57" s="3">
         <v>1277800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1341800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1406000</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2973100</v>
+        <v>2651200</v>
       </c>
       <c r="E58" s="3">
-        <v>2833100</v>
+        <v>2865300</v>
       </c>
       <c r="F58" s="3">
-        <v>2630700</v>
+        <v>2730300</v>
       </c>
       <c r="G58" s="3">
-        <v>3516500</v>
+        <v>2535300</v>
       </c>
       <c r="H58" s="3">
-        <v>2953300</v>
+        <v>3389000</v>
       </c>
       <c r="I58" s="3">
-        <v>2939200</v>
+        <v>2846200</v>
       </c>
       <c r="J58" s="3">
+        <v>2832600</v>
+      </c>
+      <c r="K58" s="3">
         <v>2436800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2436700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1751700</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4333100</v>
+        <v>4342300</v>
       </c>
       <c r="E59" s="3">
-        <v>4679800</v>
+        <v>4175900</v>
       </c>
       <c r="F59" s="3">
-        <v>4226900</v>
+        <v>4510100</v>
       </c>
       <c r="G59" s="3">
-        <v>3976500</v>
+        <v>4073600</v>
       </c>
       <c r="H59" s="3">
-        <v>4262300</v>
+        <v>3832200</v>
       </c>
       <c r="I59" s="3">
-        <v>3297200</v>
+        <v>4107700</v>
       </c>
       <c r="J59" s="3">
+        <v>3177600</v>
+      </c>
+      <c r="K59" s="3">
         <v>3150000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3034200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3082100</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9192600</v>
+        <v>9740200</v>
       </c>
       <c r="E60" s="3">
-        <v>9910000</v>
+        <v>8859200</v>
       </c>
       <c r="F60" s="3">
-        <v>9000100</v>
+        <v>9550600</v>
       </c>
       <c r="G60" s="3">
-        <v>9424600</v>
+        <v>8673700</v>
       </c>
       <c r="H60" s="3">
-        <v>8755300</v>
+        <v>9082800</v>
       </c>
       <c r="I60" s="3">
-        <v>7485900</v>
+        <v>8437800</v>
       </c>
       <c r="J60" s="3">
+        <v>7214400</v>
+      </c>
+      <c r="K60" s="3">
         <v>6864700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6812700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6239800</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>21444600</v>
+        <v>17928400</v>
       </c>
       <c r="E61" s="3">
-        <v>15114800</v>
+        <v>20666900</v>
       </c>
       <c r="F61" s="3">
-        <v>11601100</v>
+        <v>14566600</v>
       </c>
       <c r="G61" s="3">
-        <v>9537800</v>
+        <v>11180400</v>
       </c>
       <c r="H61" s="3">
-        <v>11722800</v>
+        <v>9191900</v>
       </c>
       <c r="I61" s="3">
-        <v>11830300</v>
+        <v>11297600</v>
       </c>
       <c r="J61" s="3">
+        <v>11401300</v>
+      </c>
+      <c r="K61" s="3">
         <v>10808600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10143100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9920600</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4553800</v>
+        <v>4410500</v>
       </c>
       <c r="E62" s="3">
-        <v>4890600</v>
+        <v>4388700</v>
       </c>
       <c r="F62" s="3">
-        <v>4873600</v>
+        <v>4713300</v>
       </c>
       <c r="G62" s="3">
-        <v>4839700</v>
+        <v>4696900</v>
       </c>
       <c r="H62" s="3">
-        <v>5792000</v>
+        <v>4664200</v>
       </c>
       <c r="I62" s="3">
-        <v>4101000</v>
+        <v>5582000</v>
       </c>
       <c r="J62" s="3">
+        <v>3952300</v>
+      </c>
+      <c r="K62" s="3">
         <v>4082600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4043900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4107300</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>37551400</v>
+        <v>34171100</v>
       </c>
       <c r="E66" s="3">
-        <v>32455500</v>
+        <v>36189500</v>
       </c>
       <c r="F66" s="3">
-        <v>27972500</v>
+        <v>31278500</v>
       </c>
       <c r="G66" s="3">
-        <v>26229100</v>
+        <v>26958000</v>
       </c>
       <c r="H66" s="3">
-        <v>28247000</v>
+        <v>25277800</v>
       </c>
       <c r="I66" s="3">
-        <v>25518700</v>
+        <v>27222600</v>
       </c>
       <c r="J66" s="3">
+        <v>24593200</v>
+      </c>
+      <c r="K66" s="3">
         <v>22841300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22163700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21862800</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10675600</v>
+        <v>11269000</v>
       </c>
       <c r="E72" s="3">
-        <v>12880300</v>
+        <v>10288400</v>
       </c>
       <c r="F72" s="3">
-        <v>15556300</v>
+        <v>12413200</v>
       </c>
       <c r="G72" s="3">
-        <v>15278900</v>
+        <v>14992100</v>
       </c>
       <c r="H72" s="3">
-        <v>12871800</v>
+        <v>14724800</v>
       </c>
       <c r="I72" s="3">
-        <v>12747300</v>
+        <v>12405000</v>
       </c>
       <c r="J72" s="3">
+        <v>12285000</v>
+      </c>
+      <c r="K72" s="3">
         <v>11128400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8787700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3249000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9583100</v>
+        <v>9406100</v>
       </c>
       <c r="E76" s="3">
-        <v>11831700</v>
+        <v>9235600</v>
       </c>
       <c r="F76" s="3">
-        <v>14077500</v>
+        <v>11402600</v>
       </c>
       <c r="G76" s="3">
-        <v>14594000</v>
+        <v>13567000</v>
       </c>
       <c r="H76" s="3">
-        <v>12070900</v>
+        <v>14064800</v>
       </c>
       <c r="I76" s="3">
-        <v>10996800</v>
+        <v>11633100</v>
       </c>
       <c r="J76" s="3">
+        <v>10598000</v>
+      </c>
+      <c r="K76" s="3">
         <v>9655300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8685200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7288500</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42916</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42551</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42185</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41820</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41455</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41090</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1993900</v>
+        <v>3627700</v>
       </c>
       <c r="E81" s="3">
-        <v>4471700</v>
+        <v>1921600</v>
       </c>
       <c r="F81" s="3">
-        <v>4276500</v>
+        <v>4309600</v>
       </c>
       <c r="G81" s="3">
-        <v>3767000</v>
+        <v>4121400</v>
       </c>
       <c r="H81" s="3">
-        <v>3175500</v>
+        <v>3630400</v>
       </c>
       <c r="I81" s="3">
-        <v>3369400</v>
+        <v>3060300</v>
       </c>
       <c r="J81" s="3">
+        <v>3247200</v>
+      </c>
+      <c r="K81" s="3">
         <v>3181200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3019900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2479500</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2602400</v>
+        <v>609600</v>
       </c>
       <c r="E83" s="3">
-        <v>529300</v>
+        <v>2508000</v>
       </c>
       <c r="F83" s="3">
-        <v>697600</v>
+        <v>510100</v>
       </c>
       <c r="G83" s="3">
-        <v>510900</v>
+        <v>672300</v>
       </c>
       <c r="H83" s="3">
-        <v>669300</v>
+        <v>492300</v>
       </c>
       <c r="I83" s="3">
-        <v>622600</v>
+        <v>645100</v>
       </c>
       <c r="J83" s="3">
+        <v>600100</v>
+      </c>
+      <c r="K83" s="3">
         <v>890100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>490200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>530900</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3283100</v>
+        <v>4983300</v>
       </c>
       <c r="E89" s="3">
-        <v>4596300</v>
+        <v>3164000</v>
       </c>
       <c r="F89" s="3">
-        <v>4364200</v>
+        <v>4429600</v>
       </c>
       <c r="G89" s="3">
-        <v>4432100</v>
+        <v>4205900</v>
       </c>
       <c r="H89" s="3">
-        <v>3605700</v>
+        <v>4271400</v>
       </c>
       <c r="I89" s="3">
-        <v>3609900</v>
+        <v>3474900</v>
       </c>
       <c r="J89" s="3">
+        <v>3479000</v>
+      </c>
+      <c r="K89" s="3">
         <v>2533000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2503800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2733800</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-990600</v>
+        <v>-853700</v>
       </c>
       <c r="E91" s="3">
-        <v>-949500</v>
+        <v>-954700</v>
       </c>
       <c r="F91" s="3">
-        <v>-826400</v>
+        <v>-915100</v>
       </c>
       <c r="G91" s="3">
-        <v>-733000</v>
+        <v>-796500</v>
       </c>
       <c r="H91" s="3">
-        <v>-716000</v>
+        <v>-706400</v>
       </c>
       <c r="I91" s="3">
-        <v>-902800</v>
+        <v>-690100</v>
       </c>
       <c r="J91" s="3">
+        <v>-870100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-908500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-783300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-622200</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1139200</v>
+        <v>-1487900</v>
       </c>
       <c r="E94" s="3">
-        <v>-382100</v>
+        <v>-1097900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1628800</v>
+        <v>-368200</v>
       </c>
       <c r="G94" s="3">
-        <v>-781100</v>
+        <v>-1569700</v>
       </c>
       <c r="H94" s="3">
-        <v>843400</v>
+        <v>-752800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1265100</v>
+        <v>812800</v>
       </c>
       <c r="J94" s="3">
+        <v>-1219200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1541100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1528400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2358200</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2329300</v>
+        <v>-2244800</v>
       </c>
       <c r="E96" s="3">
-        <v>-2296700</v>
+        <v>-2244800</v>
       </c>
       <c r="F96" s="3">
-        <v>-2237300</v>
+        <v>-2213400</v>
       </c>
       <c r="G96" s="3">
-        <v>-2143900</v>
+        <v>-2156200</v>
       </c>
       <c r="H96" s="3">
-        <v>-2042000</v>
+        <v>-2066100</v>
       </c>
       <c r="I96" s="3">
-        <v>-1897700</v>
+        <v>-1967900</v>
       </c>
       <c r="J96" s="3">
+        <v>-1828800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1737800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1385600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1351300</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1467500</v>
+        <v>-3810400</v>
       </c>
       <c r="E100" s="3">
-        <v>-4137800</v>
+        <v>1414300</v>
       </c>
       <c r="F100" s="3">
-        <v>-2997200</v>
+        <v>-3987700</v>
       </c>
       <c r="G100" s="3">
-        <v>-3478300</v>
+        <v>-2888500</v>
       </c>
       <c r="H100" s="3">
-        <v>-3963700</v>
+        <v>-3352200</v>
       </c>
       <c r="I100" s="3">
-        <v>-2453800</v>
+        <v>-3820000</v>
       </c>
       <c r="J100" s="3">
+        <v>-2364800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2295300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-243900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1027800</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-169800</v>
+        <v>-388700</v>
       </c>
       <c r="E101" s="3">
-        <v>-36800</v>
+        <v>-163700</v>
       </c>
       <c r="F101" s="3">
-        <v>-55200</v>
+        <v>-35500</v>
       </c>
       <c r="G101" s="3">
-        <v>-19800</v>
+        <v>-53200</v>
       </c>
       <c r="H101" s="3">
-        <v>118900</v>
+        <v>-19100</v>
       </c>
       <c r="I101" s="3">
-        <v>-103300</v>
+        <v>114600</v>
       </c>
       <c r="J101" s="3">
+        <v>-99600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-271700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>44300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-35200</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3441500</v>
+        <v>-703700</v>
       </c>
       <c r="E102" s="3">
-        <v>39600</v>
+        <v>3316700</v>
       </c>
       <c r="F102" s="3">
-        <v>-317000</v>
+        <v>38200</v>
       </c>
       <c r="G102" s="3">
-        <v>152800</v>
+        <v>-305500</v>
       </c>
       <c r="H102" s="3">
-        <v>604300</v>
+        <v>147300</v>
       </c>
       <c r="I102" s="3">
-        <v>-212300</v>
+        <v>582300</v>
       </c>
       <c r="J102" s="3">
+        <v>-204600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1575000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>775900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-687400</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DEO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DEO_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17365100</v>
+        <v>16948900</v>
       </c>
       <c r="E8" s="3">
-        <v>16027300</v>
+        <v>15643100</v>
       </c>
       <c r="F8" s="3">
-        <v>17547900</v>
+        <v>17127300</v>
       </c>
       <c r="G8" s="3">
-        <v>16587800</v>
+        <v>16190200</v>
       </c>
       <c r="H8" s="3">
-        <v>16433700</v>
+        <v>16039800</v>
       </c>
       <c r="I8" s="3">
-        <v>14299300</v>
+        <v>13956600</v>
       </c>
       <c r="J8" s="3">
-        <v>14746700</v>
+        <v>14393200</v>
       </c>
       <c r="K8" s="3">
         <v>14516200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6870800</v>
+        <v>6706100</v>
       </c>
       <c r="E9" s="3">
-        <v>6347100</v>
+        <v>6194900</v>
       </c>
       <c r="F9" s="3">
-        <v>6636200</v>
+        <v>6477100</v>
       </c>
       <c r="G9" s="3">
-        <v>6319800</v>
+        <v>6168300</v>
       </c>
       <c r="H9" s="3">
-        <v>6382500</v>
+        <v>6229500</v>
       </c>
       <c r="I9" s="3">
-        <v>5797500</v>
+        <v>5658500</v>
       </c>
       <c r="J9" s="3">
-        <v>6253000</v>
+        <v>6103100</v>
       </c>
       <c r="K9" s="3">
         <v>5668900</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10494400</v>
+        <v>10242800</v>
       </c>
       <c r="E10" s="3">
-        <v>9680200</v>
+        <v>9448100</v>
       </c>
       <c r="F10" s="3">
-        <v>10911700</v>
+        <v>10650100</v>
       </c>
       <c r="G10" s="3">
-        <v>10268000</v>
+        <v>10021900</v>
       </c>
       <c r="H10" s="3">
-        <v>10051100</v>
+        <v>9810200</v>
       </c>
       <c r="I10" s="3">
-        <v>8501900</v>
+        <v>8298100</v>
       </c>
       <c r="J10" s="3">
-        <v>8493700</v>
+        <v>8290100</v>
       </c>
       <c r="K10" s="3">
         <v>8847300</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="E14" s="3">
-        <v>1995200</v>
+        <v>1947400</v>
       </c>
       <c r="F14" s="3">
-        <v>-95500</v>
+        <v>-93200</v>
       </c>
       <c r="G14" s="3">
-        <v>174600</v>
+        <v>170400</v>
       </c>
       <c r="H14" s="3">
-        <v>30000</v>
+        <v>29300</v>
       </c>
       <c r="I14" s="3">
-        <v>60000</v>
+        <v>58600</v>
       </c>
       <c r="J14" s="3">
-        <v>-141800</v>
+        <v>-138400</v>
       </c>
       <c r="K14" s="3">
         <v>406100</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12257700</v>
+        <v>11963900</v>
       </c>
       <c r="E17" s="3">
-        <v>13144200</v>
+        <v>12829100</v>
       </c>
       <c r="F17" s="3">
-        <v>11851300</v>
+        <v>11567300</v>
       </c>
       <c r="G17" s="3">
-        <v>11554000</v>
+        <v>11277100</v>
       </c>
       <c r="H17" s="3">
-        <v>11552700</v>
+        <v>11275700</v>
       </c>
       <c r="I17" s="3">
-        <v>10257100</v>
+        <v>10011200</v>
       </c>
       <c r="J17" s="3">
-        <v>10423400</v>
+        <v>10173600</v>
       </c>
       <c r="K17" s="3">
         <v>10487400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5107400</v>
+        <v>4985000</v>
       </c>
       <c r="E18" s="3">
-        <v>2883100</v>
+        <v>2813900</v>
       </c>
       <c r="F18" s="3">
-        <v>5696600</v>
+        <v>5560000</v>
       </c>
       <c r="G18" s="3">
-        <v>5033700</v>
+        <v>4913100</v>
       </c>
       <c r="H18" s="3">
-        <v>4881000</v>
+        <v>4764000</v>
       </c>
       <c r="I18" s="3">
-        <v>4042300</v>
+        <v>3945400</v>
       </c>
       <c r="J18" s="3">
-        <v>4323200</v>
+        <v>4219600</v>
       </c>
       <c r="K18" s="3">
         <v>4028800</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>581000</v>
+        <v>567000</v>
       </c>
       <c r="E20" s="3">
-        <v>619200</v>
+        <v>604300</v>
       </c>
       <c r="F20" s="3">
-        <v>731000</v>
+        <v>713500</v>
       </c>
       <c r="G20" s="3">
-        <v>605500</v>
+        <v>591000</v>
       </c>
       <c r="H20" s="3">
-        <v>587800</v>
+        <v>573700</v>
       </c>
       <c r="I20" s="3">
-        <v>481400</v>
+        <v>469900</v>
       </c>
       <c r="J20" s="3">
-        <v>396900</v>
+        <v>387400</v>
       </c>
       <c r="K20" s="3">
         <v>451400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6303200</v>
+        <v>6148300</v>
       </c>
       <c r="E21" s="3">
-        <v>6031800</v>
+        <v>5871500</v>
       </c>
       <c r="F21" s="3">
-        <v>6942000</v>
+        <v>6772400</v>
       </c>
       <c r="G21" s="3">
-        <v>6317400</v>
+        <v>6161800</v>
       </c>
       <c r="H21" s="3">
-        <v>5965400</v>
+        <v>5819300</v>
       </c>
       <c r="I21" s="3">
-        <v>5174300</v>
+        <v>5046200</v>
       </c>
       <c r="J21" s="3">
-        <v>5325300</v>
+        <v>5193900</v>
       </c>
       <c r="K21" s="3">
         <v>5370600</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>634200</v>
+        <v>619000</v>
       </c>
       <c r="E22" s="3">
-        <v>716000</v>
+        <v>698800</v>
       </c>
       <c r="F22" s="3">
-        <v>651900</v>
+        <v>636300</v>
       </c>
       <c r="G22" s="3">
-        <v>538700</v>
+        <v>525800</v>
       </c>
       <c r="H22" s="3">
-        <v>615100</v>
+        <v>600300</v>
       </c>
       <c r="I22" s="3">
-        <v>626000</v>
+        <v>611000</v>
       </c>
       <c r="J22" s="3">
-        <v>720100</v>
+        <v>702800</v>
       </c>
       <c r="K22" s="3">
         <v>643900</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5054200</v>
+        <v>4933100</v>
       </c>
       <c r="E23" s="3">
-        <v>2786200</v>
+        <v>2719400</v>
       </c>
       <c r="F23" s="3">
-        <v>5775700</v>
+        <v>5637200</v>
       </c>
       <c r="G23" s="3">
-        <v>5100600</v>
+        <v>4978300</v>
       </c>
       <c r="H23" s="3">
-        <v>4853700</v>
+        <v>4737400</v>
       </c>
       <c r="I23" s="3">
-        <v>3897700</v>
+        <v>3804300</v>
       </c>
       <c r="J23" s="3">
-        <v>4000000</v>
+        <v>3904100</v>
       </c>
       <c r="K23" s="3">
         <v>3836400</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1237000</v>
+        <v>1207300</v>
       </c>
       <c r="E24" s="3">
-        <v>803300</v>
+        <v>784000</v>
       </c>
       <c r="F24" s="3">
-        <v>1224700</v>
+        <v>1195300</v>
       </c>
       <c r="G24" s="3">
-        <v>1295600</v>
+        <v>1264500</v>
       </c>
       <c r="H24" s="3">
-        <v>998300</v>
+        <v>974400</v>
       </c>
       <c r="I24" s="3">
-        <v>676400</v>
+        <v>660200</v>
       </c>
       <c r="J24" s="3">
-        <v>635500</v>
+        <v>620300</v>
       </c>
       <c r="K24" s="3">
         <v>632600</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3817200</v>
+        <v>3725700</v>
       </c>
       <c r="E26" s="3">
-        <v>1983000</v>
+        <v>1935400</v>
       </c>
       <c r="F26" s="3">
-        <v>4551000</v>
+        <v>4441900</v>
       </c>
       <c r="G26" s="3">
-        <v>3805000</v>
+        <v>3713800</v>
       </c>
       <c r="H26" s="3">
-        <v>3855400</v>
+        <v>3763000</v>
       </c>
       <c r="I26" s="3">
-        <v>3221300</v>
+        <v>3144100</v>
       </c>
       <c r="J26" s="3">
-        <v>3364500</v>
+        <v>3283800</v>
       </c>
       <c r="K26" s="3">
         <v>3203800</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3627700</v>
+        <v>3540700</v>
       </c>
       <c r="E27" s="3">
-        <v>1921600</v>
+        <v>1875500</v>
       </c>
       <c r="F27" s="3">
-        <v>4309600</v>
+        <v>4206300</v>
       </c>
       <c r="G27" s="3">
-        <v>3638600</v>
+        <v>3551400</v>
       </c>
       <c r="H27" s="3">
-        <v>3705400</v>
+        <v>3616600</v>
       </c>
       <c r="I27" s="3">
-        <v>3060300</v>
+        <v>2987000</v>
       </c>
       <c r="J27" s="3">
-        <v>3247200</v>
+        <v>3169300</v>
       </c>
       <c r="K27" s="3">
         <v>3298600</v>
@@ -1422,10 +1422,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>482800</v>
+        <v>471200</v>
       </c>
       <c r="H29" s="3">
-        <v>-75000</v>
+        <v>-73200</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-581000</v>
+        <v>-567000</v>
       </c>
       <c r="E32" s="3">
-        <v>-619200</v>
+        <v>-604300</v>
       </c>
       <c r="F32" s="3">
-        <v>-731000</v>
+        <v>-713500</v>
       </c>
       <c r="G32" s="3">
-        <v>-605500</v>
+        <v>-591000</v>
       </c>
       <c r="H32" s="3">
-        <v>-587800</v>
+        <v>-573700</v>
       </c>
       <c r="I32" s="3">
-        <v>-481400</v>
+        <v>-469900</v>
       </c>
       <c r="J32" s="3">
-        <v>-396900</v>
+        <v>-387400</v>
       </c>
       <c r="K32" s="3">
         <v>-451400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3627700</v>
+        <v>3540700</v>
       </c>
       <c r="E33" s="3">
-        <v>1921600</v>
+        <v>1875500</v>
       </c>
       <c r="F33" s="3">
-        <v>4309600</v>
+        <v>4206300</v>
       </c>
       <c r="G33" s="3">
-        <v>4121400</v>
+        <v>4022600</v>
       </c>
       <c r="H33" s="3">
-        <v>3630400</v>
+        <v>3543400</v>
       </c>
       <c r="I33" s="3">
-        <v>3060300</v>
+        <v>2987000</v>
       </c>
       <c r="J33" s="3">
-        <v>3247200</v>
+        <v>3169300</v>
       </c>
       <c r="K33" s="3">
         <v>3181200</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3627700</v>
+        <v>3540700</v>
       </c>
       <c r="E35" s="3">
-        <v>1921600</v>
+        <v>1875500</v>
       </c>
       <c r="F35" s="3">
-        <v>4309600</v>
+        <v>4206300</v>
       </c>
       <c r="G35" s="3">
-        <v>4121400</v>
+        <v>4022600</v>
       </c>
       <c r="H35" s="3">
-        <v>3630400</v>
+        <v>3543400</v>
       </c>
       <c r="I35" s="3">
-        <v>3060300</v>
+        <v>2987000</v>
       </c>
       <c r="J35" s="3">
-        <v>3247200</v>
+        <v>3169300</v>
       </c>
       <c r="K35" s="3">
         <v>3181200</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3749100</v>
+        <v>3659200</v>
       </c>
       <c r="E41" s="3">
-        <v>4531900</v>
+        <v>4423200</v>
       </c>
       <c r="F41" s="3">
-        <v>1271100</v>
+        <v>1240600</v>
       </c>
       <c r="G41" s="3">
-        <v>1192000</v>
+        <v>1163400</v>
       </c>
       <c r="H41" s="3">
-        <v>1624300</v>
+        <v>1585300</v>
       </c>
       <c r="I41" s="3">
-        <v>1485200</v>
+        <v>1449600</v>
       </c>
       <c r="J41" s="3">
-        <v>643700</v>
+        <v>628300</v>
       </c>
       <c r="K41" s="3">
         <v>880200</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>62700</v>
+        <v>61200</v>
       </c>
       <c r="E42" s="3">
-        <v>99600</v>
+        <v>97200</v>
       </c>
       <c r="F42" s="3">
-        <v>169100</v>
+        <v>165100</v>
       </c>
       <c r="G42" s="3">
-        <v>34100</v>
+        <v>33300</v>
       </c>
       <c r="H42" s="3">
-        <v>32700</v>
+        <v>31900</v>
       </c>
       <c r="I42" s="3">
-        <v>203200</v>
+        <v>198300</v>
       </c>
       <c r="J42" s="3">
-        <v>62700</v>
+        <v>61200</v>
       </c>
       <c r="K42" s="3">
         <v>167000</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3245800</v>
+        <v>3168000</v>
       </c>
       <c r="E43" s="3">
-        <v>2924000</v>
+        <v>2853900</v>
       </c>
       <c r="F43" s="3">
-        <v>3511800</v>
+        <v>3427600</v>
       </c>
       <c r="G43" s="3">
-        <v>3526800</v>
+        <v>3442200</v>
       </c>
       <c r="H43" s="3">
-        <v>3318100</v>
+        <v>3238600</v>
       </c>
       <c r="I43" s="3">
-        <v>3405400</v>
+        <v>3323800</v>
       </c>
       <c r="J43" s="3">
-        <v>3121700</v>
+        <v>3046900</v>
       </c>
       <c r="K43" s="3">
         <v>3335400</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8244100</v>
+        <v>8046500</v>
       </c>
       <c r="E44" s="3">
-        <v>7871800</v>
+        <v>7683100</v>
       </c>
       <c r="F44" s="3">
-        <v>7462700</v>
+        <v>7283800</v>
       </c>
       <c r="G44" s="3">
-        <v>6839400</v>
+        <v>6675500</v>
       </c>
       <c r="H44" s="3">
-        <v>6529800</v>
+        <v>6373300</v>
       </c>
       <c r="I44" s="3">
-        <v>6244800</v>
+        <v>6095100</v>
       </c>
       <c r="J44" s="3">
-        <v>6238000</v>
+        <v>6088500</v>
       </c>
       <c r="K44" s="3">
         <v>5974600</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>306900</v>
+        <v>299500</v>
       </c>
       <c r="E45" s="3">
-        <v>216800</v>
+        <v>211600</v>
       </c>
       <c r="F45" s="3">
-        <v>368200</v>
+        <v>359400</v>
       </c>
       <c r="G45" s="3">
-        <v>260500</v>
+        <v>254200</v>
       </c>
       <c r="H45" s="3">
-        <v>294600</v>
+        <v>287500</v>
       </c>
       <c r="I45" s="3">
-        <v>733700</v>
+        <v>716100</v>
       </c>
       <c r="J45" s="3">
-        <v>394100</v>
+        <v>384700</v>
       </c>
       <c r="K45" s="3">
         <v>212300</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15608600</v>
+        <v>15234400</v>
       </c>
       <c r="E46" s="3">
-        <v>15644000</v>
+        <v>15269000</v>
       </c>
       <c r="F46" s="3">
-        <v>12782800</v>
+        <v>12476400</v>
       </c>
       <c r="G46" s="3">
-        <v>11852700</v>
+        <v>11568600</v>
       </c>
       <c r="H46" s="3">
-        <v>11799500</v>
+        <v>11516700</v>
       </c>
       <c r="I46" s="3">
-        <v>12072300</v>
+        <v>11782900</v>
       </c>
       <c r="J46" s="3">
-        <v>10460300</v>
+        <v>10209500</v>
       </c>
       <c r="K46" s="3">
         <v>10569500</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4586400</v>
+        <v>4476500</v>
       </c>
       <c r="E47" s="3">
-        <v>4945100</v>
+        <v>4826600</v>
       </c>
       <c r="F47" s="3">
-        <v>4437800</v>
+        <v>4331400</v>
       </c>
       <c r="G47" s="3">
-        <v>4223700</v>
+        <v>4122400</v>
       </c>
       <c r="H47" s="3">
-        <v>3997300</v>
+        <v>3901500</v>
       </c>
       <c r="I47" s="3">
-        <v>3577200</v>
+        <v>3491500</v>
       </c>
       <c r="J47" s="3">
-        <v>3429900</v>
+        <v>3347700</v>
       </c>
       <c r="K47" s="3">
         <v>5124100</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6703000</v>
+        <v>6542400</v>
       </c>
       <c r="E48" s="3">
-        <v>6787600</v>
+        <v>6624900</v>
       </c>
       <c r="F48" s="3">
-        <v>6122100</v>
+        <v>5975300</v>
       </c>
       <c r="G48" s="3">
-        <v>5607900</v>
+        <v>5473500</v>
       </c>
       <c r="H48" s="3">
-        <v>5502900</v>
+        <v>5371000</v>
       </c>
       <c r="I48" s="3">
-        <v>5306500</v>
+        <v>5179300</v>
       </c>
       <c r="J48" s="3">
-        <v>5121000</v>
+        <v>4998300</v>
       </c>
       <c r="K48" s="3">
         <v>4933100</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14679800</v>
+        <v>14328000</v>
       </c>
       <c r="E49" s="3">
-        <v>15410800</v>
+        <v>15041400</v>
       </c>
       <c r="F49" s="3">
-        <v>17125100</v>
+        <v>16714600</v>
       </c>
       <c r="G49" s="3">
-        <v>17145600</v>
+        <v>16734600</v>
       </c>
       <c r="H49" s="3">
-        <v>17137400</v>
+        <v>16726600</v>
       </c>
       <c r="I49" s="3">
-        <v>16870100</v>
+        <v>16465700</v>
       </c>
       <c r="J49" s="3">
-        <v>15316700</v>
+        <v>14949600</v>
       </c>
       <c r="K49" s="3">
         <v>11166600</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1999300</v>
+        <v>1951400</v>
       </c>
       <c r="E52" s="3">
-        <v>2637600</v>
+        <v>2574300</v>
       </c>
       <c r="F52" s="3">
-        <v>2213400</v>
+        <v>2160400</v>
       </c>
       <c r="G52" s="3">
-        <v>1695200</v>
+        <v>1654600</v>
       </c>
       <c r="H52" s="3">
-        <v>905600</v>
+        <v>883900</v>
       </c>
       <c r="I52" s="3">
-        <v>1029700</v>
+        <v>1005000</v>
       </c>
       <c r="J52" s="3">
-        <v>863300</v>
+        <v>842600</v>
       </c>
       <c r="K52" s="3">
         <v>703300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>43577200</v>
+        <v>42532600</v>
       </c>
       <c r="E54" s="3">
-        <v>45425100</v>
+        <v>44336300</v>
       </c>
       <c r="F54" s="3">
-        <v>42681200</v>
+        <v>41658100</v>
       </c>
       <c r="G54" s="3">
-        <v>40525000</v>
+        <v>39553600</v>
       </c>
       <c r="H54" s="3">
-        <v>39342600</v>
+        <v>38399600</v>
       </c>
       <c r="I54" s="3">
-        <v>38855700</v>
+        <v>37924400</v>
       </c>
       <c r="J54" s="3">
-        <v>35191200</v>
+        <v>34347700</v>
       </c>
       <c r="K54" s="3">
         <v>32496600</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2746700</v>
+        <v>2680800</v>
       </c>
       <c r="E57" s="3">
-        <v>1817900</v>
+        <v>1774400</v>
       </c>
       <c r="F57" s="3">
-        <v>2310300</v>
+        <v>2254900</v>
       </c>
       <c r="G57" s="3">
-        <v>2064800</v>
+        <v>2015300</v>
       </c>
       <c r="H57" s="3">
-        <v>1861600</v>
+        <v>1817000</v>
       </c>
       <c r="I57" s="3">
-        <v>1483800</v>
+        <v>1448200</v>
       </c>
       <c r="J57" s="3">
-        <v>1204200</v>
+        <v>1175400</v>
       </c>
       <c r="K57" s="3">
         <v>1277800</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2651200</v>
+        <v>2587700</v>
       </c>
       <c r="E58" s="3">
-        <v>2865300</v>
+        <v>2796600</v>
       </c>
       <c r="F58" s="3">
-        <v>2730300</v>
+        <v>2664900</v>
       </c>
       <c r="G58" s="3">
-        <v>2535300</v>
+        <v>2474500</v>
       </c>
       <c r="H58" s="3">
-        <v>3389000</v>
+        <v>3307800</v>
       </c>
       <c r="I58" s="3">
-        <v>2846200</v>
+        <v>2778000</v>
       </c>
       <c r="J58" s="3">
-        <v>2832600</v>
+        <v>2764700</v>
       </c>
       <c r="K58" s="3">
         <v>2436800</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4342300</v>
+        <v>4238200</v>
       </c>
       <c r="E59" s="3">
-        <v>4175900</v>
+        <v>4075800</v>
       </c>
       <c r="F59" s="3">
-        <v>4510100</v>
+        <v>4401900</v>
       </c>
       <c r="G59" s="3">
-        <v>4073600</v>
+        <v>3976000</v>
       </c>
       <c r="H59" s="3">
-        <v>3832200</v>
+        <v>3740400</v>
       </c>
       <c r="I59" s="3">
-        <v>4107700</v>
+        <v>4009300</v>
       </c>
       <c r="J59" s="3">
-        <v>3177600</v>
+        <v>3101500</v>
       </c>
       <c r="K59" s="3">
         <v>3150000</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9740200</v>
+        <v>9506700</v>
       </c>
       <c r="E60" s="3">
-        <v>8859200</v>
+        <v>8646800</v>
       </c>
       <c r="F60" s="3">
-        <v>9550600</v>
+        <v>9321700</v>
       </c>
       <c r="G60" s="3">
-        <v>8673700</v>
+        <v>8465800</v>
       </c>
       <c r="H60" s="3">
-        <v>9082800</v>
+        <v>8865100</v>
       </c>
       <c r="I60" s="3">
-        <v>8437800</v>
+        <v>8235500</v>
       </c>
       <c r="J60" s="3">
-        <v>7214400</v>
+        <v>7041500</v>
       </c>
       <c r="K60" s="3">
         <v>6864700</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17928400</v>
+        <v>17498600</v>
       </c>
       <c r="E61" s="3">
-        <v>20666900</v>
+        <v>20171500</v>
       </c>
       <c r="F61" s="3">
-        <v>14566600</v>
+        <v>14217500</v>
       </c>
       <c r="G61" s="3">
-        <v>11180400</v>
+        <v>10912400</v>
       </c>
       <c r="H61" s="3">
-        <v>9191900</v>
+        <v>8971600</v>
       </c>
       <c r="I61" s="3">
-        <v>11297600</v>
+        <v>11026800</v>
       </c>
       <c r="J61" s="3">
-        <v>11401300</v>
+        <v>11128000</v>
       </c>
       <c r="K61" s="3">
         <v>10808600</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4410500</v>
+        <v>4304800</v>
       </c>
       <c r="E62" s="3">
-        <v>4388700</v>
+        <v>4283500</v>
       </c>
       <c r="F62" s="3">
-        <v>4713300</v>
+        <v>4600300</v>
       </c>
       <c r="G62" s="3">
-        <v>4696900</v>
+        <v>4584300</v>
       </c>
       <c r="H62" s="3">
-        <v>4664200</v>
+        <v>4552400</v>
       </c>
       <c r="I62" s="3">
-        <v>5582000</v>
+        <v>5448200</v>
       </c>
       <c r="J62" s="3">
-        <v>3952300</v>
+        <v>3857500</v>
       </c>
       <c r="K62" s="3">
         <v>4082600</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>34171100</v>
+        <v>33352000</v>
       </c>
       <c r="E66" s="3">
-        <v>36189500</v>
+        <v>35322100</v>
       </c>
       <c r="F66" s="3">
-        <v>31278500</v>
+        <v>30528800</v>
       </c>
       <c r="G66" s="3">
-        <v>26958000</v>
+        <v>26311900</v>
       </c>
       <c r="H66" s="3">
-        <v>25277800</v>
+        <v>24671900</v>
       </c>
       <c r="I66" s="3">
-        <v>27222600</v>
+        <v>26570100</v>
       </c>
       <c r="J66" s="3">
-        <v>24593200</v>
+        <v>24003700</v>
       </c>
       <c r="K66" s="3">
         <v>22841300</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11269000</v>
+        <v>10998900</v>
       </c>
       <c r="E72" s="3">
-        <v>10288400</v>
+        <v>10041800</v>
       </c>
       <c r="F72" s="3">
-        <v>12413200</v>
+        <v>12115700</v>
       </c>
       <c r="G72" s="3">
-        <v>14992100</v>
+        <v>14632800</v>
       </c>
       <c r="H72" s="3">
-        <v>14724800</v>
+        <v>14371900</v>
       </c>
       <c r="I72" s="3">
-        <v>12405000</v>
+        <v>12107700</v>
       </c>
       <c r="J72" s="3">
-        <v>12285000</v>
+        <v>11990500</v>
       </c>
       <c r="K72" s="3">
         <v>11128400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9406100</v>
+        <v>9180600</v>
       </c>
       <c r="E76" s="3">
-        <v>9235600</v>
+        <v>9014200</v>
       </c>
       <c r="F76" s="3">
-        <v>11402600</v>
+        <v>11129300</v>
       </c>
       <c r="G76" s="3">
-        <v>13567000</v>
+        <v>13241800</v>
       </c>
       <c r="H76" s="3">
-        <v>14064800</v>
+        <v>13727600</v>
       </c>
       <c r="I76" s="3">
-        <v>11633100</v>
+        <v>11354300</v>
       </c>
       <c r="J76" s="3">
-        <v>10598000</v>
+        <v>10344000</v>
       </c>
       <c r="K76" s="3">
         <v>9655300</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3627700</v>
+        <v>3540700</v>
       </c>
       <c r="E81" s="3">
-        <v>1921600</v>
+        <v>1875500</v>
       </c>
       <c r="F81" s="3">
-        <v>4309600</v>
+        <v>4206300</v>
       </c>
       <c r="G81" s="3">
-        <v>4121400</v>
+        <v>4022600</v>
       </c>
       <c r="H81" s="3">
-        <v>3630400</v>
+        <v>3543400</v>
       </c>
       <c r="I81" s="3">
-        <v>3060300</v>
+        <v>2987000</v>
       </c>
       <c r="J81" s="3">
-        <v>3247200</v>
+        <v>3169300</v>
       </c>
       <c r="K81" s="3">
         <v>3181200</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>609600</v>
+        <v>595000</v>
       </c>
       <c r="E83" s="3">
-        <v>2508000</v>
+        <v>2447900</v>
       </c>
       <c r="F83" s="3">
-        <v>510100</v>
+        <v>497800</v>
       </c>
       <c r="G83" s="3">
-        <v>672300</v>
+        <v>656200</v>
       </c>
       <c r="H83" s="3">
-        <v>492300</v>
+        <v>480500</v>
       </c>
       <c r="I83" s="3">
-        <v>645100</v>
+        <v>629600</v>
       </c>
       <c r="J83" s="3">
-        <v>600100</v>
+        <v>585700</v>
       </c>
       <c r="K83" s="3">
         <v>890100</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4983300</v>
+        <v>4863800</v>
       </c>
       <c r="E89" s="3">
-        <v>3164000</v>
+        <v>3088200</v>
       </c>
       <c r="F89" s="3">
-        <v>4429600</v>
+        <v>4323400</v>
       </c>
       <c r="G89" s="3">
-        <v>4205900</v>
+        <v>4105100</v>
       </c>
       <c r="H89" s="3">
-        <v>4271400</v>
+        <v>4169000</v>
       </c>
       <c r="I89" s="3">
-        <v>3474900</v>
+        <v>3391600</v>
       </c>
       <c r="J89" s="3">
-        <v>3479000</v>
+        <v>3395600</v>
       </c>
       <c r="K89" s="3">
         <v>2533000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-853700</v>
+        <v>-833300</v>
       </c>
       <c r="E91" s="3">
-        <v>-954700</v>
+        <v>-931800</v>
       </c>
       <c r="F91" s="3">
-        <v>-915100</v>
+        <v>-893200</v>
       </c>
       <c r="G91" s="3">
-        <v>-796500</v>
+        <v>-777400</v>
       </c>
       <c r="H91" s="3">
-        <v>-706400</v>
+        <v>-689500</v>
       </c>
       <c r="I91" s="3">
-        <v>-690100</v>
+        <v>-673500</v>
       </c>
       <c r="J91" s="3">
-        <v>-870100</v>
+        <v>-849200</v>
       </c>
       <c r="K91" s="3">
         <v>-908500</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1487900</v>
+        <v>-1452200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1097900</v>
+        <v>-1071500</v>
       </c>
       <c r="F94" s="3">
-        <v>-368200</v>
+        <v>-359400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1569700</v>
+        <v>-1532100</v>
       </c>
       <c r="H94" s="3">
-        <v>-752800</v>
+        <v>-734800</v>
       </c>
       <c r="I94" s="3">
-        <v>812800</v>
+        <v>793300</v>
       </c>
       <c r="J94" s="3">
-        <v>-1219200</v>
+        <v>-1190000</v>
       </c>
       <c r="K94" s="3">
         <v>-1541100</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2244800</v>
+        <v>-2191000</v>
       </c>
       <c r="E96" s="3">
-        <v>-2244800</v>
+        <v>-2191000</v>
       </c>
       <c r="F96" s="3">
-        <v>-2213400</v>
+        <v>-2160400</v>
       </c>
       <c r="G96" s="3">
-        <v>-2156200</v>
+        <v>-2104500</v>
       </c>
       <c r="H96" s="3">
-        <v>-2066100</v>
+        <v>-2016600</v>
       </c>
       <c r="I96" s="3">
-        <v>-1967900</v>
+        <v>-1920800</v>
       </c>
       <c r="J96" s="3">
-        <v>-1828800</v>
+        <v>-1785000</v>
       </c>
       <c r="K96" s="3">
         <v>-1737800</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3810400</v>
+        <v>-3719100</v>
       </c>
       <c r="E100" s="3">
-        <v>1414300</v>
+        <v>1380400</v>
       </c>
       <c r="F100" s="3">
-        <v>-3987700</v>
+        <v>-3892100</v>
       </c>
       <c r="G100" s="3">
-        <v>-2888500</v>
+        <v>-2819300</v>
       </c>
       <c r="H100" s="3">
-        <v>-3352200</v>
+        <v>-3271800</v>
       </c>
       <c r="I100" s="3">
-        <v>-3820000</v>
+        <v>-3728400</v>
       </c>
       <c r="J100" s="3">
-        <v>-2364800</v>
+        <v>-2308100</v>
       </c>
       <c r="K100" s="3">
         <v>-2295300</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-388700</v>
+        <v>-379400</v>
       </c>
       <c r="E101" s="3">
-        <v>-163700</v>
+        <v>-159700</v>
       </c>
       <c r="F101" s="3">
-        <v>-35500</v>
+        <v>-34600</v>
       </c>
       <c r="G101" s="3">
-        <v>-53200</v>
+        <v>-51900</v>
       </c>
       <c r="H101" s="3">
-        <v>-19100</v>
+        <v>-18600</v>
       </c>
       <c r="I101" s="3">
-        <v>114600</v>
+        <v>111800</v>
       </c>
       <c r="J101" s="3">
-        <v>-99600</v>
+        <v>-97200</v>
       </c>
       <c r="K101" s="3">
         <v>-271700</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-703700</v>
+        <v>-686800</v>
       </c>
       <c r="E102" s="3">
-        <v>3316700</v>
+        <v>3237200</v>
       </c>
       <c r="F102" s="3">
-        <v>38200</v>
+        <v>37300</v>
       </c>
       <c r="G102" s="3">
-        <v>-305500</v>
+        <v>-298200</v>
       </c>
       <c r="H102" s="3">
-        <v>147300</v>
+        <v>143800</v>
       </c>
       <c r="I102" s="3">
-        <v>582300</v>
+        <v>568400</v>
       </c>
       <c r="J102" s="3">
-        <v>-204600</v>
+        <v>-199700</v>
       </c>
       <c r="K102" s="3">
         <v>-1575000</v>

--- a/AAII_Financials/Yearly/DEO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DEO_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16948900</v>
+        <v>16598600</v>
       </c>
       <c r="E8" s="3">
-        <v>15643100</v>
+        <v>15319800</v>
       </c>
       <c r="F8" s="3">
-        <v>17127300</v>
+        <v>16773300</v>
       </c>
       <c r="G8" s="3">
-        <v>16190200</v>
+        <v>15855600</v>
       </c>
       <c r="H8" s="3">
-        <v>16039800</v>
+        <v>15708300</v>
       </c>
       <c r="I8" s="3">
-        <v>13956600</v>
+        <v>13668100</v>
       </c>
       <c r="J8" s="3">
-        <v>14393200</v>
+        <v>14095700</v>
       </c>
       <c r="K8" s="3">
         <v>14516200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6706100</v>
+        <v>6567500</v>
       </c>
       <c r="E9" s="3">
-        <v>6194900</v>
+        <v>6066900</v>
       </c>
       <c r="F9" s="3">
-        <v>6477100</v>
+        <v>6343300</v>
       </c>
       <c r="G9" s="3">
-        <v>6168300</v>
+        <v>6040800</v>
       </c>
       <c r="H9" s="3">
-        <v>6229500</v>
+        <v>6100800</v>
       </c>
       <c r="I9" s="3">
-        <v>5658500</v>
+        <v>5541600</v>
       </c>
       <c r="J9" s="3">
-        <v>6103100</v>
+        <v>5977000</v>
       </c>
       <c r="K9" s="3">
         <v>5668900</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10242800</v>
+        <v>10031100</v>
       </c>
       <c r="E10" s="3">
-        <v>9448100</v>
+        <v>9252900</v>
       </c>
       <c r="F10" s="3">
-        <v>10650100</v>
+        <v>10430000</v>
       </c>
       <c r="G10" s="3">
-        <v>10021900</v>
+        <v>9814700</v>
       </c>
       <c r="H10" s="3">
-        <v>9810200</v>
+        <v>9607500</v>
       </c>
       <c r="I10" s="3">
-        <v>8298100</v>
+        <v>8126600</v>
       </c>
       <c r="J10" s="3">
-        <v>8290100</v>
+        <v>8118800</v>
       </c>
       <c r="K10" s="3">
         <v>8847300</v>
@@ -919,22 +919,22 @@
         <v>-1300</v>
       </c>
       <c r="E14" s="3">
-        <v>1947400</v>
+        <v>1907200</v>
       </c>
       <c r="F14" s="3">
-        <v>-93200</v>
+        <v>-91300</v>
       </c>
       <c r="G14" s="3">
-        <v>170400</v>
+        <v>166900</v>
       </c>
       <c r="H14" s="3">
-        <v>29300</v>
+        <v>28700</v>
       </c>
       <c r="I14" s="3">
-        <v>58600</v>
+        <v>57400</v>
       </c>
       <c r="J14" s="3">
-        <v>-138400</v>
+        <v>-135600</v>
       </c>
       <c r="K14" s="3">
         <v>406100</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11963900</v>
+        <v>11716700</v>
       </c>
       <c r="E17" s="3">
-        <v>12829100</v>
+        <v>12564000</v>
       </c>
       <c r="F17" s="3">
-        <v>11567300</v>
+        <v>11328200</v>
       </c>
       <c r="G17" s="3">
-        <v>11277100</v>
+        <v>11044000</v>
       </c>
       <c r="H17" s="3">
-        <v>11275700</v>
+        <v>11042700</v>
       </c>
       <c r="I17" s="3">
-        <v>10011200</v>
+        <v>9804300</v>
       </c>
       <c r="J17" s="3">
-        <v>10173600</v>
+        <v>9963300</v>
       </c>
       <c r="K17" s="3">
         <v>10487400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4985000</v>
+        <v>4881900</v>
       </c>
       <c r="E18" s="3">
-        <v>2813900</v>
+        <v>2755800</v>
       </c>
       <c r="F18" s="3">
-        <v>5560000</v>
+        <v>5445100</v>
       </c>
       <c r="G18" s="3">
-        <v>4913100</v>
+        <v>4811600</v>
       </c>
       <c r="H18" s="3">
-        <v>4764000</v>
+        <v>4665500</v>
       </c>
       <c r="I18" s="3">
-        <v>3945400</v>
+        <v>3863800</v>
       </c>
       <c r="J18" s="3">
-        <v>4219600</v>
+        <v>4132400</v>
       </c>
       <c r="K18" s="3">
         <v>4028800</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>567000</v>
+        <v>555300</v>
       </c>
       <c r="E20" s="3">
-        <v>604300</v>
+        <v>591800</v>
       </c>
       <c r="F20" s="3">
-        <v>713500</v>
+        <v>698700</v>
       </c>
       <c r="G20" s="3">
-        <v>591000</v>
+        <v>578800</v>
       </c>
       <c r="H20" s="3">
-        <v>573700</v>
+        <v>561800</v>
       </c>
       <c r="I20" s="3">
-        <v>469900</v>
+        <v>460200</v>
       </c>
       <c r="J20" s="3">
-        <v>387400</v>
+        <v>379300</v>
       </c>
       <c r="K20" s="3">
         <v>451400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6148300</v>
+        <v>6026400</v>
       </c>
       <c r="E21" s="3">
-        <v>5871500</v>
+        <v>5771300</v>
       </c>
       <c r="F21" s="3">
-        <v>6772400</v>
+        <v>6636700</v>
       </c>
       <c r="G21" s="3">
-        <v>6161800</v>
+        <v>6040100</v>
       </c>
       <c r="H21" s="3">
-        <v>5819300</v>
+        <v>5703200</v>
       </c>
       <c r="I21" s="3">
-        <v>5046200</v>
+        <v>4947400</v>
       </c>
       <c r="J21" s="3">
-        <v>5193900</v>
+        <v>5091600</v>
       </c>
       <c r="K21" s="3">
         <v>5370600</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>619000</v>
+        <v>606200</v>
       </c>
       <c r="E22" s="3">
-        <v>698800</v>
+        <v>684400</v>
       </c>
       <c r="F22" s="3">
-        <v>636300</v>
+        <v>623100</v>
       </c>
       <c r="G22" s="3">
-        <v>525800</v>
+        <v>514900</v>
       </c>
       <c r="H22" s="3">
-        <v>600300</v>
+        <v>587900</v>
       </c>
       <c r="I22" s="3">
-        <v>611000</v>
+        <v>598300</v>
       </c>
       <c r="J22" s="3">
-        <v>702800</v>
+        <v>688300</v>
       </c>
       <c r="K22" s="3">
         <v>643900</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4933100</v>
+        <v>4831100</v>
       </c>
       <c r="E23" s="3">
-        <v>2719400</v>
+        <v>2663200</v>
       </c>
       <c r="F23" s="3">
-        <v>5637200</v>
+        <v>5520700</v>
       </c>
       <c r="G23" s="3">
-        <v>4978300</v>
+        <v>4875400</v>
       </c>
       <c r="H23" s="3">
-        <v>4737400</v>
+        <v>4639500</v>
       </c>
       <c r="I23" s="3">
-        <v>3804300</v>
+        <v>3725700</v>
       </c>
       <c r="J23" s="3">
-        <v>3904100</v>
+        <v>3823400</v>
       </c>
       <c r="K23" s="3">
         <v>3836400</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1207300</v>
+        <v>1182400</v>
       </c>
       <c r="E24" s="3">
-        <v>784000</v>
+        <v>767800</v>
       </c>
       <c r="F24" s="3">
-        <v>1195300</v>
+        <v>1170600</v>
       </c>
       <c r="G24" s="3">
-        <v>1264500</v>
+        <v>1238400</v>
       </c>
       <c r="H24" s="3">
-        <v>974400</v>
+        <v>954200</v>
       </c>
       <c r="I24" s="3">
-        <v>660200</v>
+        <v>646600</v>
       </c>
       <c r="J24" s="3">
-        <v>620300</v>
+        <v>607500</v>
       </c>
       <c r="K24" s="3">
         <v>632600</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3725700</v>
+        <v>3648700</v>
       </c>
       <c r="E26" s="3">
-        <v>1935400</v>
+        <v>1895400</v>
       </c>
       <c r="F26" s="3">
-        <v>4441900</v>
+        <v>4350100</v>
       </c>
       <c r="G26" s="3">
-        <v>3713800</v>
+        <v>3637000</v>
       </c>
       <c r="H26" s="3">
-        <v>3763000</v>
+        <v>3685200</v>
       </c>
       <c r="I26" s="3">
-        <v>3144100</v>
+        <v>3079100</v>
       </c>
       <c r="J26" s="3">
-        <v>3283800</v>
+        <v>3216000</v>
       </c>
       <c r="K26" s="3">
         <v>3203800</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3540700</v>
+        <v>3467500</v>
       </c>
       <c r="E27" s="3">
-        <v>1875500</v>
+        <v>1836800</v>
       </c>
       <c r="F27" s="3">
-        <v>4206300</v>
+        <v>4119300</v>
       </c>
       <c r="G27" s="3">
-        <v>3551400</v>
+        <v>3478000</v>
       </c>
       <c r="H27" s="3">
-        <v>3616600</v>
+        <v>3541900</v>
       </c>
       <c r="I27" s="3">
-        <v>2987000</v>
+        <v>2925300</v>
       </c>
       <c r="J27" s="3">
-        <v>3169300</v>
+        <v>3103800</v>
       </c>
       <c r="K27" s="3">
         <v>3298600</v>
@@ -1422,10 +1422,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>471200</v>
+        <v>461500</v>
       </c>
       <c r="H29" s="3">
-        <v>-73200</v>
+        <v>-71700</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-567000</v>
+        <v>-555300</v>
       </c>
       <c r="E32" s="3">
-        <v>-604300</v>
+        <v>-591800</v>
       </c>
       <c r="F32" s="3">
-        <v>-713500</v>
+        <v>-698700</v>
       </c>
       <c r="G32" s="3">
-        <v>-591000</v>
+        <v>-578800</v>
       </c>
       <c r="H32" s="3">
-        <v>-573700</v>
+        <v>-561800</v>
       </c>
       <c r="I32" s="3">
-        <v>-469900</v>
+        <v>-460200</v>
       </c>
       <c r="J32" s="3">
-        <v>-387400</v>
+        <v>-379300</v>
       </c>
       <c r="K32" s="3">
         <v>-451400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3540700</v>
+        <v>3467500</v>
       </c>
       <c r="E33" s="3">
-        <v>1875500</v>
+        <v>1836800</v>
       </c>
       <c r="F33" s="3">
-        <v>4206300</v>
+        <v>4119300</v>
       </c>
       <c r="G33" s="3">
-        <v>4022600</v>
+        <v>3939400</v>
       </c>
       <c r="H33" s="3">
-        <v>3543400</v>
+        <v>3470200</v>
       </c>
       <c r="I33" s="3">
-        <v>2987000</v>
+        <v>2925300</v>
       </c>
       <c r="J33" s="3">
-        <v>3169300</v>
+        <v>3103800</v>
       </c>
       <c r="K33" s="3">
         <v>3181200</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3540700</v>
+        <v>3467500</v>
       </c>
       <c r="E35" s="3">
-        <v>1875500</v>
+        <v>1836800</v>
       </c>
       <c r="F35" s="3">
-        <v>4206300</v>
+        <v>4119300</v>
       </c>
       <c r="G35" s="3">
-        <v>4022600</v>
+        <v>3939400</v>
       </c>
       <c r="H35" s="3">
-        <v>3543400</v>
+        <v>3470200</v>
       </c>
       <c r="I35" s="3">
-        <v>2987000</v>
+        <v>2925300</v>
       </c>
       <c r="J35" s="3">
-        <v>3169300</v>
+        <v>3103800</v>
       </c>
       <c r="K35" s="3">
         <v>3181200</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3659200</v>
+        <v>3583600</v>
       </c>
       <c r="E41" s="3">
-        <v>4423200</v>
+        <v>4331800</v>
       </c>
       <c r="F41" s="3">
-        <v>1240600</v>
+        <v>1214900</v>
       </c>
       <c r="G41" s="3">
-        <v>1163400</v>
+        <v>1139300</v>
       </c>
       <c r="H41" s="3">
-        <v>1585300</v>
+        <v>1552600</v>
       </c>
       <c r="I41" s="3">
-        <v>1449600</v>
+        <v>1419600</v>
       </c>
       <c r="J41" s="3">
-        <v>628300</v>
+        <v>615300</v>
       </c>
       <c r="K41" s="3">
         <v>880200</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>61200</v>
+        <v>60000</v>
       </c>
       <c r="E42" s="3">
-        <v>97200</v>
+        <v>95200</v>
       </c>
       <c r="F42" s="3">
-        <v>165100</v>
+        <v>161600</v>
       </c>
       <c r="G42" s="3">
-        <v>33300</v>
+        <v>32600</v>
       </c>
       <c r="H42" s="3">
-        <v>31900</v>
+        <v>31300</v>
       </c>
       <c r="I42" s="3">
-        <v>198300</v>
+        <v>194200</v>
       </c>
       <c r="J42" s="3">
-        <v>61200</v>
+        <v>60000</v>
       </c>
       <c r="K42" s="3">
         <v>167000</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3168000</v>
+        <v>3102500</v>
       </c>
       <c r="E43" s="3">
-        <v>2853900</v>
+        <v>2794900</v>
       </c>
       <c r="F43" s="3">
-        <v>3427600</v>
+        <v>3356700</v>
       </c>
       <c r="G43" s="3">
-        <v>3442200</v>
+        <v>3371100</v>
       </c>
       <c r="H43" s="3">
-        <v>3238600</v>
+        <v>3171600</v>
       </c>
       <c r="I43" s="3">
-        <v>3323800</v>
+        <v>3255100</v>
       </c>
       <c r="J43" s="3">
-        <v>3046900</v>
+        <v>2983900</v>
       </c>
       <c r="K43" s="3">
         <v>3335400</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8046500</v>
+        <v>7880200</v>
       </c>
       <c r="E44" s="3">
-        <v>7683100</v>
+        <v>7524300</v>
       </c>
       <c r="F44" s="3">
-        <v>7283800</v>
+        <v>7133200</v>
       </c>
       <c r="G44" s="3">
-        <v>6675500</v>
+        <v>6537500</v>
       </c>
       <c r="H44" s="3">
-        <v>6373300</v>
+        <v>6241600</v>
       </c>
       <c r="I44" s="3">
-        <v>6095100</v>
+        <v>5969100</v>
       </c>
       <c r="J44" s="3">
-        <v>6088500</v>
+        <v>5962600</v>
       </c>
       <c r="K44" s="3">
         <v>5974600</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>299500</v>
+        <v>293300</v>
       </c>
       <c r="E45" s="3">
-        <v>211600</v>
+        <v>207300</v>
       </c>
       <c r="F45" s="3">
-        <v>359400</v>
+        <v>352000</v>
       </c>
       <c r="G45" s="3">
-        <v>254200</v>
+        <v>249000</v>
       </c>
       <c r="H45" s="3">
-        <v>287500</v>
+        <v>281600</v>
       </c>
       <c r="I45" s="3">
-        <v>716100</v>
+        <v>701300</v>
       </c>
       <c r="J45" s="3">
-        <v>384700</v>
+        <v>376700</v>
       </c>
       <c r="K45" s="3">
         <v>212300</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15234400</v>
+        <v>14919600</v>
       </c>
       <c r="E46" s="3">
-        <v>15269000</v>
+        <v>14953500</v>
       </c>
       <c r="F46" s="3">
-        <v>12476400</v>
+        <v>12218500</v>
       </c>
       <c r="G46" s="3">
-        <v>11568600</v>
+        <v>11329500</v>
       </c>
       <c r="H46" s="3">
-        <v>11516700</v>
+        <v>11278700</v>
       </c>
       <c r="I46" s="3">
-        <v>11782900</v>
+        <v>11539400</v>
       </c>
       <c r="J46" s="3">
-        <v>10209500</v>
+        <v>9998500</v>
       </c>
       <c r="K46" s="3">
         <v>10569500</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4476500</v>
+        <v>4384000</v>
       </c>
       <c r="E47" s="3">
-        <v>4826600</v>
+        <v>4726800</v>
       </c>
       <c r="F47" s="3">
-        <v>4331400</v>
+        <v>4241900</v>
       </c>
       <c r="G47" s="3">
-        <v>4122400</v>
+        <v>4037200</v>
       </c>
       <c r="H47" s="3">
-        <v>3901500</v>
+        <v>3820800</v>
       </c>
       <c r="I47" s="3">
-        <v>3491500</v>
+        <v>3419300</v>
       </c>
       <c r="J47" s="3">
-        <v>3347700</v>
+        <v>3278500</v>
       </c>
       <c r="K47" s="3">
         <v>5124100</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6542400</v>
+        <v>6407100</v>
       </c>
       <c r="E48" s="3">
-        <v>6624900</v>
+        <v>6488000</v>
       </c>
       <c r="F48" s="3">
-        <v>5975300</v>
+        <v>5851800</v>
       </c>
       <c r="G48" s="3">
-        <v>5473500</v>
+        <v>5360400</v>
       </c>
       <c r="H48" s="3">
-        <v>5371000</v>
+        <v>5260000</v>
       </c>
       <c r="I48" s="3">
-        <v>5179300</v>
+        <v>5072300</v>
       </c>
       <c r="J48" s="3">
-        <v>4998300</v>
+        <v>4895000</v>
       </c>
       <c r="K48" s="3">
         <v>4933100</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14328000</v>
+        <v>14031800</v>
       </c>
       <c r="E49" s="3">
-        <v>15041400</v>
+        <v>14730600</v>
       </c>
       <c r="F49" s="3">
-        <v>16714600</v>
+        <v>16369200</v>
       </c>
       <c r="G49" s="3">
-        <v>16734600</v>
+        <v>16388700</v>
       </c>
       <c r="H49" s="3">
-        <v>16726600</v>
+        <v>16380900</v>
       </c>
       <c r="I49" s="3">
-        <v>16465700</v>
+        <v>16125400</v>
       </c>
       <c r="J49" s="3">
-        <v>14949600</v>
+        <v>14640600</v>
       </c>
       <c r="K49" s="3">
         <v>11166600</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1951400</v>
+        <v>1911100</v>
       </c>
       <c r="E52" s="3">
-        <v>2574300</v>
+        <v>2521100</v>
       </c>
       <c r="F52" s="3">
-        <v>2160400</v>
+        <v>2115700</v>
       </c>
       <c r="G52" s="3">
-        <v>1654600</v>
+        <v>1620400</v>
       </c>
       <c r="H52" s="3">
-        <v>883900</v>
+        <v>865600</v>
       </c>
       <c r="I52" s="3">
-        <v>1005000</v>
+        <v>984200</v>
       </c>
       <c r="J52" s="3">
-        <v>842600</v>
+        <v>825200</v>
       </c>
       <c r="K52" s="3">
         <v>703300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>42532600</v>
+        <v>41653600</v>
       </c>
       <c r="E54" s="3">
-        <v>44336300</v>
+        <v>43420000</v>
       </c>
       <c r="F54" s="3">
-        <v>41658100</v>
+        <v>40797200</v>
       </c>
       <c r="G54" s="3">
-        <v>39553600</v>
+        <v>38736200</v>
       </c>
       <c r="H54" s="3">
-        <v>38399600</v>
+        <v>37606000</v>
       </c>
       <c r="I54" s="3">
-        <v>37924400</v>
+        <v>37140600</v>
       </c>
       <c r="J54" s="3">
-        <v>34347700</v>
+        <v>33637800</v>
       </c>
       <c r="K54" s="3">
         <v>32496600</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2680800</v>
+        <v>2625400</v>
       </c>
       <c r="E57" s="3">
-        <v>1774400</v>
+        <v>1737700</v>
       </c>
       <c r="F57" s="3">
-        <v>2254900</v>
+        <v>2208300</v>
       </c>
       <c r="G57" s="3">
-        <v>2015300</v>
+        <v>1973600</v>
       </c>
       <c r="H57" s="3">
-        <v>1817000</v>
+        <v>1779400</v>
       </c>
       <c r="I57" s="3">
-        <v>1448200</v>
+        <v>1418300</v>
       </c>
       <c r="J57" s="3">
-        <v>1175400</v>
+        <v>1151100</v>
       </c>
       <c r="K57" s="3">
         <v>1277800</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2587700</v>
+        <v>2534200</v>
       </c>
       <c r="E58" s="3">
-        <v>2796600</v>
+        <v>2738800</v>
       </c>
       <c r="F58" s="3">
-        <v>2664900</v>
+        <v>2609800</v>
       </c>
       <c r="G58" s="3">
-        <v>2474500</v>
+        <v>2423400</v>
       </c>
       <c r="H58" s="3">
-        <v>3307800</v>
+        <v>3239400</v>
       </c>
       <c r="I58" s="3">
-        <v>2778000</v>
+        <v>2720600</v>
       </c>
       <c r="J58" s="3">
-        <v>2764700</v>
+        <v>2707600</v>
       </c>
       <c r="K58" s="3">
         <v>2436800</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4238200</v>
+        <v>4150600</v>
       </c>
       <c r="E59" s="3">
-        <v>4075800</v>
+        <v>3991600</v>
       </c>
       <c r="F59" s="3">
-        <v>4401900</v>
+        <v>4311000</v>
       </c>
       <c r="G59" s="3">
-        <v>3976000</v>
+        <v>3893800</v>
       </c>
       <c r="H59" s="3">
-        <v>3740400</v>
+        <v>3663100</v>
       </c>
       <c r="I59" s="3">
-        <v>4009300</v>
+        <v>3926400</v>
       </c>
       <c r="J59" s="3">
-        <v>3101500</v>
+        <v>3037400</v>
       </c>
       <c r="K59" s="3">
         <v>3150000</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9506700</v>
+        <v>9310200</v>
       </c>
       <c r="E60" s="3">
-        <v>8646800</v>
+        <v>8468100</v>
       </c>
       <c r="F60" s="3">
-        <v>9321700</v>
+        <v>9129000</v>
       </c>
       <c r="G60" s="3">
-        <v>8465800</v>
+        <v>8290800</v>
       </c>
       <c r="H60" s="3">
-        <v>8865100</v>
+        <v>8681900</v>
       </c>
       <c r="I60" s="3">
-        <v>8235500</v>
+        <v>8065300</v>
       </c>
       <c r="J60" s="3">
-        <v>7041500</v>
+        <v>6896000</v>
       </c>
       <c r="K60" s="3">
         <v>6864700</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17498600</v>
+        <v>17137000</v>
       </c>
       <c r="E61" s="3">
-        <v>20171500</v>
+        <v>19754600</v>
       </c>
       <c r="F61" s="3">
-        <v>14217500</v>
+        <v>13923600</v>
       </c>
       <c r="G61" s="3">
-        <v>10912400</v>
+        <v>10686800</v>
       </c>
       <c r="H61" s="3">
-        <v>8971600</v>
+        <v>8786200</v>
       </c>
       <c r="I61" s="3">
-        <v>11026800</v>
+        <v>10798900</v>
       </c>
       <c r="J61" s="3">
-        <v>11128000</v>
+        <v>10898000</v>
       </c>
       <c r="K61" s="3">
         <v>10808600</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4304800</v>
+        <v>4215800</v>
       </c>
       <c r="E62" s="3">
-        <v>4283500</v>
+        <v>4195000</v>
       </c>
       <c r="F62" s="3">
-        <v>4600300</v>
+        <v>4505200</v>
       </c>
       <c r="G62" s="3">
-        <v>4584300</v>
+        <v>4489600</v>
       </c>
       <c r="H62" s="3">
-        <v>4552400</v>
+        <v>4458300</v>
       </c>
       <c r="I62" s="3">
-        <v>5448200</v>
+        <v>5335600</v>
       </c>
       <c r="J62" s="3">
-        <v>3857500</v>
+        <v>3777800</v>
       </c>
       <c r="K62" s="3">
         <v>4082600</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33352000</v>
+        <v>32662800</v>
       </c>
       <c r="E66" s="3">
-        <v>35322100</v>
+        <v>34592100</v>
       </c>
       <c r="F66" s="3">
-        <v>30528800</v>
+        <v>29897800</v>
       </c>
       <c r="G66" s="3">
-        <v>26311900</v>
+        <v>25768100</v>
       </c>
       <c r="H66" s="3">
-        <v>24671900</v>
+        <v>24162000</v>
       </c>
       <c r="I66" s="3">
-        <v>26570100</v>
+        <v>26021000</v>
       </c>
       <c r="J66" s="3">
-        <v>24003700</v>
+        <v>23507600</v>
       </c>
       <c r="K66" s="3">
         <v>22841300</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10998900</v>
+        <v>10771600</v>
       </c>
       <c r="E72" s="3">
-        <v>10041800</v>
+        <v>9834300</v>
       </c>
       <c r="F72" s="3">
-        <v>12115700</v>
+        <v>11865300</v>
       </c>
       <c r="G72" s="3">
-        <v>14632800</v>
+        <v>14330400</v>
       </c>
       <c r="H72" s="3">
-        <v>14371900</v>
+        <v>14074900</v>
       </c>
       <c r="I72" s="3">
-        <v>12107700</v>
+        <v>11857500</v>
       </c>
       <c r="J72" s="3">
-        <v>11990500</v>
+        <v>11742700</v>
       </c>
       <c r="K72" s="3">
         <v>11128400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9180600</v>
+        <v>8990900</v>
       </c>
       <c r="E76" s="3">
-        <v>9014200</v>
+        <v>8827900</v>
       </c>
       <c r="F76" s="3">
-        <v>11129300</v>
+        <v>10899300</v>
       </c>
       <c r="G76" s="3">
-        <v>13241800</v>
+        <v>12968100</v>
       </c>
       <c r="H76" s="3">
-        <v>13727600</v>
+        <v>13443900</v>
       </c>
       <c r="I76" s="3">
-        <v>11354300</v>
+        <v>11119600</v>
       </c>
       <c r="J76" s="3">
-        <v>10344000</v>
+        <v>10130200</v>
       </c>
       <c r="K76" s="3">
         <v>9655300</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3540700</v>
+        <v>3467500</v>
       </c>
       <c r="E81" s="3">
-        <v>1875500</v>
+        <v>1836800</v>
       </c>
       <c r="F81" s="3">
-        <v>4206300</v>
+        <v>4119300</v>
       </c>
       <c r="G81" s="3">
-        <v>4022600</v>
+        <v>3939400</v>
       </c>
       <c r="H81" s="3">
-        <v>3543400</v>
+        <v>3470200</v>
       </c>
       <c r="I81" s="3">
-        <v>2987000</v>
+        <v>2925300</v>
       </c>
       <c r="J81" s="3">
-        <v>3169300</v>
+        <v>3103800</v>
       </c>
       <c r="K81" s="3">
         <v>3181200</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>595000</v>
+        <v>582700</v>
       </c>
       <c r="E83" s="3">
-        <v>2447900</v>
+        <v>2397300</v>
       </c>
       <c r="F83" s="3">
-        <v>497800</v>
+        <v>487500</v>
       </c>
       <c r="G83" s="3">
-        <v>656200</v>
+        <v>642700</v>
       </c>
       <c r="H83" s="3">
-        <v>480500</v>
+        <v>470600</v>
       </c>
       <c r="I83" s="3">
-        <v>629600</v>
+        <v>616600</v>
       </c>
       <c r="J83" s="3">
-        <v>585700</v>
+        <v>573600</v>
       </c>
       <c r="K83" s="3">
         <v>890100</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4863800</v>
+        <v>4763300</v>
       </c>
       <c r="E89" s="3">
-        <v>3088200</v>
+        <v>3024300</v>
       </c>
       <c r="F89" s="3">
-        <v>4323400</v>
+        <v>4234100</v>
       </c>
       <c r="G89" s="3">
-        <v>4105100</v>
+        <v>4020300</v>
       </c>
       <c r="H89" s="3">
-        <v>4169000</v>
+        <v>4082800</v>
       </c>
       <c r="I89" s="3">
-        <v>3391600</v>
+        <v>3321500</v>
       </c>
       <c r="J89" s="3">
-        <v>3395600</v>
+        <v>3325500</v>
       </c>
       <c r="K89" s="3">
         <v>2533000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-833300</v>
+        <v>-816000</v>
       </c>
       <c r="E91" s="3">
-        <v>-931800</v>
+        <v>-912500</v>
       </c>
       <c r="F91" s="3">
-        <v>-893200</v>
+        <v>-874700</v>
       </c>
       <c r="G91" s="3">
-        <v>-777400</v>
+        <v>-761300</v>
       </c>
       <c r="H91" s="3">
-        <v>-689500</v>
+        <v>-675300</v>
       </c>
       <c r="I91" s="3">
-        <v>-673500</v>
+        <v>-659600</v>
       </c>
       <c r="J91" s="3">
-        <v>-849200</v>
+        <v>-831700</v>
       </c>
       <c r="K91" s="3">
         <v>-908500</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1452200</v>
+        <v>-1422200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1071500</v>
+        <v>-1049400</v>
       </c>
       <c r="F94" s="3">
-        <v>-359400</v>
+        <v>-352000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1532100</v>
+        <v>-1500400</v>
       </c>
       <c r="H94" s="3">
-        <v>-734800</v>
+        <v>-719600</v>
       </c>
       <c r="I94" s="3">
-        <v>793300</v>
+        <v>776900</v>
       </c>
       <c r="J94" s="3">
-        <v>-1190000</v>
+        <v>-1165400</v>
       </c>
       <c r="K94" s="3">
         <v>-1541100</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2191000</v>
+        <v>-2145700</v>
       </c>
       <c r="E96" s="3">
-        <v>-2191000</v>
+        <v>-2145700</v>
       </c>
       <c r="F96" s="3">
-        <v>-2160400</v>
+        <v>-2115700</v>
       </c>
       <c r="G96" s="3">
-        <v>-2104500</v>
+        <v>-2061000</v>
       </c>
       <c r="H96" s="3">
-        <v>-2016600</v>
+        <v>-1974900</v>
       </c>
       <c r="I96" s="3">
-        <v>-1920800</v>
+        <v>-1881100</v>
       </c>
       <c r="J96" s="3">
-        <v>-1785000</v>
+        <v>-1748100</v>
       </c>
       <c r="K96" s="3">
         <v>-1737800</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3719100</v>
+        <v>-3642200</v>
       </c>
       <c r="E100" s="3">
-        <v>1380400</v>
+        <v>1351800</v>
       </c>
       <c r="F100" s="3">
-        <v>-3892100</v>
+        <v>-3811700</v>
       </c>
       <c r="G100" s="3">
-        <v>-2819300</v>
+        <v>-2761000</v>
       </c>
       <c r="H100" s="3">
-        <v>-3271800</v>
+        <v>-3204200</v>
       </c>
       <c r="I100" s="3">
-        <v>-3728400</v>
+        <v>-3651400</v>
       </c>
       <c r="J100" s="3">
-        <v>-2308100</v>
+        <v>-2260400</v>
       </c>
       <c r="K100" s="3">
         <v>-2295300</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-379400</v>
+        <v>-371500</v>
       </c>
       <c r="E101" s="3">
-        <v>-159700</v>
+        <v>-156400</v>
       </c>
       <c r="F101" s="3">
-        <v>-34600</v>
+        <v>-33900</v>
       </c>
       <c r="G101" s="3">
-        <v>-51900</v>
+        <v>-50800</v>
       </c>
       <c r="H101" s="3">
-        <v>-18600</v>
+        <v>-18300</v>
       </c>
       <c r="I101" s="3">
-        <v>111800</v>
+        <v>109500</v>
       </c>
       <c r="J101" s="3">
-        <v>-97200</v>
+        <v>-95200</v>
       </c>
       <c r="K101" s="3">
         <v>-271700</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-686800</v>
+        <v>-672700</v>
       </c>
       <c r="E102" s="3">
-        <v>3237200</v>
+        <v>3170300</v>
       </c>
       <c r="F102" s="3">
-        <v>37300</v>
+        <v>36500</v>
       </c>
       <c r="G102" s="3">
-        <v>-298200</v>
+        <v>-292000</v>
       </c>
       <c r="H102" s="3">
-        <v>143800</v>
+        <v>140800</v>
       </c>
       <c r="I102" s="3">
-        <v>568400</v>
+        <v>556600</v>
       </c>
       <c r="J102" s="3">
-        <v>-199700</v>
+        <v>-195500</v>
       </c>
       <c r="K102" s="3">
         <v>-1575000</v>

--- a/AAII_Financials/Yearly/DEO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DEO_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16598600</v>
+        <v>15533000</v>
       </c>
       <c r="E8" s="3">
-        <v>15319800</v>
+        <v>14336300</v>
       </c>
       <c r="F8" s="3">
-        <v>16773300</v>
+        <v>15696500</v>
       </c>
       <c r="G8" s="3">
-        <v>15855600</v>
+        <v>14837600</v>
       </c>
       <c r="H8" s="3">
-        <v>15708300</v>
+        <v>14699800</v>
       </c>
       <c r="I8" s="3">
-        <v>13668100</v>
+        <v>12790700</v>
       </c>
       <c r="J8" s="3">
-        <v>14095700</v>
+        <v>13190800</v>
       </c>
       <c r="K8" s="3">
         <v>14516200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6567500</v>
+        <v>6145900</v>
       </c>
       <c r="E9" s="3">
-        <v>6066900</v>
+        <v>5677400</v>
       </c>
       <c r="F9" s="3">
-        <v>6343300</v>
+        <v>5936000</v>
       </c>
       <c r="G9" s="3">
-        <v>6040800</v>
+        <v>5653000</v>
       </c>
       <c r="H9" s="3">
-        <v>6100800</v>
+        <v>5709100</v>
       </c>
       <c r="I9" s="3">
-        <v>5541600</v>
+        <v>5185800</v>
       </c>
       <c r="J9" s="3">
-        <v>5977000</v>
+        <v>5593200</v>
       </c>
       <c r="K9" s="3">
         <v>5668900</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10031100</v>
+        <v>9387100</v>
       </c>
       <c r="E10" s="3">
-        <v>9252900</v>
+        <v>8658900</v>
       </c>
       <c r="F10" s="3">
-        <v>10430000</v>
+        <v>9760400</v>
       </c>
       <c r="G10" s="3">
-        <v>9814700</v>
+        <v>9184600</v>
       </c>
       <c r="H10" s="3">
-        <v>9607500</v>
+        <v>8990700</v>
       </c>
       <c r="I10" s="3">
-        <v>8126600</v>
+        <v>7604900</v>
       </c>
       <c r="J10" s="3">
-        <v>8118800</v>
+        <v>7597500</v>
       </c>
       <c r="K10" s="3">
         <v>8847300</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="E14" s="3">
-        <v>1907200</v>
+        <v>1784700</v>
       </c>
       <c r="F14" s="3">
-        <v>-91300</v>
+        <v>-85400</v>
       </c>
       <c r="G14" s="3">
-        <v>166900</v>
+        <v>156100</v>
       </c>
       <c r="H14" s="3">
-        <v>28700</v>
+        <v>26800</v>
       </c>
       <c r="I14" s="3">
-        <v>57400</v>
+        <v>53700</v>
       </c>
       <c r="J14" s="3">
-        <v>-135600</v>
+        <v>-126900</v>
       </c>
       <c r="K14" s="3">
         <v>406100</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11716700</v>
+        <v>10964500</v>
       </c>
       <c r="E17" s="3">
-        <v>12564000</v>
+        <v>11757400</v>
       </c>
       <c r="F17" s="3">
-        <v>11328200</v>
+        <v>10600900</v>
       </c>
       <c r="G17" s="3">
-        <v>11044000</v>
+        <v>10335000</v>
       </c>
       <c r="H17" s="3">
-        <v>11042700</v>
+        <v>10333800</v>
       </c>
       <c r="I17" s="3">
-        <v>9804300</v>
+        <v>9174900</v>
       </c>
       <c r="J17" s="3">
-        <v>9963300</v>
+        <v>9323700</v>
       </c>
       <c r="K17" s="3">
         <v>10487400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4881900</v>
+        <v>4568500</v>
       </c>
       <c r="E18" s="3">
-        <v>2755800</v>
+        <v>2578900</v>
       </c>
       <c r="F18" s="3">
-        <v>5445100</v>
+        <v>5095500</v>
       </c>
       <c r="G18" s="3">
-        <v>4811600</v>
+        <v>4502700</v>
       </c>
       <c r="H18" s="3">
-        <v>4665500</v>
+        <v>4366000</v>
       </c>
       <c r="I18" s="3">
-        <v>3863800</v>
+        <v>3615800</v>
       </c>
       <c r="J18" s="3">
-        <v>4132400</v>
+        <v>3867100</v>
       </c>
       <c r="K18" s="3">
         <v>4028800</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>555300</v>
+        <v>519700</v>
       </c>
       <c r="E20" s="3">
-        <v>591800</v>
+        <v>553800</v>
       </c>
       <c r="F20" s="3">
-        <v>698700</v>
+        <v>653900</v>
       </c>
       <c r="G20" s="3">
-        <v>578800</v>
+        <v>541600</v>
       </c>
       <c r="H20" s="3">
-        <v>561800</v>
+        <v>525800</v>
       </c>
       <c r="I20" s="3">
-        <v>460200</v>
+        <v>430600</v>
       </c>
       <c r="J20" s="3">
-        <v>379300</v>
+        <v>355000</v>
       </c>
       <c r="K20" s="3">
         <v>451400</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6026400</v>
+        <v>5635800</v>
       </c>
       <c r="E21" s="3">
-        <v>5771300</v>
+        <v>5385500</v>
       </c>
       <c r="F21" s="3">
-        <v>6636700</v>
+        <v>6207500</v>
       </c>
       <c r="G21" s="3">
-        <v>6040100</v>
+        <v>5648200</v>
       </c>
       <c r="H21" s="3">
-        <v>5703200</v>
+        <v>5334000</v>
       </c>
       <c r="I21" s="3">
-        <v>4947400</v>
+        <v>4625800</v>
       </c>
       <c r="J21" s="3">
-        <v>5091600</v>
+        <v>4761100</v>
       </c>
       <c r="K21" s="3">
         <v>5370600</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>606200</v>
+        <v>567300</v>
       </c>
       <c r="E22" s="3">
-        <v>684400</v>
+        <v>640400</v>
       </c>
       <c r="F22" s="3">
-        <v>623100</v>
+        <v>583100</v>
       </c>
       <c r="G22" s="3">
-        <v>514900</v>
+        <v>481900</v>
       </c>
       <c r="H22" s="3">
-        <v>587900</v>
+        <v>550200</v>
       </c>
       <c r="I22" s="3">
-        <v>598300</v>
+        <v>559900</v>
       </c>
       <c r="J22" s="3">
-        <v>688300</v>
+        <v>644100</v>
       </c>
       <c r="K22" s="3">
         <v>643900</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4831100</v>
+        <v>4520900</v>
       </c>
       <c r="E23" s="3">
-        <v>2663200</v>
+        <v>2492300</v>
       </c>
       <c r="F23" s="3">
-        <v>5520700</v>
+        <v>5166300</v>
       </c>
       <c r="G23" s="3">
-        <v>4875400</v>
+        <v>4562400</v>
       </c>
       <c r="H23" s="3">
-        <v>4639500</v>
+        <v>4341600</v>
       </c>
       <c r="I23" s="3">
-        <v>3725700</v>
+        <v>3486500</v>
       </c>
       <c r="J23" s="3">
-        <v>3823400</v>
+        <v>3578000</v>
       </c>
       <c r="K23" s="3">
         <v>3836400</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1182400</v>
+        <v>1106400</v>
       </c>
       <c r="E24" s="3">
-        <v>767800</v>
+        <v>718500</v>
       </c>
       <c r="F24" s="3">
-        <v>1170600</v>
+        <v>1095500</v>
       </c>
       <c r="G24" s="3">
-        <v>1238400</v>
+        <v>1158900</v>
       </c>
       <c r="H24" s="3">
-        <v>954200</v>
+        <v>893000</v>
       </c>
       <c r="I24" s="3">
-        <v>646600</v>
+        <v>605100</v>
       </c>
       <c r="J24" s="3">
-        <v>607500</v>
+        <v>568500</v>
       </c>
       <c r="K24" s="3">
         <v>632600</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3648700</v>
+        <v>3414500</v>
       </c>
       <c r="E26" s="3">
-        <v>1895400</v>
+        <v>1773700</v>
       </c>
       <c r="F26" s="3">
-        <v>4350100</v>
+        <v>4070800</v>
       </c>
       <c r="G26" s="3">
-        <v>3637000</v>
+        <v>3403500</v>
       </c>
       <c r="H26" s="3">
-        <v>3685200</v>
+        <v>3448700</v>
       </c>
       <c r="I26" s="3">
-        <v>3079100</v>
+        <v>2881400</v>
       </c>
       <c r="J26" s="3">
-        <v>3216000</v>
+        <v>3009500</v>
       </c>
       <c r="K26" s="3">
         <v>3203800</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3467500</v>
+        <v>3244900</v>
       </c>
       <c r="E27" s="3">
-        <v>1836800</v>
+        <v>1718800</v>
       </c>
       <c r="F27" s="3">
-        <v>4119300</v>
+        <v>3854900</v>
       </c>
       <c r="G27" s="3">
-        <v>3478000</v>
+        <v>3254700</v>
       </c>
       <c r="H27" s="3">
-        <v>3541900</v>
+        <v>3314500</v>
       </c>
       <c r="I27" s="3">
-        <v>2925300</v>
+        <v>2737500</v>
       </c>
       <c r="J27" s="3">
-        <v>3103800</v>
+        <v>2904600</v>
       </c>
       <c r="K27" s="3">
         <v>3298600</v>
@@ -1422,10 +1422,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>461500</v>
+        <v>431800</v>
       </c>
       <c r="H29" s="3">
-        <v>-71700</v>
+        <v>-67100</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-555300</v>
+        <v>-519700</v>
       </c>
       <c r="E32" s="3">
-        <v>-591800</v>
+        <v>-553800</v>
       </c>
       <c r="F32" s="3">
-        <v>-698700</v>
+        <v>-653900</v>
       </c>
       <c r="G32" s="3">
-        <v>-578800</v>
+        <v>-541600</v>
       </c>
       <c r="H32" s="3">
-        <v>-561800</v>
+        <v>-525800</v>
       </c>
       <c r="I32" s="3">
-        <v>-460200</v>
+        <v>-430600</v>
       </c>
       <c r="J32" s="3">
-        <v>-379300</v>
+        <v>-355000</v>
       </c>
       <c r="K32" s="3">
         <v>-451400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3467500</v>
+        <v>3244900</v>
       </c>
       <c r="E33" s="3">
-        <v>1836800</v>
+        <v>1718800</v>
       </c>
       <c r="F33" s="3">
-        <v>4119300</v>
+        <v>3854900</v>
       </c>
       <c r="G33" s="3">
-        <v>3939400</v>
+        <v>3686500</v>
       </c>
       <c r="H33" s="3">
-        <v>3470200</v>
+        <v>3247400</v>
       </c>
       <c r="I33" s="3">
-        <v>2925300</v>
+        <v>2737500</v>
       </c>
       <c r="J33" s="3">
-        <v>3103800</v>
+        <v>2904600</v>
       </c>
       <c r="K33" s="3">
         <v>3181200</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3467500</v>
+        <v>3244900</v>
       </c>
       <c r="E35" s="3">
-        <v>1836800</v>
+        <v>1718800</v>
       </c>
       <c r="F35" s="3">
-        <v>4119300</v>
+        <v>3854900</v>
       </c>
       <c r="G35" s="3">
-        <v>3939400</v>
+        <v>3686500</v>
       </c>
       <c r="H35" s="3">
-        <v>3470200</v>
+        <v>3247400</v>
       </c>
       <c r="I35" s="3">
-        <v>2925300</v>
+        <v>2737500</v>
       </c>
       <c r="J35" s="3">
-        <v>3103800</v>
+        <v>2904600</v>
       </c>
       <c r="K35" s="3">
         <v>3181200</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3583600</v>
+        <v>3353500</v>
       </c>
       <c r="E41" s="3">
-        <v>4331800</v>
+        <v>4053700</v>
       </c>
       <c r="F41" s="3">
-        <v>1214900</v>
+        <v>1136900</v>
       </c>
       <c r="G41" s="3">
-        <v>1139300</v>
+        <v>1066200</v>
       </c>
       <c r="H41" s="3">
-        <v>1552600</v>
+        <v>1452900</v>
       </c>
       <c r="I41" s="3">
-        <v>1419600</v>
+        <v>1328500</v>
       </c>
       <c r="J41" s="3">
-        <v>615300</v>
+        <v>575800</v>
       </c>
       <c r="K41" s="3">
         <v>880200</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>60000</v>
+        <v>56100</v>
       </c>
       <c r="E42" s="3">
-        <v>95200</v>
+        <v>89100</v>
       </c>
       <c r="F42" s="3">
-        <v>161600</v>
+        <v>151300</v>
       </c>
       <c r="G42" s="3">
-        <v>32600</v>
+        <v>30500</v>
       </c>
       <c r="H42" s="3">
-        <v>31300</v>
+        <v>29300</v>
       </c>
       <c r="I42" s="3">
-        <v>194200</v>
+        <v>181800</v>
       </c>
       <c r="J42" s="3">
-        <v>60000</v>
+        <v>56100</v>
       </c>
       <c r="K42" s="3">
         <v>167000</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3102500</v>
+        <v>2903400</v>
       </c>
       <c r="E43" s="3">
-        <v>2794900</v>
+        <v>2615500</v>
       </c>
       <c r="F43" s="3">
-        <v>3356700</v>
+        <v>3141200</v>
       </c>
       <c r="G43" s="3">
-        <v>3371100</v>
+        <v>3154700</v>
       </c>
       <c r="H43" s="3">
-        <v>3171600</v>
+        <v>2968000</v>
       </c>
       <c r="I43" s="3">
-        <v>3255100</v>
+        <v>3046100</v>
       </c>
       <c r="J43" s="3">
-        <v>2983900</v>
+        <v>2792400</v>
       </c>
       <c r="K43" s="3">
         <v>3335400</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7880200</v>
+        <v>7374300</v>
       </c>
       <c r="E44" s="3">
-        <v>7524300</v>
+        <v>7041300</v>
       </c>
       <c r="F44" s="3">
-        <v>7133200</v>
+        <v>6675300</v>
       </c>
       <c r="G44" s="3">
-        <v>6537500</v>
+        <v>6117800</v>
       </c>
       <c r="H44" s="3">
-        <v>6241600</v>
+        <v>5840900</v>
       </c>
       <c r="I44" s="3">
-        <v>5969100</v>
+        <v>5585900</v>
       </c>
       <c r="J44" s="3">
-        <v>5962600</v>
+        <v>5579800</v>
       </c>
       <c r="K44" s="3">
         <v>5974600</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>293300</v>
+        <v>274500</v>
       </c>
       <c r="E45" s="3">
-        <v>207300</v>
+        <v>194000</v>
       </c>
       <c r="F45" s="3">
-        <v>352000</v>
+        <v>329400</v>
       </c>
       <c r="G45" s="3">
-        <v>249000</v>
+        <v>233000</v>
       </c>
       <c r="H45" s="3">
-        <v>281600</v>
+        <v>263500</v>
       </c>
       <c r="I45" s="3">
-        <v>701300</v>
+        <v>656300</v>
       </c>
       <c r="J45" s="3">
-        <v>376700</v>
+        <v>352600</v>
       </c>
       <c r="K45" s="3">
         <v>212300</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>14919600</v>
+        <v>13961800</v>
       </c>
       <c r="E46" s="3">
-        <v>14953500</v>
+        <v>13993500</v>
       </c>
       <c r="F46" s="3">
-        <v>12218500</v>
+        <v>11434100</v>
       </c>
       <c r="G46" s="3">
-        <v>11329500</v>
+        <v>10602200</v>
       </c>
       <c r="H46" s="3">
-        <v>11278700</v>
+        <v>10554600</v>
       </c>
       <c r="I46" s="3">
-        <v>11539400</v>
+        <v>10798600</v>
       </c>
       <c r="J46" s="3">
-        <v>9998500</v>
+        <v>9356600</v>
       </c>
       <c r="K46" s="3">
         <v>10569500</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4384000</v>
+        <v>4102500</v>
       </c>
       <c r="E47" s="3">
-        <v>4726800</v>
+        <v>4423400</v>
       </c>
       <c r="F47" s="3">
-        <v>4241900</v>
+        <v>3969600</v>
       </c>
       <c r="G47" s="3">
-        <v>4037200</v>
+        <v>3778000</v>
       </c>
       <c r="H47" s="3">
-        <v>3820800</v>
+        <v>3575500</v>
       </c>
       <c r="I47" s="3">
-        <v>3419300</v>
+        <v>3199800</v>
       </c>
       <c r="J47" s="3">
-        <v>3278500</v>
+        <v>3068000</v>
       </c>
       <c r="K47" s="3">
         <v>5124100</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6407100</v>
+        <v>5995800</v>
       </c>
       <c r="E48" s="3">
-        <v>6488000</v>
+        <v>6071400</v>
       </c>
       <c r="F48" s="3">
-        <v>5851800</v>
+        <v>5476100</v>
       </c>
       <c r="G48" s="3">
-        <v>5360400</v>
+        <v>5016200</v>
       </c>
       <c r="H48" s="3">
-        <v>5260000</v>
+        <v>4922300</v>
       </c>
       <c r="I48" s="3">
-        <v>5072300</v>
+        <v>4746600</v>
       </c>
       <c r="J48" s="3">
-        <v>4895000</v>
+        <v>4580700</v>
       </c>
       <c r="K48" s="3">
         <v>4933100</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14031800</v>
+        <v>13131000</v>
       </c>
       <c r="E49" s="3">
-        <v>14730600</v>
+        <v>13784900</v>
       </c>
       <c r="F49" s="3">
-        <v>16369200</v>
+        <v>15318300</v>
       </c>
       <c r="G49" s="3">
-        <v>16388700</v>
+        <v>15336600</v>
       </c>
       <c r="H49" s="3">
-        <v>16380900</v>
+        <v>15329300</v>
       </c>
       <c r="I49" s="3">
-        <v>16125400</v>
+        <v>15090200</v>
       </c>
       <c r="J49" s="3">
-        <v>14640600</v>
+        <v>13700700</v>
       </c>
       <c r="K49" s="3">
         <v>11166600</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1911100</v>
+        <v>1788400</v>
       </c>
       <c r="E52" s="3">
-        <v>2521100</v>
+        <v>2359300</v>
       </c>
       <c r="F52" s="3">
-        <v>2115700</v>
+        <v>1979900</v>
       </c>
       <c r="G52" s="3">
-        <v>1620400</v>
+        <v>1516300</v>
       </c>
       <c r="H52" s="3">
-        <v>865600</v>
+        <v>810000</v>
       </c>
       <c r="I52" s="3">
-        <v>984200</v>
+        <v>921000</v>
       </c>
       <c r="J52" s="3">
-        <v>825200</v>
+        <v>772200</v>
       </c>
       <c r="K52" s="3">
         <v>703300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>41653600</v>
+        <v>38979500</v>
       </c>
       <c r="E54" s="3">
-        <v>43420000</v>
+        <v>40632400</v>
       </c>
       <c r="F54" s="3">
-        <v>40797200</v>
+        <v>38178000</v>
       </c>
       <c r="G54" s="3">
-        <v>38736200</v>
+        <v>36249300</v>
       </c>
       <c r="H54" s="3">
-        <v>37606000</v>
+        <v>35191700</v>
       </c>
       <c r="I54" s="3">
-        <v>37140600</v>
+        <v>34756200</v>
       </c>
       <c r="J54" s="3">
-        <v>33637800</v>
+        <v>31478300</v>
       </c>
       <c r="K54" s="3">
         <v>32496600</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2625400</v>
+        <v>2456900</v>
       </c>
       <c r="E57" s="3">
-        <v>1737700</v>
+        <v>1626100</v>
       </c>
       <c r="F57" s="3">
-        <v>2208300</v>
+        <v>2066500</v>
       </c>
       <c r="G57" s="3">
-        <v>1973600</v>
+        <v>1846900</v>
       </c>
       <c r="H57" s="3">
-        <v>1779400</v>
+        <v>1665200</v>
       </c>
       <c r="I57" s="3">
-        <v>1418300</v>
+        <v>1327300</v>
       </c>
       <c r="J57" s="3">
-        <v>1151100</v>
+        <v>1077200</v>
       </c>
       <c r="K57" s="3">
         <v>1277800</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2534200</v>
+        <v>2371500</v>
       </c>
       <c r="E58" s="3">
-        <v>2738800</v>
+        <v>2563000</v>
       </c>
       <c r="F58" s="3">
-        <v>2609800</v>
+        <v>2442200</v>
       </c>
       <c r="G58" s="3">
-        <v>2423400</v>
+        <v>2267800</v>
       </c>
       <c r="H58" s="3">
-        <v>3239400</v>
+        <v>3031500</v>
       </c>
       <c r="I58" s="3">
-        <v>2720600</v>
+        <v>2545900</v>
       </c>
       <c r="J58" s="3">
-        <v>2707600</v>
+        <v>2533700</v>
       </c>
       <c r="K58" s="3">
         <v>2436800</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4150600</v>
+        <v>3884200</v>
       </c>
       <c r="E59" s="3">
-        <v>3991600</v>
+        <v>3735300</v>
       </c>
       <c r="F59" s="3">
-        <v>4311000</v>
+        <v>4034200</v>
       </c>
       <c r="G59" s="3">
-        <v>3893800</v>
+        <v>3643800</v>
       </c>
       <c r="H59" s="3">
-        <v>3663100</v>
+        <v>3427900</v>
       </c>
       <c r="I59" s="3">
-        <v>3926400</v>
+        <v>3674300</v>
       </c>
       <c r="J59" s="3">
-        <v>3037400</v>
+        <v>2842400</v>
       </c>
       <c r="K59" s="3">
         <v>3150000</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9310200</v>
+        <v>8712500</v>
       </c>
       <c r="E60" s="3">
-        <v>8468100</v>
+        <v>7924500</v>
       </c>
       <c r="F60" s="3">
-        <v>9129000</v>
+        <v>8543000</v>
       </c>
       <c r="G60" s="3">
-        <v>8290800</v>
+        <v>7758600</v>
       </c>
       <c r="H60" s="3">
-        <v>8681900</v>
+        <v>8124500</v>
       </c>
       <c r="I60" s="3">
-        <v>8065300</v>
+        <v>7547500</v>
       </c>
       <c r="J60" s="3">
-        <v>6896000</v>
+        <v>6453300</v>
       </c>
       <c r="K60" s="3">
         <v>6864700</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17137000</v>
+        <v>16036800</v>
       </c>
       <c r="E61" s="3">
-        <v>19754600</v>
+        <v>18486400</v>
       </c>
       <c r="F61" s="3">
-        <v>13923600</v>
+        <v>13029800</v>
       </c>
       <c r="G61" s="3">
-        <v>10686800</v>
+        <v>10000700</v>
       </c>
       <c r="H61" s="3">
-        <v>8786200</v>
+        <v>8222100</v>
       </c>
       <c r="I61" s="3">
-        <v>10798900</v>
+        <v>10105700</v>
       </c>
       <c r="J61" s="3">
-        <v>10898000</v>
+        <v>10198400</v>
       </c>
       <c r="K61" s="3">
         <v>10808600</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4215800</v>
+        <v>3945200</v>
       </c>
       <c r="E62" s="3">
-        <v>4195000</v>
+        <v>3925600</v>
       </c>
       <c r="F62" s="3">
-        <v>4505200</v>
+        <v>4216000</v>
       </c>
       <c r="G62" s="3">
-        <v>4489600</v>
+        <v>4201300</v>
       </c>
       <c r="H62" s="3">
-        <v>4458300</v>
+        <v>4172100</v>
       </c>
       <c r="I62" s="3">
-        <v>5335600</v>
+        <v>4993100</v>
       </c>
       <c r="J62" s="3">
-        <v>3777800</v>
+        <v>3535300</v>
       </c>
       <c r="K62" s="3">
         <v>4082600</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>32662800</v>
+        <v>30565800</v>
       </c>
       <c r="E66" s="3">
-        <v>34592100</v>
+        <v>32371300</v>
       </c>
       <c r="F66" s="3">
-        <v>29897800</v>
+        <v>27978400</v>
       </c>
       <c r="G66" s="3">
-        <v>25768100</v>
+        <v>24113800</v>
       </c>
       <c r="H66" s="3">
-        <v>24162000</v>
+        <v>22610800</v>
       </c>
       <c r="I66" s="3">
-        <v>26021000</v>
+        <v>24350400</v>
       </c>
       <c r="J66" s="3">
-        <v>23507600</v>
+        <v>21998500</v>
       </c>
       <c r="K66" s="3">
         <v>22841300</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10771600</v>
+        <v>10080000</v>
       </c>
       <c r="E72" s="3">
-        <v>9834300</v>
+        <v>9202900</v>
       </c>
       <c r="F72" s="3">
-        <v>11865300</v>
+        <v>11103500</v>
       </c>
       <c r="G72" s="3">
-        <v>14330400</v>
+        <v>13410400</v>
       </c>
       <c r="H72" s="3">
-        <v>14074900</v>
+        <v>13171300</v>
       </c>
       <c r="I72" s="3">
-        <v>11857500</v>
+        <v>11096200</v>
       </c>
       <c r="J72" s="3">
-        <v>11742700</v>
+        <v>10988900</v>
       </c>
       <c r="K72" s="3">
         <v>11128400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8990900</v>
+        <v>8413700</v>
       </c>
       <c r="E76" s="3">
-        <v>8827900</v>
+        <v>8261200</v>
       </c>
       <c r="F76" s="3">
-        <v>10899300</v>
+        <v>10199600</v>
       </c>
       <c r="G76" s="3">
-        <v>12968100</v>
+        <v>12135600</v>
       </c>
       <c r="H76" s="3">
-        <v>13443900</v>
+        <v>12580800</v>
       </c>
       <c r="I76" s="3">
-        <v>11119600</v>
+        <v>10405700</v>
       </c>
       <c r="J76" s="3">
-        <v>10130200</v>
+        <v>9479800</v>
       </c>
       <c r="K76" s="3">
         <v>9655300</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3467500</v>
+        <v>3244900</v>
       </c>
       <c r="E81" s="3">
-        <v>1836800</v>
+        <v>1718800</v>
       </c>
       <c r="F81" s="3">
-        <v>4119300</v>
+        <v>3854900</v>
       </c>
       <c r="G81" s="3">
-        <v>3939400</v>
+        <v>3686500</v>
       </c>
       <c r="H81" s="3">
-        <v>3470200</v>
+        <v>3247400</v>
       </c>
       <c r="I81" s="3">
-        <v>2925300</v>
+        <v>2737500</v>
       </c>
       <c r="J81" s="3">
-        <v>3103800</v>
+        <v>2904600</v>
       </c>
       <c r="K81" s="3">
         <v>3181200</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>582700</v>
+        <v>545300</v>
       </c>
       <c r="E83" s="3">
-        <v>2397300</v>
+        <v>2243400</v>
       </c>
       <c r="F83" s="3">
-        <v>487500</v>
+        <v>456200</v>
       </c>
       <c r="G83" s="3">
-        <v>642700</v>
+        <v>601400</v>
       </c>
       <c r="H83" s="3">
-        <v>470600</v>
+        <v>440400</v>
       </c>
       <c r="I83" s="3">
-        <v>616600</v>
+        <v>577000</v>
       </c>
       <c r="J83" s="3">
-        <v>573600</v>
+        <v>536800</v>
       </c>
       <c r="K83" s="3">
         <v>890100</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4763300</v>
+        <v>4457500</v>
       </c>
       <c r="E89" s="3">
-        <v>3024300</v>
+        <v>2830200</v>
       </c>
       <c r="F89" s="3">
-        <v>4234100</v>
+        <v>3962200</v>
       </c>
       <c r="G89" s="3">
-        <v>4020300</v>
+        <v>3762200</v>
       </c>
       <c r="H89" s="3">
-        <v>4082800</v>
+        <v>3820700</v>
       </c>
       <c r="I89" s="3">
-        <v>3321500</v>
+        <v>3108300</v>
       </c>
       <c r="J89" s="3">
-        <v>3325500</v>
+        <v>3112000</v>
       </c>
       <c r="K89" s="3">
         <v>2533000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-816000</v>
+        <v>-763700</v>
       </c>
       <c r="E91" s="3">
-        <v>-912500</v>
+        <v>-853900</v>
       </c>
       <c r="F91" s="3">
-        <v>-874700</v>
+        <v>-818600</v>
       </c>
       <c r="G91" s="3">
-        <v>-761300</v>
+        <v>-712400</v>
       </c>
       <c r="H91" s="3">
-        <v>-675300</v>
+        <v>-631900</v>
       </c>
       <c r="I91" s="3">
-        <v>-659600</v>
+        <v>-617300</v>
       </c>
       <c r="J91" s="3">
-        <v>-831700</v>
+        <v>-778300</v>
       </c>
       <c r="K91" s="3">
         <v>-908500</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1422200</v>
+        <v>-1330900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1049400</v>
+        <v>-982000</v>
       </c>
       <c r="F94" s="3">
-        <v>-352000</v>
+        <v>-329400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1500400</v>
+        <v>-1404100</v>
       </c>
       <c r="H94" s="3">
-        <v>-719600</v>
+        <v>-673400</v>
       </c>
       <c r="I94" s="3">
-        <v>776900</v>
+        <v>727100</v>
       </c>
       <c r="J94" s="3">
-        <v>-1165400</v>
+        <v>-1090600</v>
       </c>
       <c r="K94" s="3">
         <v>-1541100</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2145700</v>
+        <v>-2008000</v>
       </c>
       <c r="E96" s="3">
-        <v>-2145700</v>
+        <v>-2008000</v>
       </c>
       <c r="F96" s="3">
-        <v>-2115700</v>
+        <v>-1979900</v>
       </c>
       <c r="G96" s="3">
-        <v>-2061000</v>
+        <v>-1928700</v>
       </c>
       <c r="H96" s="3">
-        <v>-1974900</v>
+        <v>-1848100</v>
       </c>
       <c r="I96" s="3">
-        <v>-1881100</v>
+        <v>-1760300</v>
       </c>
       <c r="J96" s="3">
-        <v>-1748100</v>
+        <v>-1635900</v>
       </c>
       <c r="K96" s="3">
         <v>-1737800</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3642200</v>
+        <v>-3408400</v>
       </c>
       <c r="E100" s="3">
-        <v>1351800</v>
+        <v>1265000</v>
       </c>
       <c r="F100" s="3">
-        <v>-3811700</v>
+        <v>-3567000</v>
       </c>
       <c r="G100" s="3">
-        <v>-2761000</v>
+        <v>-2583700</v>
       </c>
       <c r="H100" s="3">
-        <v>-3204200</v>
+        <v>-2998500</v>
       </c>
       <c r="I100" s="3">
-        <v>-3651400</v>
+        <v>-3416900</v>
       </c>
       <c r="J100" s="3">
-        <v>-2260400</v>
+        <v>-2115300</v>
       </c>
       <c r="K100" s="3">
         <v>-2295300</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-371500</v>
+        <v>-347700</v>
       </c>
       <c r="E101" s="3">
-        <v>-156400</v>
+        <v>-146400</v>
       </c>
       <c r="F101" s="3">
-        <v>-33900</v>
+        <v>-31700</v>
       </c>
       <c r="G101" s="3">
-        <v>-50800</v>
+        <v>-47600</v>
       </c>
       <c r="H101" s="3">
-        <v>-18300</v>
+        <v>-17100</v>
       </c>
       <c r="I101" s="3">
-        <v>109500</v>
+        <v>102500</v>
       </c>
       <c r="J101" s="3">
-        <v>-95200</v>
+        <v>-89100</v>
       </c>
       <c r="K101" s="3">
         <v>-271700</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-672700</v>
+        <v>-629500</v>
       </c>
       <c r="E102" s="3">
-        <v>3170300</v>
+        <v>2966800</v>
       </c>
       <c r="F102" s="3">
-        <v>36500</v>
+        <v>34200</v>
       </c>
       <c r="G102" s="3">
-        <v>-292000</v>
+        <v>-273300</v>
       </c>
       <c r="H102" s="3">
-        <v>140800</v>
+        <v>131700</v>
       </c>
       <c r="I102" s="3">
-        <v>556600</v>
+        <v>520900</v>
       </c>
       <c r="J102" s="3">
-        <v>-195500</v>
+        <v>-183000</v>
       </c>
       <c r="K102" s="3">
         <v>-1575000</v>

--- a/AAII_Financials/Yearly/DEO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DEO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>DEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42551</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42185</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41820</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41455</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41090</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15533000</v>
+        <v>18278200</v>
       </c>
       <c r="E8" s="3">
-        <v>14336300</v>
+        <v>15061900</v>
       </c>
       <c r="F8" s="3">
-        <v>15696500</v>
+        <v>13901400</v>
       </c>
       <c r="G8" s="3">
-        <v>14837600</v>
+        <v>15220400</v>
       </c>
       <c r="H8" s="3">
-        <v>14699800</v>
+        <v>14387600</v>
       </c>
       <c r="I8" s="3">
-        <v>12790700</v>
+        <v>14253900</v>
       </c>
       <c r="J8" s="3">
+        <v>12402700</v>
+      </c>
+      <c r="K8" s="3">
         <v>13190800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14516200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13920800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13876600</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6145900</v>
+        <v>7065500</v>
       </c>
       <c r="E9" s="3">
-        <v>5677400</v>
+        <v>5959500</v>
       </c>
       <c r="F9" s="3">
-        <v>5936000</v>
+        <v>5505200</v>
       </c>
       <c r="G9" s="3">
-        <v>5653000</v>
+        <v>5756000</v>
       </c>
       <c r="H9" s="3">
-        <v>5709100</v>
+        <v>5481600</v>
       </c>
       <c r="I9" s="3">
-        <v>5185800</v>
+        <v>5536000</v>
       </c>
       <c r="J9" s="3">
+        <v>5028500</v>
+      </c>
+      <c r="K9" s="3">
         <v>5593200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5668900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5438700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5488500</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9387100</v>
+        <v>11212700</v>
       </c>
       <c r="E10" s="3">
-        <v>8658900</v>
+        <v>9102400</v>
       </c>
       <c r="F10" s="3">
-        <v>9760400</v>
+        <v>8396200</v>
       </c>
       <c r="G10" s="3">
-        <v>9184600</v>
+        <v>9464400</v>
       </c>
       <c r="H10" s="3">
-        <v>8990700</v>
+        <v>8906100</v>
       </c>
       <c r="I10" s="3">
-        <v>7604900</v>
+        <v>8718000</v>
       </c>
       <c r="J10" s="3">
+        <v>7374200</v>
+      </c>
+      <c r="K10" s="3">
         <v>7597500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8847300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8482000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8388000</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,45 +925,51 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>519300</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1200</v>
       </c>
-      <c r="E14" s="3">
-        <v>1784700</v>
-      </c>
       <c r="F14" s="3">
-        <v>-85400</v>
+        <v>1730600</v>
       </c>
       <c r="G14" s="3">
-        <v>156100</v>
+        <v>-82800</v>
       </c>
       <c r="H14" s="3">
-        <v>26800</v>
+        <v>151400</v>
       </c>
       <c r="I14" s="3">
-        <v>53700</v>
+        <v>26000</v>
       </c>
       <c r="J14" s="3">
+        <v>52000</v>
+      </c>
+      <c r="K14" s="3">
         <v>-126900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>406100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>102200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-191700</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -981,9 +1003,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10964500</v>
+        <v>13123100</v>
       </c>
       <c r="E17" s="3">
-        <v>11757400</v>
+        <v>10631900</v>
       </c>
       <c r="F17" s="3">
-        <v>10600900</v>
+        <v>11400800</v>
       </c>
       <c r="G17" s="3">
-        <v>10335000</v>
+        <v>10279400</v>
       </c>
       <c r="H17" s="3">
-        <v>10333800</v>
+        <v>10021500</v>
       </c>
       <c r="I17" s="3">
-        <v>9174900</v>
+        <v>10020300</v>
       </c>
       <c r="J17" s="3">
+        <v>8896600</v>
+      </c>
+      <c r="K17" s="3">
         <v>9323700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10487400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9860200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9631000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4568500</v>
+        <v>5155100</v>
       </c>
       <c r="E18" s="3">
-        <v>2578900</v>
+        <v>4430000</v>
       </c>
       <c r="F18" s="3">
-        <v>5095500</v>
+        <v>2500700</v>
       </c>
       <c r="G18" s="3">
-        <v>4502700</v>
+        <v>4941000</v>
       </c>
       <c r="H18" s="3">
-        <v>4366000</v>
+        <v>4366100</v>
       </c>
       <c r="I18" s="3">
-        <v>3615800</v>
+        <v>4233600</v>
       </c>
       <c r="J18" s="3">
+        <v>3506100</v>
+      </c>
+      <c r="K18" s="3">
         <v>3867100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4028800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4060600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4245500</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>519700</v>
+        <v>596200</v>
       </c>
       <c r="E20" s="3">
-        <v>553800</v>
+        <v>503900</v>
       </c>
       <c r="F20" s="3">
-        <v>653900</v>
+        <v>537000</v>
       </c>
       <c r="G20" s="3">
-        <v>541600</v>
+        <v>634000</v>
       </c>
       <c r="H20" s="3">
-        <v>525800</v>
+        <v>525200</v>
       </c>
       <c r="I20" s="3">
-        <v>430600</v>
+        <v>509800</v>
       </c>
       <c r="J20" s="3">
+        <v>417600</v>
+      </c>
+      <c r="K20" s="3">
         <v>355000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>451400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>322700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>366500</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5635800</v>
+        <v>6728100</v>
       </c>
       <c r="E21" s="3">
-        <v>5385500</v>
+        <v>5461200</v>
       </c>
       <c r="F21" s="3">
-        <v>6207500</v>
+        <v>5207200</v>
       </c>
       <c r="G21" s="3">
-        <v>5648200</v>
+        <v>6016200</v>
       </c>
       <c r="H21" s="3">
-        <v>5334000</v>
+        <v>5472900</v>
       </c>
       <c r="I21" s="3">
-        <v>4625800</v>
+        <v>5169300</v>
       </c>
       <c r="J21" s="3">
+        <v>4481700</v>
+      </c>
+      <c r="K21" s="3">
         <v>4761100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5370600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4870800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5148800</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>567300</v>
+        <v>561900</v>
       </c>
       <c r="E22" s="3">
-        <v>640400</v>
+        <v>550000</v>
       </c>
       <c r="F22" s="3">
-        <v>583100</v>
+        <v>621000</v>
       </c>
       <c r="G22" s="3">
-        <v>481900</v>
+        <v>565400</v>
       </c>
       <c r="H22" s="3">
-        <v>550200</v>
+        <v>467200</v>
       </c>
       <c r="I22" s="3">
-        <v>559900</v>
+        <v>533500</v>
       </c>
       <c r="J22" s="3">
+        <v>543000</v>
+      </c>
+      <c r="K22" s="3">
         <v>644100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>643900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>618300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>643000</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4520900</v>
+        <v>5189400</v>
       </c>
       <c r="E23" s="3">
-        <v>2492300</v>
+        <v>4383800</v>
       </c>
       <c r="F23" s="3">
-        <v>5166300</v>
+        <v>2416700</v>
       </c>
       <c r="G23" s="3">
-        <v>4562400</v>
+        <v>5009600</v>
       </c>
       <c r="H23" s="3">
-        <v>4341600</v>
+        <v>4424000</v>
       </c>
       <c r="I23" s="3">
-        <v>3486500</v>
+        <v>4209900</v>
       </c>
       <c r="J23" s="3">
+        <v>3380700</v>
+      </c>
+      <c r="K23" s="3">
         <v>3578000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3836400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3765000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3969000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1106400</v>
+        <v>1240900</v>
       </c>
       <c r="E24" s="3">
-        <v>718500</v>
+        <v>1072900</v>
       </c>
       <c r="F24" s="3">
-        <v>1095500</v>
+        <v>696700</v>
       </c>
       <c r="G24" s="3">
-        <v>1158900</v>
+        <v>1062200</v>
       </c>
       <c r="H24" s="3">
-        <v>893000</v>
+        <v>1123800</v>
       </c>
       <c r="I24" s="3">
-        <v>605100</v>
+        <v>865900</v>
       </c>
       <c r="J24" s="3">
+        <v>586700</v>
+      </c>
+      <c r="K24" s="3">
         <v>568500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>632600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>624400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1318700</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3414500</v>
+        <v>3948500</v>
       </c>
       <c r="E26" s="3">
-        <v>1773700</v>
+        <v>3310900</v>
       </c>
       <c r="F26" s="3">
-        <v>4070800</v>
+        <v>1719900</v>
       </c>
       <c r="G26" s="3">
-        <v>3403500</v>
+        <v>3947300</v>
       </c>
       <c r="H26" s="3">
-        <v>3448700</v>
+        <v>3300300</v>
       </c>
       <c r="I26" s="3">
-        <v>2881400</v>
+        <v>3344100</v>
       </c>
       <c r="J26" s="3">
+        <v>2794000</v>
+      </c>
+      <c r="K26" s="3">
         <v>3009500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3203800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3140600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2650400</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3244900</v>
+        <v>3843200</v>
       </c>
       <c r="E27" s="3">
-        <v>1718800</v>
+        <v>3146500</v>
       </c>
       <c r="F27" s="3">
-        <v>3854900</v>
+        <v>1666700</v>
       </c>
       <c r="G27" s="3">
-        <v>3254700</v>
+        <v>3738000</v>
       </c>
       <c r="H27" s="3">
-        <v>3314500</v>
+        <v>3156000</v>
       </c>
       <c r="I27" s="3">
-        <v>2737500</v>
+        <v>3213900</v>
       </c>
       <c r="J27" s="3">
+        <v>2654400</v>
+      </c>
+      <c r="K27" s="3">
         <v>2904600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3298600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3019900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2493800</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1418,33 +1478,36 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>431800</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-67100</v>
+        <v>418700</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>-65100</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-117500</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-14300</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-519700</v>
+        <v>-596200</v>
       </c>
       <c r="E32" s="3">
-        <v>-553800</v>
+        <v>-503900</v>
       </c>
       <c r="F32" s="3">
-        <v>-653900</v>
+        <v>-537000</v>
       </c>
       <c r="G32" s="3">
-        <v>-541600</v>
+        <v>-634000</v>
       </c>
       <c r="H32" s="3">
-        <v>-525800</v>
+        <v>-525200</v>
       </c>
       <c r="I32" s="3">
-        <v>-430600</v>
+        <v>-509800</v>
       </c>
       <c r="J32" s="3">
+        <v>-417600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-355000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-451400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-322700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-366500</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3244900</v>
+        <v>3843200</v>
       </c>
       <c r="E33" s="3">
-        <v>1718800</v>
+        <v>3146500</v>
       </c>
       <c r="F33" s="3">
-        <v>3854900</v>
+        <v>1666700</v>
       </c>
       <c r="G33" s="3">
-        <v>3686500</v>
+        <v>3738000</v>
       </c>
       <c r="H33" s="3">
-        <v>3247400</v>
+        <v>3574700</v>
       </c>
       <c r="I33" s="3">
-        <v>2737500</v>
+        <v>3148900</v>
       </c>
       <c r="J33" s="3">
+        <v>2654400</v>
+      </c>
+      <c r="K33" s="3">
         <v>2904600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3181200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3019900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2479500</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3244900</v>
+        <v>3843200</v>
       </c>
       <c r="E35" s="3">
-        <v>1718800</v>
+        <v>3146500</v>
       </c>
       <c r="F35" s="3">
-        <v>3854900</v>
+        <v>1666700</v>
       </c>
       <c r="G35" s="3">
-        <v>3686500</v>
+        <v>3738000</v>
       </c>
       <c r="H35" s="3">
-        <v>3247400</v>
+        <v>3574700</v>
       </c>
       <c r="I35" s="3">
-        <v>2737500</v>
+        <v>3148900</v>
       </c>
       <c r="J35" s="3">
+        <v>2654400</v>
+      </c>
+      <c r="K35" s="3">
         <v>2904600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3181200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3019900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2479500</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42551</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42185</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41820</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41455</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41090</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3353500</v>
+        <v>2702900</v>
       </c>
       <c r="E41" s="3">
-        <v>4053700</v>
+        <v>3251800</v>
       </c>
       <c r="F41" s="3">
-        <v>1136900</v>
+        <v>3930800</v>
       </c>
       <c r="G41" s="3">
-        <v>1066200</v>
+        <v>1102500</v>
       </c>
       <c r="H41" s="3">
-        <v>1452900</v>
+        <v>1033900</v>
       </c>
       <c r="I41" s="3">
-        <v>1328500</v>
+        <v>1408800</v>
       </c>
       <c r="J41" s="3">
+        <v>1288200</v>
+      </c>
+      <c r="K41" s="3">
         <v>575800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>880200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3114400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1403400</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>160900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>54400</v>
+      </c>
+      <c r="F42" s="3">
+        <v>86400</v>
+      </c>
+      <c r="G42" s="3">
+        <v>146700</v>
+      </c>
+      <c r="H42" s="3">
+        <v>29600</v>
+      </c>
+      <c r="I42" s="3">
+        <v>28400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>176300</v>
+      </c>
+      <c r="K42" s="3">
         <v>56100</v>
       </c>
-      <c r="E42" s="3">
-        <v>89100</v>
-      </c>
-      <c r="F42" s="3">
-        <v>151300</v>
-      </c>
-      <c r="G42" s="3">
-        <v>30500</v>
-      </c>
-      <c r="H42" s="3">
-        <v>29300</v>
-      </c>
-      <c r="I42" s="3">
-        <v>181800</v>
-      </c>
-      <c r="J42" s="3">
-        <v>56100</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>167000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>160500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>54800</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2903400</v>
+        <v>3302700</v>
       </c>
       <c r="E43" s="3">
-        <v>2615500</v>
+        <v>2815300</v>
       </c>
       <c r="F43" s="3">
-        <v>3141200</v>
+        <v>2536100</v>
       </c>
       <c r="G43" s="3">
-        <v>3154700</v>
+        <v>3046000</v>
       </c>
       <c r="H43" s="3">
-        <v>2968000</v>
+        <v>3059000</v>
       </c>
       <c r="I43" s="3">
-        <v>3046100</v>
+        <v>2878000</v>
       </c>
       <c r="J43" s="3">
+        <v>2953700</v>
+      </c>
+      <c r="K43" s="3">
         <v>2792400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3335400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2855200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2557800</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7374300</v>
+        <v>8391500</v>
       </c>
       <c r="E44" s="3">
-        <v>7041300</v>
+        <v>7150600</v>
       </c>
       <c r="F44" s="3">
-        <v>6675300</v>
+        <v>6827700</v>
       </c>
       <c r="G44" s="3">
-        <v>6117800</v>
+        <v>6472800</v>
       </c>
       <c r="H44" s="3">
-        <v>5840900</v>
+        <v>5932200</v>
       </c>
       <c r="I44" s="3">
-        <v>5585900</v>
+        <v>5663700</v>
       </c>
       <c r="J44" s="3">
+        <v>5416500</v>
+      </c>
+      <c r="K44" s="3">
         <v>5579800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5974600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5193100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5158500</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>274500</v>
+        <v>741700</v>
       </c>
       <c r="E45" s="3">
-        <v>194000</v>
+        <v>266200</v>
       </c>
       <c r="F45" s="3">
-        <v>329400</v>
+        <v>188100</v>
       </c>
       <c r="G45" s="3">
-        <v>233000</v>
+        <v>319400</v>
       </c>
       <c r="H45" s="3">
-        <v>263500</v>
+        <v>225900</v>
       </c>
       <c r="I45" s="3">
-        <v>656300</v>
+        <v>255500</v>
       </c>
       <c r="J45" s="3">
+        <v>636400</v>
+      </c>
+      <c r="K45" s="3">
         <v>352600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>212300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>216000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>285600</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13961800</v>
+        <v>15299600</v>
       </c>
       <c r="E46" s="3">
-        <v>13993500</v>
+        <v>13538300</v>
       </c>
       <c r="F46" s="3">
-        <v>11434100</v>
+        <v>13569000</v>
       </c>
       <c r="G46" s="3">
-        <v>10602200</v>
+        <v>11087300</v>
       </c>
       <c r="H46" s="3">
-        <v>10554600</v>
+        <v>10280600</v>
       </c>
       <c r="I46" s="3">
-        <v>10798600</v>
+        <v>10234500</v>
       </c>
       <c r="J46" s="3">
+        <v>10471000</v>
+      </c>
+      <c r="K46" s="3">
         <v>9356600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10569500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10504700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9460200</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4102500</v>
+        <v>4401600</v>
       </c>
       <c r="E47" s="3">
-        <v>4423400</v>
+        <v>4013600</v>
       </c>
       <c r="F47" s="3">
-        <v>3969600</v>
+        <v>4329400</v>
       </c>
       <c r="G47" s="3">
-        <v>3778000</v>
+        <v>3887000</v>
       </c>
       <c r="H47" s="3">
-        <v>3575500</v>
+        <v>3676500</v>
       </c>
       <c r="I47" s="3">
-        <v>3199800</v>
+        <v>3478900</v>
       </c>
       <c r="J47" s="3">
+        <v>3112200</v>
+      </c>
+      <c r="K47" s="3">
         <v>3068000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5124100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3753800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3807300</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5995800</v>
+        <v>7028800</v>
       </c>
       <c r="E48" s="3">
-        <v>6071400</v>
+        <v>5814000</v>
       </c>
       <c r="F48" s="3">
-        <v>5476100</v>
+        <v>5887300</v>
       </c>
       <c r="G48" s="3">
-        <v>5016200</v>
+        <v>5310000</v>
       </c>
       <c r="H48" s="3">
-        <v>4922300</v>
+        <v>4864100</v>
       </c>
       <c r="I48" s="3">
-        <v>4746600</v>
+        <v>4773000</v>
       </c>
       <c r="J48" s="3">
+        <v>4602700</v>
+      </c>
+      <c r="K48" s="3">
         <v>4580700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4933100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1483700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3920800</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13131000</v>
+        <v>14078900</v>
       </c>
       <c r="E49" s="3">
-        <v>13784900</v>
+        <v>12732700</v>
       </c>
       <c r="F49" s="3">
-        <v>15318300</v>
+        <v>13366800</v>
       </c>
       <c r="G49" s="3">
-        <v>15336600</v>
+        <v>14853700</v>
       </c>
       <c r="H49" s="3">
-        <v>15329300</v>
+        <v>14871400</v>
       </c>
       <c r="I49" s="3">
-        <v>15090200</v>
+        <v>14864300</v>
       </c>
       <c r="J49" s="3">
+        <v>14632500</v>
+      </c>
+      <c r="K49" s="3">
         <v>13700700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11166600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12218100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11505300</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1788400</v>
+        <v>2385900</v>
       </c>
       <c r="E52" s="3">
-        <v>2359300</v>
+        <v>1698600</v>
       </c>
       <c r="F52" s="3">
-        <v>1979900</v>
+        <v>2247500</v>
       </c>
       <c r="G52" s="3">
-        <v>1516300</v>
+        <v>1882000</v>
       </c>
       <c r="H52" s="3">
-        <v>810000</v>
+        <v>1457300</v>
       </c>
       <c r="I52" s="3">
-        <v>921000</v>
+        <v>773600</v>
       </c>
       <c r="J52" s="3">
+        <v>883600</v>
+      </c>
+      <c r="K52" s="3">
         <v>772200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>703300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1192400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>457800</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>38979500</v>
+        <v>43194800</v>
       </c>
       <c r="E54" s="3">
-        <v>40632400</v>
+        <v>37797200</v>
       </c>
       <c r="F54" s="3">
-        <v>38178000</v>
+        <v>39400000</v>
       </c>
       <c r="G54" s="3">
-        <v>36249300</v>
+        <v>37020000</v>
       </c>
       <c r="H54" s="3">
-        <v>35191700</v>
+        <v>35149900</v>
       </c>
       <c r="I54" s="3">
-        <v>34756200</v>
+        <v>34124300</v>
       </c>
       <c r="J54" s="3">
+        <v>33702000</v>
+      </c>
+      <c r="K54" s="3">
         <v>31478300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>32496600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>30848900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>29151300</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2456900</v>
+        <v>3199700</v>
       </c>
       <c r="E57" s="3">
-        <v>1626100</v>
+        <v>2382400</v>
       </c>
       <c r="F57" s="3">
-        <v>2066500</v>
+        <v>1576800</v>
       </c>
       <c r="G57" s="3">
-        <v>1846900</v>
+        <v>2003800</v>
       </c>
       <c r="H57" s="3">
-        <v>1665200</v>
+        <v>1790900</v>
       </c>
       <c r="I57" s="3">
-        <v>1327300</v>
+        <v>1614700</v>
       </c>
       <c r="J57" s="3">
+        <v>1287000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1077200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1277800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1341800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1406000</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2371500</v>
+        <v>1900900</v>
       </c>
       <c r="E58" s="3">
-        <v>2563000</v>
+        <v>2299600</v>
       </c>
       <c r="F58" s="3">
-        <v>2442200</v>
+        <v>2485300</v>
       </c>
       <c r="G58" s="3">
-        <v>2267800</v>
+        <v>2368200</v>
       </c>
       <c r="H58" s="3">
-        <v>3031500</v>
+        <v>2199000</v>
       </c>
       <c r="I58" s="3">
-        <v>2545900</v>
+        <v>2939500</v>
       </c>
       <c r="J58" s="3">
+        <v>2468700</v>
+      </c>
+      <c r="K58" s="3">
         <v>2533700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2436800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2436700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1751700</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3884200</v>
+        <v>4885400</v>
       </c>
       <c r="E59" s="3">
-        <v>3735300</v>
+        <v>3766400</v>
       </c>
       <c r="F59" s="3">
-        <v>4034200</v>
+        <v>3622000</v>
       </c>
       <c r="G59" s="3">
-        <v>3643800</v>
+        <v>3911900</v>
       </c>
       <c r="H59" s="3">
-        <v>3427900</v>
+        <v>3533300</v>
       </c>
       <c r="I59" s="3">
-        <v>3674300</v>
+        <v>3323900</v>
       </c>
       <c r="J59" s="3">
+        <v>3562900</v>
+      </c>
+      <c r="K59" s="3">
         <v>2842400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3150000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3034200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3082100</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8712500</v>
+        <v>9986000</v>
       </c>
       <c r="E60" s="3">
-        <v>7924500</v>
+        <v>8448300</v>
       </c>
       <c r="F60" s="3">
-        <v>8543000</v>
+        <v>7684100</v>
       </c>
       <c r="G60" s="3">
-        <v>7758600</v>
+        <v>8283800</v>
       </c>
       <c r="H60" s="3">
-        <v>8124500</v>
+        <v>7523200</v>
       </c>
       <c r="I60" s="3">
-        <v>7547500</v>
+        <v>7878100</v>
       </c>
       <c r="J60" s="3">
+        <v>7318600</v>
+      </c>
+      <c r="K60" s="3">
         <v>6453300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6864700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6812700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6239800</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16036800</v>
+        <v>17611000</v>
       </c>
       <c r="E61" s="3">
-        <v>18486400</v>
+        <v>15550400</v>
       </c>
       <c r="F61" s="3">
-        <v>13029800</v>
+        <v>17925700</v>
       </c>
       <c r="G61" s="3">
-        <v>10000700</v>
+        <v>12634600</v>
       </c>
       <c r="H61" s="3">
-        <v>8222100</v>
+        <v>9697400</v>
       </c>
       <c r="I61" s="3">
-        <v>10105700</v>
+        <v>7972700</v>
       </c>
       <c r="J61" s="3">
+        <v>9799100</v>
+      </c>
+      <c r="K61" s="3">
         <v>10198400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10808600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10143100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9920600</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3945200</v>
+        <v>4343600</v>
       </c>
       <c r="E62" s="3">
-        <v>3925600</v>
+        <v>3825500</v>
       </c>
       <c r="F62" s="3">
-        <v>4216000</v>
+        <v>3806600</v>
       </c>
       <c r="G62" s="3">
-        <v>4201300</v>
+        <v>4088100</v>
       </c>
       <c r="H62" s="3">
-        <v>4172100</v>
+        <v>4073900</v>
       </c>
       <c r="I62" s="3">
-        <v>4993100</v>
+        <v>4045500</v>
       </c>
       <c r="J62" s="3">
+        <v>4841600</v>
+      </c>
+      <c r="K62" s="3">
         <v>3535300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4082600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4043900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4107300</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>30565800</v>
+        <v>33970500</v>
       </c>
       <c r="E66" s="3">
-        <v>32371300</v>
+        <v>29638700</v>
       </c>
       <c r="F66" s="3">
-        <v>27978400</v>
+        <v>31389400</v>
       </c>
       <c r="G66" s="3">
-        <v>24113800</v>
+        <v>27129800</v>
       </c>
       <c r="H66" s="3">
-        <v>22610800</v>
+        <v>23382400</v>
       </c>
       <c r="I66" s="3">
-        <v>24350400</v>
+        <v>21925100</v>
       </c>
       <c r="J66" s="3">
+        <v>23611900</v>
+      </c>
+      <c r="K66" s="3">
         <v>21998500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22841300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>22163700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21862800</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10080000</v>
+        <v>10182400</v>
       </c>
       <c r="E72" s="3">
-        <v>9202900</v>
+        <v>9774300</v>
       </c>
       <c r="F72" s="3">
-        <v>11103500</v>
+        <v>8923800</v>
       </c>
       <c r="G72" s="3">
-        <v>13410400</v>
+        <v>10766800</v>
       </c>
       <c r="H72" s="3">
-        <v>13171300</v>
+        <v>13003600</v>
       </c>
       <c r="I72" s="3">
-        <v>11096200</v>
+        <v>12771800</v>
       </c>
       <c r="J72" s="3">
+        <v>10759700</v>
+      </c>
+      <c r="K72" s="3">
         <v>10988900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11128400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8787700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3249000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8413700</v>
+        <v>9224300</v>
       </c>
       <c r="E76" s="3">
-        <v>8261200</v>
+        <v>8158500</v>
       </c>
       <c r="F76" s="3">
-        <v>10199600</v>
+        <v>8010600</v>
       </c>
       <c r="G76" s="3">
-        <v>12135600</v>
+        <v>9890200</v>
       </c>
       <c r="H76" s="3">
-        <v>12580800</v>
+        <v>11767500</v>
       </c>
       <c r="I76" s="3">
-        <v>10405700</v>
+        <v>12199200</v>
       </c>
       <c r="J76" s="3">
+        <v>10090100</v>
+      </c>
+      <c r="K76" s="3">
         <v>9479800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9655300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8685200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7288500</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42551</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42185</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41820</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41455</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41090</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3244900</v>
+        <v>3843200</v>
       </c>
       <c r="E81" s="3">
-        <v>1718800</v>
+        <v>3146500</v>
       </c>
       <c r="F81" s="3">
-        <v>3854900</v>
+        <v>1666700</v>
       </c>
       <c r="G81" s="3">
-        <v>3686500</v>
+        <v>3738000</v>
       </c>
       <c r="H81" s="3">
-        <v>3247400</v>
+        <v>3574700</v>
       </c>
       <c r="I81" s="3">
-        <v>2737500</v>
+        <v>3148900</v>
       </c>
       <c r="J81" s="3">
+        <v>2654400</v>
+      </c>
+      <c r="K81" s="3">
         <v>2904600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3181200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3019900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2479500</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>545300</v>
+        <v>979400</v>
       </c>
       <c r="E83" s="3">
-        <v>2243400</v>
+        <v>528800</v>
       </c>
       <c r="F83" s="3">
-        <v>456200</v>
+        <v>2175400</v>
       </c>
       <c r="G83" s="3">
-        <v>601400</v>
+        <v>442400</v>
       </c>
       <c r="H83" s="3">
-        <v>440400</v>
+        <v>583200</v>
       </c>
       <c r="I83" s="3">
-        <v>577000</v>
+        <v>427000</v>
       </c>
       <c r="J83" s="3">
+        <v>559500</v>
+      </c>
+      <c r="K83" s="3">
         <v>536800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>890100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>490200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>530900</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4457500</v>
+        <v>4654700</v>
       </c>
       <c r="E89" s="3">
-        <v>2830200</v>
+        <v>4322300</v>
       </c>
       <c r="F89" s="3">
-        <v>3962200</v>
+        <v>2744300</v>
       </c>
       <c r="G89" s="3">
-        <v>3762200</v>
+        <v>3842100</v>
       </c>
       <c r="H89" s="3">
-        <v>3820700</v>
+        <v>3648100</v>
       </c>
       <c r="I89" s="3">
-        <v>3108300</v>
+        <v>3704800</v>
       </c>
       <c r="J89" s="3">
+        <v>3014000</v>
+      </c>
+      <c r="K89" s="3">
         <v>3112000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2533000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2503800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2733800</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-763700</v>
+        <v>-1297600</v>
       </c>
       <c r="E91" s="3">
-        <v>-853900</v>
+        <v>-740500</v>
       </c>
       <c r="F91" s="3">
-        <v>-818600</v>
+        <v>-828000</v>
       </c>
       <c r="G91" s="3">
-        <v>-712400</v>
+        <v>-793700</v>
       </c>
       <c r="H91" s="3">
-        <v>-631900</v>
+        <v>-690800</v>
       </c>
       <c r="I91" s="3">
-        <v>-617300</v>
+        <v>-612700</v>
       </c>
       <c r="J91" s="3">
+        <v>-598500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-778300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-908500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-783300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-622200</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1330900</v>
+        <v>-1586300</v>
       </c>
       <c r="E94" s="3">
-        <v>-982000</v>
+        <v>-1290500</v>
       </c>
       <c r="F94" s="3">
-        <v>-329400</v>
+        <v>-952200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1404100</v>
+        <v>-319400</v>
       </c>
       <c r="H94" s="3">
-        <v>-673400</v>
+        <v>-1361500</v>
       </c>
       <c r="I94" s="3">
-        <v>727100</v>
+        <v>-653000</v>
       </c>
       <c r="J94" s="3">
+        <v>705000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1090600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1541100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1528400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2358200</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2008000</v>
+        <v>-2032200</v>
       </c>
       <c r="E96" s="3">
-        <v>-2008000</v>
+        <v>-1947100</v>
       </c>
       <c r="F96" s="3">
-        <v>-1979900</v>
+        <v>-1947100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1928700</v>
+        <v>-1919800</v>
       </c>
       <c r="H96" s="3">
-        <v>-1848100</v>
+        <v>-1870200</v>
       </c>
       <c r="I96" s="3">
-        <v>-1760300</v>
+        <v>-1792100</v>
       </c>
       <c r="J96" s="3">
+        <v>-1706900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1635900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1737800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1385600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1351300</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3408400</v>
+        <v>-3855100</v>
       </c>
       <c r="E100" s="3">
-        <v>1265000</v>
+        <v>-3305000</v>
       </c>
       <c r="F100" s="3">
-        <v>-3567000</v>
+        <v>1226700</v>
       </c>
       <c r="G100" s="3">
-        <v>-2583700</v>
+        <v>-3458800</v>
       </c>
       <c r="H100" s="3">
-        <v>-2998500</v>
+        <v>-2505400</v>
       </c>
       <c r="I100" s="3">
-        <v>-3416900</v>
+        <v>-2907600</v>
       </c>
       <c r="J100" s="3">
+        <v>-3313300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2115300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2295300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-243900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1027800</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-347700</v>
+        <v>282700</v>
       </c>
       <c r="E101" s="3">
-        <v>-146400</v>
+        <v>-337100</v>
       </c>
       <c r="F101" s="3">
-        <v>-31700</v>
+        <v>-141900</v>
       </c>
       <c r="G101" s="3">
-        <v>-47600</v>
+        <v>-30800</v>
       </c>
       <c r="H101" s="3">
-        <v>-17100</v>
+        <v>-46100</v>
       </c>
       <c r="I101" s="3">
-        <v>102500</v>
+        <v>-16600</v>
       </c>
       <c r="J101" s="3">
+        <v>99400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-89100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-271700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>44300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-35200</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-629500</v>
+        <v>-503900</v>
       </c>
       <c r="E102" s="3">
-        <v>2966800</v>
+        <v>-610400</v>
       </c>
       <c r="F102" s="3">
-        <v>34200</v>
+        <v>2876800</v>
       </c>
       <c r="G102" s="3">
-        <v>-273300</v>
+        <v>33100</v>
       </c>
       <c r="H102" s="3">
-        <v>131700</v>
+        <v>-265000</v>
       </c>
       <c r="I102" s="3">
-        <v>520900</v>
+        <v>127800</v>
       </c>
       <c r="J102" s="3">
+        <v>505100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-183000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1575000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>775900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-687400</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DEO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DEO_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18278200</v>
+        <v>18098900</v>
       </c>
       <c r="E8" s="3">
-        <v>15061900</v>
+        <v>14914200</v>
       </c>
       <c r="F8" s="3">
-        <v>13901400</v>
+        <v>13765100</v>
       </c>
       <c r="G8" s="3">
-        <v>15220400</v>
+        <v>15071100</v>
       </c>
       <c r="H8" s="3">
-        <v>14387600</v>
+        <v>14246500</v>
       </c>
       <c r="I8" s="3">
-        <v>14253900</v>
+        <v>14114200</v>
       </c>
       <c r="J8" s="3">
-        <v>12402700</v>
+        <v>12281100</v>
       </c>
       <c r="K8" s="3">
         <v>13190800</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7065500</v>
+        <v>6996200</v>
       </c>
       <c r="E9" s="3">
-        <v>5959500</v>
+        <v>5901000</v>
       </c>
       <c r="F9" s="3">
-        <v>5505200</v>
+        <v>5451200</v>
       </c>
       <c r="G9" s="3">
-        <v>5756000</v>
+        <v>5699500</v>
       </c>
       <c r="H9" s="3">
-        <v>5481600</v>
+        <v>5427800</v>
       </c>
       <c r="I9" s="3">
-        <v>5536000</v>
+        <v>5481700</v>
       </c>
       <c r="J9" s="3">
-        <v>5028500</v>
+        <v>4979200</v>
       </c>
       <c r="K9" s="3">
         <v>5593200</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11212700</v>
+        <v>11102800</v>
       </c>
       <c r="E10" s="3">
-        <v>9102400</v>
+        <v>9013200</v>
       </c>
       <c r="F10" s="3">
-        <v>8396200</v>
+        <v>8313900</v>
       </c>
       <c r="G10" s="3">
-        <v>9464400</v>
+        <v>9371600</v>
       </c>
       <c r="H10" s="3">
-        <v>8906100</v>
+        <v>8818700</v>
       </c>
       <c r="I10" s="3">
-        <v>8718000</v>
+        <v>8632500</v>
       </c>
       <c r="J10" s="3">
-        <v>7374200</v>
+        <v>7301900</v>
       </c>
       <c r="K10" s="3">
         <v>7597500</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>519300</v>
+        <v>514200</v>
       </c>
       <c r="E14" s="3">
         <v>-1200</v>
       </c>
       <c r="F14" s="3">
-        <v>1730600</v>
+        <v>1713600</v>
       </c>
       <c r="G14" s="3">
-        <v>-82800</v>
+        <v>-82000</v>
       </c>
       <c r="H14" s="3">
-        <v>151400</v>
+        <v>149900</v>
       </c>
       <c r="I14" s="3">
-        <v>26000</v>
+        <v>25800</v>
       </c>
       <c r="J14" s="3">
-        <v>52000</v>
+        <v>51500</v>
       </c>
       <c r="K14" s="3">
         <v>-126900</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13123100</v>
+        <v>12994400</v>
       </c>
       <c r="E17" s="3">
-        <v>10631900</v>
+        <v>10527600</v>
       </c>
       <c r="F17" s="3">
-        <v>11400800</v>
+        <v>11289000</v>
       </c>
       <c r="G17" s="3">
-        <v>10279400</v>
+        <v>10178600</v>
       </c>
       <c r="H17" s="3">
-        <v>10021500</v>
+        <v>9923300</v>
       </c>
       <c r="I17" s="3">
-        <v>10020300</v>
+        <v>9922100</v>
       </c>
       <c r="J17" s="3">
-        <v>8896600</v>
+        <v>8809300</v>
       </c>
       <c r="K17" s="3">
         <v>9323700</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5155100</v>
+        <v>5104500</v>
       </c>
       <c r="E18" s="3">
-        <v>4430000</v>
+        <v>4386500</v>
       </c>
       <c r="F18" s="3">
-        <v>2500700</v>
+        <v>2476100</v>
       </c>
       <c r="G18" s="3">
-        <v>4941000</v>
+        <v>4892500</v>
       </c>
       <c r="H18" s="3">
-        <v>4366100</v>
+        <v>4323300</v>
       </c>
       <c r="I18" s="3">
-        <v>4233600</v>
+        <v>4192100</v>
       </c>
       <c r="J18" s="3">
-        <v>3506100</v>
+        <v>3471700</v>
       </c>
       <c r="K18" s="3">
         <v>3867100</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>596200</v>
+        <v>590300</v>
       </c>
       <c r="E20" s="3">
-        <v>503900</v>
+        <v>499000</v>
       </c>
       <c r="F20" s="3">
-        <v>537000</v>
+        <v>531800</v>
       </c>
       <c r="G20" s="3">
-        <v>634000</v>
+        <v>627800</v>
       </c>
       <c r="H20" s="3">
-        <v>525200</v>
+        <v>520100</v>
       </c>
       <c r="I20" s="3">
-        <v>509800</v>
+        <v>504800</v>
       </c>
       <c r="J20" s="3">
-        <v>417600</v>
+        <v>413500</v>
       </c>
       <c r="K20" s="3">
         <v>355000</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6728100</v>
+        <v>6635100</v>
       </c>
       <c r="E21" s="3">
-        <v>5461200</v>
+        <v>5393100</v>
       </c>
       <c r="F21" s="3">
-        <v>5207200</v>
+        <v>5096300</v>
       </c>
       <c r="G21" s="3">
-        <v>6016200</v>
+        <v>5945100</v>
       </c>
       <c r="H21" s="3">
-        <v>5472900</v>
+        <v>5403200</v>
       </c>
       <c r="I21" s="3">
-        <v>5169300</v>
+        <v>5106900</v>
       </c>
       <c r="J21" s="3">
-        <v>4481700</v>
+        <v>4422300</v>
       </c>
       <c r="K21" s="3">
         <v>4761100</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>561900</v>
+        <v>556400</v>
       </c>
       <c r="E22" s="3">
-        <v>550000</v>
+        <v>544700</v>
       </c>
       <c r="F22" s="3">
-        <v>621000</v>
+        <v>614900</v>
       </c>
       <c r="G22" s="3">
-        <v>565400</v>
+        <v>559900</v>
       </c>
       <c r="H22" s="3">
-        <v>467200</v>
+        <v>462700</v>
       </c>
       <c r="I22" s="3">
-        <v>533500</v>
+        <v>528300</v>
       </c>
       <c r="J22" s="3">
-        <v>543000</v>
+        <v>537600</v>
       </c>
       <c r="K22" s="3">
         <v>644100</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5189400</v>
+        <v>5138500</v>
       </c>
       <c r="E23" s="3">
-        <v>4383800</v>
+        <v>4340800</v>
       </c>
       <c r="F23" s="3">
-        <v>2416700</v>
+        <v>2393000</v>
       </c>
       <c r="G23" s="3">
-        <v>5009600</v>
+        <v>4960500</v>
       </c>
       <c r="H23" s="3">
-        <v>4424000</v>
+        <v>4380700</v>
       </c>
       <c r="I23" s="3">
-        <v>4209900</v>
+        <v>4168700</v>
       </c>
       <c r="J23" s="3">
-        <v>3380700</v>
+        <v>3347600</v>
       </c>
       <c r="K23" s="3">
         <v>3578000</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1240900</v>
+        <v>1228700</v>
       </c>
       <c r="E24" s="3">
-        <v>1072900</v>
+        <v>1062400</v>
       </c>
       <c r="F24" s="3">
-        <v>696700</v>
+        <v>689900</v>
       </c>
       <c r="G24" s="3">
-        <v>1062200</v>
+        <v>1051800</v>
       </c>
       <c r="H24" s="3">
-        <v>1123800</v>
+        <v>1112700</v>
       </c>
       <c r="I24" s="3">
-        <v>865900</v>
+        <v>857400</v>
       </c>
       <c r="J24" s="3">
-        <v>586700</v>
+        <v>581000</v>
       </c>
       <c r="K24" s="3">
         <v>568500</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3948500</v>
+        <v>3909800</v>
       </c>
       <c r="E26" s="3">
-        <v>3310900</v>
+        <v>3278500</v>
       </c>
       <c r="F26" s="3">
-        <v>1719900</v>
+        <v>1703100</v>
       </c>
       <c r="G26" s="3">
-        <v>3947300</v>
+        <v>3908600</v>
       </c>
       <c r="H26" s="3">
-        <v>3300300</v>
+        <v>3267900</v>
       </c>
       <c r="I26" s="3">
-        <v>3344100</v>
+        <v>3311300</v>
       </c>
       <c r="J26" s="3">
-        <v>2794000</v>
+        <v>2766600</v>
       </c>
       <c r="K26" s="3">
         <v>3009500</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3843200</v>
+        <v>3805600</v>
       </c>
       <c r="E27" s="3">
-        <v>3146500</v>
+        <v>3115700</v>
       </c>
       <c r="F27" s="3">
-        <v>1666700</v>
+        <v>1650400</v>
       </c>
       <c r="G27" s="3">
-        <v>3738000</v>
+        <v>3701300</v>
       </c>
       <c r="H27" s="3">
-        <v>3156000</v>
+        <v>3125000</v>
       </c>
       <c r="I27" s="3">
-        <v>3213900</v>
+        <v>3182400</v>
       </c>
       <c r="J27" s="3">
-        <v>2654400</v>
+        <v>2628400</v>
       </c>
       <c r="K27" s="3">
         <v>2904600</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>418700</v>
+        <v>414600</v>
       </c>
       <c r="I29" s="3">
-        <v>-65100</v>
+        <v>-64400</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-596200</v>
+        <v>-590300</v>
       </c>
       <c r="E32" s="3">
-        <v>-503900</v>
+        <v>-499000</v>
       </c>
       <c r="F32" s="3">
-        <v>-537000</v>
+        <v>-531800</v>
       </c>
       <c r="G32" s="3">
-        <v>-634000</v>
+        <v>-627800</v>
       </c>
       <c r="H32" s="3">
-        <v>-525200</v>
+        <v>-520100</v>
       </c>
       <c r="I32" s="3">
-        <v>-509800</v>
+        <v>-504800</v>
       </c>
       <c r="J32" s="3">
-        <v>-417600</v>
+        <v>-413500</v>
       </c>
       <c r="K32" s="3">
         <v>-355000</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3843200</v>
+        <v>3805600</v>
       </c>
       <c r="E33" s="3">
-        <v>3146500</v>
+        <v>3115700</v>
       </c>
       <c r="F33" s="3">
-        <v>1666700</v>
+        <v>1650400</v>
       </c>
       <c r="G33" s="3">
-        <v>3738000</v>
+        <v>3701300</v>
       </c>
       <c r="H33" s="3">
-        <v>3574700</v>
+        <v>3539700</v>
       </c>
       <c r="I33" s="3">
-        <v>3148900</v>
+        <v>3118000</v>
       </c>
       <c r="J33" s="3">
-        <v>2654400</v>
+        <v>2628400</v>
       </c>
       <c r="K33" s="3">
         <v>2904600</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3843200</v>
+        <v>3805600</v>
       </c>
       <c r="E35" s="3">
-        <v>3146500</v>
+        <v>3115700</v>
       </c>
       <c r="F35" s="3">
-        <v>1666700</v>
+        <v>1650400</v>
       </c>
       <c r="G35" s="3">
-        <v>3738000</v>
+        <v>3701300</v>
       </c>
       <c r="H35" s="3">
-        <v>3574700</v>
+        <v>3539700</v>
       </c>
       <c r="I35" s="3">
-        <v>3148900</v>
+        <v>3118000</v>
       </c>
       <c r="J35" s="3">
-        <v>2654400</v>
+        <v>2628400</v>
       </c>
       <c r="K35" s="3">
         <v>2904600</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2702900</v>
+        <v>2676400</v>
       </c>
       <c r="E41" s="3">
-        <v>3251800</v>
+        <v>3219900</v>
       </c>
       <c r="F41" s="3">
-        <v>3930800</v>
+        <v>3892200</v>
       </c>
       <c r="G41" s="3">
-        <v>1102500</v>
+        <v>1091700</v>
       </c>
       <c r="H41" s="3">
-        <v>1033900</v>
+        <v>1023700</v>
       </c>
       <c r="I41" s="3">
-        <v>1408800</v>
+        <v>1395000</v>
       </c>
       <c r="J41" s="3">
-        <v>1288200</v>
+        <v>1275500</v>
       </c>
       <c r="K41" s="3">
         <v>575800</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>160900</v>
+        <v>159300</v>
       </c>
       <c r="E42" s="3">
-        <v>54400</v>
+        <v>53900</v>
       </c>
       <c r="F42" s="3">
-        <v>86400</v>
+        <v>85500</v>
       </c>
       <c r="G42" s="3">
-        <v>146700</v>
+        <v>145200</v>
       </c>
       <c r="H42" s="3">
-        <v>29600</v>
+        <v>29300</v>
       </c>
       <c r="I42" s="3">
-        <v>28400</v>
+        <v>28100</v>
       </c>
       <c r="J42" s="3">
-        <v>176300</v>
+        <v>174500</v>
       </c>
       <c r="K42" s="3">
         <v>56100</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3302700</v>
+        <v>3270300</v>
       </c>
       <c r="E43" s="3">
-        <v>2815300</v>
+        <v>2787700</v>
       </c>
       <c r="F43" s="3">
-        <v>2536100</v>
+        <v>2511300</v>
       </c>
       <c r="G43" s="3">
-        <v>3046000</v>
+        <v>3016100</v>
       </c>
       <c r="H43" s="3">
-        <v>3059000</v>
+        <v>3029000</v>
       </c>
       <c r="I43" s="3">
-        <v>2878000</v>
+        <v>2849800</v>
       </c>
       <c r="J43" s="3">
-        <v>2953700</v>
+        <v>2924700</v>
       </c>
       <c r="K43" s="3">
         <v>2792400</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8391500</v>
+        <v>8309200</v>
       </c>
       <c r="E44" s="3">
-        <v>7150600</v>
+        <v>7080500</v>
       </c>
       <c r="F44" s="3">
-        <v>6827700</v>
+        <v>6760700</v>
       </c>
       <c r="G44" s="3">
-        <v>6472800</v>
+        <v>6409400</v>
       </c>
       <c r="H44" s="3">
-        <v>5932200</v>
+        <v>5874100</v>
       </c>
       <c r="I44" s="3">
-        <v>5663700</v>
+        <v>5608200</v>
       </c>
       <c r="J44" s="3">
-        <v>5416500</v>
+        <v>5363400</v>
       </c>
       <c r="K44" s="3">
         <v>5579800</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>741700</v>
+        <v>734400</v>
       </c>
       <c r="E45" s="3">
-        <v>266200</v>
+        <v>263500</v>
       </c>
       <c r="F45" s="3">
-        <v>188100</v>
+        <v>186200</v>
       </c>
       <c r="G45" s="3">
-        <v>319400</v>
+        <v>316300</v>
       </c>
       <c r="H45" s="3">
-        <v>225900</v>
+        <v>223700</v>
       </c>
       <c r="I45" s="3">
-        <v>255500</v>
+        <v>253000</v>
       </c>
       <c r="J45" s="3">
-        <v>636400</v>
+        <v>630200</v>
       </c>
       <c r="K45" s="3">
         <v>352600</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15299600</v>
+        <v>15149600</v>
       </c>
       <c r="E46" s="3">
-        <v>13538300</v>
+        <v>13405500</v>
       </c>
       <c r="F46" s="3">
-        <v>13569000</v>
+        <v>13436000</v>
       </c>
       <c r="G46" s="3">
-        <v>11087300</v>
+        <v>10978600</v>
       </c>
       <c r="H46" s="3">
-        <v>10280600</v>
+        <v>10179800</v>
       </c>
       <c r="I46" s="3">
-        <v>10234500</v>
+        <v>10134100</v>
       </c>
       <c r="J46" s="3">
-        <v>10471000</v>
+        <v>10368300</v>
       </c>
       <c r="K46" s="3">
         <v>9356600</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4401600</v>
+        <v>4358400</v>
       </c>
       <c r="E47" s="3">
-        <v>4013600</v>
+        <v>3974200</v>
       </c>
       <c r="F47" s="3">
-        <v>4329400</v>
+        <v>4287000</v>
       </c>
       <c r="G47" s="3">
-        <v>3887000</v>
+        <v>3848900</v>
       </c>
       <c r="H47" s="3">
-        <v>3676500</v>
+        <v>3640400</v>
       </c>
       <c r="I47" s="3">
-        <v>3478900</v>
+        <v>3444800</v>
       </c>
       <c r="J47" s="3">
-        <v>3112200</v>
+        <v>3081700</v>
       </c>
       <c r="K47" s="3">
         <v>3068000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7028800</v>
+        <v>6959900</v>
       </c>
       <c r="E48" s="3">
-        <v>5814000</v>
+        <v>5756900</v>
       </c>
       <c r="F48" s="3">
-        <v>5887300</v>
+        <v>5829600</v>
       </c>
       <c r="G48" s="3">
-        <v>5310000</v>
+        <v>5258000</v>
       </c>
       <c r="H48" s="3">
-        <v>4864100</v>
+        <v>4816400</v>
       </c>
       <c r="I48" s="3">
-        <v>4773000</v>
+        <v>4726200</v>
       </c>
       <c r="J48" s="3">
-        <v>4602700</v>
+        <v>4557500</v>
       </c>
       <c r="K48" s="3">
         <v>4580700</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14078900</v>
+        <v>13940800</v>
       </c>
       <c r="E49" s="3">
-        <v>12732700</v>
+        <v>12607900</v>
       </c>
       <c r="F49" s="3">
-        <v>13366800</v>
+        <v>13235700</v>
       </c>
       <c r="G49" s="3">
-        <v>14853700</v>
+        <v>14708000</v>
       </c>
       <c r="H49" s="3">
-        <v>14871400</v>
+        <v>14725600</v>
       </c>
       <c r="I49" s="3">
-        <v>14864300</v>
+        <v>14718600</v>
       </c>
       <c r="J49" s="3">
-        <v>14632500</v>
+        <v>14489000</v>
       </c>
       <c r="K49" s="3">
         <v>13700700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2385900</v>
+        <v>2362500</v>
       </c>
       <c r="E52" s="3">
-        <v>1698600</v>
+        <v>1682000</v>
       </c>
       <c r="F52" s="3">
-        <v>2247500</v>
+        <v>2225500</v>
       </c>
       <c r="G52" s="3">
-        <v>1882000</v>
+        <v>1863500</v>
       </c>
       <c r="H52" s="3">
-        <v>1457300</v>
+        <v>1443000</v>
       </c>
       <c r="I52" s="3">
-        <v>773600</v>
+        <v>766000</v>
       </c>
       <c r="J52" s="3">
-        <v>883600</v>
+        <v>875000</v>
       </c>
       <c r="K52" s="3">
         <v>772200</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>43194800</v>
+        <v>42771200</v>
       </c>
       <c r="E54" s="3">
-        <v>37797200</v>
+        <v>37426500</v>
       </c>
       <c r="F54" s="3">
-        <v>39400000</v>
+        <v>39013700</v>
       </c>
       <c r="G54" s="3">
-        <v>37020000</v>
+        <v>36657000</v>
       </c>
       <c r="H54" s="3">
-        <v>35149900</v>
+        <v>34805200</v>
       </c>
       <c r="I54" s="3">
-        <v>34124300</v>
+        <v>33789700</v>
       </c>
       <c r="J54" s="3">
-        <v>33702000</v>
+        <v>33371500</v>
       </c>
       <c r="K54" s="3">
         <v>31478300</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3199700</v>
+        <v>3168400</v>
       </c>
       <c r="E57" s="3">
-        <v>2382400</v>
+        <v>2359000</v>
       </c>
       <c r="F57" s="3">
-        <v>1576800</v>
+        <v>1561300</v>
       </c>
       <c r="G57" s="3">
-        <v>2003800</v>
+        <v>1984200</v>
       </c>
       <c r="H57" s="3">
-        <v>1790900</v>
+        <v>1773300</v>
       </c>
       <c r="I57" s="3">
-        <v>1614700</v>
+        <v>1598800</v>
       </c>
       <c r="J57" s="3">
-        <v>1287000</v>
+        <v>1274400</v>
       </c>
       <c r="K57" s="3">
         <v>1077200</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1900900</v>
+        <v>1882300</v>
       </c>
       <c r="E58" s="3">
-        <v>2299600</v>
+        <v>2277000</v>
       </c>
       <c r="F58" s="3">
-        <v>2485300</v>
+        <v>2460900</v>
       </c>
       <c r="G58" s="3">
-        <v>2368200</v>
+        <v>2344900</v>
       </c>
       <c r="H58" s="3">
-        <v>2199000</v>
+        <v>2177400</v>
       </c>
       <c r="I58" s="3">
-        <v>2939500</v>
+        <v>2910700</v>
       </c>
       <c r="J58" s="3">
-        <v>2468700</v>
+        <v>2444500</v>
       </c>
       <c r="K58" s="3">
         <v>2533700</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4885400</v>
+        <v>4837500</v>
       </c>
       <c r="E59" s="3">
-        <v>3766400</v>
+        <v>3729400</v>
       </c>
       <c r="F59" s="3">
-        <v>3622000</v>
+        <v>3586500</v>
       </c>
       <c r="G59" s="3">
-        <v>3911900</v>
+        <v>3873500</v>
       </c>
       <c r="H59" s="3">
-        <v>3533300</v>
+        <v>3498700</v>
       </c>
       <c r="I59" s="3">
-        <v>3323900</v>
+        <v>3291400</v>
       </c>
       <c r="J59" s="3">
-        <v>3562900</v>
+        <v>3528000</v>
       </c>
       <c r="K59" s="3">
         <v>2842400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9986000</v>
+        <v>9888100</v>
       </c>
       <c r="E60" s="3">
-        <v>8448300</v>
+        <v>8365400</v>
       </c>
       <c r="F60" s="3">
-        <v>7684100</v>
+        <v>7608800</v>
       </c>
       <c r="G60" s="3">
-        <v>8283800</v>
+        <v>8202600</v>
       </c>
       <c r="H60" s="3">
-        <v>7523200</v>
+        <v>7449500</v>
       </c>
       <c r="I60" s="3">
-        <v>7878100</v>
+        <v>7800900</v>
       </c>
       <c r="J60" s="3">
-        <v>7318600</v>
+        <v>7246800</v>
       </c>
       <c r="K60" s="3">
         <v>6453300</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17611000</v>
+        <v>17438300</v>
       </c>
       <c r="E61" s="3">
-        <v>15550400</v>
+        <v>15397900</v>
       </c>
       <c r="F61" s="3">
-        <v>17925700</v>
+        <v>17749900</v>
       </c>
       <c r="G61" s="3">
-        <v>12634600</v>
+        <v>12510700</v>
       </c>
       <c r="H61" s="3">
-        <v>9697400</v>
+        <v>9602300</v>
       </c>
       <c r="I61" s="3">
-        <v>7972700</v>
+        <v>7894600</v>
       </c>
       <c r="J61" s="3">
-        <v>9799100</v>
+        <v>9703000</v>
       </c>
       <c r="K61" s="3">
         <v>10198400</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4343600</v>
+        <v>4301000</v>
       </c>
       <c r="E62" s="3">
-        <v>3825500</v>
+        <v>3788000</v>
       </c>
       <c r="F62" s="3">
-        <v>3806600</v>
+        <v>3769200</v>
       </c>
       <c r="G62" s="3">
-        <v>4088100</v>
+        <v>4048000</v>
       </c>
       <c r="H62" s="3">
-        <v>4073900</v>
+        <v>4034000</v>
       </c>
       <c r="I62" s="3">
-        <v>4045500</v>
+        <v>4005800</v>
       </c>
       <c r="J62" s="3">
-        <v>4841600</v>
+        <v>4794100</v>
       </c>
       <c r="K62" s="3">
         <v>3535300</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33970500</v>
+        <v>33637400</v>
       </c>
       <c r="E66" s="3">
-        <v>29638700</v>
+        <v>29348100</v>
       </c>
       <c r="F66" s="3">
-        <v>31389400</v>
+        <v>31081600</v>
       </c>
       <c r="G66" s="3">
-        <v>27129800</v>
+        <v>26863800</v>
       </c>
       <c r="H66" s="3">
-        <v>23382400</v>
+        <v>23153100</v>
       </c>
       <c r="I66" s="3">
-        <v>21925100</v>
+        <v>21710000</v>
       </c>
       <c r="J66" s="3">
-        <v>23611900</v>
+        <v>23380300</v>
       </c>
       <c r="K66" s="3">
         <v>21998500</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10182400</v>
+        <v>10082600</v>
       </c>
       <c r="E72" s="3">
-        <v>9774300</v>
+        <v>9678500</v>
       </c>
       <c r="F72" s="3">
-        <v>8923800</v>
+        <v>8836300</v>
       </c>
       <c r="G72" s="3">
-        <v>10766800</v>
+        <v>10661200</v>
       </c>
       <c r="H72" s="3">
-        <v>13003600</v>
+        <v>12876100</v>
       </c>
       <c r="I72" s="3">
-        <v>12771800</v>
+        <v>12646500</v>
       </c>
       <c r="J72" s="3">
-        <v>10759700</v>
+        <v>10654100</v>
       </c>
       <c r="K72" s="3">
         <v>10988900</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9224300</v>
+        <v>9133800</v>
       </c>
       <c r="E76" s="3">
-        <v>8158500</v>
+        <v>8078500</v>
       </c>
       <c r="F76" s="3">
-        <v>8010600</v>
+        <v>7932000</v>
       </c>
       <c r="G76" s="3">
-        <v>9890200</v>
+        <v>9793200</v>
       </c>
       <c r="H76" s="3">
-        <v>11767500</v>
+        <v>11652100</v>
       </c>
       <c r="I76" s="3">
-        <v>12199200</v>
+        <v>12079600</v>
       </c>
       <c r="J76" s="3">
-        <v>10090100</v>
+        <v>9991200</v>
       </c>
       <c r="K76" s="3">
         <v>9479800</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3843200</v>
+        <v>3805600</v>
       </c>
       <c r="E81" s="3">
-        <v>3146500</v>
+        <v>3115700</v>
       </c>
       <c r="F81" s="3">
-        <v>1666700</v>
+        <v>1650400</v>
       </c>
       <c r="G81" s="3">
-        <v>3738000</v>
+        <v>3701300</v>
       </c>
       <c r="H81" s="3">
-        <v>3574700</v>
+        <v>3539700</v>
       </c>
       <c r="I81" s="3">
-        <v>3148900</v>
+        <v>3118000</v>
       </c>
       <c r="J81" s="3">
-        <v>2654400</v>
+        <v>2628400</v>
       </c>
       <c r="K81" s="3">
         <v>2904600</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>979400</v>
+        <v>969800</v>
       </c>
       <c r="E83" s="3">
-        <v>528800</v>
+        <v>523600</v>
       </c>
       <c r="F83" s="3">
-        <v>2175400</v>
+        <v>2154000</v>
       </c>
       <c r="G83" s="3">
-        <v>442400</v>
+        <v>438100</v>
       </c>
       <c r="H83" s="3">
-        <v>583200</v>
+        <v>577500</v>
       </c>
       <c r="I83" s="3">
-        <v>427000</v>
+        <v>422800</v>
       </c>
       <c r="J83" s="3">
-        <v>559500</v>
+        <v>554000</v>
       </c>
       <c r="K83" s="3">
         <v>536800</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4654700</v>
+        <v>4609100</v>
       </c>
       <c r="E89" s="3">
-        <v>4322300</v>
+        <v>4279900</v>
       </c>
       <c r="F89" s="3">
-        <v>2744300</v>
+        <v>2717400</v>
       </c>
       <c r="G89" s="3">
-        <v>3842100</v>
+        <v>3804400</v>
       </c>
       <c r="H89" s="3">
-        <v>3648100</v>
+        <v>3612300</v>
       </c>
       <c r="I89" s="3">
-        <v>3704800</v>
+        <v>3668500</v>
       </c>
       <c r="J89" s="3">
-        <v>3014000</v>
+        <v>2984500</v>
       </c>
       <c r="K89" s="3">
         <v>3112000</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1297600</v>
+        <v>-1284900</v>
       </c>
       <c r="E91" s="3">
-        <v>-740500</v>
+        <v>-733200</v>
       </c>
       <c r="F91" s="3">
-        <v>-828000</v>
+        <v>-819900</v>
       </c>
       <c r="G91" s="3">
-        <v>-793700</v>
+        <v>-785900</v>
       </c>
       <c r="H91" s="3">
-        <v>-690800</v>
+        <v>-684000</v>
       </c>
       <c r="I91" s="3">
-        <v>-612700</v>
+        <v>-606700</v>
       </c>
       <c r="J91" s="3">
-        <v>-598500</v>
+        <v>-592700</v>
       </c>
       <c r="K91" s="3">
         <v>-778300</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1586300</v>
+        <v>-1570700</v>
       </c>
       <c r="E94" s="3">
-        <v>-1290500</v>
+        <v>-1277900</v>
       </c>
       <c r="F94" s="3">
-        <v>-952200</v>
+        <v>-942900</v>
       </c>
       <c r="G94" s="3">
-        <v>-319400</v>
+        <v>-316300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1361500</v>
+        <v>-1348200</v>
       </c>
       <c r="I94" s="3">
-        <v>-653000</v>
+        <v>-646600</v>
       </c>
       <c r="J94" s="3">
-        <v>705000</v>
+        <v>698100</v>
       </c>
       <c r="K94" s="3">
         <v>-1090600</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2032200</v>
+        <v>-2012300</v>
       </c>
       <c r="E96" s="3">
-        <v>-1947100</v>
+        <v>-1928000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1947100</v>
+        <v>-1928000</v>
       </c>
       <c r="G96" s="3">
-        <v>-1919800</v>
+        <v>-1901000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1870200</v>
+        <v>-1851800</v>
       </c>
       <c r="I96" s="3">
-        <v>-1792100</v>
+        <v>-1774500</v>
       </c>
       <c r="J96" s="3">
-        <v>-1706900</v>
+        <v>-1690200</v>
       </c>
       <c r="K96" s="3">
         <v>-1635900</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3855100</v>
+        <v>-3817300</v>
       </c>
       <c r="E100" s="3">
-        <v>-3305000</v>
+        <v>-3272600</v>
       </c>
       <c r="F100" s="3">
-        <v>1226700</v>
+        <v>1214600</v>
       </c>
       <c r="G100" s="3">
-        <v>-3458800</v>
+        <v>-3424900</v>
       </c>
       <c r="H100" s="3">
-        <v>-2505400</v>
+        <v>-2480800</v>
       </c>
       <c r="I100" s="3">
-        <v>-2907600</v>
+        <v>-2879100</v>
       </c>
       <c r="J100" s="3">
-        <v>-3313300</v>
+        <v>-3280800</v>
       </c>
       <c r="K100" s="3">
         <v>-2115300</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>282700</v>
+        <v>279900</v>
       </c>
       <c r="E101" s="3">
-        <v>-337100</v>
+        <v>-333800</v>
       </c>
       <c r="F101" s="3">
-        <v>-141900</v>
+        <v>-140600</v>
       </c>
       <c r="G101" s="3">
-        <v>-30800</v>
+        <v>-30500</v>
       </c>
       <c r="H101" s="3">
-        <v>-46100</v>
+        <v>-45700</v>
       </c>
       <c r="I101" s="3">
-        <v>-16600</v>
+        <v>-16400</v>
       </c>
       <c r="J101" s="3">
-        <v>99400</v>
+        <v>98400</v>
       </c>
       <c r="K101" s="3">
         <v>-89100</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-503900</v>
+        <v>-499000</v>
       </c>
       <c r="E102" s="3">
-        <v>-610400</v>
+        <v>-604400</v>
       </c>
       <c r="F102" s="3">
-        <v>2876800</v>
+        <v>2848600</v>
       </c>
       <c r="G102" s="3">
-        <v>33100</v>
+        <v>32800</v>
       </c>
       <c r="H102" s="3">
-        <v>-265000</v>
+        <v>-262400</v>
       </c>
       <c r="I102" s="3">
-        <v>127800</v>
+        <v>126500</v>
       </c>
       <c r="J102" s="3">
-        <v>505100</v>
+        <v>500100</v>
       </c>
       <c r="K102" s="3">
         <v>-183000</v>

--- a/AAII_Financials/Yearly/DEO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DEO_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18098900</v>
+        <v>18426700</v>
       </c>
       <c r="E8" s="3">
-        <v>14914200</v>
+        <v>15184200</v>
       </c>
       <c r="F8" s="3">
-        <v>13765100</v>
+        <v>14014400</v>
       </c>
       <c r="G8" s="3">
-        <v>15071100</v>
+        <v>15344000</v>
       </c>
       <c r="H8" s="3">
-        <v>14246500</v>
+        <v>14504500</v>
       </c>
       <c r="I8" s="3">
-        <v>14114200</v>
+        <v>14369700</v>
       </c>
       <c r="J8" s="3">
-        <v>12281100</v>
+        <v>12503500</v>
       </c>
       <c r="K8" s="3">
         <v>13190800</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6996200</v>
+        <v>7122900</v>
       </c>
       <c r="E9" s="3">
-        <v>5901000</v>
+        <v>6007900</v>
       </c>
       <c r="F9" s="3">
-        <v>5451200</v>
+        <v>5549900</v>
       </c>
       <c r="G9" s="3">
-        <v>5699500</v>
+        <v>5802800</v>
       </c>
       <c r="H9" s="3">
-        <v>5427800</v>
+        <v>5526100</v>
       </c>
       <c r="I9" s="3">
-        <v>5481700</v>
+        <v>5580900</v>
       </c>
       <c r="J9" s="3">
-        <v>4979200</v>
+        <v>5069400</v>
       </c>
       <c r="K9" s="3">
         <v>5593200</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11102800</v>
+        <v>11303800</v>
       </c>
       <c r="E10" s="3">
-        <v>9013200</v>
+        <v>9176400</v>
       </c>
       <c r="F10" s="3">
-        <v>8313900</v>
+        <v>8464400</v>
       </c>
       <c r="G10" s="3">
-        <v>9371600</v>
+        <v>9541300</v>
       </c>
       <c r="H10" s="3">
-        <v>8818700</v>
+        <v>8978400</v>
       </c>
       <c r="I10" s="3">
-        <v>8632500</v>
+        <v>8788800</v>
       </c>
       <c r="J10" s="3">
-        <v>7301900</v>
+        <v>7434100</v>
       </c>
       <c r="K10" s="3">
         <v>7597500</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>514200</v>
+        <v>523500</v>
       </c>
       <c r="E14" s="3">
         <v>-1200</v>
       </c>
       <c r="F14" s="3">
-        <v>1713600</v>
+        <v>1744600</v>
       </c>
       <c r="G14" s="3">
-        <v>-82000</v>
+        <v>-83500</v>
       </c>
       <c r="H14" s="3">
-        <v>149900</v>
+        <v>152600</v>
       </c>
       <c r="I14" s="3">
-        <v>25800</v>
+        <v>26200</v>
       </c>
       <c r="J14" s="3">
-        <v>51500</v>
+        <v>52500</v>
       </c>
       <c r="K14" s="3">
         <v>-126900</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12994400</v>
+        <v>13229700</v>
       </c>
       <c r="E17" s="3">
-        <v>10527600</v>
+        <v>10718300</v>
       </c>
       <c r="F17" s="3">
-        <v>11289000</v>
+        <v>11493400</v>
       </c>
       <c r="G17" s="3">
-        <v>10178600</v>
+        <v>10362900</v>
       </c>
       <c r="H17" s="3">
-        <v>9923300</v>
+        <v>10102900</v>
       </c>
       <c r="I17" s="3">
-        <v>9922100</v>
+        <v>10101800</v>
       </c>
       <c r="J17" s="3">
-        <v>8809300</v>
+        <v>8968900</v>
       </c>
       <c r="K17" s="3">
         <v>9323700</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5104500</v>
+        <v>5197000</v>
       </c>
       <c r="E18" s="3">
-        <v>4386500</v>
+        <v>4465900</v>
       </c>
       <c r="F18" s="3">
-        <v>2476100</v>
+        <v>2521000</v>
       </c>
       <c r="G18" s="3">
-        <v>4892500</v>
+        <v>4981100</v>
       </c>
       <c r="H18" s="3">
-        <v>4323300</v>
+        <v>4401600</v>
       </c>
       <c r="I18" s="3">
-        <v>4192100</v>
+        <v>4268000</v>
       </c>
       <c r="J18" s="3">
-        <v>3471700</v>
+        <v>3534600</v>
       </c>
       <c r="K18" s="3">
         <v>3867100</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>590300</v>
+        <v>601000</v>
       </c>
       <c r="E20" s="3">
-        <v>499000</v>
+        <v>508000</v>
       </c>
       <c r="F20" s="3">
-        <v>531800</v>
+        <v>541400</v>
       </c>
       <c r="G20" s="3">
-        <v>627800</v>
+        <v>639200</v>
       </c>
       <c r="H20" s="3">
-        <v>520100</v>
+        <v>529500</v>
       </c>
       <c r="I20" s="3">
-        <v>504800</v>
+        <v>514000</v>
       </c>
       <c r="J20" s="3">
-        <v>413500</v>
+        <v>421000</v>
       </c>
       <c r="K20" s="3">
         <v>355000</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6635100</v>
+        <v>6778500</v>
       </c>
       <c r="E21" s="3">
-        <v>5393100</v>
+        <v>5503300</v>
       </c>
       <c r="F21" s="3">
-        <v>5096300</v>
+        <v>5240100</v>
       </c>
       <c r="G21" s="3">
-        <v>5945100</v>
+        <v>6063200</v>
       </c>
       <c r="H21" s="3">
-        <v>5403200</v>
+        <v>5514800</v>
       </c>
       <c r="I21" s="3">
-        <v>5106900</v>
+        <v>5209500</v>
       </c>
       <c r="J21" s="3">
-        <v>4422300</v>
+        <v>4515700</v>
       </c>
       <c r="K21" s="3">
         <v>4761100</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>556400</v>
+        <v>566400</v>
       </c>
       <c r="E22" s="3">
-        <v>544700</v>
+        <v>554500</v>
       </c>
       <c r="F22" s="3">
-        <v>614900</v>
+        <v>626100</v>
       </c>
       <c r="G22" s="3">
-        <v>559900</v>
+        <v>570000</v>
       </c>
       <c r="H22" s="3">
-        <v>462700</v>
+        <v>471000</v>
       </c>
       <c r="I22" s="3">
-        <v>528300</v>
+        <v>537800</v>
       </c>
       <c r="J22" s="3">
-        <v>537600</v>
+        <v>547400</v>
       </c>
       <c r="K22" s="3">
         <v>644100</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5138500</v>
+        <v>5231500</v>
       </c>
       <c r="E23" s="3">
-        <v>4340800</v>
+        <v>4419400</v>
       </c>
       <c r="F23" s="3">
-        <v>2393000</v>
+        <v>2436300</v>
       </c>
       <c r="G23" s="3">
-        <v>4960500</v>
+        <v>5050300</v>
       </c>
       <c r="H23" s="3">
-        <v>4380700</v>
+        <v>4460000</v>
       </c>
       <c r="I23" s="3">
-        <v>4168700</v>
+        <v>4244100</v>
       </c>
       <c r="J23" s="3">
-        <v>3347600</v>
+        <v>3408200</v>
       </c>
       <c r="K23" s="3">
         <v>3578000</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1228700</v>
+        <v>1250900</v>
       </c>
       <c r="E24" s="3">
-        <v>1062400</v>
+        <v>1081600</v>
       </c>
       <c r="F24" s="3">
-        <v>689900</v>
+        <v>702400</v>
       </c>
       <c r="G24" s="3">
-        <v>1051800</v>
+        <v>1070900</v>
       </c>
       <c r="H24" s="3">
-        <v>1112700</v>
+        <v>1132900</v>
       </c>
       <c r="I24" s="3">
-        <v>857400</v>
+        <v>872900</v>
       </c>
       <c r="J24" s="3">
-        <v>581000</v>
+        <v>591500</v>
       </c>
       <c r="K24" s="3">
         <v>568500</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3909800</v>
+        <v>3980600</v>
       </c>
       <c r="E26" s="3">
-        <v>3278500</v>
+        <v>3337800</v>
       </c>
       <c r="F26" s="3">
-        <v>1703100</v>
+        <v>1733900</v>
       </c>
       <c r="G26" s="3">
-        <v>3908600</v>
+        <v>3979400</v>
       </c>
       <c r="H26" s="3">
-        <v>3267900</v>
+        <v>3327100</v>
       </c>
       <c r="I26" s="3">
-        <v>3311300</v>
+        <v>3371200</v>
       </c>
       <c r="J26" s="3">
-        <v>2766600</v>
+        <v>2816700</v>
       </c>
       <c r="K26" s="3">
         <v>3009500</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3805600</v>
+        <v>3874500</v>
       </c>
       <c r="E27" s="3">
-        <v>3115700</v>
+        <v>3172100</v>
       </c>
       <c r="F27" s="3">
-        <v>1650400</v>
+        <v>1680200</v>
       </c>
       <c r="G27" s="3">
-        <v>3701300</v>
+        <v>3768300</v>
       </c>
       <c r="H27" s="3">
-        <v>3125000</v>
+        <v>3181600</v>
       </c>
       <c r="I27" s="3">
-        <v>3182400</v>
+        <v>3240000</v>
       </c>
       <c r="J27" s="3">
-        <v>2628400</v>
+        <v>2676000</v>
       </c>
       <c r="K27" s="3">
         <v>2904600</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>414600</v>
+        <v>422100</v>
       </c>
       <c r="I29" s="3">
-        <v>-64400</v>
+        <v>-65600</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-590300</v>
+        <v>-601000</v>
       </c>
       <c r="E32" s="3">
-        <v>-499000</v>
+        <v>-508000</v>
       </c>
       <c r="F32" s="3">
-        <v>-531800</v>
+        <v>-541400</v>
       </c>
       <c r="G32" s="3">
-        <v>-627800</v>
+        <v>-639200</v>
       </c>
       <c r="H32" s="3">
-        <v>-520100</v>
+        <v>-529500</v>
       </c>
       <c r="I32" s="3">
-        <v>-504800</v>
+        <v>-514000</v>
       </c>
       <c r="J32" s="3">
-        <v>-413500</v>
+        <v>-421000</v>
       </c>
       <c r="K32" s="3">
         <v>-355000</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3805600</v>
+        <v>3874500</v>
       </c>
       <c r="E33" s="3">
-        <v>3115700</v>
+        <v>3172100</v>
       </c>
       <c r="F33" s="3">
-        <v>1650400</v>
+        <v>1680200</v>
       </c>
       <c r="G33" s="3">
-        <v>3701300</v>
+        <v>3768300</v>
       </c>
       <c r="H33" s="3">
-        <v>3539700</v>
+        <v>3603800</v>
       </c>
       <c r="I33" s="3">
-        <v>3118000</v>
+        <v>3174500</v>
       </c>
       <c r="J33" s="3">
-        <v>2628400</v>
+        <v>2676000</v>
       </c>
       <c r="K33" s="3">
         <v>2904600</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3805600</v>
+        <v>3874500</v>
       </c>
       <c r="E35" s="3">
-        <v>3115700</v>
+        <v>3172100</v>
       </c>
       <c r="F35" s="3">
-        <v>1650400</v>
+        <v>1680200</v>
       </c>
       <c r="G35" s="3">
-        <v>3701300</v>
+        <v>3768300</v>
       </c>
       <c r="H35" s="3">
-        <v>3539700</v>
+        <v>3603800</v>
       </c>
       <c r="I35" s="3">
-        <v>3118000</v>
+        <v>3174500</v>
       </c>
       <c r="J35" s="3">
-        <v>2628400</v>
+        <v>2676000</v>
       </c>
       <c r="K35" s="3">
         <v>2904600</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2676400</v>
+        <v>2724900</v>
       </c>
       <c r="E41" s="3">
-        <v>3219900</v>
+        <v>3278200</v>
       </c>
       <c r="F41" s="3">
-        <v>3892200</v>
+        <v>3962700</v>
       </c>
       <c r="G41" s="3">
-        <v>1091700</v>
+        <v>1111400</v>
       </c>
       <c r="H41" s="3">
-        <v>1023700</v>
+        <v>1042300</v>
       </c>
       <c r="I41" s="3">
-        <v>1395000</v>
+        <v>1420300</v>
       </c>
       <c r="J41" s="3">
-        <v>1275500</v>
+        <v>1298600</v>
       </c>
       <c r="K41" s="3">
         <v>575800</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>159300</v>
+        <v>162200</v>
       </c>
       <c r="E42" s="3">
-        <v>53900</v>
+        <v>54900</v>
       </c>
       <c r="F42" s="3">
-        <v>85500</v>
+        <v>87100</v>
       </c>
       <c r="G42" s="3">
-        <v>145200</v>
+        <v>147900</v>
       </c>
       <c r="H42" s="3">
-        <v>29300</v>
+        <v>29800</v>
       </c>
       <c r="I42" s="3">
-        <v>28100</v>
+        <v>28600</v>
       </c>
       <c r="J42" s="3">
-        <v>174500</v>
+        <v>177700</v>
       </c>
       <c r="K42" s="3">
         <v>56100</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3270300</v>
+        <v>3329500</v>
       </c>
       <c r="E43" s="3">
-        <v>2787700</v>
+        <v>2838200</v>
       </c>
       <c r="F43" s="3">
-        <v>2511300</v>
+        <v>2556700</v>
       </c>
       <c r="G43" s="3">
-        <v>3016100</v>
+        <v>3070700</v>
       </c>
       <c r="H43" s="3">
-        <v>3029000</v>
+        <v>3083800</v>
       </c>
       <c r="I43" s="3">
-        <v>2849800</v>
+        <v>2901400</v>
       </c>
       <c r="J43" s="3">
-        <v>2924700</v>
+        <v>2977700</v>
       </c>
       <c r="K43" s="3">
         <v>2792400</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8309200</v>
+        <v>8459700</v>
       </c>
       <c r="E44" s="3">
-        <v>7080500</v>
+        <v>7208700</v>
       </c>
       <c r="F44" s="3">
-        <v>6760700</v>
+        <v>6883200</v>
       </c>
       <c r="G44" s="3">
-        <v>6409400</v>
+        <v>6525400</v>
       </c>
       <c r="H44" s="3">
-        <v>5874100</v>
+        <v>5980400</v>
       </c>
       <c r="I44" s="3">
-        <v>5608200</v>
+        <v>5709700</v>
       </c>
       <c r="J44" s="3">
-        <v>5363400</v>
+        <v>5460500</v>
       </c>
       <c r="K44" s="3">
         <v>5579800</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>734400</v>
+        <v>747700</v>
       </c>
       <c r="E45" s="3">
-        <v>263500</v>
+        <v>268300</v>
       </c>
       <c r="F45" s="3">
-        <v>186200</v>
+        <v>189600</v>
       </c>
       <c r="G45" s="3">
-        <v>316300</v>
+        <v>322000</v>
       </c>
       <c r="H45" s="3">
-        <v>223700</v>
+        <v>227800</v>
       </c>
       <c r="I45" s="3">
-        <v>253000</v>
+        <v>257600</v>
       </c>
       <c r="J45" s="3">
-        <v>630200</v>
+        <v>641600</v>
       </c>
       <c r="K45" s="3">
         <v>352600</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15149600</v>
+        <v>15423900</v>
       </c>
       <c r="E46" s="3">
-        <v>13405500</v>
+        <v>13648300</v>
       </c>
       <c r="F46" s="3">
-        <v>13436000</v>
+        <v>13679300</v>
       </c>
       <c r="G46" s="3">
-        <v>10978600</v>
+        <v>11177400</v>
       </c>
       <c r="H46" s="3">
-        <v>10179800</v>
+        <v>10364100</v>
       </c>
       <c r="I46" s="3">
-        <v>10134100</v>
+        <v>10317600</v>
       </c>
       <c r="J46" s="3">
-        <v>10368300</v>
+        <v>10556100</v>
       </c>
       <c r="K46" s="3">
         <v>9356600</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4358400</v>
+        <v>4437300</v>
       </c>
       <c r="E47" s="3">
-        <v>3974200</v>
+        <v>4046200</v>
       </c>
       <c r="F47" s="3">
-        <v>4287000</v>
+        <v>4364600</v>
       </c>
       <c r="G47" s="3">
-        <v>3848900</v>
+        <v>3918600</v>
       </c>
       <c r="H47" s="3">
-        <v>3640400</v>
+        <v>3706300</v>
       </c>
       <c r="I47" s="3">
-        <v>3444800</v>
+        <v>3507200</v>
       </c>
       <c r="J47" s="3">
-        <v>3081700</v>
+        <v>3137500</v>
       </c>
       <c r="K47" s="3">
         <v>3068000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6959900</v>
+        <v>7085900</v>
       </c>
       <c r="E48" s="3">
-        <v>5756900</v>
+        <v>5861200</v>
       </c>
       <c r="F48" s="3">
-        <v>5829600</v>
+        <v>5935100</v>
       </c>
       <c r="G48" s="3">
-        <v>5258000</v>
+        <v>5353200</v>
       </c>
       <c r="H48" s="3">
-        <v>4816400</v>
+        <v>4903600</v>
       </c>
       <c r="I48" s="3">
-        <v>4726200</v>
+        <v>4811800</v>
       </c>
       <c r="J48" s="3">
-        <v>4557500</v>
+        <v>4640100</v>
       </c>
       <c r="K48" s="3">
         <v>4580700</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13940800</v>
+        <v>14193300</v>
       </c>
       <c r="E49" s="3">
-        <v>12607900</v>
+        <v>12836200</v>
       </c>
       <c r="F49" s="3">
-        <v>13235700</v>
+        <v>13475400</v>
       </c>
       <c r="G49" s="3">
-        <v>14708000</v>
+        <v>14974300</v>
       </c>
       <c r="H49" s="3">
-        <v>14725600</v>
+        <v>14992200</v>
       </c>
       <c r="I49" s="3">
-        <v>14718600</v>
+        <v>14985100</v>
       </c>
       <c r="J49" s="3">
-        <v>14489000</v>
+        <v>14751300</v>
       </c>
       <c r="K49" s="3">
         <v>13700700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2362500</v>
+        <v>2405300</v>
       </c>
       <c r="E52" s="3">
-        <v>1682000</v>
+        <v>1712400</v>
       </c>
       <c r="F52" s="3">
-        <v>2225500</v>
+        <v>2265800</v>
       </c>
       <c r="G52" s="3">
-        <v>1863500</v>
+        <v>1897300</v>
       </c>
       <c r="H52" s="3">
-        <v>1443000</v>
+        <v>1469200</v>
       </c>
       <c r="I52" s="3">
-        <v>766000</v>
+        <v>779900</v>
       </c>
       <c r="J52" s="3">
-        <v>875000</v>
+        <v>890800</v>
       </c>
       <c r="K52" s="3">
         <v>772200</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>42771200</v>
+        <v>43545700</v>
       </c>
       <c r="E54" s="3">
-        <v>37426500</v>
+        <v>38104300</v>
       </c>
       <c r="F54" s="3">
-        <v>39013700</v>
+        <v>39720100</v>
       </c>
       <c r="G54" s="3">
-        <v>36657000</v>
+        <v>37320800</v>
       </c>
       <c r="H54" s="3">
-        <v>34805200</v>
+        <v>35435400</v>
       </c>
       <c r="I54" s="3">
-        <v>33789700</v>
+        <v>34401500</v>
       </c>
       <c r="J54" s="3">
-        <v>33371500</v>
+        <v>33975800</v>
       </c>
       <c r="K54" s="3">
         <v>31478300</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3168400</v>
+        <v>3225700</v>
       </c>
       <c r="E57" s="3">
-        <v>2359000</v>
+        <v>2401700</v>
       </c>
       <c r="F57" s="3">
-        <v>1561300</v>
+        <v>1589600</v>
       </c>
       <c r="G57" s="3">
-        <v>1984200</v>
+        <v>2020100</v>
       </c>
       <c r="H57" s="3">
-        <v>1773300</v>
+        <v>1805500</v>
       </c>
       <c r="I57" s="3">
-        <v>1598800</v>
+        <v>1627800</v>
       </c>
       <c r="J57" s="3">
-        <v>1274400</v>
+        <v>1297500</v>
       </c>
       <c r="K57" s="3">
         <v>1077200</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1882300</v>
+        <v>1916400</v>
       </c>
       <c r="E58" s="3">
-        <v>2277000</v>
+        <v>2318200</v>
       </c>
       <c r="F58" s="3">
-        <v>2460900</v>
+        <v>2505500</v>
       </c>
       <c r="G58" s="3">
-        <v>2344900</v>
+        <v>2387400</v>
       </c>
       <c r="H58" s="3">
-        <v>2177400</v>
+        <v>2216900</v>
       </c>
       <c r="I58" s="3">
-        <v>2910700</v>
+        <v>2963400</v>
       </c>
       <c r="J58" s="3">
-        <v>2444500</v>
+        <v>2488800</v>
       </c>
       <c r="K58" s="3">
         <v>2533700</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4837500</v>
+        <v>4925100</v>
       </c>
       <c r="E59" s="3">
-        <v>3729400</v>
+        <v>3797000</v>
       </c>
       <c r="F59" s="3">
-        <v>3586500</v>
+        <v>3651500</v>
       </c>
       <c r="G59" s="3">
-        <v>3873500</v>
+        <v>3943600</v>
       </c>
       <c r="H59" s="3">
-        <v>3498700</v>
+        <v>3562000</v>
       </c>
       <c r="I59" s="3">
-        <v>3291400</v>
+        <v>3351000</v>
       </c>
       <c r="J59" s="3">
-        <v>3528000</v>
+        <v>3591800</v>
       </c>
       <c r="K59" s="3">
         <v>2842400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9888100</v>
+        <v>10067200</v>
       </c>
       <c r="E60" s="3">
-        <v>8365400</v>
+        <v>8516900</v>
       </c>
       <c r="F60" s="3">
-        <v>7608800</v>
+        <v>7746500</v>
       </c>
       <c r="G60" s="3">
-        <v>8202600</v>
+        <v>8351100</v>
       </c>
       <c r="H60" s="3">
-        <v>7449500</v>
+        <v>7584400</v>
       </c>
       <c r="I60" s="3">
-        <v>7800900</v>
+        <v>7942100</v>
       </c>
       <c r="J60" s="3">
-        <v>7246800</v>
+        <v>7378100</v>
       </c>
       <c r="K60" s="3">
         <v>6453300</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17438300</v>
+        <v>17754100</v>
       </c>
       <c r="E61" s="3">
-        <v>15397900</v>
+        <v>15676700</v>
       </c>
       <c r="F61" s="3">
-        <v>17749900</v>
+        <v>18071300</v>
       </c>
       <c r="G61" s="3">
-        <v>12510700</v>
+        <v>12737200</v>
       </c>
       <c r="H61" s="3">
-        <v>9602300</v>
+        <v>9776200</v>
       </c>
       <c r="I61" s="3">
-        <v>7894600</v>
+        <v>8037500</v>
       </c>
       <c r="J61" s="3">
-        <v>9703000</v>
+        <v>9878800</v>
       </c>
       <c r="K61" s="3">
         <v>10198400</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4301000</v>
+        <v>4378900</v>
       </c>
       <c r="E62" s="3">
-        <v>3788000</v>
+        <v>3856600</v>
       </c>
       <c r="F62" s="3">
-        <v>3769200</v>
+        <v>3837500</v>
       </c>
       <c r="G62" s="3">
-        <v>4048000</v>
+        <v>4121300</v>
       </c>
       <c r="H62" s="3">
-        <v>4034000</v>
+        <v>4107000</v>
       </c>
       <c r="I62" s="3">
-        <v>4005800</v>
+        <v>4078400</v>
       </c>
       <c r="J62" s="3">
-        <v>4794100</v>
+        <v>4880900</v>
       </c>
       <c r="K62" s="3">
         <v>3535300</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33637400</v>
+        <v>34246500</v>
       </c>
       <c r="E66" s="3">
-        <v>29348100</v>
+        <v>29879500</v>
       </c>
       <c r="F66" s="3">
-        <v>31081600</v>
+        <v>31644400</v>
       </c>
       <c r="G66" s="3">
-        <v>26863800</v>
+        <v>27350200</v>
       </c>
       <c r="H66" s="3">
-        <v>23153100</v>
+        <v>23572300</v>
       </c>
       <c r="I66" s="3">
-        <v>21710000</v>
+        <v>22103200</v>
       </c>
       <c r="J66" s="3">
-        <v>23380300</v>
+        <v>23803700</v>
       </c>
       <c r="K66" s="3">
         <v>21998500</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10082600</v>
+        <v>10265100</v>
       </c>
       <c r="E72" s="3">
-        <v>9678500</v>
+        <v>9853700</v>
       </c>
       <c r="F72" s="3">
-        <v>8836300</v>
+        <v>8996300</v>
       </c>
       <c r="G72" s="3">
-        <v>10661200</v>
+        <v>10854200</v>
       </c>
       <c r="H72" s="3">
-        <v>12876100</v>
+        <v>13109300</v>
       </c>
       <c r="I72" s="3">
-        <v>12646500</v>
+        <v>12875500</v>
       </c>
       <c r="J72" s="3">
-        <v>10654100</v>
+        <v>10847100</v>
       </c>
       <c r="K72" s="3">
         <v>10988900</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9133800</v>
+        <v>9299200</v>
       </c>
       <c r="E76" s="3">
-        <v>8078500</v>
+        <v>8224700</v>
       </c>
       <c r="F76" s="3">
-        <v>7932000</v>
+        <v>8075700</v>
       </c>
       <c r="G76" s="3">
-        <v>9793200</v>
+        <v>9970600</v>
       </c>
       <c r="H76" s="3">
-        <v>11652100</v>
+        <v>11863100</v>
       </c>
       <c r="I76" s="3">
-        <v>12079600</v>
+        <v>12298400</v>
       </c>
       <c r="J76" s="3">
-        <v>9991200</v>
+        <v>10172100</v>
       </c>
       <c r="K76" s="3">
         <v>9479800</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3805600</v>
+        <v>3874500</v>
       </c>
       <c r="E81" s="3">
-        <v>3115700</v>
+        <v>3172100</v>
       </c>
       <c r="F81" s="3">
-        <v>1650400</v>
+        <v>1680200</v>
       </c>
       <c r="G81" s="3">
-        <v>3701300</v>
+        <v>3768300</v>
       </c>
       <c r="H81" s="3">
-        <v>3539700</v>
+        <v>3603800</v>
       </c>
       <c r="I81" s="3">
-        <v>3118000</v>
+        <v>3174500</v>
       </c>
       <c r="J81" s="3">
-        <v>2628400</v>
+        <v>2676000</v>
       </c>
       <c r="K81" s="3">
         <v>2904600</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>969800</v>
+        <v>987400</v>
       </c>
       <c r="E83" s="3">
-        <v>523600</v>
+        <v>533100</v>
       </c>
       <c r="F83" s="3">
-        <v>2154000</v>
+        <v>2193000</v>
       </c>
       <c r="G83" s="3">
-        <v>438100</v>
+        <v>446000</v>
       </c>
       <c r="H83" s="3">
-        <v>577500</v>
+        <v>587900</v>
       </c>
       <c r="I83" s="3">
-        <v>422800</v>
+        <v>430500</v>
       </c>
       <c r="J83" s="3">
-        <v>554000</v>
+        <v>564100</v>
       </c>
       <c r="K83" s="3">
         <v>536800</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4609100</v>
+        <v>4692500</v>
       </c>
       <c r="E89" s="3">
-        <v>4279900</v>
+        <v>4357400</v>
       </c>
       <c r="F89" s="3">
-        <v>2717400</v>
+        <v>2766600</v>
       </c>
       <c r="G89" s="3">
-        <v>3804400</v>
+        <v>3873300</v>
       </c>
       <c r="H89" s="3">
-        <v>3612300</v>
+        <v>3677700</v>
       </c>
       <c r="I89" s="3">
-        <v>3668500</v>
+        <v>3734900</v>
       </c>
       <c r="J89" s="3">
-        <v>2984500</v>
+        <v>3038500</v>
       </c>
       <c r="K89" s="3">
         <v>3112000</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1284900</v>
+        <v>-1308200</v>
       </c>
       <c r="E91" s="3">
-        <v>-733200</v>
+        <v>-746500</v>
       </c>
       <c r="F91" s="3">
-        <v>-819900</v>
+        <v>-834800</v>
       </c>
       <c r="G91" s="3">
-        <v>-785900</v>
+        <v>-800200</v>
       </c>
       <c r="H91" s="3">
-        <v>-684000</v>
+        <v>-696400</v>
       </c>
       <c r="I91" s="3">
-        <v>-606700</v>
+        <v>-617700</v>
       </c>
       <c r="J91" s="3">
-        <v>-592700</v>
+        <v>-603400</v>
       </c>
       <c r="K91" s="3">
         <v>-778300</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1570700</v>
+        <v>-1599200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1277900</v>
+        <v>-1301000</v>
       </c>
       <c r="F94" s="3">
-        <v>-942900</v>
+        <v>-960000</v>
       </c>
       <c r="G94" s="3">
-        <v>-316300</v>
+        <v>-322000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1348200</v>
+        <v>-1372600</v>
       </c>
       <c r="I94" s="3">
-        <v>-646600</v>
+        <v>-658300</v>
       </c>
       <c r="J94" s="3">
-        <v>698100</v>
+        <v>710700</v>
       </c>
       <c r="K94" s="3">
         <v>-1090600</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2012300</v>
+        <v>-2048700</v>
       </c>
       <c r="E96" s="3">
-        <v>-1928000</v>
+        <v>-1962900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1928000</v>
+        <v>-1962900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1901000</v>
+        <v>-1935400</v>
       </c>
       <c r="H96" s="3">
-        <v>-1851800</v>
+        <v>-1885400</v>
       </c>
       <c r="I96" s="3">
-        <v>-1774500</v>
+        <v>-1806700</v>
       </c>
       <c r="J96" s="3">
-        <v>-1690200</v>
+        <v>-1720800</v>
       </c>
       <c r="K96" s="3">
         <v>-1635900</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3817300</v>
+        <v>-3886400</v>
       </c>
       <c r="E100" s="3">
-        <v>-3272600</v>
+        <v>-3331900</v>
       </c>
       <c r="F100" s="3">
-        <v>1214600</v>
+        <v>1236600</v>
       </c>
       <c r="G100" s="3">
-        <v>-3424900</v>
+        <v>-3486900</v>
       </c>
       <c r="H100" s="3">
-        <v>-2480800</v>
+        <v>-2525700</v>
       </c>
       <c r="I100" s="3">
-        <v>-2879100</v>
+        <v>-2931200</v>
       </c>
       <c r="J100" s="3">
-        <v>-3280800</v>
+        <v>-3340200</v>
       </c>
       <c r="K100" s="3">
         <v>-2115300</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>279900</v>
+        <v>285000</v>
       </c>
       <c r="E101" s="3">
-        <v>-333800</v>
+        <v>-339900</v>
       </c>
       <c r="F101" s="3">
-        <v>-140600</v>
+        <v>-143100</v>
       </c>
       <c r="G101" s="3">
-        <v>-30500</v>
+        <v>-31000</v>
       </c>
       <c r="H101" s="3">
-        <v>-45700</v>
+        <v>-46500</v>
       </c>
       <c r="I101" s="3">
-        <v>-16400</v>
+        <v>-16700</v>
       </c>
       <c r="J101" s="3">
-        <v>98400</v>
+        <v>100200</v>
       </c>
       <c r="K101" s="3">
         <v>-89100</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-499000</v>
+        <v>-508000</v>
       </c>
       <c r="E102" s="3">
-        <v>-604400</v>
+        <v>-615300</v>
       </c>
       <c r="F102" s="3">
-        <v>2848600</v>
+        <v>2900200</v>
       </c>
       <c r="G102" s="3">
-        <v>32800</v>
+        <v>33400</v>
       </c>
       <c r="H102" s="3">
-        <v>-262400</v>
+        <v>-267100</v>
       </c>
       <c r="I102" s="3">
-        <v>126500</v>
+        <v>128800</v>
       </c>
       <c r="J102" s="3">
-        <v>500100</v>
+        <v>509200</v>
       </c>
       <c r="K102" s="3">
         <v>-183000</v>

--- a/AAII_Financials/Yearly/DEO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DEO_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18426700</v>
+        <v>19172800</v>
       </c>
       <c r="E8" s="3">
-        <v>15184200</v>
+        <v>15799100</v>
       </c>
       <c r="F8" s="3">
-        <v>14014400</v>
+        <v>14581900</v>
       </c>
       <c r="G8" s="3">
-        <v>15344000</v>
+        <v>15965400</v>
       </c>
       <c r="H8" s="3">
-        <v>14504500</v>
+        <v>15091900</v>
       </c>
       <c r="I8" s="3">
-        <v>14369700</v>
+        <v>14951600</v>
       </c>
       <c r="J8" s="3">
-        <v>12503500</v>
+        <v>13009800</v>
       </c>
       <c r="K8" s="3">
         <v>13190800</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7122900</v>
+        <v>7411300</v>
       </c>
       <c r="E9" s="3">
-        <v>6007900</v>
+        <v>6251200</v>
       </c>
       <c r="F9" s="3">
-        <v>5549900</v>
+        <v>5774700</v>
       </c>
       <c r="G9" s="3">
-        <v>5802800</v>
+        <v>6037700</v>
       </c>
       <c r="H9" s="3">
-        <v>5526100</v>
+        <v>5749900</v>
       </c>
       <c r="I9" s="3">
-        <v>5580900</v>
+        <v>5806900</v>
       </c>
       <c r="J9" s="3">
-        <v>5069400</v>
+        <v>5274600</v>
       </c>
       <c r="K9" s="3">
         <v>5593200</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11303800</v>
+        <v>11761500</v>
       </c>
       <c r="E10" s="3">
-        <v>9176400</v>
+        <v>9548000</v>
       </c>
       <c r="F10" s="3">
-        <v>8464400</v>
+        <v>8807200</v>
       </c>
       <c r="G10" s="3">
-        <v>9541300</v>
+        <v>9927600</v>
       </c>
       <c r="H10" s="3">
-        <v>8978400</v>
+        <v>9342000</v>
       </c>
       <c r="I10" s="3">
-        <v>8788800</v>
+        <v>9144700</v>
       </c>
       <c r="J10" s="3">
-        <v>7434100</v>
+        <v>7735100</v>
       </c>
       <c r="K10" s="3">
         <v>7597500</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>523500</v>
+        <v>544700</v>
       </c>
       <c r="E14" s="3">
         <v>-1200</v>
       </c>
       <c r="F14" s="3">
-        <v>1744600</v>
+        <v>1815300</v>
       </c>
       <c r="G14" s="3">
-        <v>-83500</v>
+        <v>-86900</v>
       </c>
       <c r="H14" s="3">
-        <v>152600</v>
+        <v>158800</v>
       </c>
       <c r="I14" s="3">
-        <v>26200</v>
+        <v>27300</v>
       </c>
       <c r="J14" s="3">
-        <v>52500</v>
+        <v>54600</v>
       </c>
       <c r="K14" s="3">
         <v>-126900</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13229700</v>
+        <v>13765400</v>
       </c>
       <c r="E17" s="3">
-        <v>10718300</v>
+        <v>11152300</v>
       </c>
       <c r="F17" s="3">
-        <v>11493400</v>
+        <v>11958800</v>
       </c>
       <c r="G17" s="3">
-        <v>10362900</v>
+        <v>10782600</v>
       </c>
       <c r="H17" s="3">
-        <v>10102900</v>
+        <v>10512100</v>
       </c>
       <c r="I17" s="3">
-        <v>10101800</v>
+        <v>10510800</v>
       </c>
       <c r="J17" s="3">
-        <v>8968900</v>
+        <v>9332100</v>
       </c>
       <c r="K17" s="3">
         <v>9323700</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5197000</v>
+        <v>5407400</v>
       </c>
       <c r="E18" s="3">
-        <v>4465900</v>
+        <v>4646800</v>
       </c>
       <c r="F18" s="3">
-        <v>2521000</v>
+        <v>2623100</v>
       </c>
       <c r="G18" s="3">
-        <v>4981100</v>
+        <v>5182800</v>
       </c>
       <c r="H18" s="3">
-        <v>4401600</v>
+        <v>4579800</v>
       </c>
       <c r="I18" s="3">
-        <v>4268000</v>
+        <v>4440800</v>
       </c>
       <c r="J18" s="3">
-        <v>3534600</v>
+        <v>3677700</v>
       </c>
       <c r="K18" s="3">
         <v>3867100</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>601000</v>
+        <v>625400</v>
       </c>
       <c r="E20" s="3">
-        <v>508000</v>
+        <v>528600</v>
       </c>
       <c r="F20" s="3">
-        <v>541400</v>
+        <v>563300</v>
       </c>
       <c r="G20" s="3">
-        <v>639200</v>
+        <v>665100</v>
       </c>
       <c r="H20" s="3">
-        <v>529500</v>
+        <v>550900</v>
       </c>
       <c r="I20" s="3">
-        <v>514000</v>
+        <v>534800</v>
       </c>
       <c r="J20" s="3">
-        <v>421000</v>
+        <v>438000</v>
       </c>
       <c r="K20" s="3">
         <v>355000</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6778500</v>
+        <v>7066600</v>
       </c>
       <c r="E21" s="3">
-        <v>5503300</v>
+        <v>5733500</v>
       </c>
       <c r="F21" s="3">
-        <v>5240100</v>
+        <v>5482500</v>
       </c>
       <c r="G21" s="3">
-        <v>6063200</v>
+        <v>6314900</v>
       </c>
       <c r="H21" s="3">
-        <v>5514800</v>
+        <v>5746300</v>
       </c>
       <c r="I21" s="3">
-        <v>5209500</v>
+        <v>5426400</v>
       </c>
       <c r="J21" s="3">
-        <v>4515700</v>
+        <v>4706300</v>
       </c>
       <c r="K21" s="3">
         <v>4761100</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>566400</v>
+        <v>589400</v>
       </c>
       <c r="E22" s="3">
-        <v>554500</v>
+        <v>577000</v>
       </c>
       <c r="F22" s="3">
-        <v>626100</v>
+        <v>651400</v>
       </c>
       <c r="G22" s="3">
-        <v>570000</v>
+        <v>593100</v>
       </c>
       <c r="H22" s="3">
-        <v>471000</v>
+        <v>490100</v>
       </c>
       <c r="I22" s="3">
-        <v>537800</v>
+        <v>559600</v>
       </c>
       <c r="J22" s="3">
-        <v>547400</v>
+        <v>569500</v>
       </c>
       <c r="K22" s="3">
         <v>644100</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5231500</v>
+        <v>5443400</v>
       </c>
       <c r="E23" s="3">
-        <v>4419400</v>
+        <v>4598400</v>
       </c>
       <c r="F23" s="3">
-        <v>2436300</v>
+        <v>2535000</v>
       </c>
       <c r="G23" s="3">
-        <v>5050300</v>
+        <v>5254800</v>
       </c>
       <c r="H23" s="3">
-        <v>4460000</v>
+        <v>4640600</v>
       </c>
       <c r="I23" s="3">
-        <v>4244100</v>
+        <v>4416000</v>
       </c>
       <c r="J23" s="3">
-        <v>3408200</v>
+        <v>3546200</v>
       </c>
       <c r="K23" s="3">
         <v>3578000</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1250900</v>
+        <v>1301600</v>
       </c>
       <c r="E24" s="3">
-        <v>1081600</v>
+        <v>1125400</v>
       </c>
       <c r="F24" s="3">
-        <v>702400</v>
+        <v>730800</v>
       </c>
       <c r="G24" s="3">
-        <v>1070900</v>
+        <v>1114200</v>
       </c>
       <c r="H24" s="3">
-        <v>1132900</v>
+        <v>1178800</v>
       </c>
       <c r="I24" s="3">
-        <v>872900</v>
+        <v>908300</v>
       </c>
       <c r="J24" s="3">
-        <v>591500</v>
+        <v>615400</v>
       </c>
       <c r="K24" s="3">
         <v>568500</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3980600</v>
+        <v>4141800</v>
       </c>
       <c r="E26" s="3">
-        <v>3337800</v>
+        <v>3473000</v>
       </c>
       <c r="F26" s="3">
-        <v>1733900</v>
+        <v>1804100</v>
       </c>
       <c r="G26" s="3">
-        <v>3979400</v>
+        <v>4140500</v>
       </c>
       <c r="H26" s="3">
-        <v>3327100</v>
+        <v>3461800</v>
       </c>
       <c r="I26" s="3">
-        <v>3371200</v>
+        <v>3507700</v>
       </c>
       <c r="J26" s="3">
-        <v>2816700</v>
+        <v>2930800</v>
       </c>
       <c r="K26" s="3">
         <v>3009500</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3874500</v>
+        <v>4031400</v>
       </c>
       <c r="E27" s="3">
-        <v>3172100</v>
+        <v>3300500</v>
       </c>
       <c r="F27" s="3">
-        <v>1680200</v>
+        <v>1748300</v>
       </c>
       <c r="G27" s="3">
-        <v>3768300</v>
+        <v>3920900</v>
       </c>
       <c r="H27" s="3">
-        <v>3181600</v>
+        <v>3310500</v>
       </c>
       <c r="I27" s="3">
-        <v>3240000</v>
+        <v>3371300</v>
       </c>
       <c r="J27" s="3">
-        <v>2676000</v>
+        <v>2784400</v>
       </c>
       <c r="K27" s="3">
         <v>2904600</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>422100</v>
+        <v>439200</v>
       </c>
       <c r="I29" s="3">
-        <v>-65600</v>
+        <v>-68200</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-601000</v>
+        <v>-625400</v>
       </c>
       <c r="E32" s="3">
-        <v>-508000</v>
+        <v>-528600</v>
       </c>
       <c r="F32" s="3">
-        <v>-541400</v>
+        <v>-563300</v>
       </c>
       <c r="G32" s="3">
-        <v>-639200</v>
+        <v>-665100</v>
       </c>
       <c r="H32" s="3">
-        <v>-529500</v>
+        <v>-550900</v>
       </c>
       <c r="I32" s="3">
-        <v>-514000</v>
+        <v>-534800</v>
       </c>
       <c r="J32" s="3">
-        <v>-421000</v>
+        <v>-438000</v>
       </c>
       <c r="K32" s="3">
         <v>-355000</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3874500</v>
+        <v>4031400</v>
       </c>
       <c r="E33" s="3">
-        <v>3172100</v>
+        <v>3300500</v>
       </c>
       <c r="F33" s="3">
-        <v>1680200</v>
+        <v>1748300</v>
       </c>
       <c r="G33" s="3">
-        <v>3768300</v>
+        <v>3920900</v>
       </c>
       <c r="H33" s="3">
-        <v>3603800</v>
+        <v>3749700</v>
       </c>
       <c r="I33" s="3">
-        <v>3174500</v>
+        <v>3303000</v>
       </c>
       <c r="J33" s="3">
-        <v>2676000</v>
+        <v>2784400</v>
       </c>
       <c r="K33" s="3">
         <v>2904600</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3874500</v>
+        <v>4031400</v>
       </c>
       <c r="E35" s="3">
-        <v>3172100</v>
+        <v>3300500</v>
       </c>
       <c r="F35" s="3">
-        <v>1680200</v>
+        <v>1748300</v>
       </c>
       <c r="G35" s="3">
-        <v>3768300</v>
+        <v>3920900</v>
       </c>
       <c r="H35" s="3">
-        <v>3603800</v>
+        <v>3749700</v>
       </c>
       <c r="I35" s="3">
-        <v>3174500</v>
+        <v>3303000</v>
       </c>
       <c r="J35" s="3">
-        <v>2676000</v>
+        <v>2784400</v>
       </c>
       <c r="K35" s="3">
         <v>2904600</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2724900</v>
+        <v>2835200</v>
       </c>
       <c r="E41" s="3">
-        <v>3278200</v>
+        <v>3411000</v>
       </c>
       <c r="F41" s="3">
-        <v>3962700</v>
+        <v>4123200</v>
       </c>
       <c r="G41" s="3">
-        <v>1111400</v>
+        <v>1156400</v>
       </c>
       <c r="H41" s="3">
-        <v>1042300</v>
+        <v>1084500</v>
       </c>
       <c r="I41" s="3">
-        <v>1420300</v>
+        <v>1477800</v>
       </c>
       <c r="J41" s="3">
-        <v>1298600</v>
+        <v>1351200</v>
       </c>
       <c r="K41" s="3">
         <v>575800</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>162200</v>
+        <v>168700</v>
       </c>
       <c r="E42" s="3">
-        <v>54900</v>
+        <v>57100</v>
       </c>
       <c r="F42" s="3">
-        <v>87100</v>
+        <v>90600</v>
       </c>
       <c r="G42" s="3">
-        <v>147900</v>
+        <v>153900</v>
       </c>
       <c r="H42" s="3">
+        <v>31000</v>
+      </c>
+      <c r="I42" s="3">
         <v>29800</v>
       </c>
-      <c r="I42" s="3">
-        <v>28600</v>
-      </c>
       <c r="J42" s="3">
-        <v>177700</v>
+        <v>184900</v>
       </c>
       <c r="K42" s="3">
         <v>56100</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3329500</v>
+        <v>3464300</v>
       </c>
       <c r="E43" s="3">
-        <v>2838200</v>
+        <v>2953100</v>
       </c>
       <c r="F43" s="3">
-        <v>2556700</v>
+        <v>2660300</v>
       </c>
       <c r="G43" s="3">
-        <v>3070700</v>
+        <v>3195100</v>
       </c>
       <c r="H43" s="3">
-        <v>3083800</v>
+        <v>3208700</v>
       </c>
       <c r="I43" s="3">
-        <v>2901400</v>
+        <v>3018900</v>
       </c>
       <c r="J43" s="3">
-        <v>2977700</v>
+        <v>3098300</v>
       </c>
       <c r="K43" s="3">
         <v>2792400</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8459700</v>
+        <v>8802200</v>
       </c>
       <c r="E44" s="3">
-        <v>7208700</v>
+        <v>7500600</v>
       </c>
       <c r="F44" s="3">
-        <v>6883200</v>
+        <v>7161900</v>
       </c>
       <c r="G44" s="3">
-        <v>6525400</v>
+        <v>6789700</v>
       </c>
       <c r="H44" s="3">
-        <v>5980400</v>
+        <v>6222600</v>
       </c>
       <c r="I44" s="3">
-        <v>5709700</v>
+        <v>5941000</v>
       </c>
       <c r="J44" s="3">
-        <v>5460500</v>
+        <v>5681600</v>
       </c>
       <c r="K44" s="3">
         <v>5579800</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>747700</v>
+        <v>778000</v>
       </c>
       <c r="E45" s="3">
-        <v>268300</v>
+        <v>279200</v>
       </c>
       <c r="F45" s="3">
-        <v>189600</v>
+        <v>197300</v>
       </c>
       <c r="G45" s="3">
-        <v>322000</v>
+        <v>335000</v>
       </c>
       <c r="H45" s="3">
-        <v>227800</v>
+        <v>237000</v>
       </c>
       <c r="I45" s="3">
-        <v>257600</v>
+        <v>268000</v>
       </c>
       <c r="J45" s="3">
-        <v>641600</v>
+        <v>667600</v>
       </c>
       <c r="K45" s="3">
         <v>352600</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15423900</v>
+        <v>16048500</v>
       </c>
       <c r="E46" s="3">
-        <v>13648300</v>
+        <v>14201000</v>
       </c>
       <c r="F46" s="3">
-        <v>13679300</v>
+        <v>14233200</v>
       </c>
       <c r="G46" s="3">
-        <v>11177400</v>
+        <v>11630000</v>
       </c>
       <c r="H46" s="3">
-        <v>10364100</v>
+        <v>10783800</v>
       </c>
       <c r="I46" s="3">
-        <v>10317600</v>
+        <v>10735400</v>
       </c>
       <c r="J46" s="3">
-        <v>10556100</v>
+        <v>10983600</v>
       </c>
       <c r="K46" s="3">
         <v>9356600</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4437300</v>
+        <v>4617000</v>
       </c>
       <c r="E47" s="3">
-        <v>4046200</v>
+        <v>4210000</v>
       </c>
       <c r="F47" s="3">
-        <v>4364600</v>
+        <v>4541300</v>
       </c>
       <c r="G47" s="3">
-        <v>3918600</v>
+        <v>4077300</v>
       </c>
       <c r="H47" s="3">
-        <v>3706300</v>
+        <v>3856400</v>
       </c>
       <c r="I47" s="3">
-        <v>3507200</v>
+        <v>3649200</v>
       </c>
       <c r="J47" s="3">
-        <v>3137500</v>
+        <v>3264500</v>
       </c>
       <c r="K47" s="3">
         <v>3068000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7085900</v>
+        <v>7372800</v>
       </c>
       <c r="E48" s="3">
-        <v>5861200</v>
+        <v>6098500</v>
       </c>
       <c r="F48" s="3">
-        <v>5935100</v>
+        <v>6175500</v>
       </c>
       <c r="G48" s="3">
-        <v>5353200</v>
+        <v>5570000</v>
       </c>
       <c r="H48" s="3">
-        <v>4903600</v>
+        <v>5102200</v>
       </c>
       <c r="I48" s="3">
-        <v>4811800</v>
+        <v>5006600</v>
       </c>
       <c r="J48" s="3">
-        <v>4640100</v>
+        <v>4828000</v>
       </c>
       <c r="K48" s="3">
         <v>4580700</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14193300</v>
+        <v>14768000</v>
       </c>
       <c r="E49" s="3">
-        <v>12836200</v>
+        <v>13356000</v>
       </c>
       <c r="F49" s="3">
-        <v>13475400</v>
+        <v>14021000</v>
       </c>
       <c r="G49" s="3">
-        <v>14974300</v>
+        <v>15580700</v>
       </c>
       <c r="H49" s="3">
-        <v>14992200</v>
+        <v>15599300</v>
       </c>
       <c r="I49" s="3">
-        <v>14985100</v>
+        <v>15591900</v>
       </c>
       <c r="J49" s="3">
-        <v>14751300</v>
+        <v>15348700</v>
       </c>
       <c r="K49" s="3">
         <v>13700700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2405300</v>
+        <v>2502700</v>
       </c>
       <c r="E52" s="3">
-        <v>1712400</v>
+        <v>1781800</v>
       </c>
       <c r="F52" s="3">
-        <v>2265800</v>
+        <v>2357500</v>
       </c>
       <c r="G52" s="3">
-        <v>1897300</v>
+        <v>1974100</v>
       </c>
       <c r="H52" s="3">
-        <v>1469200</v>
+        <v>1528700</v>
       </c>
       <c r="I52" s="3">
-        <v>779900</v>
+        <v>811500</v>
       </c>
       <c r="J52" s="3">
-        <v>890800</v>
+        <v>926900</v>
       </c>
       <c r="K52" s="3">
         <v>772200</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>43545700</v>
+        <v>45309100</v>
       </c>
       <c r="E54" s="3">
-        <v>38104300</v>
+        <v>39647300</v>
       </c>
       <c r="F54" s="3">
-        <v>39720100</v>
+        <v>41328600</v>
       </c>
       <c r="G54" s="3">
-        <v>37320800</v>
+        <v>38832100</v>
       </c>
       <c r="H54" s="3">
-        <v>35435400</v>
+        <v>36870400</v>
       </c>
       <c r="I54" s="3">
-        <v>34401500</v>
+        <v>35794600</v>
       </c>
       <c r="J54" s="3">
-        <v>33975800</v>
+        <v>35351600</v>
       </c>
       <c r="K54" s="3">
         <v>31478300</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3225700</v>
+        <v>3356400</v>
       </c>
       <c r="E57" s="3">
-        <v>2401700</v>
+        <v>2499000</v>
       </c>
       <c r="F57" s="3">
-        <v>1589600</v>
+        <v>1654000</v>
       </c>
       <c r="G57" s="3">
-        <v>2020100</v>
+        <v>2101900</v>
       </c>
       <c r="H57" s="3">
-        <v>1805500</v>
+        <v>1878600</v>
       </c>
       <c r="I57" s="3">
-        <v>1627800</v>
+        <v>1693700</v>
       </c>
       <c r="J57" s="3">
-        <v>1297500</v>
+        <v>1350000</v>
       </c>
       <c r="K57" s="3">
         <v>1077200</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1916400</v>
+        <v>1994000</v>
       </c>
       <c r="E58" s="3">
-        <v>2318200</v>
+        <v>2412100</v>
       </c>
       <c r="F58" s="3">
-        <v>2505500</v>
+        <v>2606900</v>
       </c>
       <c r="G58" s="3">
-        <v>2387400</v>
+        <v>2484100</v>
       </c>
       <c r="H58" s="3">
-        <v>2216900</v>
+        <v>2306600</v>
       </c>
       <c r="I58" s="3">
-        <v>2963400</v>
+        <v>3083400</v>
       </c>
       <c r="J58" s="3">
-        <v>2488800</v>
+        <v>2589500</v>
       </c>
       <c r="K58" s="3">
         <v>2533700</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4925100</v>
+        <v>5124500</v>
       </c>
       <c r="E59" s="3">
-        <v>3797000</v>
+        <v>3950700</v>
       </c>
       <c r="F59" s="3">
-        <v>3651500</v>
+        <v>3799300</v>
       </c>
       <c r="G59" s="3">
-        <v>3943600</v>
+        <v>4103300</v>
       </c>
       <c r="H59" s="3">
-        <v>3562000</v>
+        <v>3706300</v>
       </c>
       <c r="I59" s="3">
-        <v>3351000</v>
+        <v>3486600</v>
       </c>
       <c r="J59" s="3">
-        <v>3591800</v>
+        <v>3737300</v>
       </c>
       <c r="K59" s="3">
         <v>2842400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10067200</v>
+        <v>10474800</v>
       </c>
       <c r="E60" s="3">
-        <v>8516900</v>
+        <v>8861800</v>
       </c>
       <c r="F60" s="3">
-        <v>7746500</v>
+        <v>8060200</v>
       </c>
       <c r="G60" s="3">
-        <v>8351100</v>
+        <v>8689300</v>
       </c>
       <c r="H60" s="3">
-        <v>7584400</v>
+        <v>7891500</v>
       </c>
       <c r="I60" s="3">
-        <v>7942100</v>
+        <v>8263700</v>
       </c>
       <c r="J60" s="3">
-        <v>7378100</v>
+        <v>7676800</v>
       </c>
       <c r="K60" s="3">
         <v>6453300</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17754100</v>
+        <v>18473000</v>
       </c>
       <c r="E61" s="3">
-        <v>15676700</v>
+        <v>16311600</v>
       </c>
       <c r="F61" s="3">
-        <v>18071300</v>
+        <v>18803100</v>
       </c>
       <c r="G61" s="3">
-        <v>12737200</v>
+        <v>13253000</v>
       </c>
       <c r="H61" s="3">
-        <v>9776200</v>
+        <v>10172100</v>
       </c>
       <c r="I61" s="3">
-        <v>8037500</v>
+        <v>8363000</v>
       </c>
       <c r="J61" s="3">
-        <v>9878800</v>
+        <v>10278800</v>
       </c>
       <c r="K61" s="3">
         <v>10198400</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4378900</v>
+        <v>4556200</v>
       </c>
       <c r="E62" s="3">
-        <v>3856600</v>
+        <v>4012700</v>
       </c>
       <c r="F62" s="3">
-        <v>3837500</v>
+        <v>3992900</v>
       </c>
       <c r="G62" s="3">
-        <v>4121300</v>
+        <v>4288200</v>
       </c>
       <c r="H62" s="3">
-        <v>4107000</v>
+        <v>4273300</v>
       </c>
       <c r="I62" s="3">
-        <v>4078400</v>
+        <v>4243500</v>
       </c>
       <c r="J62" s="3">
-        <v>4880900</v>
+        <v>5078600</v>
       </c>
       <c r="K62" s="3">
         <v>3535300</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>34246500</v>
+        <v>35633300</v>
       </c>
       <c r="E66" s="3">
-        <v>29879500</v>
+        <v>31089500</v>
       </c>
       <c r="F66" s="3">
-        <v>31644400</v>
+        <v>32925900</v>
       </c>
       <c r="G66" s="3">
-        <v>27350200</v>
+        <v>28457700</v>
       </c>
       <c r="H66" s="3">
-        <v>23572300</v>
+        <v>24526900</v>
       </c>
       <c r="I66" s="3">
-        <v>22103200</v>
+        <v>22998200</v>
       </c>
       <c r="J66" s="3">
-        <v>23803700</v>
+        <v>24767600</v>
       </c>
       <c r="K66" s="3">
         <v>21998500</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10265100</v>
+        <v>10680800</v>
       </c>
       <c r="E72" s="3">
-        <v>9853700</v>
+        <v>10252700</v>
       </c>
       <c r="F72" s="3">
-        <v>8996300</v>
+        <v>9360600</v>
       </c>
       <c r="G72" s="3">
-        <v>10854200</v>
+        <v>11293800</v>
       </c>
       <c r="H72" s="3">
-        <v>13109300</v>
+        <v>13640100</v>
       </c>
       <c r="I72" s="3">
-        <v>12875500</v>
+        <v>13396900</v>
       </c>
       <c r="J72" s="3">
-        <v>10847100</v>
+        <v>11286300</v>
       </c>
       <c r="K72" s="3">
         <v>10988900</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9299200</v>
+        <v>9675800</v>
       </c>
       <c r="E76" s="3">
-        <v>8224700</v>
+        <v>8557800</v>
       </c>
       <c r="F76" s="3">
-        <v>8075700</v>
+        <v>8402700</v>
       </c>
       <c r="G76" s="3">
-        <v>9970600</v>
+        <v>10374300</v>
       </c>
       <c r="H76" s="3">
-        <v>11863100</v>
+        <v>12343500</v>
       </c>
       <c r="I76" s="3">
-        <v>12298400</v>
+        <v>12796400</v>
       </c>
       <c r="J76" s="3">
-        <v>10172100</v>
+        <v>10584000</v>
       </c>
       <c r="K76" s="3">
         <v>9479800</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3874500</v>
+        <v>4031400</v>
       </c>
       <c r="E81" s="3">
-        <v>3172100</v>
+        <v>3300500</v>
       </c>
       <c r="F81" s="3">
-        <v>1680200</v>
+        <v>1748300</v>
       </c>
       <c r="G81" s="3">
-        <v>3768300</v>
+        <v>3920900</v>
       </c>
       <c r="H81" s="3">
-        <v>3603800</v>
+        <v>3749700</v>
       </c>
       <c r="I81" s="3">
-        <v>3174500</v>
+        <v>3303000</v>
       </c>
       <c r="J81" s="3">
-        <v>2676000</v>
+        <v>2784400</v>
       </c>
       <c r="K81" s="3">
         <v>2904600</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>987400</v>
+        <v>1027400</v>
       </c>
       <c r="E83" s="3">
-        <v>533100</v>
+        <v>554600</v>
       </c>
       <c r="F83" s="3">
-        <v>2193000</v>
+        <v>2281800</v>
       </c>
       <c r="G83" s="3">
-        <v>446000</v>
+        <v>464100</v>
       </c>
       <c r="H83" s="3">
-        <v>587900</v>
+        <v>611700</v>
       </c>
       <c r="I83" s="3">
-        <v>430500</v>
+        <v>447900</v>
       </c>
       <c r="J83" s="3">
-        <v>564100</v>
+        <v>586900</v>
       </c>
       <c r="K83" s="3">
         <v>536800</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4692500</v>
+        <v>4882500</v>
       </c>
       <c r="E89" s="3">
-        <v>4357400</v>
+        <v>4533900</v>
       </c>
       <c r="F89" s="3">
-        <v>2766600</v>
+        <v>2878700</v>
       </c>
       <c r="G89" s="3">
-        <v>3873300</v>
+        <v>4030100</v>
       </c>
       <c r="H89" s="3">
-        <v>3677700</v>
+        <v>3826600</v>
       </c>
       <c r="I89" s="3">
-        <v>3734900</v>
+        <v>3886200</v>
       </c>
       <c r="J89" s="3">
-        <v>3038500</v>
+        <v>3161600</v>
       </c>
       <c r="K89" s="3">
         <v>3112000</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1308200</v>
+        <v>-1361200</v>
       </c>
       <c r="E91" s="3">
-        <v>-746500</v>
+        <v>-776700</v>
       </c>
       <c r="F91" s="3">
-        <v>-834800</v>
+        <v>-868600</v>
       </c>
       <c r="G91" s="3">
-        <v>-800200</v>
+        <v>-832600</v>
       </c>
       <c r="H91" s="3">
-        <v>-696400</v>
+        <v>-724600</v>
       </c>
       <c r="I91" s="3">
-        <v>-617700</v>
+        <v>-642700</v>
       </c>
       <c r="J91" s="3">
-        <v>-603400</v>
+        <v>-627800</v>
       </c>
       <c r="K91" s="3">
         <v>-778300</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1599200</v>
+        <v>-1663900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1301000</v>
+        <v>-1353700</v>
       </c>
       <c r="F94" s="3">
-        <v>-960000</v>
+        <v>-998800</v>
       </c>
       <c r="G94" s="3">
-        <v>-322000</v>
+        <v>-335000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1372600</v>
+        <v>-1428200</v>
       </c>
       <c r="I94" s="3">
-        <v>-658300</v>
+        <v>-684900</v>
       </c>
       <c r="J94" s="3">
-        <v>710700</v>
+        <v>739500</v>
       </c>
       <c r="K94" s="3">
         <v>-1090600</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2048700</v>
+        <v>-2131700</v>
       </c>
       <c r="E96" s="3">
-        <v>-1962900</v>
+        <v>-2042400</v>
       </c>
       <c r="F96" s="3">
-        <v>-1962900</v>
+        <v>-2042400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1935400</v>
+        <v>-2013800</v>
       </c>
       <c r="H96" s="3">
-        <v>-1885400</v>
+        <v>-1961700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1806700</v>
+        <v>-1879800</v>
       </c>
       <c r="J96" s="3">
-        <v>-1720800</v>
+        <v>-1790500</v>
       </c>
       <c r="K96" s="3">
         <v>-1635900</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3886400</v>
+        <v>-4043800</v>
       </c>
       <c r="E100" s="3">
-        <v>-3331900</v>
+        <v>-3466800</v>
       </c>
       <c r="F100" s="3">
-        <v>1236600</v>
+        <v>1286700</v>
       </c>
       <c r="G100" s="3">
-        <v>-3486900</v>
+        <v>-3628100</v>
       </c>
       <c r="H100" s="3">
-        <v>-2525700</v>
+        <v>-2628000</v>
       </c>
       <c r="I100" s="3">
-        <v>-2931200</v>
+        <v>-3049900</v>
       </c>
       <c r="J100" s="3">
-        <v>-3340200</v>
+        <v>-3475500</v>
       </c>
       <c r="K100" s="3">
         <v>-2115300</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>285000</v>
+        <v>296600</v>
       </c>
       <c r="E101" s="3">
-        <v>-339900</v>
+        <v>-353600</v>
       </c>
       <c r="F101" s="3">
-        <v>-143100</v>
+        <v>-148900</v>
       </c>
       <c r="G101" s="3">
-        <v>-31000</v>
+        <v>-32300</v>
       </c>
       <c r="H101" s="3">
-        <v>-46500</v>
+        <v>-48400</v>
       </c>
       <c r="I101" s="3">
-        <v>-16700</v>
+        <v>-17400</v>
       </c>
       <c r="J101" s="3">
-        <v>100200</v>
+        <v>104200</v>
       </c>
       <c r="K101" s="3">
         <v>-89100</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-508000</v>
+        <v>-528600</v>
       </c>
       <c r="E102" s="3">
-        <v>-615300</v>
+        <v>-640300</v>
       </c>
       <c r="F102" s="3">
-        <v>2900200</v>
+        <v>3017600</v>
       </c>
       <c r="G102" s="3">
-        <v>33400</v>
+        <v>34700</v>
       </c>
       <c r="H102" s="3">
-        <v>-267100</v>
+        <v>-277900</v>
       </c>
       <c r="I102" s="3">
-        <v>128800</v>
+        <v>134000</v>
       </c>
       <c r="J102" s="3">
-        <v>509200</v>
+        <v>529800</v>
       </c>
       <c r="K102" s="3">
         <v>-183000</v>

--- a/AAII_Financials/Yearly/DEO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DEO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>DEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42185</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41820</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41455</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41090</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19172800</v>
+        <v>21687300</v>
       </c>
       <c r="E8" s="3">
-        <v>15799100</v>
+        <v>19582300</v>
       </c>
       <c r="F8" s="3">
-        <v>14581900</v>
+        <v>16136500</v>
       </c>
       <c r="G8" s="3">
-        <v>15965400</v>
+        <v>14893300</v>
       </c>
       <c r="H8" s="3">
-        <v>15091900</v>
+        <v>16306300</v>
       </c>
       <c r="I8" s="3">
-        <v>14951600</v>
+        <v>15414200</v>
       </c>
       <c r="J8" s="3">
+        <v>15271000</v>
+      </c>
+      <c r="K8" s="3">
         <v>13009800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13190800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14516200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13920800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13876600</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7411300</v>
+        <v>8743100</v>
       </c>
       <c r="E9" s="3">
-        <v>6251200</v>
+        <v>7569600</v>
       </c>
       <c r="F9" s="3">
-        <v>5774700</v>
+        <v>6384700</v>
       </c>
       <c r="G9" s="3">
-        <v>6037700</v>
+        <v>5898000</v>
       </c>
       <c r="H9" s="3">
-        <v>5749900</v>
+        <v>6166700</v>
       </c>
       <c r="I9" s="3">
-        <v>5806900</v>
+        <v>5872700</v>
       </c>
       <c r="J9" s="3">
+        <v>5931000</v>
+      </c>
+      <c r="K9" s="3">
         <v>5274600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5593200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5668900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5438700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5488500</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11761500</v>
+        <v>12944200</v>
       </c>
       <c r="E10" s="3">
-        <v>9548000</v>
+        <v>12012700</v>
       </c>
       <c r="F10" s="3">
-        <v>8807200</v>
+        <v>9751900</v>
       </c>
       <c r="G10" s="3">
-        <v>9927600</v>
+        <v>8995300</v>
       </c>
       <c r="H10" s="3">
-        <v>9342000</v>
+        <v>10139700</v>
       </c>
       <c r="I10" s="3">
-        <v>9144700</v>
+        <v>9541500</v>
       </c>
       <c r="J10" s="3">
+        <v>9340000</v>
+      </c>
+      <c r="K10" s="3">
         <v>7735100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7597500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8847300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8482000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8388000</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,48 +944,54 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>544700</v>
+        <v>372600</v>
       </c>
       <c r="E14" s="3">
-        <v>-1200</v>
+        <v>556300</v>
       </c>
       <c r="F14" s="3">
-        <v>1815300</v>
+        <v>-1300</v>
       </c>
       <c r="G14" s="3">
-        <v>-86900</v>
+        <v>1854100</v>
       </c>
       <c r="H14" s="3">
-        <v>158800</v>
+        <v>-88700</v>
       </c>
       <c r="I14" s="3">
-        <v>27300</v>
+        <v>162200</v>
       </c>
       <c r="J14" s="3">
+        <v>27900</v>
+      </c>
+      <c r="K14" s="3">
         <v>54600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-126900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>406100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>102200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-191700</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,9 +1028,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13765400</v>
+        <v>15401500</v>
       </c>
       <c r="E17" s="3">
-        <v>11152300</v>
+        <v>14059400</v>
       </c>
       <c r="F17" s="3">
-        <v>11958800</v>
+        <v>11390500</v>
       </c>
       <c r="G17" s="3">
-        <v>10782600</v>
+        <v>12214200</v>
       </c>
       <c r="H17" s="3">
-        <v>10512100</v>
+        <v>11012800</v>
       </c>
       <c r="I17" s="3">
-        <v>10510800</v>
+        <v>10736600</v>
       </c>
       <c r="J17" s="3">
+        <v>10735300</v>
+      </c>
+      <c r="K17" s="3">
         <v>9332100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9323700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10487400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9860200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9631000</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5407400</v>
+        <v>6285800</v>
       </c>
       <c r="E18" s="3">
-        <v>4646800</v>
+        <v>5522900</v>
       </c>
       <c r="F18" s="3">
-        <v>2623100</v>
+        <v>4746000</v>
       </c>
       <c r="G18" s="3">
-        <v>5182800</v>
+        <v>2679100</v>
       </c>
       <c r="H18" s="3">
-        <v>4579800</v>
+        <v>5293500</v>
       </c>
       <c r="I18" s="3">
-        <v>4440800</v>
+        <v>4677600</v>
       </c>
       <c r="J18" s="3">
+        <v>4535700</v>
+      </c>
+      <c r="K18" s="3">
         <v>3677700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3867100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4028800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4060600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4245500</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>625400</v>
+        <v>674200</v>
       </c>
       <c r="E20" s="3">
-        <v>528600</v>
+        <v>638700</v>
       </c>
       <c r="F20" s="3">
-        <v>563300</v>
+        <v>539900</v>
       </c>
       <c r="G20" s="3">
-        <v>665100</v>
+        <v>575400</v>
       </c>
       <c r="H20" s="3">
-        <v>550900</v>
+        <v>679300</v>
       </c>
       <c r="I20" s="3">
-        <v>534800</v>
+        <v>562700</v>
       </c>
       <c r="J20" s="3">
+        <v>546200</v>
+      </c>
+      <c r="K20" s="3">
         <v>438000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>355000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>451400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>322700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>366500</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7066600</v>
+        <v>8311000</v>
       </c>
       <c r="E21" s="3">
-        <v>5733500</v>
+        <v>7210900</v>
       </c>
       <c r="F21" s="3">
-        <v>5482500</v>
+        <v>5852400</v>
       </c>
       <c r="G21" s="3">
-        <v>6314900</v>
+        <v>5585000</v>
       </c>
       <c r="H21" s="3">
-        <v>5746300</v>
+        <v>6446800</v>
       </c>
       <c r="I21" s="3">
-        <v>5426400</v>
+        <v>5865100</v>
       </c>
       <c r="J21" s="3">
+        <v>5539400</v>
+      </c>
+      <c r="K21" s="3">
         <v>4706300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4761100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5370600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4870800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5148800</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>589400</v>
+        <v>958100</v>
       </c>
       <c r="E22" s="3">
-        <v>577000</v>
+        <v>602000</v>
       </c>
       <c r="F22" s="3">
-        <v>651400</v>
+        <v>589300</v>
       </c>
       <c r="G22" s="3">
-        <v>593100</v>
+        <v>665300</v>
       </c>
       <c r="H22" s="3">
-        <v>490100</v>
+        <v>605800</v>
       </c>
       <c r="I22" s="3">
-        <v>559600</v>
+        <v>500600</v>
       </c>
       <c r="J22" s="3">
+        <v>571600</v>
+      </c>
+      <c r="K22" s="3">
         <v>569500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>644100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>643900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>618300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>643000</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5443400</v>
+        <v>6001900</v>
       </c>
       <c r="E23" s="3">
-        <v>4598400</v>
+        <v>5559600</v>
       </c>
       <c r="F23" s="3">
-        <v>2535000</v>
+        <v>4696600</v>
       </c>
       <c r="G23" s="3">
-        <v>5254800</v>
+        <v>2589100</v>
       </c>
       <c r="H23" s="3">
-        <v>4640600</v>
+        <v>5367000</v>
       </c>
       <c r="I23" s="3">
-        <v>4416000</v>
+        <v>4739700</v>
       </c>
       <c r="J23" s="3">
+        <v>4510300</v>
+      </c>
+      <c r="K23" s="3">
         <v>3546200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3578000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3836400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3765000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3969000</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1301600</v>
+        <v>1229300</v>
       </c>
       <c r="E24" s="3">
-        <v>1125400</v>
+        <v>1329400</v>
       </c>
       <c r="F24" s="3">
-        <v>730800</v>
+        <v>1149400</v>
       </c>
       <c r="G24" s="3">
-        <v>1114200</v>
+        <v>746400</v>
       </c>
       <c r="H24" s="3">
-        <v>1178800</v>
+        <v>1138000</v>
       </c>
       <c r="I24" s="3">
-        <v>908300</v>
+        <v>1203900</v>
       </c>
       <c r="J24" s="3">
+        <v>927700</v>
+      </c>
+      <c r="K24" s="3">
         <v>615400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>568500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>632600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>624400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1318700</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4141800</v>
+        <v>4772700</v>
       </c>
       <c r="E26" s="3">
-        <v>3473000</v>
+        <v>4230200</v>
       </c>
       <c r="F26" s="3">
-        <v>1804100</v>
+        <v>3547200</v>
       </c>
       <c r="G26" s="3">
-        <v>4140500</v>
+        <v>1842700</v>
       </c>
       <c r="H26" s="3">
-        <v>3461800</v>
+        <v>4229000</v>
       </c>
       <c r="I26" s="3">
-        <v>3507700</v>
+        <v>3535800</v>
       </c>
       <c r="J26" s="3">
+        <v>3582700</v>
+      </c>
+      <c r="K26" s="3">
         <v>2930800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3009500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3203800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3140600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2650400</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4031400</v>
+        <v>4732100</v>
       </c>
       <c r="E27" s="3">
-        <v>3300500</v>
+        <v>4117500</v>
       </c>
       <c r="F27" s="3">
-        <v>1748300</v>
+        <v>3371000</v>
       </c>
       <c r="G27" s="3">
-        <v>3920900</v>
+        <v>1785600</v>
       </c>
       <c r="H27" s="3">
-        <v>3310500</v>
+        <v>4004700</v>
       </c>
       <c r="I27" s="3">
-        <v>3371300</v>
+        <v>3381200</v>
       </c>
       <c r="J27" s="3">
+        <v>3443300</v>
+      </c>
+      <c r="K27" s="3">
         <v>2784400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2904600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3298600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3019900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2493800</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1481,33 +1541,36 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>439200</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-68200</v>
+        <v>448600</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
+        <v>-69700</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-117500</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-14300</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-625400</v>
+        <v>-674200</v>
       </c>
       <c r="E32" s="3">
-        <v>-528600</v>
+        <v>-638700</v>
       </c>
       <c r="F32" s="3">
-        <v>-563300</v>
+        <v>-539900</v>
       </c>
       <c r="G32" s="3">
-        <v>-665100</v>
+        <v>-575400</v>
       </c>
       <c r="H32" s="3">
-        <v>-550900</v>
+        <v>-679300</v>
       </c>
       <c r="I32" s="3">
-        <v>-534800</v>
+        <v>-562700</v>
       </c>
       <c r="J32" s="3">
+        <v>-546200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-438000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-355000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-451400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-322700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-366500</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4031400</v>
+        <v>4732100</v>
       </c>
       <c r="E33" s="3">
-        <v>3300500</v>
+        <v>4117500</v>
       </c>
       <c r="F33" s="3">
-        <v>1748300</v>
+        <v>3371000</v>
       </c>
       <c r="G33" s="3">
-        <v>3920900</v>
+        <v>1785600</v>
       </c>
       <c r="H33" s="3">
-        <v>3749700</v>
+        <v>4004700</v>
       </c>
       <c r="I33" s="3">
-        <v>3303000</v>
+        <v>3829800</v>
       </c>
       <c r="J33" s="3">
+        <v>3373600</v>
+      </c>
+      <c r="K33" s="3">
         <v>2784400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2904600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3181200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3019900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2479500</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4031400</v>
+        <v>4732100</v>
       </c>
       <c r="E35" s="3">
-        <v>3300500</v>
+        <v>4117500</v>
       </c>
       <c r="F35" s="3">
-        <v>1748300</v>
+        <v>3371000</v>
       </c>
       <c r="G35" s="3">
-        <v>3920900</v>
+        <v>1785600</v>
       </c>
       <c r="H35" s="3">
-        <v>3749700</v>
+        <v>4004700</v>
       </c>
       <c r="I35" s="3">
-        <v>3303000</v>
+        <v>3829800</v>
       </c>
       <c r="J35" s="3">
+        <v>3373600</v>
+      </c>
+      <c r="K35" s="3">
         <v>2784400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2904600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3181200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3019900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2479500</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42185</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41820</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41455</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41090</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,359 +1903,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2835200</v>
+        <v>1823600</v>
       </c>
       <c r="E41" s="3">
-        <v>3411000</v>
+        <v>2895800</v>
       </c>
       <c r="F41" s="3">
-        <v>4123200</v>
+        <v>3483800</v>
       </c>
       <c r="G41" s="3">
-        <v>1156400</v>
+        <v>4211200</v>
       </c>
       <c r="H41" s="3">
-        <v>1084500</v>
+        <v>1181100</v>
       </c>
       <c r="I41" s="3">
-        <v>1477800</v>
+        <v>1107600</v>
       </c>
       <c r="J41" s="3">
+        <v>1509400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1351200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>575800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>880200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3114400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1403400</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>168700</v>
+        <v>250900</v>
       </c>
       <c r="E42" s="3">
-        <v>57100</v>
+        <v>172400</v>
       </c>
       <c r="F42" s="3">
-        <v>90600</v>
+        <v>58300</v>
       </c>
       <c r="G42" s="3">
-        <v>153900</v>
+        <v>92500</v>
       </c>
       <c r="H42" s="3">
-        <v>31000</v>
+        <v>157100</v>
       </c>
       <c r="I42" s="3">
-        <v>29800</v>
+        <v>31700</v>
       </c>
       <c r="J42" s="3">
+        <v>30400</v>
+      </c>
+      <c r="K42" s="3">
         <v>184900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>56100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>167000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>160500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>54800</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3464300</v>
+        <v>3450900</v>
       </c>
       <c r="E43" s="3">
-        <v>2953100</v>
+        <v>3538300</v>
       </c>
       <c r="F43" s="3">
-        <v>2660300</v>
+        <v>3016200</v>
       </c>
       <c r="G43" s="3">
-        <v>3195100</v>
+        <v>2717100</v>
       </c>
       <c r="H43" s="3">
-        <v>3208700</v>
+        <v>3263300</v>
       </c>
       <c r="I43" s="3">
-        <v>3018900</v>
+        <v>3277200</v>
       </c>
       <c r="J43" s="3">
+        <v>3083300</v>
+      </c>
+      <c r="K43" s="3">
         <v>3098300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2792400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3335400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2855200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2557800</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8802200</v>
+        <v>9708800</v>
       </c>
       <c r="E44" s="3">
-        <v>7500600</v>
+        <v>8990200</v>
       </c>
       <c r="F44" s="3">
-        <v>7161900</v>
+        <v>7660800</v>
       </c>
       <c r="G44" s="3">
-        <v>6789700</v>
+        <v>7314900</v>
       </c>
       <c r="H44" s="3">
-        <v>6222600</v>
+        <v>6934700</v>
       </c>
       <c r="I44" s="3">
-        <v>5941000</v>
+        <v>6355500</v>
       </c>
       <c r="J44" s="3">
+        <v>6067800</v>
+      </c>
+      <c r="K44" s="3">
         <v>5681600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5579800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5974600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5193100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5158500</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>778000</v>
+        <v>479000</v>
       </c>
       <c r="E45" s="3">
-        <v>279200</v>
+        <v>794600</v>
       </c>
       <c r="F45" s="3">
-        <v>197300</v>
+        <v>285100</v>
       </c>
       <c r="G45" s="3">
-        <v>335000</v>
+        <v>201500</v>
       </c>
       <c r="H45" s="3">
-        <v>237000</v>
+        <v>342200</v>
       </c>
       <c r="I45" s="3">
-        <v>268000</v>
+        <v>242100</v>
       </c>
       <c r="J45" s="3">
+        <v>273700</v>
+      </c>
+      <c r="K45" s="3">
         <v>667600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>352600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>212300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>216000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>285600</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16048500</v>
+        <v>15713300</v>
       </c>
       <c r="E46" s="3">
-        <v>14201000</v>
+        <v>16391300</v>
       </c>
       <c r="F46" s="3">
-        <v>14233200</v>
+        <v>14504200</v>
       </c>
       <c r="G46" s="3">
-        <v>11630000</v>
+        <v>14537200</v>
       </c>
       <c r="H46" s="3">
-        <v>10783800</v>
+        <v>11878400</v>
       </c>
       <c r="I46" s="3">
-        <v>10735400</v>
+        <v>11014100</v>
       </c>
       <c r="J46" s="3">
+        <v>10964700</v>
+      </c>
+      <c r="K46" s="3">
         <v>10983600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9356600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10569500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10504700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9460200</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4617000</v>
+        <v>4961500</v>
       </c>
       <c r="E47" s="3">
-        <v>4210000</v>
+        <v>4715600</v>
       </c>
       <c r="F47" s="3">
-        <v>4541300</v>
+        <v>4299900</v>
       </c>
       <c r="G47" s="3">
-        <v>4077300</v>
+        <v>4638300</v>
       </c>
       <c r="H47" s="3">
-        <v>3856400</v>
+        <v>4164300</v>
       </c>
       <c r="I47" s="3">
-        <v>3649200</v>
+        <v>3938800</v>
       </c>
       <c r="J47" s="3">
+        <v>3727100</v>
+      </c>
+      <c r="K47" s="3">
         <v>3264500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3068000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5124100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3753800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3807300</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7372800</v>
+        <v>7981500</v>
       </c>
       <c r="E48" s="3">
-        <v>6098500</v>
+        <v>7530300</v>
       </c>
       <c r="F48" s="3">
-        <v>6175500</v>
+        <v>6228800</v>
       </c>
       <c r="G48" s="3">
-        <v>5570000</v>
+        <v>6307400</v>
       </c>
       <c r="H48" s="3">
-        <v>5102200</v>
+        <v>5688900</v>
       </c>
       <c r="I48" s="3">
-        <v>5006600</v>
+        <v>5211100</v>
       </c>
       <c r="J48" s="3">
+        <v>5113600</v>
+      </c>
+      <c r="K48" s="3">
         <v>4828000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4580700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4933100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1483700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3920800</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14768000</v>
+        <v>14589200</v>
       </c>
       <c r="E49" s="3">
-        <v>13356000</v>
+        <v>15083400</v>
       </c>
       <c r="F49" s="3">
-        <v>14021000</v>
+        <v>13641200</v>
       </c>
       <c r="G49" s="3">
-        <v>15580700</v>
+        <v>14320500</v>
       </c>
       <c r="H49" s="3">
-        <v>15599300</v>
+        <v>15913500</v>
       </c>
       <c r="I49" s="3">
-        <v>15591900</v>
+        <v>15932500</v>
       </c>
       <c r="J49" s="3">
+        <v>15924900</v>
+      </c>
+      <c r="K49" s="3">
         <v>15348700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13700700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11166600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12218100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11505300</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2502700</v>
+        <v>1897100</v>
       </c>
       <c r="E52" s="3">
-        <v>1781800</v>
+        <v>2556100</v>
       </c>
       <c r="F52" s="3">
-        <v>2357500</v>
+        <v>1819800</v>
       </c>
       <c r="G52" s="3">
-        <v>1974100</v>
+        <v>2407900</v>
       </c>
       <c r="H52" s="3">
-        <v>1528700</v>
+        <v>2016300</v>
       </c>
       <c r="I52" s="3">
-        <v>811500</v>
+        <v>1561300</v>
       </c>
       <c r="J52" s="3">
+        <v>828800</v>
+      </c>
+      <c r="K52" s="3">
         <v>926900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>772200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>703300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1192400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>457800</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>45309100</v>
+        <v>45142500</v>
       </c>
       <c r="E54" s="3">
-        <v>39647300</v>
+        <v>46276700</v>
       </c>
       <c r="F54" s="3">
-        <v>41328600</v>
+        <v>40494000</v>
       </c>
       <c r="G54" s="3">
-        <v>38832100</v>
+        <v>42211200</v>
       </c>
       <c r="H54" s="3">
-        <v>36870400</v>
+        <v>39661400</v>
       </c>
       <c r="I54" s="3">
-        <v>35794600</v>
+        <v>37657800</v>
       </c>
       <c r="J54" s="3">
+        <v>36559100</v>
+      </c>
+      <c r="K54" s="3">
         <v>35351600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>31478300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>32496600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>30848900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>29151300</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3356400</v>
+        <v>3369800</v>
       </c>
       <c r="E57" s="3">
-        <v>2499000</v>
+        <v>3428000</v>
       </c>
       <c r="F57" s="3">
-        <v>1654000</v>
+        <v>2552300</v>
       </c>
       <c r="G57" s="3">
-        <v>2101900</v>
+        <v>1689300</v>
       </c>
       <c r="H57" s="3">
-        <v>1878600</v>
+        <v>2146800</v>
       </c>
       <c r="I57" s="3">
-        <v>1693700</v>
+        <v>1918700</v>
       </c>
       <c r="J57" s="3">
+        <v>1729900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1350000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1077200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1277800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1341800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1406000</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1994000</v>
+        <v>2250700</v>
       </c>
       <c r="E58" s="3">
-        <v>2412100</v>
+        <v>2036600</v>
       </c>
       <c r="F58" s="3">
-        <v>2606900</v>
+        <v>2463600</v>
       </c>
       <c r="G58" s="3">
-        <v>2484100</v>
+        <v>2662600</v>
       </c>
       <c r="H58" s="3">
-        <v>2306600</v>
+        <v>2537100</v>
       </c>
       <c r="I58" s="3">
-        <v>3083400</v>
+        <v>2355900</v>
       </c>
       <c r="J58" s="3">
+        <v>3149200</v>
+      </c>
+      <c r="K58" s="3">
         <v>2589500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2533700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2436800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2436700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1751700</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5124500</v>
+        <v>4028700</v>
       </c>
       <c r="E59" s="3">
-        <v>3950700</v>
+        <v>5233900</v>
       </c>
       <c r="F59" s="3">
-        <v>3799300</v>
+        <v>4035100</v>
       </c>
       <c r="G59" s="3">
-        <v>4103300</v>
+        <v>3880500</v>
       </c>
       <c r="H59" s="3">
-        <v>3706300</v>
+        <v>4191000</v>
       </c>
       <c r="I59" s="3">
-        <v>3486600</v>
+        <v>3785400</v>
       </c>
       <c r="J59" s="3">
+        <v>3561100</v>
+      </c>
+      <c r="K59" s="3">
         <v>3737300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2842400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3150000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3034200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3082100</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10474800</v>
+        <v>9649200</v>
       </c>
       <c r="E60" s="3">
-        <v>8861800</v>
+        <v>10698500</v>
       </c>
       <c r="F60" s="3">
-        <v>8060200</v>
+        <v>9051100</v>
       </c>
       <c r="G60" s="3">
-        <v>8689300</v>
+        <v>8232400</v>
       </c>
       <c r="H60" s="3">
-        <v>7891500</v>
+        <v>8874900</v>
       </c>
       <c r="I60" s="3">
-        <v>8263700</v>
+        <v>8060000</v>
       </c>
       <c r="J60" s="3">
+        <v>8440200</v>
+      </c>
+      <c r="K60" s="3">
         <v>7676800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6453300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6864700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6812700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6239800</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18473000</v>
+        <v>19230000</v>
       </c>
       <c r="E61" s="3">
-        <v>16311600</v>
+        <v>18867600</v>
       </c>
       <c r="F61" s="3">
-        <v>18803100</v>
+        <v>16659900</v>
       </c>
       <c r="G61" s="3">
-        <v>13253000</v>
+        <v>19204700</v>
       </c>
       <c r="H61" s="3">
-        <v>10172100</v>
+        <v>13536000</v>
       </c>
       <c r="I61" s="3">
-        <v>8363000</v>
+        <v>10389300</v>
       </c>
       <c r="J61" s="3">
+        <v>8541600</v>
+      </c>
+      <c r="K61" s="3">
         <v>10278800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10198400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10808600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10143100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9920600</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4556200</v>
+        <v>4487500</v>
       </c>
       <c r="E62" s="3">
-        <v>4012700</v>
+        <v>4653500</v>
       </c>
       <c r="F62" s="3">
-        <v>3992900</v>
+        <v>4098400</v>
       </c>
       <c r="G62" s="3">
-        <v>4288200</v>
+        <v>4078200</v>
       </c>
       <c r="H62" s="3">
-        <v>4273300</v>
+        <v>4379800</v>
       </c>
       <c r="I62" s="3">
-        <v>4243500</v>
+        <v>4364600</v>
       </c>
       <c r="J62" s="3">
+        <v>4334200</v>
+      </c>
+      <c r="K62" s="3">
         <v>5078600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3535300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4082600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4043900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4107300</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35633300</v>
+        <v>35229700</v>
       </c>
       <c r="E66" s="3">
-        <v>31089500</v>
+        <v>36394300</v>
       </c>
       <c r="F66" s="3">
-        <v>32925900</v>
+        <v>31753500</v>
       </c>
       <c r="G66" s="3">
-        <v>28457700</v>
+        <v>33629100</v>
       </c>
       <c r="H66" s="3">
-        <v>24526900</v>
+        <v>29065500</v>
       </c>
       <c r="I66" s="3">
-        <v>22998200</v>
+        <v>25050700</v>
       </c>
       <c r="J66" s="3">
+        <v>23489400</v>
+      </c>
+      <c r="K66" s="3">
         <v>24767600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>21998500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>22841300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>22163700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>21862800</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10680800</v>
+        <v>11333500</v>
       </c>
       <c r="E72" s="3">
-        <v>10252700</v>
+        <v>10908900</v>
       </c>
       <c r="F72" s="3">
-        <v>9360600</v>
+        <v>10471700</v>
       </c>
       <c r="G72" s="3">
-        <v>11293800</v>
+        <v>9560500</v>
       </c>
       <c r="H72" s="3">
-        <v>13640100</v>
+        <v>11535000</v>
       </c>
       <c r="I72" s="3">
-        <v>13396900</v>
+        <v>13931400</v>
       </c>
       <c r="J72" s="3">
+        <v>13683000</v>
+      </c>
+      <c r="K72" s="3">
         <v>11286300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10988900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11128400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8787700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3249000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9675800</v>
+        <v>9912800</v>
       </c>
       <c r="E76" s="3">
-        <v>8557800</v>
+        <v>9882400</v>
       </c>
       <c r="F76" s="3">
-        <v>8402700</v>
+        <v>8740600</v>
       </c>
       <c r="G76" s="3">
-        <v>10374300</v>
+        <v>8582200</v>
       </c>
       <c r="H76" s="3">
-        <v>12343500</v>
+        <v>10595900</v>
       </c>
       <c r="I76" s="3">
-        <v>12796400</v>
+        <v>12607100</v>
       </c>
       <c r="J76" s="3">
+        <v>13069700</v>
+      </c>
+      <c r="K76" s="3">
         <v>10584000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9479800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9655300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8685200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7288500</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42185</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41820</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41455</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41090</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4031400</v>
+        <v>4732100</v>
       </c>
       <c r="E81" s="3">
-        <v>3300500</v>
+        <v>4117500</v>
       </c>
       <c r="F81" s="3">
-        <v>1748300</v>
+        <v>3371000</v>
       </c>
       <c r="G81" s="3">
-        <v>3920900</v>
+        <v>1785600</v>
       </c>
       <c r="H81" s="3">
-        <v>3749700</v>
+        <v>4004700</v>
       </c>
       <c r="I81" s="3">
-        <v>3303000</v>
+        <v>3829800</v>
       </c>
       <c r="J81" s="3">
+        <v>3373600</v>
+      </c>
+      <c r="K81" s="3">
         <v>2784400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2904600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3181200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3019900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2479500</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1027400</v>
+        <v>1350900</v>
       </c>
       <c r="E83" s="3">
-        <v>554600</v>
+        <v>1049300</v>
       </c>
       <c r="F83" s="3">
-        <v>2281800</v>
+        <v>566500</v>
       </c>
       <c r="G83" s="3">
-        <v>464100</v>
+        <v>2330600</v>
       </c>
       <c r="H83" s="3">
-        <v>611700</v>
+        <v>474000</v>
       </c>
       <c r="I83" s="3">
-        <v>447900</v>
+        <v>624800</v>
       </c>
       <c r="J83" s="3">
+        <v>457500</v>
+      </c>
+      <c r="K83" s="3">
         <v>586900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>536800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>890100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>490200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>530900</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4882500</v>
+        <v>3832300</v>
       </c>
       <c r="E89" s="3">
-        <v>4533900</v>
+        <v>4986800</v>
       </c>
       <c r="F89" s="3">
-        <v>2878700</v>
+        <v>4630700</v>
       </c>
       <c r="G89" s="3">
-        <v>4030100</v>
+        <v>2940100</v>
       </c>
       <c r="H89" s="3">
-        <v>3826600</v>
+        <v>4116200</v>
       </c>
       <c r="I89" s="3">
-        <v>3886200</v>
+        <v>3908400</v>
       </c>
       <c r="J89" s="3">
+        <v>3969200</v>
+      </c>
+      <c r="K89" s="3">
         <v>3161600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3112000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2533000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2503800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2733800</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1361200</v>
+        <v>-1495400</v>
       </c>
       <c r="E91" s="3">
-        <v>-776700</v>
+        <v>-1390200</v>
       </c>
       <c r="F91" s="3">
-        <v>-868600</v>
+        <v>-793300</v>
       </c>
       <c r="G91" s="3">
-        <v>-832600</v>
+        <v>-887100</v>
       </c>
       <c r="H91" s="3">
-        <v>-724600</v>
+        <v>-850400</v>
       </c>
       <c r="I91" s="3">
-        <v>-642700</v>
+        <v>-740100</v>
       </c>
       <c r="J91" s="3">
+        <v>-656500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-627800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-778300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-908500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-783300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-622200</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1663900</v>
+        <v>-1517000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1353700</v>
+        <v>-1699400</v>
       </c>
       <c r="F94" s="3">
-        <v>-998800</v>
+        <v>-1382600</v>
       </c>
       <c r="G94" s="3">
-        <v>-335000</v>
+        <v>-1020200</v>
       </c>
       <c r="H94" s="3">
-        <v>-1428200</v>
+        <v>-342200</v>
       </c>
       <c r="I94" s="3">
-        <v>-684900</v>
+        <v>-1458700</v>
       </c>
       <c r="J94" s="3">
+        <v>-699500</v>
+      </c>
+      <c r="K94" s="3">
         <v>739500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1090600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1541100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1528400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2358200</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2131700</v>
+        <v>-2231700</v>
       </c>
       <c r="E96" s="3">
-        <v>-2042400</v>
+        <v>-2177200</v>
       </c>
       <c r="F96" s="3">
-        <v>-2042400</v>
+        <v>-2086000</v>
       </c>
       <c r="G96" s="3">
-        <v>-2013800</v>
+        <v>-2086000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1961700</v>
+        <v>-2056800</v>
       </c>
       <c r="I96" s="3">
-        <v>-1879800</v>
+        <v>-2003600</v>
       </c>
       <c r="J96" s="3">
+        <v>-1920000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1790500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1635900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1737800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1385600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1351300</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4043800</v>
+        <v>-3051700</v>
       </c>
       <c r="E100" s="3">
-        <v>-3466800</v>
+        <v>-4130100</v>
       </c>
       <c r="F100" s="3">
-        <v>1286700</v>
+        <v>-3540800</v>
       </c>
       <c r="G100" s="3">
-        <v>-3628100</v>
+        <v>1314200</v>
       </c>
       <c r="H100" s="3">
-        <v>-2628000</v>
+        <v>-3705600</v>
       </c>
       <c r="I100" s="3">
-        <v>-3049900</v>
+        <v>-2684100</v>
       </c>
       <c r="J100" s="3">
+        <v>-3115000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3475500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2115300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2295300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-243900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1027800</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>296600</v>
+        <v>-287700</v>
       </c>
       <c r="E101" s="3">
-        <v>-353600</v>
+        <v>302900</v>
       </c>
       <c r="F101" s="3">
-        <v>-148900</v>
+        <v>-361200</v>
       </c>
       <c r="G101" s="3">
-        <v>-32300</v>
+        <v>-152100</v>
       </c>
       <c r="H101" s="3">
-        <v>-48400</v>
+        <v>-32900</v>
       </c>
       <c r="I101" s="3">
-        <v>-17400</v>
+        <v>-49400</v>
       </c>
       <c r="J101" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="K101" s="3">
         <v>104200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-89100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-271700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>44300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-35200</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-528600</v>
+        <v>-1024000</v>
       </c>
       <c r="E102" s="3">
-        <v>-640300</v>
+        <v>-539900</v>
       </c>
       <c r="F102" s="3">
-        <v>3017600</v>
+        <v>-653900</v>
       </c>
       <c r="G102" s="3">
-        <v>34700</v>
+        <v>3082100</v>
       </c>
       <c r="H102" s="3">
-        <v>-277900</v>
+        <v>35500</v>
       </c>
       <c r="I102" s="3">
-        <v>134000</v>
+        <v>-283900</v>
       </c>
       <c r="J102" s="3">
+        <v>136900</v>
+      </c>
+      <c r="K102" s="3">
         <v>529800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-183000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1575000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>775900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-687400</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DEO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DEO_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>21687300</v>
+        <v>21230400</v>
       </c>
       <c r="E8" s="3">
-        <v>19582300</v>
+        <v>19169800</v>
       </c>
       <c r="F8" s="3">
-        <v>16136500</v>
+        <v>15796600</v>
       </c>
       <c r="G8" s="3">
-        <v>14893300</v>
+        <v>14579500</v>
       </c>
       <c r="H8" s="3">
-        <v>16306300</v>
+        <v>15962800</v>
       </c>
       <c r="I8" s="3">
-        <v>15414200</v>
+        <v>15089400</v>
       </c>
       <c r="J8" s="3">
-        <v>15271000</v>
+        <v>14949200</v>
       </c>
       <c r="K8" s="3">
         <v>13009800</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8743100</v>
+        <v>8558900</v>
       </c>
       <c r="E9" s="3">
-        <v>7569600</v>
+        <v>7410100</v>
       </c>
       <c r="F9" s="3">
-        <v>6384700</v>
+        <v>6250100</v>
       </c>
       <c r="G9" s="3">
-        <v>5898000</v>
+        <v>5773800</v>
       </c>
       <c r="H9" s="3">
-        <v>6166700</v>
+        <v>6036800</v>
       </c>
       <c r="I9" s="3">
-        <v>5872700</v>
+        <v>5748900</v>
       </c>
       <c r="J9" s="3">
-        <v>5931000</v>
+        <v>5806000</v>
       </c>
       <c r="K9" s="3">
         <v>5274600</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12944200</v>
+        <v>12671500</v>
       </c>
       <c r="E10" s="3">
-        <v>12012700</v>
+        <v>11759600</v>
       </c>
       <c r="F10" s="3">
-        <v>9751900</v>
+        <v>9546400</v>
       </c>
       <c r="G10" s="3">
-        <v>8995300</v>
+        <v>8805800</v>
       </c>
       <c r="H10" s="3">
-        <v>10139700</v>
+        <v>9926000</v>
       </c>
       <c r="I10" s="3">
-        <v>9541500</v>
+        <v>9340500</v>
       </c>
       <c r="J10" s="3">
-        <v>9340000</v>
+        <v>9143200</v>
       </c>
       <c r="K10" s="3">
         <v>7735100</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>372600</v>
+        <v>364700</v>
       </c>
       <c r="E14" s="3">
-        <v>556300</v>
+        <v>544600</v>
       </c>
       <c r="F14" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="G14" s="3">
-        <v>1854100</v>
+        <v>1815000</v>
       </c>
       <c r="H14" s="3">
-        <v>-88700</v>
+        <v>-86800</v>
       </c>
       <c r="I14" s="3">
-        <v>162200</v>
+        <v>158800</v>
       </c>
       <c r="J14" s="3">
-        <v>27900</v>
+        <v>27300</v>
       </c>
       <c r="K14" s="3">
         <v>54600</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15401500</v>
+        <v>15077000</v>
       </c>
       <c r="E17" s="3">
-        <v>14059400</v>
+        <v>13763200</v>
       </c>
       <c r="F17" s="3">
-        <v>11390500</v>
+        <v>11150500</v>
       </c>
       <c r="G17" s="3">
-        <v>12214200</v>
+        <v>11956900</v>
       </c>
       <c r="H17" s="3">
-        <v>11012800</v>
+        <v>10780800</v>
       </c>
       <c r="I17" s="3">
-        <v>10736600</v>
+        <v>10510400</v>
       </c>
       <c r="J17" s="3">
-        <v>10735300</v>
+        <v>10509100</v>
       </c>
       <c r="K17" s="3">
         <v>9332100</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6285800</v>
+        <v>6153400</v>
       </c>
       <c r="E18" s="3">
-        <v>5522900</v>
+        <v>5406500</v>
       </c>
       <c r="F18" s="3">
-        <v>4746000</v>
+        <v>4646000</v>
       </c>
       <c r="G18" s="3">
-        <v>2679100</v>
+        <v>2622600</v>
       </c>
       <c r="H18" s="3">
-        <v>5293500</v>
+        <v>5182000</v>
       </c>
       <c r="I18" s="3">
-        <v>4677600</v>
+        <v>4579100</v>
       </c>
       <c r="J18" s="3">
-        <v>4535700</v>
+        <v>4440100</v>
       </c>
       <c r="K18" s="3">
         <v>3677700</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>674200</v>
+        <v>660000</v>
       </c>
       <c r="E20" s="3">
-        <v>638700</v>
+        <v>625300</v>
       </c>
       <c r="F20" s="3">
-        <v>539900</v>
+        <v>528500</v>
       </c>
       <c r="G20" s="3">
-        <v>575400</v>
+        <v>563200</v>
       </c>
       <c r="H20" s="3">
-        <v>679300</v>
+        <v>665000</v>
       </c>
       <c r="I20" s="3">
-        <v>562700</v>
+        <v>550800</v>
       </c>
       <c r="J20" s="3">
-        <v>546200</v>
+        <v>534700</v>
       </c>
       <c r="K20" s="3">
         <v>438000</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8311000</v>
+        <v>8137100</v>
       </c>
       <c r="E21" s="3">
-        <v>7210900</v>
+        <v>7060000</v>
       </c>
       <c r="F21" s="3">
-        <v>5852400</v>
+        <v>5729600</v>
       </c>
       <c r="G21" s="3">
-        <v>5585000</v>
+        <v>5469500</v>
       </c>
       <c r="H21" s="3">
-        <v>6446800</v>
+        <v>6311400</v>
       </c>
       <c r="I21" s="3">
-        <v>5865100</v>
+        <v>5742100</v>
       </c>
       <c r="J21" s="3">
-        <v>5539400</v>
+        <v>5423100</v>
       </c>
       <c r="K21" s="3">
         <v>4706300</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>958100</v>
+        <v>937900</v>
       </c>
       <c r="E22" s="3">
-        <v>602000</v>
+        <v>589300</v>
       </c>
       <c r="F22" s="3">
-        <v>589300</v>
+        <v>576900</v>
       </c>
       <c r="G22" s="3">
-        <v>665300</v>
+        <v>651300</v>
       </c>
       <c r="H22" s="3">
-        <v>605800</v>
+        <v>593000</v>
       </c>
       <c r="I22" s="3">
-        <v>500600</v>
+        <v>490000</v>
       </c>
       <c r="J22" s="3">
-        <v>571600</v>
+        <v>559500</v>
       </c>
       <c r="K22" s="3">
         <v>569500</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6001900</v>
+        <v>5875500</v>
       </c>
       <c r="E23" s="3">
-        <v>5559600</v>
+        <v>5442500</v>
       </c>
       <c r="F23" s="3">
-        <v>4696600</v>
+        <v>4597700</v>
       </c>
       <c r="G23" s="3">
-        <v>2589100</v>
+        <v>2534500</v>
       </c>
       <c r="H23" s="3">
-        <v>5367000</v>
+        <v>5253900</v>
       </c>
       <c r="I23" s="3">
-        <v>4739700</v>
+        <v>4639800</v>
       </c>
       <c r="J23" s="3">
-        <v>4510300</v>
+        <v>4415300</v>
       </c>
       <c r="K23" s="3">
         <v>3546200</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1229300</v>
+        <v>1203400</v>
       </c>
       <c r="E24" s="3">
-        <v>1329400</v>
+        <v>1301400</v>
       </c>
       <c r="F24" s="3">
-        <v>1149400</v>
+        <v>1125200</v>
       </c>
       <c r="G24" s="3">
-        <v>746400</v>
+        <v>730700</v>
       </c>
       <c r="H24" s="3">
-        <v>1138000</v>
+        <v>1114100</v>
       </c>
       <c r="I24" s="3">
-        <v>1203900</v>
+        <v>1178600</v>
       </c>
       <c r="J24" s="3">
-        <v>927700</v>
+        <v>908100</v>
       </c>
       <c r="K24" s="3">
         <v>615400</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4772700</v>
+        <v>4672100</v>
       </c>
       <c r="E26" s="3">
-        <v>4230200</v>
+        <v>4141100</v>
       </c>
       <c r="F26" s="3">
-        <v>3547200</v>
+        <v>3472400</v>
       </c>
       <c r="G26" s="3">
-        <v>1842700</v>
+        <v>1803800</v>
       </c>
       <c r="H26" s="3">
-        <v>4229000</v>
+        <v>4139900</v>
       </c>
       <c r="I26" s="3">
-        <v>3535800</v>
+        <v>3461300</v>
       </c>
       <c r="J26" s="3">
-        <v>3582700</v>
+        <v>3507200</v>
       </c>
       <c r="K26" s="3">
         <v>2930800</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4732100</v>
+        <v>4632400</v>
       </c>
       <c r="E27" s="3">
-        <v>4117500</v>
+        <v>4030700</v>
       </c>
       <c r="F27" s="3">
-        <v>3371000</v>
+        <v>3300000</v>
       </c>
       <c r="G27" s="3">
-        <v>1785600</v>
+        <v>1748000</v>
       </c>
       <c r="H27" s="3">
-        <v>4004700</v>
+        <v>3920300</v>
       </c>
       <c r="I27" s="3">
-        <v>3381200</v>
+        <v>3309900</v>
       </c>
       <c r="J27" s="3">
-        <v>3443300</v>
+        <v>3370700</v>
       </c>
       <c r="K27" s="3">
         <v>2784400</v>
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>448600</v>
+        <v>439200</v>
       </c>
       <c r="J29" s="3">
-        <v>-69700</v>
+        <v>-68200</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-674200</v>
+        <v>-660000</v>
       </c>
       <c r="E32" s="3">
-        <v>-638700</v>
+        <v>-625300</v>
       </c>
       <c r="F32" s="3">
-        <v>-539900</v>
+        <v>-528500</v>
       </c>
       <c r="G32" s="3">
-        <v>-575400</v>
+        <v>-563200</v>
       </c>
       <c r="H32" s="3">
-        <v>-679300</v>
+        <v>-665000</v>
       </c>
       <c r="I32" s="3">
-        <v>-562700</v>
+        <v>-550800</v>
       </c>
       <c r="J32" s="3">
-        <v>-546200</v>
+        <v>-534700</v>
       </c>
       <c r="K32" s="3">
         <v>-438000</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4732100</v>
+        <v>4632400</v>
       </c>
       <c r="E33" s="3">
-        <v>4117500</v>
+        <v>4030700</v>
       </c>
       <c r="F33" s="3">
-        <v>3371000</v>
+        <v>3300000</v>
       </c>
       <c r="G33" s="3">
-        <v>1785600</v>
+        <v>1748000</v>
       </c>
       <c r="H33" s="3">
-        <v>4004700</v>
+        <v>3920300</v>
       </c>
       <c r="I33" s="3">
-        <v>3829800</v>
+        <v>3749100</v>
       </c>
       <c r="J33" s="3">
-        <v>3373600</v>
+        <v>3302500</v>
       </c>
       <c r="K33" s="3">
         <v>2784400</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4732100</v>
+        <v>4632400</v>
       </c>
       <c r="E35" s="3">
-        <v>4117500</v>
+        <v>4030700</v>
       </c>
       <c r="F35" s="3">
-        <v>3371000</v>
+        <v>3300000</v>
       </c>
       <c r="G35" s="3">
-        <v>1785600</v>
+        <v>1748000</v>
       </c>
       <c r="H35" s="3">
-        <v>4004700</v>
+        <v>3920300</v>
       </c>
       <c r="I35" s="3">
-        <v>3829800</v>
+        <v>3749100</v>
       </c>
       <c r="J35" s="3">
-        <v>3373600</v>
+        <v>3302500</v>
       </c>
       <c r="K35" s="3">
         <v>2784400</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1823600</v>
+        <v>1785200</v>
       </c>
       <c r="E41" s="3">
-        <v>2895800</v>
+        <v>2834800</v>
       </c>
       <c r="F41" s="3">
-        <v>3483800</v>
+        <v>3410400</v>
       </c>
       <c r="G41" s="3">
-        <v>4211200</v>
+        <v>4122500</v>
       </c>
       <c r="H41" s="3">
-        <v>1181100</v>
+        <v>1156200</v>
       </c>
       <c r="I41" s="3">
-        <v>1107600</v>
+        <v>1084300</v>
       </c>
       <c r="J41" s="3">
-        <v>1509400</v>
+        <v>1477600</v>
       </c>
       <c r="K41" s="3">
         <v>1351200</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>250900</v>
+        <v>245600</v>
       </c>
       <c r="E42" s="3">
-        <v>172400</v>
+        <v>168700</v>
       </c>
       <c r="F42" s="3">
-        <v>58300</v>
+        <v>57100</v>
       </c>
       <c r="G42" s="3">
-        <v>92500</v>
+        <v>90600</v>
       </c>
       <c r="H42" s="3">
-        <v>157100</v>
+        <v>153800</v>
       </c>
       <c r="I42" s="3">
-        <v>31700</v>
+        <v>31000</v>
       </c>
       <c r="J42" s="3">
-        <v>30400</v>
+        <v>29800</v>
       </c>
       <c r="K42" s="3">
         <v>184900</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3450900</v>
+        <v>3378200</v>
       </c>
       <c r="E43" s="3">
-        <v>3538300</v>
+        <v>3463800</v>
       </c>
       <c r="F43" s="3">
-        <v>3016200</v>
+        <v>2952600</v>
       </c>
       <c r="G43" s="3">
-        <v>2717100</v>
+        <v>2659800</v>
       </c>
       <c r="H43" s="3">
-        <v>3263300</v>
+        <v>3194500</v>
       </c>
       <c r="I43" s="3">
-        <v>3277200</v>
+        <v>3208200</v>
       </c>
       <c r="J43" s="3">
-        <v>3083300</v>
+        <v>3018400</v>
       </c>
       <c r="K43" s="3">
         <v>3098300</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9708800</v>
+        <v>9504200</v>
       </c>
       <c r="E44" s="3">
-        <v>8990200</v>
+        <v>8800800</v>
       </c>
       <c r="F44" s="3">
-        <v>7660800</v>
+        <v>7499400</v>
       </c>
       <c r="G44" s="3">
-        <v>7314900</v>
+        <v>7160700</v>
       </c>
       <c r="H44" s="3">
-        <v>6934700</v>
+        <v>6788600</v>
       </c>
       <c r="I44" s="3">
-        <v>6355500</v>
+        <v>6221600</v>
       </c>
       <c r="J44" s="3">
-        <v>6067800</v>
+        <v>5940000</v>
       </c>
       <c r="K44" s="3">
         <v>5681600</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>479000</v>
+        <v>468900</v>
       </c>
       <c r="E45" s="3">
-        <v>794600</v>
+        <v>777900</v>
       </c>
       <c r="F45" s="3">
-        <v>285100</v>
+        <v>279100</v>
       </c>
       <c r="G45" s="3">
-        <v>201500</v>
+        <v>197300</v>
       </c>
       <c r="H45" s="3">
-        <v>342200</v>
+        <v>335000</v>
       </c>
       <c r="I45" s="3">
-        <v>242100</v>
+        <v>237000</v>
       </c>
       <c r="J45" s="3">
-        <v>273700</v>
+        <v>268000</v>
       </c>
       <c r="K45" s="3">
         <v>667600</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15713300</v>
+        <v>15382200</v>
       </c>
       <c r="E46" s="3">
-        <v>16391300</v>
+        <v>16045900</v>
       </c>
       <c r="F46" s="3">
-        <v>14504200</v>
+        <v>14198700</v>
       </c>
       <c r="G46" s="3">
-        <v>14537200</v>
+        <v>14230900</v>
       </c>
       <c r="H46" s="3">
-        <v>11878400</v>
+        <v>11628100</v>
       </c>
       <c r="I46" s="3">
-        <v>11014100</v>
+        <v>10782100</v>
       </c>
       <c r="J46" s="3">
-        <v>10964700</v>
+        <v>10733700</v>
       </c>
       <c r="K46" s="3">
         <v>10983600</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4961500</v>
+        <v>4856900</v>
       </c>
       <c r="E47" s="3">
-        <v>4715600</v>
+        <v>4616300</v>
       </c>
       <c r="F47" s="3">
-        <v>4299900</v>
+        <v>4209400</v>
       </c>
       <c r="G47" s="3">
-        <v>4638300</v>
+        <v>4540600</v>
       </c>
       <c r="H47" s="3">
-        <v>4164300</v>
+        <v>4076600</v>
       </c>
       <c r="I47" s="3">
-        <v>3938800</v>
+        <v>3855800</v>
       </c>
       <c r="J47" s="3">
-        <v>3727100</v>
+        <v>3648600</v>
       </c>
       <c r="K47" s="3">
         <v>3264500</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7981500</v>
+        <v>7813300</v>
       </c>
       <c r="E48" s="3">
-        <v>7530300</v>
+        <v>7371600</v>
       </c>
       <c r="F48" s="3">
-        <v>6228800</v>
+        <v>6097500</v>
       </c>
       <c r="G48" s="3">
-        <v>6307400</v>
+        <v>6174500</v>
       </c>
       <c r="H48" s="3">
-        <v>5688900</v>
+        <v>5569100</v>
       </c>
       <c r="I48" s="3">
-        <v>5211100</v>
+        <v>5101300</v>
       </c>
       <c r="J48" s="3">
-        <v>5113600</v>
+        <v>5005800</v>
       </c>
       <c r="K48" s="3">
         <v>4828000</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14589200</v>
+        <v>14281800</v>
       </c>
       <c r="E49" s="3">
-        <v>15083400</v>
+        <v>14765600</v>
       </c>
       <c r="F49" s="3">
-        <v>13641200</v>
+        <v>13353800</v>
       </c>
       <c r="G49" s="3">
-        <v>14320500</v>
+        <v>14018800</v>
       </c>
       <c r="H49" s="3">
-        <v>15913500</v>
+        <v>15578200</v>
       </c>
       <c r="I49" s="3">
-        <v>15932500</v>
+        <v>15596800</v>
       </c>
       <c r="J49" s="3">
-        <v>15924900</v>
+        <v>15589400</v>
       </c>
       <c r="K49" s="3">
         <v>15348700</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1897100</v>
+        <v>1857200</v>
       </c>
       <c r="E52" s="3">
-        <v>2556100</v>
+        <v>2502300</v>
       </c>
       <c r="F52" s="3">
-        <v>1819800</v>
+        <v>1781500</v>
       </c>
       <c r="G52" s="3">
-        <v>2407900</v>
+        <v>2357100</v>
       </c>
       <c r="H52" s="3">
-        <v>2016300</v>
+        <v>1973800</v>
       </c>
       <c r="I52" s="3">
-        <v>1561300</v>
+        <v>1528400</v>
       </c>
       <c r="J52" s="3">
-        <v>828800</v>
+        <v>811400</v>
       </c>
       <c r="K52" s="3">
         <v>926900</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>45142500</v>
+        <v>44191400</v>
       </c>
       <c r="E54" s="3">
-        <v>46276700</v>
+        <v>45301700</v>
       </c>
       <c r="F54" s="3">
-        <v>40494000</v>
+        <v>39640900</v>
       </c>
       <c r="G54" s="3">
-        <v>42211200</v>
+        <v>41321900</v>
       </c>
       <c r="H54" s="3">
-        <v>39661400</v>
+        <v>38825800</v>
       </c>
       <c r="I54" s="3">
-        <v>37657800</v>
+        <v>36864400</v>
       </c>
       <c r="J54" s="3">
-        <v>36559100</v>
+        <v>35788800</v>
       </c>
       <c r="K54" s="3">
         <v>35351600</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3369800</v>
+        <v>3298800</v>
       </c>
       <c r="E57" s="3">
-        <v>3428000</v>
+        <v>3355800</v>
       </c>
       <c r="F57" s="3">
-        <v>2552300</v>
+        <v>2498600</v>
       </c>
       <c r="G57" s="3">
-        <v>1689300</v>
+        <v>1653700</v>
       </c>
       <c r="H57" s="3">
-        <v>2146800</v>
+        <v>2101600</v>
       </c>
       <c r="I57" s="3">
-        <v>1918700</v>
+        <v>1878300</v>
       </c>
       <c r="J57" s="3">
-        <v>1729900</v>
+        <v>1693400</v>
       </c>
       <c r="K57" s="3">
         <v>1350000</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2250700</v>
+        <v>2203300</v>
       </c>
       <c r="E58" s="3">
-        <v>2036600</v>
+        <v>1993600</v>
       </c>
       <c r="F58" s="3">
-        <v>2463600</v>
+        <v>2411700</v>
       </c>
       <c r="G58" s="3">
-        <v>2662600</v>
+        <v>2606500</v>
       </c>
       <c r="H58" s="3">
-        <v>2537100</v>
+        <v>2483700</v>
       </c>
       <c r="I58" s="3">
-        <v>2355900</v>
+        <v>2306300</v>
       </c>
       <c r="J58" s="3">
-        <v>3149200</v>
+        <v>3082900</v>
       </c>
       <c r="K58" s="3">
         <v>2589500</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4028700</v>
+        <v>3943900</v>
       </c>
       <c r="E59" s="3">
-        <v>5233900</v>
+        <v>5123700</v>
       </c>
       <c r="F59" s="3">
-        <v>4035100</v>
+        <v>3950100</v>
       </c>
       <c r="G59" s="3">
-        <v>3880500</v>
+        <v>3798700</v>
       </c>
       <c r="H59" s="3">
-        <v>4191000</v>
+        <v>4102700</v>
       </c>
       <c r="I59" s="3">
-        <v>3785400</v>
+        <v>3705700</v>
       </c>
       <c r="J59" s="3">
-        <v>3561100</v>
+        <v>3486100</v>
       </c>
       <c r="K59" s="3">
         <v>3737300</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9649200</v>
+        <v>9445900</v>
       </c>
       <c r="E60" s="3">
-        <v>10698500</v>
+        <v>10473100</v>
       </c>
       <c r="F60" s="3">
-        <v>9051100</v>
+        <v>8860400</v>
       </c>
       <c r="G60" s="3">
-        <v>8232400</v>
+        <v>8058900</v>
       </c>
       <c r="H60" s="3">
-        <v>8874900</v>
+        <v>8687900</v>
       </c>
       <c r="I60" s="3">
-        <v>8060000</v>
+        <v>7890200</v>
       </c>
       <c r="J60" s="3">
-        <v>8440200</v>
+        <v>8262400</v>
       </c>
       <c r="K60" s="3">
         <v>7676800</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19230000</v>
+        <v>18824900</v>
       </c>
       <c r="E61" s="3">
-        <v>18867600</v>
+        <v>18470100</v>
       </c>
       <c r="F61" s="3">
-        <v>16659900</v>
+        <v>16308900</v>
       </c>
       <c r="G61" s="3">
-        <v>19204700</v>
+        <v>18800100</v>
       </c>
       <c r="H61" s="3">
-        <v>13536000</v>
+        <v>13250800</v>
       </c>
       <c r="I61" s="3">
-        <v>10389300</v>
+        <v>10170400</v>
       </c>
       <c r="J61" s="3">
-        <v>8541600</v>
+        <v>8361600</v>
       </c>
       <c r="K61" s="3">
         <v>10278800</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4487500</v>
+        <v>4393000</v>
       </c>
       <c r="E62" s="3">
-        <v>4653500</v>
+        <v>4555500</v>
       </c>
       <c r="F62" s="3">
-        <v>4098400</v>
+        <v>4012100</v>
       </c>
       <c r="G62" s="3">
-        <v>4078200</v>
+        <v>3992300</v>
       </c>
       <c r="H62" s="3">
-        <v>4379800</v>
+        <v>4287500</v>
       </c>
       <c r="I62" s="3">
-        <v>4364600</v>
+        <v>4272600</v>
       </c>
       <c r="J62" s="3">
-        <v>4334200</v>
+        <v>4242900</v>
       </c>
       <c r="K62" s="3">
         <v>5078600</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35229700</v>
+        <v>34487400</v>
       </c>
       <c r="E66" s="3">
-        <v>36394300</v>
+        <v>35627600</v>
       </c>
       <c r="F66" s="3">
-        <v>31753500</v>
+        <v>31084500</v>
       </c>
       <c r="G66" s="3">
-        <v>33629100</v>
+        <v>32920600</v>
       </c>
       <c r="H66" s="3">
-        <v>29065500</v>
+        <v>28453200</v>
       </c>
       <c r="I66" s="3">
-        <v>25050700</v>
+        <v>24522900</v>
       </c>
       <c r="J66" s="3">
-        <v>23489400</v>
+        <v>22994500</v>
       </c>
       <c r="K66" s="3">
         <v>24767600</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11333500</v>
+        <v>11094700</v>
       </c>
       <c r="E72" s="3">
-        <v>10908900</v>
+        <v>10679100</v>
       </c>
       <c r="F72" s="3">
-        <v>10471700</v>
+        <v>10251100</v>
       </c>
       <c r="G72" s="3">
-        <v>9560500</v>
+        <v>9359100</v>
       </c>
       <c r="H72" s="3">
-        <v>11535000</v>
+        <v>11291900</v>
       </c>
       <c r="I72" s="3">
-        <v>13931400</v>
+        <v>13637900</v>
       </c>
       <c r="J72" s="3">
-        <v>13683000</v>
+        <v>13394800</v>
       </c>
       <c r="K72" s="3">
         <v>11286300</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9912800</v>
+        <v>9704000</v>
       </c>
       <c r="E76" s="3">
-        <v>9882400</v>
+        <v>9674200</v>
       </c>
       <c r="F76" s="3">
-        <v>8740600</v>
+        <v>8556400</v>
       </c>
       <c r="G76" s="3">
-        <v>8582200</v>
+        <v>8401300</v>
       </c>
       <c r="H76" s="3">
-        <v>10595900</v>
+        <v>10372700</v>
       </c>
       <c r="I76" s="3">
-        <v>12607100</v>
+        <v>12341500</v>
       </c>
       <c r="J76" s="3">
-        <v>13069700</v>
+        <v>12794300</v>
       </c>
       <c r="K76" s="3">
         <v>10584000</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4732100</v>
+        <v>4632400</v>
       </c>
       <c r="E81" s="3">
-        <v>4117500</v>
+        <v>4030700</v>
       </c>
       <c r="F81" s="3">
-        <v>3371000</v>
+        <v>3300000</v>
       </c>
       <c r="G81" s="3">
-        <v>1785600</v>
+        <v>1748000</v>
       </c>
       <c r="H81" s="3">
-        <v>4004700</v>
+        <v>3920300</v>
       </c>
       <c r="I81" s="3">
-        <v>3829800</v>
+        <v>3749100</v>
       </c>
       <c r="J81" s="3">
-        <v>3373600</v>
+        <v>3302500</v>
       </c>
       <c r="K81" s="3">
         <v>2784400</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1350900</v>
+        <v>1322500</v>
       </c>
       <c r="E83" s="3">
-        <v>1049300</v>
+        <v>1027200</v>
       </c>
       <c r="F83" s="3">
-        <v>566500</v>
+        <v>554500</v>
       </c>
       <c r="G83" s="3">
-        <v>2330600</v>
+        <v>2281500</v>
       </c>
       <c r="H83" s="3">
-        <v>474000</v>
+        <v>464000</v>
       </c>
       <c r="I83" s="3">
-        <v>624800</v>
+        <v>611600</v>
       </c>
       <c r="J83" s="3">
-        <v>457500</v>
+        <v>447900</v>
       </c>
       <c r="K83" s="3">
         <v>586900</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3832300</v>
+        <v>3751600</v>
       </c>
       <c r="E89" s="3">
-        <v>4986800</v>
+        <v>4881800</v>
       </c>
       <c r="F89" s="3">
-        <v>4630700</v>
+        <v>4533200</v>
       </c>
       <c r="G89" s="3">
-        <v>2940100</v>
+        <v>2878200</v>
       </c>
       <c r="H89" s="3">
-        <v>4116200</v>
+        <v>4029500</v>
       </c>
       <c r="I89" s="3">
-        <v>3908400</v>
+        <v>3826000</v>
       </c>
       <c r="J89" s="3">
-        <v>3969200</v>
+        <v>3885600</v>
       </c>
       <c r="K89" s="3">
         <v>3161600</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1495400</v>
+        <v>-1463900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1390200</v>
+        <v>-1360900</v>
       </c>
       <c r="F91" s="3">
-        <v>-793300</v>
+        <v>-776600</v>
       </c>
       <c r="G91" s="3">
-        <v>-887100</v>
+        <v>-868400</v>
       </c>
       <c r="H91" s="3">
-        <v>-850400</v>
+        <v>-832400</v>
       </c>
       <c r="I91" s="3">
-        <v>-740100</v>
+        <v>-724500</v>
       </c>
       <c r="J91" s="3">
-        <v>-656500</v>
+        <v>-642600</v>
       </c>
       <c r="K91" s="3">
         <v>-627800</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1517000</v>
+        <v>-1485000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1699400</v>
+        <v>-1663600</v>
       </c>
       <c r="F94" s="3">
-        <v>-1382600</v>
+        <v>-1353500</v>
       </c>
       <c r="G94" s="3">
-        <v>-1020200</v>
+        <v>-998700</v>
       </c>
       <c r="H94" s="3">
-        <v>-342200</v>
+        <v>-335000</v>
       </c>
       <c r="I94" s="3">
-        <v>-1458700</v>
+        <v>-1427900</v>
       </c>
       <c r="J94" s="3">
-        <v>-699500</v>
+        <v>-684800</v>
       </c>
       <c r="K94" s="3">
         <v>739500</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2231700</v>
+        <v>-2184700</v>
       </c>
       <c r="E96" s="3">
-        <v>-2177200</v>
+        <v>-2131400</v>
       </c>
       <c r="F96" s="3">
-        <v>-2086000</v>
+        <v>-2042000</v>
       </c>
       <c r="G96" s="3">
-        <v>-2086000</v>
+        <v>-2042000</v>
       </c>
       <c r="H96" s="3">
-        <v>-2056800</v>
+        <v>-2013500</v>
       </c>
       <c r="I96" s="3">
-        <v>-2003600</v>
+        <v>-1961400</v>
       </c>
       <c r="J96" s="3">
-        <v>-1920000</v>
+        <v>-1879500</v>
       </c>
       <c r="K96" s="3">
         <v>-1790500</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3051700</v>
+        <v>-2987400</v>
       </c>
       <c r="E100" s="3">
-        <v>-4130100</v>
+        <v>-4043100</v>
       </c>
       <c r="F100" s="3">
-        <v>-3540800</v>
+        <v>-3466200</v>
       </c>
       <c r="G100" s="3">
-        <v>1314200</v>
+        <v>1286500</v>
       </c>
       <c r="H100" s="3">
-        <v>-3705600</v>
+        <v>-3627500</v>
       </c>
       <c r="I100" s="3">
-        <v>-2684100</v>
+        <v>-2627600</v>
       </c>
       <c r="J100" s="3">
-        <v>-3115000</v>
+        <v>-3049400</v>
       </c>
       <c r="K100" s="3">
         <v>-3475500</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-287700</v>
+        <v>-281600</v>
       </c>
       <c r="E101" s="3">
-        <v>302900</v>
+        <v>296500</v>
       </c>
       <c r="F101" s="3">
-        <v>-361200</v>
+        <v>-353600</v>
       </c>
       <c r="G101" s="3">
-        <v>-152100</v>
+        <v>-148900</v>
       </c>
       <c r="H101" s="3">
-        <v>-32900</v>
+        <v>-32300</v>
       </c>
       <c r="I101" s="3">
-        <v>-49400</v>
+        <v>-48400</v>
       </c>
       <c r="J101" s="3">
-        <v>-17700</v>
+        <v>-17400</v>
       </c>
       <c r="K101" s="3">
         <v>104200</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1024000</v>
+        <v>-1002400</v>
       </c>
       <c r="E102" s="3">
-        <v>-539900</v>
+        <v>-528500</v>
       </c>
       <c r="F102" s="3">
-        <v>-653900</v>
+        <v>-640100</v>
       </c>
       <c r="G102" s="3">
-        <v>3082100</v>
+        <v>3017100</v>
       </c>
       <c r="H102" s="3">
-        <v>35500</v>
+        <v>34700</v>
       </c>
       <c r="I102" s="3">
-        <v>-283900</v>
+        <v>-277900</v>
       </c>
       <c r="J102" s="3">
-        <v>136900</v>
+        <v>134000</v>
       </c>
       <c r="K102" s="3">
         <v>529800</v>
